--- a/update_data/data/bank_psbc/qa/业务问答.xlsx
+++ b/update_data/data/bank_psbc/qa/业务问答.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
+    <workbookView xWindow="15" yWindow="4755" windowWidth="28560" windowHeight="7185" firstSheet="1" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="手机银行" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="372">
   <si>
     <t>取号怎么网上预约？</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,10 +244,6 @@
     <t>信用卡交易日是指使用信用卡实际消费、存取款、转账的日期。</t>
   </si>
   <si>
-    <t>大堂经理在哪儿？/我怎么没见大堂经理/大堂经理哪儿去了/帮我找一下大堂经理/快看看大堂经理在哪儿/带我去找大堂经理/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>办信用卡需要什么条件？/申请信用卡需要什么条件？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,10 +289,6 @@
   </si>
   <si>
     <t>若您的银行卡被我行自助设备保留，请尽快致电客服热线处理您的问题。为确保账户资金安全，建议您尽快联系发卡行办理挂失。如有异常请及时拨打客服热线。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我帮您呼叫大堂经理。大堂经理，大堂经理，大堂经理，您的上帝在我这儿等您来服务。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -450,9 +442,6 @@
 </t>
   </si>
   <si>
-    <t>信用卡有什么用？/信用卡能做什么？/信用卡有什么好处/信用卡是做什么的/信用卡能干什么/我威慑么要办信用卡/</t>
-  </si>
-  <si>
     <t>直接刷卡消费，按时还款可积累个人信用记录。多种刷卡活动，省钱省心又省力。</t>
   </si>
   <si>
@@ -600,14 +589,6 @@
   </si>
   <si>
     <t>ATM主要为您提供取款、转账、缴费、查询、改密、证券基金、企业年金查询等服务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSM有哪些功能？/BSM是做什么的？/BSM/BSM有哪些功能？/BSM能做什么？/BSM能帮我做什么？/我能在BSM上办什么业务？/BST是做什么的？/BST/BST有哪些功能？/BST能做什么？/BST能帮我做什么？/我能在BST上办什么业务？/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRS有哪些功能？/CRS是做什么的？/CRS/CRS有哪些功能？/CRS能做什么？/CRS能帮我做什么？/我能在CRS上办什么业务？/CDM是做什么的？/CDM/CDM有哪些功能？/CDM能做什么？/CDM能帮我做什么？/我能在CDM上办什么业务？/还有什么设备能转账？/再介绍一种能转账的设备/ATM人太多，还有哪儿能转账？/ATM队太长了，还能到哪儿去转账？/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1432,10 +1413,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>补办挂失存折怎么办理/怎么办理补办挂失存折业务/存折怎么补办挂失/我要补办挂失存折</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>带我去柜台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1536,12 +1513,98 @@
     <t>金价是多少？/今天金价是多少？/金价如何？/金价怎么样？/金价？/现价的金价是多少/黄金价格如何？/黄金价格多少/黄金现在多少钱一克/黄金一克多少钱/黄金现在怎么卖的/黄金多少钱一克</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>信用卡有什么用？/信用卡能做什么？/信用卡有什么好处/信用卡是做什么的/信用卡能干什么/我威慑么要办信用卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/信用卡怎么用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>crs是什么/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CRS有哪些功能？/CRS是做什么的？/CRS/CRS有哪些功能？/CRS能做什么？/CRS能帮我做什么？/我能在CRS上办什么业务？/CDM是做什么的？/CDM/CDM有哪些功能？/CDM能做什么？/CDM能帮我做什么？/我能在CDM上办什么业务？/还有什么设备能转账？/再介绍一种能转账的设备/ATM人太多，还有哪儿能转账？/ATM队太长了，还能到哪儿去转账？/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bsm有哪些功能/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BSM有哪些功能？/BSM是做什么的？/BSM/BSM有哪些功能？/BSM能做什么？/BSM能帮我做什么？/我能在BSM上办什么业务？/BST是做什么的？/BST/BST有哪些功能？/BST能做什么？/BST能帮我做什么？/我能在BST上办什么业务？/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你帮我联系一下信贷经理吗？</t>
+  </si>
+  <si>
+    <t>我帮您呼叫大堂经理。大堂经理，大堂经理，大堂经理，您的上帝在我这儿等您来服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大堂经理在哪儿？/我怎么没见大堂经理/大堂经理哪儿去了/帮我找一下大堂经理/快看看大堂经理在哪儿/带我去找大堂经理/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我帮您呼叫信贷经理。信贷经理，信贷经理，您的上帝在我这儿等您来服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信贷经理在哪儿？/我怎么没见信贷经理/信贷经理哪儿去了/帮我找一下信贷经理/快看看信贷经理在哪儿/带我去找信贷经理/你帮我联系一下信贷经理吗？/你能帮我联系一下信贷经理吗？/房贷经理在哪儿？/我怎么没见房贷经理/房贷经理哪儿去了/帮我找一下房贷经理/快看看房贷经理在哪儿/带我去找房贷经理/你帮我联系一下房贷经理吗？/你能帮我联系一下房贷经理吗？/装修贷经理在哪儿？/我怎么没见装修贷经理/装修贷经理哪儿去了/帮我找一下装修贷经理/快看看装修贷经理在哪儿/带我去找装修贷经理/你帮我联系一下装修贷经理吗？/你能帮我联系一下装修贷经理吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1630,6 +1693,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1709,7 +1781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1825,6 +1897,14 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2133,9 +2213,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2149,27 +2229,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
@@ -2183,24 +2263,24 @@
     </row>
     <row r="3" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
@@ -2211,7 +2291,7 @@
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>22</v>
@@ -2225,7 +2305,7 @@
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>23</v>
@@ -2239,128 +2319,128 @@
     </row>
     <row r="7" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="36" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="36" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="36" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="36" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="36" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C15" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2388,52 +2468,52 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -2461,43 +2541,43 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -2513,128 +2593,128 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="36" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2662,27 +2742,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -2698,7 +2778,7 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
@@ -2714,7 +2794,7 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
@@ -2730,7 +2810,7 @@
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>14</v>
@@ -2746,7 +2826,7 @@
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>15</v>
@@ -2762,7 +2842,7 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>17</v>
@@ -2778,16 +2858,16 @@
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2815,148 +2895,148 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2987,52 +3067,52 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -3060,100 +3140,100 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -3184,36 +3264,36 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -3241,27 +3321,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>41</v>
@@ -3283,96 +3363,114 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="49.375" customWidth="1"/>
-    <col min="3" max="3" width="42.375" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="2" max="2" width="29.25" customWidth="1"/>
+    <col min="3" max="3" width="68.125" customWidth="1"/>
+    <col min="4" max="4" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>67</v>
+        <v>368</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>54</v>
+        <v>369</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>360</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="D4" s="38"/>
     </row>
     <row r="5" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>363</v>
-      </c>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="44" customFormat="1" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D7" s="44"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D8" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3385,7 +3483,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3397,257 +3495,257 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>159</v>
+        <v>366</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>160</v>
+        <v>365</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C12" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>45</v>
@@ -3657,74 +3755,74 @@
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>50</v>
@@ -3737,13 +3835,13 @@
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>44</v>
@@ -3775,308 +3873,308 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -4106,33 +4204,33 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>36</v>
@@ -4142,13 +4240,13 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>37</v>
@@ -4158,45 +4256,45 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>34</v>
@@ -4206,13 +4304,13 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>35</v>
@@ -4222,135 +4320,135 @@
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>38</v>
@@ -4366,7 +4464,7 @@
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>47</v>
@@ -4382,7 +4480,7 @@
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>27</v>
@@ -4398,7 +4496,7 @@
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>29</v>
@@ -4414,7 +4512,7 @@
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>30</v>
@@ -4430,7 +4528,7 @@
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>32</v>
@@ -4446,16 +4544,16 @@
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -4483,100 +4581,100 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -4593,7 +4691,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4601,38 +4699,38 @@
     <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="2" max="2" width="27.625" customWidth="1"/>
     <col min="3" max="3" width="57.125" customWidth="1"/>
-    <col min="4" max="4" width="47.875" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>40</v>
@@ -4641,17 +4739,17 @@
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>276</v>
+      <c r="A3" s="42" t="s">
+        <v>271</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -4667,7 +4765,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4679,33 +4777,33 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>52</v>
@@ -4715,10 +4813,10 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -4731,77 +4829,77 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
@@ -4811,13 +4909,13 @@
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
@@ -4827,365 +4925,365 @@
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>116</v>
+        <v>364</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
     </row>
     <row r="29" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
     </row>
     <row r="31" spans="1:6" s="35" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
     </row>
     <row r="32" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B32" s="31" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>9</v>
@@ -5216,68 +5314,68 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -5306,81 +5404,81 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1</v>
@@ -5390,13 +5488,13 @@
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>2</v>
@@ -5406,13 +5504,13 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>3</v>
@@ -5422,61 +5520,61 @@
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="36" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>

--- a/update_data/data/bank_psbc/qa/业务问答.xlsx
+++ b/update_data/data/bank_psbc/qa/业务问答.xlsx
@@ -1045,10 +1045,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普卡公务卡免收年费；金卡主卡125元/年，附属卡60元/年；联名卡主卡100元/年，附属卡50元/年。金卡首年免年费，刷满6次免收次年年费。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等价描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1398,10 +1394,6 @@
   </si>
   <si>
     <t>非常抱歉，没有身份证无法办理激活银行卡业务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没带身份证可以激活借记卡吗/没带身份证可以激活储蓄卡吗/没带身份证可以激活结算通吗/没带身份证可以激活银行储蓄卡吗/没带身份证可以激活存储卡吗/没带身份证可以激活存钱的卡吗/没带身份证可以激活我的工资卡吗/没带身份证可以激活我的借记卡吗/没带身份证可以激活我的新借记卡吗/没带身份证可以激活我工资卡吗/没带身份证可以激活打工资的卡吗/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1597,6 +1589,27 @@
   </si>
   <si>
     <t>信贷经理在哪儿？/我怎么没见信贷经理/信贷经理哪儿去了/帮我找一下信贷经理/快看看信贷经理在哪儿/带我去找信贷经理/你帮我联系一下信贷经理吗？/你能帮我联系一下信贷经理吗？/房贷经理在哪儿？/我怎么没见房贷经理/房贷经理哪儿去了/帮我找一下房贷经理/快看看房贷经理在哪儿/带我去找房贷经理/你帮我联系一下房贷经理吗？/你能帮我联系一下房贷经理吗？/装修贷经理在哪儿？/我怎么没见装修贷经理/装修贷经理哪儿去了/帮我找一下装修贷经理/快看看装修贷经理在哪儿/带我去找装修贷经理/你帮我联系一下装修贷经理吗？/你能帮我联系一下装修贷经理吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普卡公务卡免收年费；金卡主卡125元每年，附属卡60元每年；联名卡主卡100元每年，附属卡50元每年。金卡首年免年费，刷满6次免收次年年费。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>没带身份证可以激活借记卡吗/没带身份证可以激活储蓄卡吗/没带身份证可以激活结算通吗/没带身份证可以激活银行储蓄卡吗/没带身份证可以激活存储卡吗/没带身份证可以激活存钱的卡吗/没带身份证可以激活我的工资卡吗/没带身份证可以激活我的借记卡吗/没带身份证可以激活我的新借记卡吗/没带身份证可以激活我工资卡吗/没带身份证可以激活打工资的卡吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/没有身份证怎么激活银行卡/没有身份证怎么激活卡</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2229,7 +2242,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -2238,7 +2251,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>259</v>
@@ -2249,7 +2262,7 @@
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
@@ -2263,24 +2276,24 @@
     </row>
     <row r="3" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
@@ -2291,7 +2304,7 @@
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>22</v>
@@ -2305,7 +2318,7 @@
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>23</v>
@@ -2319,21 +2332,21 @@
     </row>
     <row r="7" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>228</v>
@@ -2347,10 +2360,10 @@
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>60</v>
@@ -2361,10 +2374,10 @@
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>129</v>
@@ -2375,7 +2388,7 @@
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>246</v>
@@ -2389,7 +2402,7 @@
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>248</v>
@@ -2403,7 +2416,7 @@
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>249</v>
@@ -2417,7 +2430,7 @@
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>250</v>
@@ -2431,7 +2444,7 @@
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>252</v>
@@ -2468,7 +2481,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -2477,7 +2490,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>259</v>
@@ -2488,7 +2501,7 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>148</v>
@@ -2504,7 +2517,7 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>150</v>
@@ -2541,7 +2554,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -2550,7 +2563,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>259</v>
@@ -2561,10 +2574,10 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>204</v>
@@ -2577,7 +2590,7 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -2593,7 +2606,7 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>151</v>
@@ -2609,10 +2622,10 @@
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>105</v>
@@ -2625,10 +2638,10 @@
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>111</v>
@@ -2641,10 +2654,10 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>113</v>
@@ -2657,10 +2670,10 @@
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>233</v>
@@ -2673,7 +2686,7 @@
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>214</v>
@@ -2682,14 +2695,14 @@
         <v>261</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>215</v>
@@ -2705,7 +2718,7 @@
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>216</v>
@@ -2742,7 +2755,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -2751,7 +2764,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>259</v>
@@ -2762,7 +2775,7 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -2778,7 +2791,7 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
@@ -2794,7 +2807,7 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
@@ -2810,7 +2823,7 @@
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>14</v>
@@ -2826,7 +2839,7 @@
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>15</v>
@@ -2842,7 +2855,7 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>17</v>
@@ -2858,7 +2871,7 @@
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>229</v>
@@ -2895,7 +2908,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -2904,7 +2917,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>259</v>
@@ -2915,7 +2928,7 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>95</v>
@@ -2931,7 +2944,7 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>97</v>
@@ -2947,7 +2960,7 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>98</v>
@@ -2963,7 +2976,7 @@
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>99</v>
@@ -2979,7 +2992,7 @@
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>100</v>
@@ -2995,7 +3008,7 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>101</v>
@@ -3011,7 +3024,7 @@
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>103</v>
@@ -3027,7 +3040,7 @@
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>102</v>
@@ -3067,7 +3080,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -3076,7 +3089,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>259</v>
@@ -3087,10 +3100,10 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>183</v>
@@ -3103,7 +3116,7 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>185</v>
@@ -3140,7 +3153,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -3149,7 +3162,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>259</v>
@@ -3160,7 +3173,7 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>190</v>
@@ -3176,7 +3189,7 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>192</v>
@@ -3192,7 +3205,7 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>193</v>
@@ -3208,7 +3221,7 @@
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>217</v>
@@ -3224,7 +3237,7 @@
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>219</v>
@@ -3264,7 +3277,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -3273,7 +3286,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>259</v>
@@ -3284,10 +3297,10 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>257</v>
@@ -3321,7 +3334,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -3330,7 +3343,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>259</v>
@@ -3341,7 +3354,7 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>41</v>
@@ -3366,19 +3379,19 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D15:D16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="29.25" customWidth="1"/>
-    <col min="3" max="3" width="68.125" customWidth="1"/>
+    <col min="3" max="3" width="65.75" customWidth="1"/>
     <col min="4" max="4" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -3387,7 +3400,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>259</v>
@@ -3396,74 +3409,74 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>367</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>351</v>
-      </c>
       <c r="D3" s="38" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B4" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="D4" s="38"/>
+    </row>
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C5" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="D4" s="38"/>
-    </row>
-    <row r="5" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B5" s="37" t="s">
+      <c r="D5" s="38" t="s">
         <v>355</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>356</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="44" customFormat="1" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A6" s="43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -3495,7 +3508,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -3504,7 +3517,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>259</v>
@@ -3515,10 +3528,10 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>155</v>
@@ -3531,42 +3544,42 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>156</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>211</v>
@@ -3579,10 +3592,10 @@
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>107</v>
@@ -3595,7 +3608,7 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>108</v>
@@ -3611,7 +3624,7 @@
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>109</v>
@@ -3627,7 +3640,7 @@
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>116</v>
@@ -3643,7 +3656,7 @@
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>118</v>
@@ -3659,7 +3672,7 @@
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>119</v>
@@ -3675,7 +3688,7 @@
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>120</v>
@@ -3691,7 +3704,7 @@
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>121</v>
@@ -3707,7 +3720,7 @@
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>122</v>
@@ -3723,7 +3736,7 @@
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>124</v>
@@ -3739,10 +3752,10 @@
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>62</v>
@@ -3755,10 +3768,10 @@
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>131</v>
@@ -3771,10 +3784,10 @@
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>133</v>
@@ -3787,10 +3800,10 @@
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>209</v>
@@ -3803,7 +3816,7 @@
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>253</v>
@@ -3819,10 +3832,10 @@
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>50</v>
@@ -3835,10 +3848,10 @@
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>65</v>
@@ -3873,7 +3886,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -3882,7 +3895,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>259</v>
@@ -3893,10 +3906,10 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>135</v>
@@ -3909,10 +3922,10 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>137</v>
@@ -3925,10 +3938,10 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>139</v>
@@ -3941,10 +3954,10 @@
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>141</v>
@@ -3957,10 +3970,10 @@
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>143</v>
@@ -3973,10 +3986,10 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>145</v>
@@ -3989,10 +4002,10 @@
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>147</v>
@@ -4005,10 +4018,10 @@
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>158</v>
@@ -4021,10 +4034,10 @@
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>160</v>
@@ -4037,10 +4050,10 @@
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>162</v>
@@ -4053,10 +4066,10 @@
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>164</v>
@@ -4069,10 +4082,10 @@
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>166</v>
@@ -4085,10 +4098,10 @@
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>168</v>
@@ -4101,10 +4114,10 @@
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>170</v>
@@ -4117,10 +4130,10 @@
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>172</v>
@@ -4133,10 +4146,10 @@
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>174</v>
@@ -4149,7 +4162,7 @@
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>236</v>
@@ -4165,7 +4178,7 @@
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>238</v>
@@ -4204,7 +4217,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -4213,7 +4226,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>259</v>
@@ -4224,7 +4237,7 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>36</v>
@@ -4240,7 +4253,7 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>37</v>
@@ -4256,7 +4269,7 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>205</v>
@@ -4272,7 +4285,7 @@
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>207</v>
@@ -4288,7 +4301,7 @@
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>34</v>
@@ -4304,7 +4317,7 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>35</v>
@@ -4320,7 +4333,7 @@
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>92</v>
@@ -4336,7 +4349,7 @@
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>94</v>
@@ -4352,7 +4365,7 @@
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>224</v>
@@ -4368,7 +4381,7 @@
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>226</v>
@@ -4384,7 +4397,7 @@
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>239</v>
@@ -4400,7 +4413,7 @@
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>241</v>
@@ -4416,7 +4429,7 @@
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>242</v>
@@ -4432,7 +4445,7 @@
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>244</v>
@@ -4448,7 +4461,7 @@
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>38</v>
@@ -4464,7 +4477,7 @@
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>47</v>
@@ -4480,7 +4493,7 @@
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>27</v>
@@ -4496,7 +4509,7 @@
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>29</v>
@@ -4512,7 +4525,7 @@
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>30</v>
@@ -4528,7 +4541,7 @@
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>32</v>
@@ -4544,10 +4557,10 @@
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>26</v>
@@ -4581,7 +4594,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -4590,7 +4603,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>259</v>
@@ -4601,7 +4614,7 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>198</v>
@@ -4617,10 +4630,10 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>88</v>
@@ -4633,10 +4646,10 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>127</v>
@@ -4649,10 +4662,10 @@
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>197</v>
@@ -4665,10 +4678,10 @@
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>202</v>
@@ -4704,7 +4717,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -4713,7 +4726,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>259</v>
@@ -4724,7 +4737,7 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>40</v>
@@ -4740,16 +4753,16 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -4764,20 +4777,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="42.875" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
     <col min="3" max="3" width="47.5" customWidth="1"/>
     <col min="4" max="4" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -4786,7 +4799,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>259</v>
@@ -4797,10 +4810,10 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>68</v>
@@ -4813,10 +4826,10 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -4829,10 +4842,10 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>66</v>
@@ -4845,7 +4858,7 @@
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>55</v>
@@ -4861,10 +4874,10 @@
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>66</v>
@@ -4877,10 +4890,10 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>66</v>
@@ -4893,10 +4906,10 @@
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>66</v>
@@ -4909,10 +4922,10 @@
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>66</v>
@@ -4925,7 +4938,7 @@
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>70</v>
@@ -4941,7 +4954,7 @@
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>72</v>
@@ -4957,7 +4970,7 @@
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>73</v>
@@ -4973,7 +4986,7 @@
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>75</v>
@@ -4989,10 +5002,10 @@
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>77</v>
@@ -5005,7 +5018,7 @@
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>78</v>
@@ -5021,7 +5034,7 @@
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>79</v>
@@ -5037,10 +5050,10 @@
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>82</v>
@@ -5053,7 +5066,7 @@
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>83</v>
@@ -5069,7 +5082,7 @@
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>85</v>
@@ -5085,23 +5098,23 @@
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>115</v>
@@ -5117,10 +5130,10 @@
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>149</v>
@@ -5133,10 +5146,10 @@
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>4</v>
@@ -5149,10 +5162,10 @@
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>177</v>
@@ -5165,10 +5178,10 @@
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>177</v>
@@ -5181,10 +5194,10 @@
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>177</v>
@@ -5197,7 +5210,7 @@
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>187</v>
@@ -5213,10 +5226,10 @@
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>188</v>
@@ -5229,10 +5242,10 @@
     </row>
     <row r="29" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C29" s="28" t="s">
         <v>213</v>
@@ -5245,10 +5258,10 @@
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>235</v>
@@ -5261,23 +5274,23 @@
     </row>
     <row r="31" spans="1:6" s="35" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>245</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>263</v>
+        <v>370</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
     </row>
     <row r="32" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B32" s="31" t="s">
         <v>9</v>
@@ -5314,7 +5327,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -5323,7 +5336,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>259</v>
@@ -5334,7 +5347,7 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>89</v>
@@ -5350,7 +5363,7 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>91</v>
@@ -5366,7 +5379,7 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>230</v>
@@ -5404,7 +5417,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -5413,7 +5426,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>259</v>
@@ -5424,7 +5437,7 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>220</v>
@@ -5440,7 +5453,7 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>222</v>
@@ -5456,7 +5469,7 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -5465,14 +5478,14 @@
         <v>69</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -5488,7 +5501,7 @@
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
@@ -5504,7 +5517,7 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>3</v>
@@ -5520,10 +5533,10 @@
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>181</v>
@@ -5536,10 +5549,10 @@
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>184</v>
@@ -5552,7 +5565,7 @@
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>194</v>
@@ -5568,7 +5581,7 @@
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>43</v>

--- a/update_data/data/bank_psbc/qa/业务问答.xlsx
+++ b/update_data/data/bank_psbc/qa/业务问答.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="4755" windowWidth="28560" windowHeight="7185" firstSheet="1" activeTab="17"/>
+    <workbookView xWindow="15" yWindow="4755" windowWidth="19440" windowHeight="7185" tabRatio="900" firstSheet="6" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="手机银行" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="积存金" sheetId="17" r:id="rId16"/>
     <sheet name="微信银行" sheetId="18" r:id="rId17"/>
     <sheet name="其他" sheetId="19" r:id="rId18"/>
+    <sheet name="取钱" sheetId="20" r:id="rId19"/>
+    <sheet name="查明细" sheetId="21" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">手机银行!$B$2:$H$161</definedName>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="388">
   <si>
     <t>取号怎么网上预约？</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1612,12 +1614,100 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>我要取钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果您要做证明材料，请取号到柜台办理。如果您是自己看看，推荐您扫二维码，用手机银行查询。当然您也可以通过网银，自助设备，柜台查询。</t>
+  </si>
+  <si>
+    <t>我来拉流水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我想查明细/我要查明细/我是来查明细的/我来查明细/查下银行清单/查下流水/流水清单/我来拉流水/我来查对账单/我来拉对账单/我想查对账单/我来查下对账单/我查对账单/拉对账单/查明细/我要查上个月的账单/我来打印流水明细/我是来打流水的/我来拉个流水/我就来拉个流水/我来查询流水明细/我来查询银行明细/我来打印流水清单/我来打印账单/我打明细/打印半年流水/我想打印半年流水/我要查询半年流水/给我打印一年的流水/我来拉一年的流水/打印流水账单/查询流水账单/我来查查银行账单/我来打印一下银行卡的流水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/我能查一下明细么？/查明细可以么？/你能帮我查一下明细么？/你能帮我查明细么？/这里可以查明细吗/这里可以查银行清单吗/这里可以查流水吗/这里可以查流水清单吗/我能拉对一下账单么？/我可以查对账单么？/怎么拉对账单？/您这里能拉对一下对账单么？/我能查一下对账单么？/怎么查对账单？/如何查对账单？这里可以查对账单吗/这里可以查对账单吗/这里可以查下对账单吗/如何查对账单/如何查询对账单/如何办理对账单业务/账单明细怎么查询/流水怎么查询/你能帮我打印流水吗/流水怎么打印/您能帮我打印账单吗/你能帮我打账单吗/请问流水怎么打印/我想请问账单怎么查/流水账单明细怎么查询/流水账单明细怎么打印/流水账单明细怎么拉/我来拉流水办贷款用/我来拉流水办签证用的/我最近要出国，帮我拉份流水/我要拉流水，办出国用的/我要拉流水，作证明用/拉对账单作证明用的/我要拉流水要盖章的/我来拉流水要盖章的/我来拉流水需要盖章/我差个对账单，出国用的/我差个对账单，作证明用的/我查个对账单，做贷款用/我要查询流水账单明细要盖章的/我要拉流水账单明细，证明用的/我要打印流水账单明细，做证明材料/我要拉出国用的流水，怎么办理/你能带我去拉流水吗，我做贷款用的/你能带我去啦流水吗要盖章的/我想拉一份盖章的流水可不可以/这里拉流水给盖章吗/我要查明细有盖章的要取号吗/我要查明细要盖章那种可以吗/办出国用的账单去哪里查/办贷款的账单怎么查询/我要盖章的流水账单明细怎么查询打印/我想要个流水账单明细做证明材料用，怎么查/查流水账打明细作证明怎么办/我就查个明细自己看看/我想了解一下我的账单情况/我来查查账单明细自己看看/我想来看看这个月流水怎么样/我来看看我这个月花了多少钱/我看看卡上消费多少/我想要一份自己看的流水哪里查询/我想自己看看最近的账单情况你能带我去办吗/我来拉个流水自己看怎么啦/我查一下账单就自己看看那种咋办理呀/拉流水怎么办的,我自己看的那种/我能查明细吗/在哪查明细/我查个明细/在哪打印明细/在哪打印流水在哪查流水账单/在哪查账单/哪里可以查明细/查明细要取号吗/查流水要取号吗/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡取款两万以下可自助办理，两万到五万请取号到柜台办理，五万以上要先找客服经理预约。存折取款或取零钱，请您取号到柜台办理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我来取钱/我是来取钱的/我来取款/我是来取款的/我又来取钱了/我来领工资/我来拿钱/我来领钱/我来取工资/我来领退休金/取退休金/我把退休金取出来/我想取钱/我想取款/取钱/取款/拿钱/领钱/我把工资取出来/没钱花了取点钱出来/我就是来取点钱的/我来取一点点钱啊/我想取一点钱/我想取一些钱出来/我来取点人民币/我是来取钱花的/最近缺钱啊，我要取点出来/我是来取工资的/我想把工资都取出来/我把钱都取出来/取款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/在哪里取钱/在哪取钱/取钱去哪里办理/哪里可以取钱/怎么取钱/取钱怎么取/我来取点钱/我来取个钱/我来取一下钱/我要取好多好多钱/在哪里取款/在哪取款/取款去哪里办理/哪里可以取钱/怎么取款/取款怎么取/我来取点人民币/我要取好多人民币/取人民币/人民币怎么取/取点钱/取一下钱/取个钱/我来办理取款业务/我来取钞票/我来取点钞票/怎么取钞票/钞票怎么取/我来取点大洋/取大洋/在哪里取大洋/取大洋怎么取/取现金/取点现金/怎么取现金/现金怎么取/哪里取现金/取现金在哪里办理/我想取点钱/我想取款/我要取钱/我要取款/怎么取钱/怎么取款/我想取钱，怎么取/我想取点钱用/我想取些钱/你能带我去取钱吗/你知道怎么取钱吗/你知道去哪取钱吗/我想取钱怎么取/我来取钱，你能带我去吗/我来取钱，你可以帮助我吗/我取钱，你可以带我去吗/你能带我去取款吗/你知道怎么取款吗/你知道去哪取款吗/我想取款怎么取/我来取款，你能带我去吗/我来取款，你可以帮助我吗/我取款，你可以带我去吗/你能带我去取钞票吗/你知道怎么取钞票吗/你知道去哪取钞票吗/我想取钞票怎么取/我来取钞票，你能带我去吗/我来取钞票，你可以帮助我吗/我取钞票，你可以带我去吗/你知道怎么取人民币吗/你知道去哪里取人民币吗/人民币怎么取，你知道吗/你能帮我取钱吗/你能帮我取款吗/你能帮我取点人民币吗/你可以帮我取钱吗/你可以帮我取个钱吗/你可以帮我取款吗/你可以帮我取点人民币吗/你可以帮我取点大洋吗/可以帮我取大洋吗/可以帮我取点现金吗/可以帮我取现金吗/你可以帮我取现金吗/你可以帮我取点现金吗/带我去取钱吧/带我去取款/去哪取钱，跟我说一下/带我去取钱，好吗/可以带我去取钱吗/可不可以带我去取钱/我想让你带我去取钱，可以吗/你是否能够带我去取钱/我想取钱，你可以带我去吗/我要取钱，告诉我去哪取吧/告诉我去哪取钱/跟我说一下，取钱去哪取/我想知道取钱去哪取/去哪能取到钱/取点零钱/我没有零钱了取点出来/我要取零钱/我来取零钱/我想取点零钱/我需要一些零钱/我要取的有零钱/取点零钞/我没有零钞了，取点出来/我要取零钞/我来取零钞/我想取点零钞/我需要一些零钞/我要取的有零钞/取点零钱我要/我想取点零钱/我需要取点零钱/我要取点零钱/取零钱/我没有零钱了/我要取零钱/我来取零钱/我想取点零钱/我需要一些零钱/我要取的有零钱/我没有零钱了/我要取零钱/我来取零钱/我想取点零钱/我需要一些零钱/取零钱怎么取/取零钞/我没有零钞了/我要取零钞/我来取零钞/我想取点零钞/我需要一些零钞/我要取的有零钞/我没有零钞了/我要取零钞/我来取零钞/我想取点零钞/我需要一些零钞/取零钞怎么取/取零钞/取零钱/取个零钱/取点零钱/取点零钞/可以取零钱吗？/哪边可以取零钱呢？/这里能取零钱吗？/我想取零钱到哪取/零钱怎么取/零钱怎么取的/可以取零钞吗？/哪边可以取零钞呢？/这里能取零钞吗？/我想取零钞到哪取/零钞怎么取/零钞怎么取的/零钱在哪里取/零钱可以取吗/零钞在哪里取/哪里取零钞/哪里取零钱/我想取零钱，要去哪里取/告诉我取零钱去哪取/跟我说一下，去哪里能取零钱/取三千块/就取三千/取三千元/取三千块钱/取三千元钱/就取三千块钱/我来取三千元钱/我来取三千块呀/我要取三千呀/也就取三千/取三千吧/我想取三千块钱吧/我要取三千吧/嗯取个三千/我是来取三千块钱的/取三千大洋/取三千现金/取三千人民币/取三千块大洋/取三千元现金/取三千元人民币/我想取三千/我取三千吧/取三千吧我要/我需要取三千/我能取三千块吗/我想取三千块有吗/我可以取三千吗/三千块上哪取/我想取三千哪里可以办理/我可不可以取三千块钱啊/三千怎么取/你可以带我取三千块钱吗/你知道三千怎么取吗/我要取的比较多，三千块怎么取/如果我要取三千，哪里可以办/三千块是要到柜台办理吗/我三千怎么取/我今天来取点钱，三千块啊能取的/三千块现金怎么取/三千元人民币怎么取/三千块大洋怎么取/三千元到哪里取/三千块现金到哪里取/三千元人民币到哪里取/三千块大洋到哪里取/取三万块/就取三万/取三万元/取三万块钱/取三万元钱/就取三万块钱/我来取三万元钱/我来取三万块呀/我要取三万呀/也就取三万/取三万吧/我想取三万块钱吧/我要取三万吧/嗯取个三万/我是来取三万块钱的/取三万大洋/取三万现金/取三万人民币/取三万块大洋/取三万元现金/取三万块人民币/我能取三万块吗/我想取三万块有吗/我可以取三万吗/三万块上哪取/我想取三万哪里可以办理/我可不可以取三万块钱啊/三万怎么取/你可以带我取三万块钱吗/你知道三万怎么取吗/我要取的比较多，三万块怎么取/如果我要取三万，哪里可以办/三万块是要到柜台办理吗/我三万怎么取/我今天来取点钱，三万块啊能取的/三万块现金怎么取/三万元人民币怎么取/三万块大洋怎么取/三万元到哪里取/三万块现金到哪里取/三万元人民币到哪里取/三万块大洋到哪里取/取十万块/就取十万/取十万元/取十万块钱/取十万元钱/就取十万块钱/我来取十万元钱/我来取十万块呀/我要取十万呀/也就取十万/取十万吧/我想取十万块钱吧/我要取十万吧/嗯取个十万/我是来取十万块钱的/取十万大洋/取十万现金/取十万人民币/取十万块大洋/取十万元现金/取十万块人民币/我要取十万/我想取十万/我需要取十万/我能取十万块吗/我想取十万块有吗/我可以取十万吗/十万块上哪取/我想取十万哪里可以办理/我可不可以取十万块钱啊/十万怎么取/你可以带我取十万块钱吗/你知道十万怎么取吗/我要取的比较多，十万块怎么取/如果我要取十万，哪里可以办/十万块是要到柜台办理吗/我十万怎么取/我今天来取点钱，十万块啊能取的/十万块现金怎么取/十万元人民币怎么取/十万块大洋怎么取/十万元到哪里取/十万块现金到哪里取/十万元人民币到哪里取/十万块大洋到哪里取/十万去哪取/取十万，怎么办理/取十万，如何办理/取十万，该怎么办/取十万，该去哪办/储蓄卡取款/用银行卡取款/借记卡取款/信用卡取款/用卡取款/我想用银行卡取款/是银行卡取款/当然是银行卡取款啦/用银行卡取款吧/我决定用银行卡取钱/就用银行卡取钱/我来取钱的，我只有银行卡/我想取钱，我的是银行卡/我取钱，我的是储蓄卡/去取款，我的是借记卡，不是存折/我取钱我的是银行卡，不是存折/我想取钱，然后我只有银行卡，没有存折/我想取钱，我只用银行卡/我今天是带卡来取钱的/我卡上还有钱，取点出来/银行卡取钱/储蓄卡取钱/用银行卡取点钱/银行卡取点现金/银行卡取点款/用银行卡取点现金/取钱用银行卡/用卡取点现金/用存折取钱/存单取钱/支票取钱/存单取钱/用存单取钱/用支票取钱/我是带存折来取钱的/我就存折里有点存款，取出来/我只有存折想把里面的钱取出来/我来取钱的，我的是存折/我带存折来取钱哎/存折本取钱/存折取钱啊/就存折取个钱出来花/存折取款/是存折取款/我拿的存折来取款/我就存折里有钱想取点出来/存折本取点钱/存折本取个钱/存折本取点现金/存折本取点款/用存折取点钱/用存折取点钱/我拿存折取点钱/我想用存折取款/我要用存折取钱/我要用存折取点现金/取钱用存折/取现金用存折/储蓄卡怎么取款/用银行卡怎么取款/借记卡怎么取款/信用卡取款哪里办/用卡取款要到柜台吗/我想用银行卡取款你能带我去吗/是银行卡取款可以吗/当然是银行卡取款啦能取吗/用银行卡取款怎么取的/我决定用银行卡取钱你可以帮我吗/就用银行卡取钱你能帮我吗/我来取钱的，我只有银行卡我要怎么取/我想取钱，我的是银行卡你带我去可以吗/我取钱，我的是储蓄卡怎么取/去取款，我的是借记卡，你可以带我去取吗/我取钱我的是银行卡怎么取/我想取钱，然后我只有银行卡可以到柜台办吗/我想取钱，我只用银行卡到柜台怎么办/我今天是带卡来取钱的你能帮我吗/我卡上还有钱，取点出来怎么办理/银行卡怎么取钱/储蓄卡怎么取钱/银行卡在哪里取钱/银行卡在哪里取款/银行卡在哪里取现金/跟我说下，怎么用银行卡取钱/告诉我怎么用银行卡取钱/跟我说一下用银行卡怎么取钱/用银行卡如何取钱/银行卡取钱怎么办理/我不知道怎么用银行卡取钱/我想知道用银行卡怎么取钱/用存折怎么取钱/存单怎么取钱/支票怎么取钱/存单取钱/用存单取钱怎么取的/用支票取钱/我是带存折来取钱的/我就存折里有点存款，取出来/我只有存折想把里面的钱取出来/我来取钱的，我的是存折/我带存折来取钱哎/存折本取钱/存折取钱啊/就存折取个钱出来花/存折取款/是存折取款/我拿的存折来取款/我就存折里有钱想取点出来/存折本怎么取钱/存折本在哪里取钱/存折本怎么取现金/存折本在哪里取现金/怎么用存折取钱/我用储蓄卡取三千/我用银行卡取三千/借记卡取三千/信用卡取三千/用卡取款三千/我想用银行卡取三千/是银行卡取款三千/我决定用银行卡取三千块钱/就用银行卡取个三千块钱/我取三千块钱，银行卡取/我想用银行卡取三千块/我要用银行卡取三千/要取三千元，银行卡取/我想取三千元，用银行卡取/我想取三千，用银行卡/银行卡取三千元/用卡取三千块/银行卡取个三千/只取卡上三千/取卡上的三千元/卡上有好多钱，我只取三千/银行卡取三千/储蓄卡取三千/用银行卡取三千/银行卡取三千元现金/银行卡取三千大洋/用银行卡取三千块现金/三千块钱，用银行卡取/我需要三千块钱，用银行卡取/我用储蓄卡取三万/我用银行卡取三万/借记卡取三万/信用卡取三万/用卡取款三万/我想用银行卡取三万/是银行卡取款三万/我决定用银行卡取三万块钱/就用银行卡取个三万块钱/我取三万块钱，银行卡取/我想用银行卡取三万块/我要用银行卡取三万/要取三万元，银行卡取/我想取三万元，用银行卡取/我想取三万，用银行卡/银行卡取三万元/用卡取三万块/银行卡取个三万/只取卡上三万/取卡上的三万元/卡上有好多钱，我只取三万/银行卡取三万/储蓄卡取三万/用银行卡取三万/银行卡取三万元现金/银行卡取三万大洋/用银行卡取三万块现金/取三万用银行卡/我需要用银行卡取三万块钱/取三万我要，用银行卡/银行卡取钱，三万/我用储蓄卡取十万/我用银行卡取十万/借记卡取十万/信用卡取十万/用卡取款十万/我想用银行卡取十万/是银行卡取款十万/我决定用银行卡取十万块钱/就用银行卡取个十万块钱/我取十万块钱，银行卡取/我想用银行卡取十万块/我要用银行卡取十万/要取十万元，银行卡取/我想取十万元，用银行卡取/我想取十万，用银行卡/银行卡取十万元/用卡取十万块/银行卡取个十万/只取卡上十万/取卡上的十万元/卡上有好多钱，我只取十万/银行卡取十万/储蓄卡取十万/用银行卡取十万/银行卡取十万元现金/银行卡取十万大洋/用银行卡取十万块现金/银行卡取钱，十万/取十万块钱我要，用银行卡/我需要用银行卡取十万块钱/我要取十万块钱，用银行卡/我想取十万块钱，用银行卡/如果说我银行卡取三千怎么取啊/我卡里取三千到哪办/取银行卡三千块哪能办啊/你说银行卡怎么取三千块钱啊/我就用银行卡取个三千块你会吗/你能带我去取个三千块钱吗，银行卡取的/我想用银行卡取三千块钱,你能带我去吗/银行卡取三千哪个柜台办/银行卡取三千怎么办的啊/我往银行卡取三千怎么办理/储蓄卡取三千怎么办/我用银行卡取三千怎么办/银行卡取三千元现金怎么办理/银行卡取三千大洋怎么办/用银行卡取三千块现金怎么办/银行卡在哪里取三千块/储蓄卡在哪里取三千块/用卡取三千块钱怎么取/跟我说下怎么用银行卡取三千/告诉我用银行卡取三千怎么办/取三千用银行卡怎么办/如果说我银行卡取三万怎么取啊/我卡里取三万到哪办/取银行卡三万块哪能办啊/你说银行卡怎么取三万块钱啊/我就用银行卡取个三万块你会吗/你能带我去取个三万块钱吗，银行卡取的/我想用银行卡取三万块钱,你能带我去吗/银行卡取三万哪个柜台办/银行卡取三万怎么办的啊/我往银行卡取三万怎么办理/储蓄卡取三万怎么办/我用银行卡取三万怎么办/银行卡取三万元现金怎么办理/银行卡取三万大洋怎么办/用银行卡取三万块现金怎么办/银行卡在哪里取三万块/储蓄卡在哪里取三万块/用卡取三万块钱怎么取/跟我说下怎么用银行卡取三万/告诉我用银行卡取三万怎么办/取三万用银行卡怎么办/我用存折本取三千/我用存折取三千/折子取三千/存折上面取三千/用存折取款三千/我想用存折取三千/是存折取款三千/我决定用存折取三千块钱/就用存折取个三千块钱/我取三千块钱，存折取/我想用存折取三千块/我要用存折取三千/要取三千元，存折取/我想取三千元，用存折取/我想取三千，用存折/存折取三千元/存折取个三千/只取存折上面三千/取存折上面的三千元/存折上面有好多钱，我只取三千/存折本取三千块钱/存折本取三千块钱/存折本取三千现金/存折本取三千块现金/用存折取三千大洋/用银行卡取三千块现金/三千块钱，用银行卡取/我需要三千块钱，用银行卡取/我用存折本取三万/我用存折取三万/折子取三万/存折上面取三万/我想用存折取三万/是存折取款三万/我决定用存折取三万块钱/就用存折取个三万块钱/我取三万块钱，存折取/我想用存折取三万块/我要用存折取三万/要取三万元，存折取/我想取三万元，用存折取/我想取三万，用存折/存折取三万元/存折取个三万/只取存折上面三万/取存折上面的三万元/存折上面有好多钱，我只取三万/存折本取三万块钱/存折本取三万块钱/存折本取三万现金/存折本取三万块现金/用存折取三万大洋/取三万用存折/我用存折本取十万/我用存折取十万/折子取十万/存折上面取十万/我想用存折取十万/是存折取款十万/我决定用存折取十万块钱/就用存折取个十万块钱/我取十万块钱，存折取/我想用存折取十万块/我要用存折取十万/要取十万元，存折取/我想取十万元，用存折取/我想取十万，用存折/存折取十万元/存折取个十万/只取存折上面十万/取存折上面的十万元/存折上面有好多钱，我只取十万/存折本取十万块钱/存折本取十万块钱/存折本取十万现金/存折本取十万块现金/用存折取十万大洋/取十万用存折/如果说我存折取三千怎么取啊/取存折三千块哪能办啊/你说存折怎么取三千块钱啊/我就用存折取个三千块你会吗/你能带我去取个三千块钱吗，存折取的/我想用存折取三千块钱,你能带我去吗/存折取三千哪个柜台办/存折取三千怎么办的啊/我想用存折取三千怎么办理/存折本怎么取三千块钱/存折本取三千块钱怎么办/存折本取三千现金怎么办/存折本取三千块现金在哪里办理/在哪里用存折取三千大洋/告诉我三千块钱用存折怎么取/三千块钱用存折取怎么办理/你能告诉我怎么用存折取三千吗/跟我说一下用存折取三千怎么办/如果说我存折取三万怎么取啊/取存折三万块哪能办啊/你说存折怎么取三万块钱啊/我就用存折取个三万块你会吗/你能带我去取个三万块钱吗，存折取的/我想用存折取三万块钱,你能带我去吗/存折取三万哪个柜台办/存折取三万怎么办的啊/我想用存折取三万怎么办理/存折本怎么取三万块钱/存折本取三万块钱怎么办/存折本取三万现金怎么办/存折本取三万块现金在哪里办理/在哪里用存折取三万大洋/告诉我三万块钱用存折怎么取/三万块钱用存折取怎么办理/你能告诉我怎么用存折取三万吗/跟我说一下用存折取三万怎么办/如果说我存折取十万怎么取啊/我存折里取十万到哪办/取存折十万块哪能办啊/你说存折怎么取十万块钱啊/我就用存折取个十万块你会吗/你能带我去取个十万块钱吗，存折取的/我想用存折取十万块钱,你能带我去吗/存折取十万哪个柜台办/存折取十万怎么办的啊/我想用存折取十万怎么办理/存折本怎么取十万块钱/存折本取十万块钱怎么办/存折本取十万现金怎么办/存折本取十万块现金在哪里办理/在哪里用存折取十万大洋/告诉我十万块钱用存折怎么取/十万块钱用存折取怎么办理/你能告诉我怎么用存折取十万吗/跟我说一下用存折取十万怎么办/取两百万块/就取两百万/取两百万元/取两百万块钱/取两百万元钱/就取两百万块钱/我来取两百万元钱/我来取两百万块呀/我要取两百万呀/也就取两百万/取两百万吧/我想取两百万块钱吧/我要取两百万吧/嗯取个两百万/我是来取两百万块钱的/取两百万大洋/取两百万现金/取两百万人民币/取两百万块大洋/取两百万元现金/取两百万块人民币/取两百万我要/我想取两百万/我要取两百万/我需要取两百万/我得取两百万/我能取两百万块吗/我想取两百万块有吗/我可以取两百万吗/两百万块上哪取/我想取两百万哪里可以办理/我可不可以取两百万块钱啊/两百万怎么取/你可以带我取两百万块钱吗/你知道两百万怎么取吗/我要取的比较多，两百万块怎么取/如果我要取两百万，哪里可以办/两百万块是要到柜台办理吗/我两百万怎么取/我今天来取点钱，两百万块啊能取的/两百万块现金怎么取/两百万元人民币怎么取/两百万块大洋怎么取/两百万元到哪里取/两百万块现金到哪里取/两百万元人民币到哪里取/两百万块大洋到哪里取/去哪取两百万/告诉我两百万去哪取/我想取两百万，告诉我去哪里办理/跟我说一下，两百万去哪去/我想取两百万，去哪里取呢/我需要两百万，去哪里取呢/我要取两百万，咋办</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1715,6 +1805,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1788,13 +1899,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1919,10 +2034,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="常规 3 2" xfId="3"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3378,14 +3513,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="29.25" customWidth="1"/>
-    <col min="3" max="3" width="65.75" customWidth="1"/>
+    <col min="3" max="3" width="83.625" customWidth="1"/>
     <col min="4" max="4" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3484,6 +3619,57 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D8" s="44"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="120.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>381</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3866,6 +4052,62 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="41.125" customWidth="1"/>
+    <col min="4" max="4" width="93.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="342" x14ac:dyDescent="0.15">
+      <c r="A2" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>379</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/update_data/data/bank_psbc/qa/业务问答.xlsx
+++ b/update_data/data/bank_psbc/qa/业务问答.xlsx
@@ -1,42 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="4755" windowWidth="19440" windowHeight="7185" tabRatio="900" firstSheet="6" activeTab="19"/>
   </bookViews>
   <sheets>
-    <sheet name="手机银行" sheetId="2" r:id="rId1"/>
-    <sheet name="自助设备" sheetId="3" r:id="rId2"/>
-    <sheet name="U盾相关" sheetId="4" r:id="rId3"/>
-    <sheet name="兑换外币" sheetId="5" r:id="rId4"/>
-    <sheet name="房贷" sheetId="6" r:id="rId5"/>
-    <sheet name="信用贷款" sheetId="7" r:id="rId6"/>
-    <sheet name="信用卡" sheetId="8" r:id="rId7"/>
-    <sheet name="网上银行" sheetId="9" r:id="rId8"/>
-    <sheet name="常识" sheetId="10" r:id="rId9"/>
-    <sheet name="理财" sheetId="11" r:id="rId10"/>
-    <sheet name="贵金属" sheetId="12" r:id="rId11"/>
-    <sheet name="网银" sheetId="13" r:id="rId12"/>
-    <sheet name="有效证件" sheetId="14" r:id="rId13"/>
-    <sheet name="信息查询" sheetId="15" r:id="rId14"/>
-    <sheet name="电话银行" sheetId="16" r:id="rId15"/>
-    <sheet name="积存金" sheetId="17" r:id="rId16"/>
-    <sheet name="微信银行" sheetId="18" r:id="rId17"/>
-    <sheet name="其他" sheetId="19" r:id="rId18"/>
-    <sheet name="取钱" sheetId="20" r:id="rId19"/>
-    <sheet name="查明细" sheetId="21" r:id="rId20"/>
+    <sheet name="手机银行" sheetId="1" r:id="rId1"/>
+    <sheet name="自助设备" sheetId="2" r:id="rId2"/>
+    <sheet name="U盾相关" sheetId="3" r:id="rId3"/>
+    <sheet name="兑换外币" sheetId="4" r:id="rId4"/>
+    <sheet name="房贷" sheetId="5" r:id="rId5"/>
+    <sheet name="信用贷款" sheetId="6" r:id="rId6"/>
+    <sheet name="信用卡" sheetId="7" r:id="rId7"/>
+    <sheet name="网上银行" sheetId="8" r:id="rId8"/>
+    <sheet name="常识" sheetId="9" r:id="rId9"/>
+    <sheet name="理财" sheetId="10" r:id="rId10"/>
+    <sheet name="贵金属" sheetId="11" r:id="rId11"/>
+    <sheet name="网银" sheetId="12" r:id="rId12"/>
+    <sheet name="有效证件" sheetId="13" r:id="rId13"/>
+    <sheet name="信息查询" sheetId="14" r:id="rId14"/>
+    <sheet name="电话银行" sheetId="15" r:id="rId15"/>
+    <sheet name="积存金" sheetId="16" r:id="rId16"/>
+    <sheet name="微信银行" sheetId="17" r:id="rId17"/>
+    <sheet name="其他" sheetId="18" r:id="rId18"/>
+    <sheet name="取钱" sheetId="19" r:id="rId19"/>
+    <sheet name="查明细" sheetId="20" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">手机银行!$B$2:$H$161</definedName>
+    <definedName name="Z_A8D1D74F_E720_4F56_99B0_27626D8CF6B3_.wvu.FilterData" localSheetId="0" hidden="1">手机银行!$B$2:$H$161</definedName>
+    <definedName name="Z_CEB7DEB3_A0CD_4694_A580_3EEC78FB579F_.wvu.FilterData" localSheetId="0" hidden="1">手机银行!$B$2:$H$161</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <customWorkbookViews>
+    <customWorkbookView name="xin.zheng(郑新) - 个人视图" guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1531" windowHeight="693" tabRatio="900" activeSheetId="20"/>
+    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" tabRatio="900" activeSheetId="19"/>
+  </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="387">
   <si>
     <t>取号怎么网上预约？</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1638,6 +1644,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>查明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>回答</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1676,14 +1686,6 @@
       </rPr>
       <t>/在哪里取钱/在哪取钱/取钱去哪里办理/哪里可以取钱/怎么取钱/取钱怎么取/我来取点钱/我来取个钱/我来取一下钱/我要取好多好多钱/在哪里取款/在哪取款/取款去哪里办理/哪里可以取钱/怎么取款/取款怎么取/我来取点人民币/我要取好多人民币/取人民币/人民币怎么取/取点钱/取一下钱/取个钱/我来办理取款业务/我来取钞票/我来取点钞票/怎么取钞票/钞票怎么取/我来取点大洋/取大洋/在哪里取大洋/取大洋怎么取/取现金/取点现金/怎么取现金/现金怎么取/哪里取现金/取现金在哪里办理/我想取点钱/我想取款/我要取钱/我要取款/怎么取钱/怎么取款/我想取钱，怎么取/我想取点钱用/我想取些钱/你能带我去取钱吗/你知道怎么取钱吗/你知道去哪取钱吗/我想取钱怎么取/我来取钱，你能带我去吗/我来取钱，你可以帮助我吗/我取钱，你可以带我去吗/你能带我去取款吗/你知道怎么取款吗/你知道去哪取款吗/我想取款怎么取/我来取款，你能带我去吗/我来取款，你可以帮助我吗/我取款，你可以带我去吗/你能带我去取钞票吗/你知道怎么取钞票吗/你知道去哪取钞票吗/我想取钞票怎么取/我来取钞票，你能带我去吗/我来取钞票，你可以帮助我吗/我取钞票，你可以带我去吗/你知道怎么取人民币吗/你知道去哪里取人民币吗/人民币怎么取，你知道吗/你能帮我取钱吗/你能帮我取款吗/你能帮我取点人民币吗/你可以帮我取钱吗/你可以帮我取个钱吗/你可以帮我取款吗/你可以帮我取点人民币吗/你可以帮我取点大洋吗/可以帮我取大洋吗/可以帮我取点现金吗/可以帮我取现金吗/你可以帮我取现金吗/你可以帮我取点现金吗/带我去取钱吧/带我去取款/去哪取钱，跟我说一下/带我去取钱，好吗/可以带我去取钱吗/可不可以带我去取钱/我想让你带我去取钱，可以吗/你是否能够带我去取钱/我想取钱，你可以带我去吗/我要取钱，告诉我去哪取吧/告诉我去哪取钱/跟我说一下，取钱去哪取/我想知道取钱去哪取/去哪能取到钱/取点零钱/我没有零钱了取点出来/我要取零钱/我来取零钱/我想取点零钱/我需要一些零钱/我要取的有零钱/取点零钞/我没有零钞了，取点出来/我要取零钞/我来取零钞/我想取点零钞/我需要一些零钞/我要取的有零钞/取点零钱我要/我想取点零钱/我需要取点零钱/我要取点零钱/取零钱/我没有零钱了/我要取零钱/我来取零钱/我想取点零钱/我需要一些零钱/我要取的有零钱/我没有零钱了/我要取零钱/我来取零钱/我想取点零钱/我需要一些零钱/取零钱怎么取/取零钞/我没有零钞了/我要取零钞/我来取零钞/我想取点零钞/我需要一些零钞/我要取的有零钞/我没有零钞了/我要取零钞/我来取零钞/我想取点零钞/我需要一些零钞/取零钞怎么取/取零钞/取零钱/取个零钱/取点零钱/取点零钞/可以取零钱吗？/哪边可以取零钱呢？/这里能取零钱吗？/我想取零钱到哪取/零钱怎么取/零钱怎么取的/可以取零钞吗？/哪边可以取零钞呢？/这里能取零钞吗？/我想取零钞到哪取/零钞怎么取/零钞怎么取的/零钱在哪里取/零钱可以取吗/零钞在哪里取/哪里取零钞/哪里取零钱/我想取零钱，要去哪里取/告诉我取零钱去哪取/跟我说一下，去哪里能取零钱/取三千块/就取三千/取三千元/取三千块钱/取三千元钱/就取三千块钱/我来取三千元钱/我来取三千块呀/我要取三千呀/也就取三千/取三千吧/我想取三千块钱吧/我要取三千吧/嗯取个三千/我是来取三千块钱的/取三千大洋/取三千现金/取三千人民币/取三千块大洋/取三千元现金/取三千元人民币/我想取三千/我取三千吧/取三千吧我要/我需要取三千/我能取三千块吗/我想取三千块有吗/我可以取三千吗/三千块上哪取/我想取三千哪里可以办理/我可不可以取三千块钱啊/三千怎么取/你可以带我取三千块钱吗/你知道三千怎么取吗/我要取的比较多，三千块怎么取/如果我要取三千，哪里可以办/三千块是要到柜台办理吗/我三千怎么取/我今天来取点钱，三千块啊能取的/三千块现金怎么取/三千元人民币怎么取/三千块大洋怎么取/三千元到哪里取/三千块现金到哪里取/三千元人民币到哪里取/三千块大洋到哪里取/取三万块/就取三万/取三万元/取三万块钱/取三万元钱/就取三万块钱/我来取三万元钱/我来取三万块呀/我要取三万呀/也就取三万/取三万吧/我想取三万块钱吧/我要取三万吧/嗯取个三万/我是来取三万块钱的/取三万大洋/取三万现金/取三万人民币/取三万块大洋/取三万元现金/取三万块人民币/我能取三万块吗/我想取三万块有吗/我可以取三万吗/三万块上哪取/我想取三万哪里可以办理/我可不可以取三万块钱啊/三万怎么取/你可以带我取三万块钱吗/你知道三万怎么取吗/我要取的比较多，三万块怎么取/如果我要取三万，哪里可以办/三万块是要到柜台办理吗/我三万怎么取/我今天来取点钱，三万块啊能取的/三万块现金怎么取/三万元人民币怎么取/三万块大洋怎么取/三万元到哪里取/三万块现金到哪里取/三万元人民币到哪里取/三万块大洋到哪里取/取十万块/就取十万/取十万元/取十万块钱/取十万元钱/就取十万块钱/我来取十万元钱/我来取十万块呀/我要取十万呀/也就取十万/取十万吧/我想取十万块钱吧/我要取十万吧/嗯取个十万/我是来取十万块钱的/取十万大洋/取十万现金/取十万人民币/取十万块大洋/取十万元现金/取十万块人民币/我要取十万/我想取十万/我需要取十万/我能取十万块吗/我想取十万块有吗/我可以取十万吗/十万块上哪取/我想取十万哪里可以办理/我可不可以取十万块钱啊/十万怎么取/你可以带我取十万块钱吗/你知道十万怎么取吗/我要取的比较多，十万块怎么取/如果我要取十万，哪里可以办/十万块是要到柜台办理吗/我十万怎么取/我今天来取点钱，十万块啊能取的/十万块现金怎么取/十万元人民币怎么取/十万块大洋怎么取/十万元到哪里取/十万块现金到哪里取/十万元人民币到哪里取/十万块大洋到哪里取/十万去哪取/取十万，怎么办理/取十万，如何办理/取十万，该怎么办/取十万，该去哪办/储蓄卡取款/用银行卡取款/借记卡取款/信用卡取款/用卡取款/我想用银行卡取款/是银行卡取款/当然是银行卡取款啦/用银行卡取款吧/我决定用银行卡取钱/就用银行卡取钱/我来取钱的，我只有银行卡/我想取钱，我的是银行卡/我取钱，我的是储蓄卡/去取款，我的是借记卡，不是存折/我取钱我的是银行卡，不是存折/我想取钱，然后我只有银行卡，没有存折/我想取钱，我只用银行卡/我今天是带卡来取钱的/我卡上还有钱，取点出来/银行卡取钱/储蓄卡取钱/用银行卡取点钱/银行卡取点现金/银行卡取点款/用银行卡取点现金/取钱用银行卡/用卡取点现金/用存折取钱/存单取钱/支票取钱/存单取钱/用存单取钱/用支票取钱/我是带存折来取钱的/我就存折里有点存款，取出来/我只有存折想把里面的钱取出来/我来取钱的，我的是存折/我带存折来取钱哎/存折本取钱/存折取钱啊/就存折取个钱出来花/存折取款/是存折取款/我拿的存折来取款/我就存折里有钱想取点出来/存折本取点钱/存折本取个钱/存折本取点现金/存折本取点款/用存折取点钱/用存折取点钱/我拿存折取点钱/我想用存折取款/我要用存折取钱/我要用存折取点现金/取钱用存折/取现金用存折/储蓄卡怎么取款/用银行卡怎么取款/借记卡怎么取款/信用卡取款哪里办/用卡取款要到柜台吗/我想用银行卡取款你能带我去吗/是银行卡取款可以吗/当然是银行卡取款啦能取吗/用银行卡取款怎么取的/我决定用银行卡取钱你可以帮我吗/就用银行卡取钱你能帮我吗/我来取钱的，我只有银行卡我要怎么取/我想取钱，我的是银行卡你带我去可以吗/我取钱，我的是储蓄卡怎么取/去取款，我的是借记卡，你可以带我去取吗/我取钱我的是银行卡怎么取/我想取钱，然后我只有银行卡可以到柜台办吗/我想取钱，我只用银行卡到柜台怎么办/我今天是带卡来取钱的你能帮我吗/我卡上还有钱，取点出来怎么办理/银行卡怎么取钱/储蓄卡怎么取钱/银行卡在哪里取钱/银行卡在哪里取款/银行卡在哪里取现金/跟我说下，怎么用银行卡取钱/告诉我怎么用银行卡取钱/跟我说一下用银行卡怎么取钱/用银行卡如何取钱/银行卡取钱怎么办理/我不知道怎么用银行卡取钱/我想知道用银行卡怎么取钱/用存折怎么取钱/存单怎么取钱/支票怎么取钱/存单取钱/用存单取钱怎么取的/用支票取钱/我是带存折来取钱的/我就存折里有点存款，取出来/我只有存折想把里面的钱取出来/我来取钱的，我的是存折/我带存折来取钱哎/存折本取钱/存折取钱啊/就存折取个钱出来花/存折取款/是存折取款/我拿的存折来取款/我就存折里有钱想取点出来/存折本怎么取钱/存折本在哪里取钱/存折本怎么取现金/存折本在哪里取现金/怎么用存折取钱/我用储蓄卡取三千/我用银行卡取三千/借记卡取三千/信用卡取三千/用卡取款三千/我想用银行卡取三千/是银行卡取款三千/我决定用银行卡取三千块钱/就用银行卡取个三千块钱/我取三千块钱，银行卡取/我想用银行卡取三千块/我要用银行卡取三千/要取三千元，银行卡取/我想取三千元，用银行卡取/我想取三千，用银行卡/银行卡取三千元/用卡取三千块/银行卡取个三千/只取卡上三千/取卡上的三千元/卡上有好多钱，我只取三千/银行卡取三千/储蓄卡取三千/用银行卡取三千/银行卡取三千元现金/银行卡取三千大洋/用银行卡取三千块现金/三千块钱，用银行卡取/我需要三千块钱，用银行卡取/我用储蓄卡取三万/我用银行卡取三万/借记卡取三万/信用卡取三万/用卡取款三万/我想用银行卡取三万/是银行卡取款三万/我决定用银行卡取三万块钱/就用银行卡取个三万块钱/我取三万块钱，银行卡取/我想用银行卡取三万块/我要用银行卡取三万/要取三万元，银行卡取/我想取三万元，用银行卡取/我想取三万，用银行卡/银行卡取三万元/用卡取三万块/银行卡取个三万/只取卡上三万/取卡上的三万元/卡上有好多钱，我只取三万/银行卡取三万/储蓄卡取三万/用银行卡取三万/银行卡取三万元现金/银行卡取三万大洋/用银行卡取三万块现金/取三万用银行卡/我需要用银行卡取三万块钱/取三万我要，用银行卡/银行卡取钱，三万/我用储蓄卡取十万/我用银行卡取十万/借记卡取十万/信用卡取十万/用卡取款十万/我想用银行卡取十万/是银行卡取款十万/我决定用银行卡取十万块钱/就用银行卡取个十万块钱/我取十万块钱，银行卡取/我想用银行卡取十万块/我要用银行卡取十万/要取十万元，银行卡取/我想取十万元，用银行卡取/我想取十万，用银行卡/银行卡取十万元/用卡取十万块/银行卡取个十万/只取卡上十万/取卡上的十万元/卡上有好多钱，我只取十万/银行卡取十万/储蓄卡取十万/用银行卡取十万/银行卡取十万元现金/银行卡取十万大洋/用银行卡取十万块现金/银行卡取钱，十万/取十万块钱我要，用银行卡/我需要用银行卡取十万块钱/我要取十万块钱，用银行卡/我想取十万块钱，用银行卡/如果说我银行卡取三千怎么取啊/我卡里取三千到哪办/取银行卡三千块哪能办啊/你说银行卡怎么取三千块钱啊/我就用银行卡取个三千块你会吗/你能带我去取个三千块钱吗，银行卡取的/我想用银行卡取三千块钱,你能带我去吗/银行卡取三千哪个柜台办/银行卡取三千怎么办的啊/我往银行卡取三千怎么办理/储蓄卡取三千怎么办/我用银行卡取三千怎么办/银行卡取三千元现金怎么办理/银行卡取三千大洋怎么办/用银行卡取三千块现金怎么办/银行卡在哪里取三千块/储蓄卡在哪里取三千块/用卡取三千块钱怎么取/跟我说下怎么用银行卡取三千/告诉我用银行卡取三千怎么办/取三千用银行卡怎么办/如果说我银行卡取三万怎么取啊/我卡里取三万到哪办/取银行卡三万块哪能办啊/你说银行卡怎么取三万块钱啊/我就用银行卡取个三万块你会吗/你能带我去取个三万块钱吗，银行卡取的/我想用银行卡取三万块钱,你能带我去吗/银行卡取三万哪个柜台办/银行卡取三万怎么办的啊/我往银行卡取三万怎么办理/储蓄卡取三万怎么办/我用银行卡取三万怎么办/银行卡取三万元现金怎么办理/银行卡取三万大洋怎么办/用银行卡取三万块现金怎么办/银行卡在哪里取三万块/储蓄卡在哪里取三万块/用卡取三万块钱怎么取/跟我说下怎么用银行卡取三万/告诉我用银行卡取三万怎么办/取三万用银行卡怎么办/我用存折本取三千/我用存折取三千/折子取三千/存折上面取三千/用存折取款三千/我想用存折取三千/是存折取款三千/我决定用存折取三千块钱/就用存折取个三千块钱/我取三千块钱，存折取/我想用存折取三千块/我要用存折取三千/要取三千元，存折取/我想取三千元，用存折取/我想取三千，用存折/存折取三千元/存折取个三千/只取存折上面三千/取存折上面的三千元/存折上面有好多钱，我只取三千/存折本取三千块钱/存折本取三千块钱/存折本取三千现金/存折本取三千块现金/用存折取三千大洋/用银行卡取三千块现金/三千块钱，用银行卡取/我需要三千块钱，用银行卡取/我用存折本取三万/我用存折取三万/折子取三万/存折上面取三万/我想用存折取三万/是存折取款三万/我决定用存折取三万块钱/就用存折取个三万块钱/我取三万块钱，存折取/我想用存折取三万块/我要用存折取三万/要取三万元，存折取/我想取三万元，用存折取/我想取三万，用存折/存折取三万元/存折取个三万/只取存折上面三万/取存折上面的三万元/存折上面有好多钱，我只取三万/存折本取三万块钱/存折本取三万块钱/存折本取三万现金/存折本取三万块现金/用存折取三万大洋/取三万用存折/我用存折本取十万/我用存折取十万/折子取十万/存折上面取十万/我想用存折取十万/是存折取款十万/我决定用存折取十万块钱/就用存折取个十万块钱/我取十万块钱，存折取/我想用存折取十万块/我要用存折取十万/要取十万元，存折取/我想取十万元，用存折取/我想取十万，用存折/存折取十万元/存折取个十万/只取存折上面十万/取存折上面的十万元/存折上面有好多钱，我只取十万/存折本取十万块钱/存折本取十万块钱/存折本取十万现金/存折本取十万块现金/用存折取十万大洋/取十万用存折/如果说我存折取三千怎么取啊/取存折三千块哪能办啊/你说存折怎么取三千块钱啊/我就用存折取个三千块你会吗/你能带我去取个三千块钱吗，存折取的/我想用存折取三千块钱,你能带我去吗/存折取三千哪个柜台办/存折取三千怎么办的啊/我想用存折取三千怎么办理/存折本怎么取三千块钱/存折本取三千块钱怎么办/存折本取三千现金怎么办/存折本取三千块现金在哪里办理/在哪里用存折取三千大洋/告诉我三千块钱用存折怎么取/三千块钱用存折取怎么办理/你能告诉我怎么用存折取三千吗/跟我说一下用存折取三千怎么办/如果说我存折取三万怎么取啊/取存折三万块哪能办啊/你说存折怎么取三万块钱啊/我就用存折取个三万块你会吗/你能带我去取个三万块钱吗，存折取的/我想用存折取三万块钱,你能带我去吗/存折取三万哪个柜台办/存折取三万怎么办的啊/我想用存折取三万怎么办理/存折本怎么取三万块钱/存折本取三万块钱怎么办/存折本取三万现金怎么办/存折本取三万块现金在哪里办理/在哪里用存折取三万大洋/告诉我三万块钱用存折怎么取/三万块钱用存折取怎么办理/你能告诉我怎么用存折取三万吗/跟我说一下用存折取三万怎么办/如果说我存折取十万怎么取啊/我存折里取十万到哪办/取存折十万块哪能办啊/你说存折怎么取十万块钱啊/我就用存折取个十万块你会吗/你能带我去取个十万块钱吗，存折取的/我想用存折取十万块钱,你能带我去吗/存折取十万哪个柜台办/存折取十万怎么办的啊/我想用存折取十万怎么办理/存折本怎么取十万块钱/存折本取十万块钱怎么办/存折本取十万现金怎么办/存折本取十万块现金在哪里办理/在哪里用存折取十万大洋/告诉我十万块钱用存折怎么取/十万块钱用存折取怎么办理/你能告诉我怎么用存折取十万吗/跟我说一下用存折取十万怎么办/取两百万块/就取两百万/取两百万元/取两百万块钱/取两百万元钱/就取两百万块钱/我来取两百万元钱/我来取两百万块呀/我要取两百万呀/也就取两百万/取两百万吧/我想取两百万块钱吧/我要取两百万吧/嗯取个两百万/我是来取两百万块钱的/取两百万大洋/取两百万现金/取两百万人民币/取两百万块大洋/取两百万元现金/取两百万块人民币/取两百万我要/我想取两百万/我要取两百万/我需要取两百万/我得取两百万/我能取两百万块吗/我想取两百万块有吗/我可以取两百万吗/两百万块上哪取/我想取两百万哪里可以办理/我可不可以取两百万块钱啊/两百万怎么取/你可以带我取两百万块钱吗/你知道两百万怎么取吗/我要取的比较多，两百万块怎么取/如果我要取两百万，哪里可以办/两百万块是要到柜台办理吗/我两百万怎么取/我今天来取点钱，两百万块啊能取的/两百万块现金怎么取/两百万元人民币怎么取/两百万块大洋怎么取/两百万元到哪里取/两百万块现金到哪里取/两百万元人民币到哪里取/两百万块大洋到哪里取/去哪取两百万/告诉我两百万去哪取/我想取两百万，告诉我去哪里办理/跟我说一下，两百万去哪去/我想取两百万，去哪里取呢/我需要两百万，去哪里取呢/我要取两百万，咋办</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2072,6 +2074,108 @@
 </styleSheet>
 </file>
 
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{DFF8E0BF-A0C3-44FA-9F15-118D80901382}" diskRevisions="1" revisionId="5" version="2">
+  <header guid="{8BCF51A8-7964-4ACE-9CF3-B21F43A7BEE9}" dateTime="2017-12-13T09:24:01" maxSheetId="21" userName="lulu.wang(王路路)" r:id="rId1">
+    <sheetIdMap count="20">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+      <sheetId val="20"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DFF8E0BF-A0C3-44FA-9F15-118D80901382}" dateTime="2017-12-13T12:21:55" maxSheetId="21" userName="xin.zheng(郑新)" r:id="rId2" minRId="1" maxRId="4">
+    <sheetIdMap count="20">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+      <sheetId val="20"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="19">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>表情</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2" sId="19">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>图片</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3" sId="20">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>表情</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4" sId="20">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>图片</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_CEB7DEB3_A0CD_4694_A580_3EEC78FB579F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>手机银行!$B$2:$H$161</formula>
+  </rdn>
+  <rcv guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -2593,9 +2697,25 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:H163"/>
+  <customSheetViews>
+    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="B1:H163"/>
+    </customSheetView>
+    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="B1:H163"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2667,6 +2787,16 @@
       <c r="F3"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+      <selection activeCell="C7" sqref="C7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+      <selection activeCell="C7" sqref="C7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2868,6 +2998,16 @@
       <c r="F11"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+      <selection activeCell="D9" sqref="D9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+      <selection activeCell="D9" sqref="D9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3021,6 +3161,16 @@
       <c r="F8"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+      <selection activeCell="C26" sqref="C26"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+      <selection activeCell="C26" sqref="C26"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3190,6 +3340,16 @@
       <c r="F9"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+      <selection activeCell="B10" sqref="B10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+      <selection activeCell="B10" sqref="B10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="javascript:openWindow('LT7D01.html','/icbc/网上理财/理财产品/产品预览.htm?addStr=LT7D01.html&amp;productId=LT7D01&amp;buyflag=1')"/>
@@ -3266,6 +3426,16 @@
       <c r="F3"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+      <selection activeCell="B2" sqref="B2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+      <selection activeCell="B2" sqref="B2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3387,6 +3557,16 @@
       <c r="F6"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+      <selection activeCell="D15" sqref="D15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+      <selection activeCell="D15" sqref="D15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3:C6" r:id="rId1" display="javascript:openWindow('LT7D01.html','/icbc/网上理财/理财产品/产品预览.htm?addStr=LT7D01.html&amp;productId=LT7D01&amp;buyflag=1')"/>
@@ -3447,6 +3627,16 @@
       <c r="F2"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+      <selection activeCell="B9" sqref="B9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+      <selection activeCell="B9" sqref="B9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3504,6 +3694,16 @@
       <c r="F2"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+      <selection activeCell="B32" sqref="B32"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+      <selection activeCell="B32" sqref="B32"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3621,6 +3821,16 @@
       <c r="D8" s="44"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+      <selection activeCell="C12" sqref="C12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+      <selection activeCell="C12" sqref="C12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3651,10 +3861,10 @@
         <v>263</v>
       </c>
       <c r="E1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F1" t="s">
         <v>384</v>
-      </c>
-      <c r="F1" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
@@ -3665,13 +3875,23 @@
         <v>372</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+      <selection activeCell="F1" sqref="F1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+      <selection activeCell="D2" sqref="D2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4049,9 +4269,21 @@
       <c r="F22"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+      <selection activeCell="B26" sqref="B26"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+      <selection activeCell="B26" sqref="B26"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4059,8 +4291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4071,28 +4303,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>383</v>
-      </c>
       <c r="B1" t="s">
         <v>374</v>
       </c>
       <c r="C1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D1" t="s">
         <v>263</v>
       </c>
       <c r="E1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F1" t="s">
         <v>386</v>
-      </c>
-      <c r="F1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="342" x14ac:dyDescent="0.15">
       <c r="A2" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>377</v>
@@ -4101,13 +4330,25 @@
         <v>376</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}" topLeftCell="B1">
+      <selection activeCell="F1" sqref="F1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}" topLeftCell="B1">
+      <selection activeCell="D16" sqref="D16"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4435,9 +4676,21 @@
       <c r="F19"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+      <selection activeCell="B17" sqref="B17"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+      <selection activeCell="B17" sqref="B17"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4814,6 +5067,16 @@
       <c r="F22"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+      <selection activeCell="B13" sqref="B13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+      <selection activeCell="B13" sqref="B13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4935,9 +5198,21 @@
       <c r="F6"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+      <selection activeCell="B9" sqref="B9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+      <selection activeCell="B9" sqref="B9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5010,6 +5285,16 @@
       <c r="F3"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5547,6 +5832,16 @@
       <c r="F32"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+      <selection activeCell="C4" sqref="C4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+      <selection activeCell="C4" sqref="C4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5636,6 +5931,16 @@
       <c r="F4"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+      <selection activeCell="E2" sqref="E2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+      <selection activeCell="E2" sqref="E2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5838,6 +6143,16 @@
       <c r="F11"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+      <selection activeCell="D4" sqref="D4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+      <selection activeCell="D4" sqref="D4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/update_data/data/bank_psbc/qa/业务问答.xlsx
+++ b/update_data/data/bank_psbc/qa/业务问答.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="4755" windowWidth="19440" windowHeight="7185" tabRatio="900" firstSheet="6" activeTab="19"/>
+    <workbookView xWindow="15" yWindow="4755" windowWidth="19440" windowHeight="7185" tabRatio="941"/>
   </bookViews>
   <sheets>
     <sheet name="手机银行" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,24 @@
     <sheet name="积存金" sheetId="16" r:id="rId16"/>
     <sheet name="微信银行" sheetId="17" r:id="rId17"/>
     <sheet name="其他" sheetId="18" r:id="rId18"/>
-    <sheet name="取钱" sheetId="19" r:id="rId19"/>
-    <sheet name="查明细" sheetId="20" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">手机银行!$B$2:$H$161</definedName>
-    <definedName name="Z_A8D1D74F_E720_4F56_99B0_27626D8CF6B3_.wvu.FilterData" localSheetId="0" hidden="1">手机银行!$B$2:$H$161</definedName>
-    <definedName name="Z_CEB7DEB3_A0CD_4694_A580_3EEC78FB579F_.wvu.FilterData" localSheetId="0" hidden="1">手机银行!$B$2:$H$161</definedName>
+    <definedName name="Z_398C8F7F_907A_4A2C_99C0_39A987100726_.wvu.FilterData" localSheetId="0" hidden="1">手机银行!$B$2:$H$161</definedName>
+    <definedName name="Z_B9849D1F_31DA_4684_AD2A_1F6836966C2A_.wvu.FilterData" localSheetId="0" hidden="1">手机银行!$B$2:$H$161</definedName>
+    <definedName name="Z_F671582D_740D_40B7_95CA_8790D0A2ADE2_.wvu.FilterData" localSheetId="0" hidden="1">手机银行!$B$2:$H$161</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
-    <customWorkbookView name="xin.zheng(郑新) - 个人视图" guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1531" windowHeight="693" tabRatio="900" activeSheetId="20"/>
-    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" tabRatio="900" activeSheetId="19"/>
+    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" tabRatio="941" activeSheetId="5"/>
+    <customWorkbookView name="mengwei.chang(常孟玮) - 个人视图" guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="524" tabRatio="941" activeSheetId="18"/>
+    <customWorkbookView name="ling.tian(田玲) - 个人视图" guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="603" tabRatio="941" activeSheetId="17"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="384">
   <si>
     <t>取号怎么网上预约？</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,9 +425,6 @@
     <t xml:space="preserve">在网上银行就可办理，如果您看涨，就选择“全部-贵金属.外汇-贵金属-账户贵金属-先买入后卖出”，看跌就先卖出后买入。您也可以通过手机银行等渠道办理哦~ </t>
   </si>
   <si>
-    <t>智慧柜员机怎么用？/智慧柜员机不会使用/智慧柜员机不会用/</t>
-  </si>
-  <si>
     <t>在智慧柜员机哥哥的小脸上点击你需要办理的业务就可以了，更多帮助你也可以呼叫大堂经理。</t>
   </si>
   <si>
@@ -490,9 +487,6 @@
   </si>
   <si>
     <t>住房类贷款种类较多，需要你提供更详细的信息，如：一手个人住房贷款、二手个人住房贷款、个人住房公积金贷款，个人住房组合贷款等</t>
-  </si>
-  <si>
-    <t>转账不成功是什么原因/我转账不成功呀/我怎么转账失败呀/我怎么不能转账呀/我转不成账呀/转账失败/怎么又转账失败？/转账不成功/</t>
   </si>
   <si>
     <t>转账不成功有多种情况，如信息填写错误，账户状态异常，附言含非法字符被人行拒绝等，建议核实后重新办理。</t>
@@ -1426,23 +1420,6 @@
   </si>
   <si>
     <r>
-      <t>手机银行能做什么？/我能用手机银行做什么？/手机银行能提供哪些服务？/手机银行能做哪些事?/手机银行能帮我做什么？/我为什么要用手机银行？/手机银行有什么好处？/介绍一下手机银行/跟我说一下手机银行/推销一下手机银行/手机银行有什么功能？/手机银行能提供什么服务？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/为什么要开通手机银行/手机银行可以干什么</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>手机银行收费么？/手机银行要付钱么？/手机银行收不收费？/办手机银行需要不需要交钱？/手机银行要钱么</t>
     </r>
     <r>
@@ -1588,10 +1565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大堂经理在哪儿？/我怎么没见大堂经理/大堂经理哪儿去了/帮我找一下大堂经理/快看看大堂经理在哪儿/带我去找大堂经理/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我帮您呼叫信贷经理。信贷经理，信贷经理，您的上帝在我这儿等您来服务。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1621,87 +1594,220 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我要取钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回答</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果您要做证明材料，请取号到柜台办理。如果您是自己看看，推荐您扫二维码，用手机银行查询。当然您也可以通过网银，自助设备，柜台查询。</t>
-  </si>
-  <si>
-    <t>我来拉流水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回答</t>
+    <t>什么是信用卡交易日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是有效证件？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>我想查明细/我要查明细/我是来查明细的/我来查明细/查下银行清单/查下流水/流水清单/我来拉流水/我来查对账单/我来拉对账单/我想查对账单/我来查下对账单/我查对账单/拉对账单/查明细/我要查上个月的账单/我来打印流水明细/我是来打流水的/我来拉个流水/我就来拉个流水/我来查询流水明细/我来查询银行明细/我来打印流水清单/我来打印账单/我打明细/打印半年流水/我想打印半年流水/我要查询半年流水/给我打印一年的流水/我来拉一年的流水/打印流水账单/查询流水账单/我来查查银行账单/我来打印一下银行卡的流水</t>
+      <t>转账不成功是什么原因/我转账不成功呀/我怎么转账失败呀/我怎么不能转账呀/我转不成账呀/转账失败/怎么又转账失败？/转账不成功</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/我能查一下明细么？/查明细可以么？/你能帮我查一下明细么？/你能帮我查明细么？/这里可以查明细吗/这里可以查银行清单吗/这里可以查流水吗/这里可以查流水清单吗/我能拉对一下账单么？/我可以查对账单么？/怎么拉对账单？/您这里能拉对一下对账单么？/我能查一下对账单么？/怎么查对账单？/如何查对账单？这里可以查对账单吗/这里可以查对账单吗/这里可以查下对账单吗/如何查对账单/如何查询对账单/如何办理对账单业务/账单明细怎么查询/流水怎么查询/你能帮我打印流水吗/流水怎么打印/您能帮我打印账单吗/你能帮我打账单吗/请问流水怎么打印/我想请问账单怎么查/流水账单明细怎么查询/流水账单明细怎么打印/流水账单明细怎么拉/我来拉流水办贷款用/我来拉流水办签证用的/我最近要出国，帮我拉份流水/我要拉流水，办出国用的/我要拉流水，作证明用/拉对账单作证明用的/我要拉流水要盖章的/我来拉流水要盖章的/我来拉流水需要盖章/我差个对账单，出国用的/我差个对账单，作证明用的/我查个对账单，做贷款用/我要查询流水账单明细要盖章的/我要拉流水账单明细，证明用的/我要打印流水账单明细，做证明材料/我要拉出国用的流水，怎么办理/你能带我去拉流水吗，我做贷款用的/你能带我去啦流水吗要盖章的/我想拉一份盖章的流水可不可以/这里拉流水给盖章吗/我要查明细有盖章的要取号吗/我要查明细要盖章那种可以吗/办出国用的账单去哪里查/办贷款的账单怎么查询/我要盖章的流水账单明细怎么查询打印/我想要个流水账单明细做证明材料用，怎么查/查流水账打明细作证明怎么办/我就查个明细自己看看/我想了解一下我的账单情况/我来查查账单明细自己看看/我想来看看这个月流水怎么样/我来看看我这个月花了多少钱/我看看卡上消费多少/我想要一份自己看的流水哪里查询/我想自己看看最近的账单情况你能带我去办吗/我来拉个流水自己看怎么啦/我查一下账单就自己看看那种咋办理呀/拉流水怎么办的,我自己看的那种/我能查明细吗/在哪查明细/我查个明细/在哪打印明细/在哪打印流水在哪查流水账单/在哪查账单/哪里可以查明细/查明细要取号吗/查流水要取号吗/</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行卡取款两万以下可自助办理，两万到五万请取号到柜台办理，五万以上要先找客服经理预约。存折取款或取零钱，请您取号到柜台办理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>我来取钱/我是来取钱的/我来取款/我是来取款的/我又来取钱了/我来领工资/我来拿钱/我来领钱/我来取工资/我来领退休金/取退休金/我把退休金取出来/我想取钱/我想取款/取钱/取款/拿钱/领钱/我把工资取出来/没钱花了取点钱出来/我就是来取点钱的/我来取一点点钱啊/我想取一点钱/我想取一些钱出来/我来取点人民币/我是来取钱花的/最近缺钱啊，我要取点出来/我是来取工资的/我想把工资都取出来/我把钱都取出来/取款</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="4"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/在哪里取钱/在哪取钱/取钱去哪里办理/哪里可以取钱/怎么取钱/取钱怎么取/我来取点钱/我来取个钱/我来取一下钱/我要取好多好多钱/在哪里取款/在哪取款/取款去哪里办理/哪里可以取钱/怎么取款/取款怎么取/我来取点人民币/我要取好多人民币/取人民币/人民币怎么取/取点钱/取一下钱/取个钱/我来办理取款业务/我来取钞票/我来取点钞票/怎么取钞票/钞票怎么取/我来取点大洋/取大洋/在哪里取大洋/取大洋怎么取/取现金/取点现金/怎么取现金/现金怎么取/哪里取现金/取现金在哪里办理/我想取点钱/我想取款/我要取钱/我要取款/怎么取钱/怎么取款/我想取钱，怎么取/我想取点钱用/我想取些钱/你能带我去取钱吗/你知道怎么取钱吗/你知道去哪取钱吗/我想取钱怎么取/我来取钱，你能带我去吗/我来取钱，你可以帮助我吗/我取钱，你可以带我去吗/你能带我去取款吗/你知道怎么取款吗/你知道去哪取款吗/我想取款怎么取/我来取款，你能带我去吗/我来取款，你可以帮助我吗/我取款，你可以带我去吗/你能带我去取钞票吗/你知道怎么取钞票吗/你知道去哪取钞票吗/我想取钞票怎么取/我来取钞票，你能带我去吗/我来取钞票，你可以帮助我吗/我取钞票，你可以带我去吗/你知道怎么取人民币吗/你知道去哪里取人民币吗/人民币怎么取，你知道吗/你能帮我取钱吗/你能帮我取款吗/你能帮我取点人民币吗/你可以帮我取钱吗/你可以帮我取个钱吗/你可以帮我取款吗/你可以帮我取点人民币吗/你可以帮我取点大洋吗/可以帮我取大洋吗/可以帮我取点现金吗/可以帮我取现金吗/你可以帮我取现金吗/你可以帮我取点现金吗/带我去取钱吧/带我去取款/去哪取钱，跟我说一下/带我去取钱，好吗/可以带我去取钱吗/可不可以带我去取钱/我想让你带我去取钱，可以吗/你是否能够带我去取钱/我想取钱，你可以带我去吗/我要取钱，告诉我去哪取吧/告诉我去哪取钱/跟我说一下，取钱去哪取/我想知道取钱去哪取/去哪能取到钱/取点零钱/我没有零钱了取点出来/我要取零钱/我来取零钱/我想取点零钱/我需要一些零钱/我要取的有零钱/取点零钞/我没有零钞了，取点出来/我要取零钞/我来取零钞/我想取点零钞/我需要一些零钞/我要取的有零钞/取点零钱我要/我想取点零钱/我需要取点零钱/我要取点零钱/取零钱/我没有零钱了/我要取零钱/我来取零钱/我想取点零钱/我需要一些零钱/我要取的有零钱/我没有零钱了/我要取零钱/我来取零钱/我想取点零钱/我需要一些零钱/取零钱怎么取/取零钞/我没有零钞了/我要取零钞/我来取零钞/我想取点零钞/我需要一些零钞/我要取的有零钞/我没有零钞了/我要取零钞/我来取零钞/我想取点零钞/我需要一些零钞/取零钞怎么取/取零钞/取零钱/取个零钱/取点零钱/取点零钞/可以取零钱吗？/哪边可以取零钱呢？/这里能取零钱吗？/我想取零钱到哪取/零钱怎么取/零钱怎么取的/可以取零钞吗？/哪边可以取零钞呢？/这里能取零钞吗？/我想取零钞到哪取/零钞怎么取/零钞怎么取的/零钱在哪里取/零钱可以取吗/零钞在哪里取/哪里取零钞/哪里取零钱/我想取零钱，要去哪里取/告诉我取零钱去哪取/跟我说一下，去哪里能取零钱/取三千块/就取三千/取三千元/取三千块钱/取三千元钱/就取三千块钱/我来取三千元钱/我来取三千块呀/我要取三千呀/也就取三千/取三千吧/我想取三千块钱吧/我要取三千吧/嗯取个三千/我是来取三千块钱的/取三千大洋/取三千现金/取三千人民币/取三千块大洋/取三千元现金/取三千元人民币/我想取三千/我取三千吧/取三千吧我要/我需要取三千/我能取三千块吗/我想取三千块有吗/我可以取三千吗/三千块上哪取/我想取三千哪里可以办理/我可不可以取三千块钱啊/三千怎么取/你可以带我取三千块钱吗/你知道三千怎么取吗/我要取的比较多，三千块怎么取/如果我要取三千，哪里可以办/三千块是要到柜台办理吗/我三千怎么取/我今天来取点钱，三千块啊能取的/三千块现金怎么取/三千元人民币怎么取/三千块大洋怎么取/三千元到哪里取/三千块现金到哪里取/三千元人民币到哪里取/三千块大洋到哪里取/取三万块/就取三万/取三万元/取三万块钱/取三万元钱/就取三万块钱/我来取三万元钱/我来取三万块呀/我要取三万呀/也就取三万/取三万吧/我想取三万块钱吧/我要取三万吧/嗯取个三万/我是来取三万块钱的/取三万大洋/取三万现金/取三万人民币/取三万块大洋/取三万元现金/取三万块人民币/我能取三万块吗/我想取三万块有吗/我可以取三万吗/三万块上哪取/我想取三万哪里可以办理/我可不可以取三万块钱啊/三万怎么取/你可以带我取三万块钱吗/你知道三万怎么取吗/我要取的比较多，三万块怎么取/如果我要取三万，哪里可以办/三万块是要到柜台办理吗/我三万怎么取/我今天来取点钱，三万块啊能取的/三万块现金怎么取/三万元人民币怎么取/三万块大洋怎么取/三万元到哪里取/三万块现金到哪里取/三万元人民币到哪里取/三万块大洋到哪里取/取十万块/就取十万/取十万元/取十万块钱/取十万元钱/就取十万块钱/我来取十万元钱/我来取十万块呀/我要取十万呀/也就取十万/取十万吧/我想取十万块钱吧/我要取十万吧/嗯取个十万/我是来取十万块钱的/取十万大洋/取十万现金/取十万人民币/取十万块大洋/取十万元现金/取十万块人民币/我要取十万/我想取十万/我需要取十万/我能取十万块吗/我想取十万块有吗/我可以取十万吗/十万块上哪取/我想取十万哪里可以办理/我可不可以取十万块钱啊/十万怎么取/你可以带我取十万块钱吗/你知道十万怎么取吗/我要取的比较多，十万块怎么取/如果我要取十万，哪里可以办/十万块是要到柜台办理吗/我十万怎么取/我今天来取点钱，十万块啊能取的/十万块现金怎么取/十万元人民币怎么取/十万块大洋怎么取/十万元到哪里取/十万块现金到哪里取/十万元人民币到哪里取/十万块大洋到哪里取/十万去哪取/取十万，怎么办理/取十万，如何办理/取十万，该怎么办/取十万，该去哪办/储蓄卡取款/用银行卡取款/借记卡取款/信用卡取款/用卡取款/我想用银行卡取款/是银行卡取款/当然是银行卡取款啦/用银行卡取款吧/我决定用银行卡取钱/就用银行卡取钱/我来取钱的，我只有银行卡/我想取钱，我的是银行卡/我取钱，我的是储蓄卡/去取款，我的是借记卡，不是存折/我取钱我的是银行卡，不是存折/我想取钱，然后我只有银行卡，没有存折/我想取钱，我只用银行卡/我今天是带卡来取钱的/我卡上还有钱，取点出来/银行卡取钱/储蓄卡取钱/用银行卡取点钱/银行卡取点现金/银行卡取点款/用银行卡取点现金/取钱用银行卡/用卡取点现金/用存折取钱/存单取钱/支票取钱/存单取钱/用存单取钱/用支票取钱/我是带存折来取钱的/我就存折里有点存款，取出来/我只有存折想把里面的钱取出来/我来取钱的，我的是存折/我带存折来取钱哎/存折本取钱/存折取钱啊/就存折取个钱出来花/存折取款/是存折取款/我拿的存折来取款/我就存折里有钱想取点出来/存折本取点钱/存折本取个钱/存折本取点现金/存折本取点款/用存折取点钱/用存折取点钱/我拿存折取点钱/我想用存折取款/我要用存折取钱/我要用存折取点现金/取钱用存折/取现金用存折/储蓄卡怎么取款/用银行卡怎么取款/借记卡怎么取款/信用卡取款哪里办/用卡取款要到柜台吗/我想用银行卡取款你能带我去吗/是银行卡取款可以吗/当然是银行卡取款啦能取吗/用银行卡取款怎么取的/我决定用银行卡取钱你可以帮我吗/就用银行卡取钱你能帮我吗/我来取钱的，我只有银行卡我要怎么取/我想取钱，我的是银行卡你带我去可以吗/我取钱，我的是储蓄卡怎么取/去取款，我的是借记卡，你可以带我去取吗/我取钱我的是银行卡怎么取/我想取钱，然后我只有银行卡可以到柜台办吗/我想取钱，我只用银行卡到柜台怎么办/我今天是带卡来取钱的你能帮我吗/我卡上还有钱，取点出来怎么办理/银行卡怎么取钱/储蓄卡怎么取钱/银行卡在哪里取钱/银行卡在哪里取款/银行卡在哪里取现金/跟我说下，怎么用银行卡取钱/告诉我怎么用银行卡取钱/跟我说一下用银行卡怎么取钱/用银行卡如何取钱/银行卡取钱怎么办理/我不知道怎么用银行卡取钱/我想知道用银行卡怎么取钱/用存折怎么取钱/存单怎么取钱/支票怎么取钱/存单取钱/用存单取钱怎么取的/用支票取钱/我是带存折来取钱的/我就存折里有点存款，取出来/我只有存折想把里面的钱取出来/我来取钱的，我的是存折/我带存折来取钱哎/存折本取钱/存折取钱啊/就存折取个钱出来花/存折取款/是存折取款/我拿的存折来取款/我就存折里有钱想取点出来/存折本怎么取钱/存折本在哪里取钱/存折本怎么取现金/存折本在哪里取现金/怎么用存折取钱/我用储蓄卡取三千/我用银行卡取三千/借记卡取三千/信用卡取三千/用卡取款三千/我想用银行卡取三千/是银行卡取款三千/我决定用银行卡取三千块钱/就用银行卡取个三千块钱/我取三千块钱，银行卡取/我想用银行卡取三千块/我要用银行卡取三千/要取三千元，银行卡取/我想取三千元，用银行卡取/我想取三千，用银行卡/银行卡取三千元/用卡取三千块/银行卡取个三千/只取卡上三千/取卡上的三千元/卡上有好多钱，我只取三千/银行卡取三千/储蓄卡取三千/用银行卡取三千/银行卡取三千元现金/银行卡取三千大洋/用银行卡取三千块现金/三千块钱，用银行卡取/我需要三千块钱，用银行卡取/我用储蓄卡取三万/我用银行卡取三万/借记卡取三万/信用卡取三万/用卡取款三万/我想用银行卡取三万/是银行卡取款三万/我决定用银行卡取三万块钱/就用银行卡取个三万块钱/我取三万块钱，银行卡取/我想用银行卡取三万块/我要用银行卡取三万/要取三万元，银行卡取/我想取三万元，用银行卡取/我想取三万，用银行卡/银行卡取三万元/用卡取三万块/银行卡取个三万/只取卡上三万/取卡上的三万元/卡上有好多钱，我只取三万/银行卡取三万/储蓄卡取三万/用银行卡取三万/银行卡取三万元现金/银行卡取三万大洋/用银行卡取三万块现金/取三万用银行卡/我需要用银行卡取三万块钱/取三万我要，用银行卡/银行卡取钱，三万/我用储蓄卡取十万/我用银行卡取十万/借记卡取十万/信用卡取十万/用卡取款十万/我想用银行卡取十万/是银行卡取款十万/我决定用银行卡取十万块钱/就用银行卡取个十万块钱/我取十万块钱，银行卡取/我想用银行卡取十万块/我要用银行卡取十万/要取十万元，银行卡取/我想取十万元，用银行卡取/我想取十万，用银行卡/银行卡取十万元/用卡取十万块/银行卡取个十万/只取卡上十万/取卡上的十万元/卡上有好多钱，我只取十万/银行卡取十万/储蓄卡取十万/用银行卡取十万/银行卡取十万元现金/银行卡取十万大洋/用银行卡取十万块现金/银行卡取钱，十万/取十万块钱我要，用银行卡/我需要用银行卡取十万块钱/我要取十万块钱，用银行卡/我想取十万块钱，用银行卡/如果说我银行卡取三千怎么取啊/我卡里取三千到哪办/取银行卡三千块哪能办啊/你说银行卡怎么取三千块钱啊/我就用银行卡取个三千块你会吗/你能带我去取个三千块钱吗，银行卡取的/我想用银行卡取三千块钱,你能带我去吗/银行卡取三千哪个柜台办/银行卡取三千怎么办的啊/我往银行卡取三千怎么办理/储蓄卡取三千怎么办/我用银行卡取三千怎么办/银行卡取三千元现金怎么办理/银行卡取三千大洋怎么办/用银行卡取三千块现金怎么办/银行卡在哪里取三千块/储蓄卡在哪里取三千块/用卡取三千块钱怎么取/跟我说下怎么用银行卡取三千/告诉我用银行卡取三千怎么办/取三千用银行卡怎么办/如果说我银行卡取三万怎么取啊/我卡里取三万到哪办/取银行卡三万块哪能办啊/你说银行卡怎么取三万块钱啊/我就用银行卡取个三万块你会吗/你能带我去取个三万块钱吗，银行卡取的/我想用银行卡取三万块钱,你能带我去吗/银行卡取三万哪个柜台办/银行卡取三万怎么办的啊/我往银行卡取三万怎么办理/储蓄卡取三万怎么办/我用银行卡取三万怎么办/银行卡取三万元现金怎么办理/银行卡取三万大洋怎么办/用银行卡取三万块现金怎么办/银行卡在哪里取三万块/储蓄卡在哪里取三万块/用卡取三万块钱怎么取/跟我说下怎么用银行卡取三万/告诉我用银行卡取三万怎么办/取三万用银行卡怎么办/我用存折本取三千/我用存折取三千/折子取三千/存折上面取三千/用存折取款三千/我想用存折取三千/是存折取款三千/我决定用存折取三千块钱/就用存折取个三千块钱/我取三千块钱，存折取/我想用存折取三千块/我要用存折取三千/要取三千元，存折取/我想取三千元，用存折取/我想取三千，用存折/存折取三千元/存折取个三千/只取存折上面三千/取存折上面的三千元/存折上面有好多钱，我只取三千/存折本取三千块钱/存折本取三千块钱/存折本取三千现金/存折本取三千块现金/用存折取三千大洋/用银行卡取三千块现金/三千块钱，用银行卡取/我需要三千块钱，用银行卡取/我用存折本取三万/我用存折取三万/折子取三万/存折上面取三万/我想用存折取三万/是存折取款三万/我决定用存折取三万块钱/就用存折取个三万块钱/我取三万块钱，存折取/我想用存折取三万块/我要用存折取三万/要取三万元，存折取/我想取三万元，用存折取/我想取三万，用存折/存折取三万元/存折取个三万/只取存折上面三万/取存折上面的三万元/存折上面有好多钱，我只取三万/存折本取三万块钱/存折本取三万块钱/存折本取三万现金/存折本取三万块现金/用存折取三万大洋/取三万用存折/我用存折本取十万/我用存折取十万/折子取十万/存折上面取十万/我想用存折取十万/是存折取款十万/我决定用存折取十万块钱/就用存折取个十万块钱/我取十万块钱，存折取/我想用存折取十万块/我要用存折取十万/要取十万元，存折取/我想取十万元，用存折取/我想取十万，用存折/存折取十万元/存折取个十万/只取存折上面十万/取存折上面的十万元/存折上面有好多钱，我只取十万/存折本取十万块钱/存折本取十万块钱/存折本取十万现金/存折本取十万块现金/用存折取十万大洋/取十万用存折/如果说我存折取三千怎么取啊/取存折三千块哪能办啊/你说存折怎么取三千块钱啊/我就用存折取个三千块你会吗/你能带我去取个三千块钱吗，存折取的/我想用存折取三千块钱,你能带我去吗/存折取三千哪个柜台办/存折取三千怎么办的啊/我想用存折取三千怎么办理/存折本怎么取三千块钱/存折本取三千块钱怎么办/存折本取三千现金怎么办/存折本取三千块现金在哪里办理/在哪里用存折取三千大洋/告诉我三千块钱用存折怎么取/三千块钱用存折取怎么办理/你能告诉我怎么用存折取三千吗/跟我说一下用存折取三千怎么办/如果说我存折取三万怎么取啊/取存折三万块哪能办啊/你说存折怎么取三万块钱啊/我就用存折取个三万块你会吗/你能带我去取个三万块钱吗，存折取的/我想用存折取三万块钱,你能带我去吗/存折取三万哪个柜台办/存折取三万怎么办的啊/我想用存折取三万怎么办理/存折本怎么取三万块钱/存折本取三万块钱怎么办/存折本取三万现金怎么办/存折本取三万块现金在哪里办理/在哪里用存折取三万大洋/告诉我三万块钱用存折怎么取/三万块钱用存折取怎么办理/你能告诉我怎么用存折取三万吗/跟我说一下用存折取三万怎么办/如果说我存折取十万怎么取啊/我存折里取十万到哪办/取存折十万块哪能办啊/你说存折怎么取十万块钱啊/我就用存折取个十万块你会吗/你能带我去取个十万块钱吗，存折取的/我想用存折取十万块钱,你能带我去吗/存折取十万哪个柜台办/存折取十万怎么办的啊/我想用存折取十万怎么办理/存折本怎么取十万块钱/存折本取十万块钱怎么办/存折本取十万现金怎么办/存折本取十万块现金在哪里办理/在哪里用存折取十万大洋/告诉我十万块钱用存折怎么取/十万块钱用存折取怎么办理/你能告诉我怎么用存折取十万吗/跟我说一下用存折取十万怎么办/取两百万块/就取两百万/取两百万元/取两百万块钱/取两百万元钱/就取两百万块钱/我来取两百万元钱/我来取两百万块呀/我要取两百万呀/也就取两百万/取两百万吧/我想取两百万块钱吧/我要取两百万吧/嗯取个两百万/我是来取两百万块钱的/取两百万大洋/取两百万现金/取两百万人民币/取两百万块大洋/取两百万元现金/取两百万块人民币/取两百万我要/我想取两百万/我要取两百万/我需要取两百万/我得取两百万/我能取两百万块吗/我想取两百万块有吗/我可以取两百万吗/两百万块上哪取/我想取两百万哪里可以办理/我可不可以取两百万块钱啊/两百万怎么取/你可以带我取两百万块钱吗/你知道两百万怎么取吗/我要取的比较多，两百万块怎么取/如果我要取两百万，哪里可以办/两百万块是要到柜台办理吗/我两百万怎么取/我今天来取点钱，两百万块啊能取的/两百万块现金怎么取/两百万元人民币怎么取/两百万块大洋怎么取/两百万元到哪里取/两百万块现金到哪里取/两百万元人民币到哪里取/两百万块大洋到哪里取/去哪取两百万/告诉我两百万去哪取/我想取两百万，告诉我去哪里办理/跟我说一下，两百万去哪去/我想取两百万，去哪里取呢/我需要两百万，去哪里取呢/我要取两百万，咋办</t>
+      <t>/为什么转账不成功/我怎么转账不成功/我为什么转账失败了/我怎么转账失败了/转账失败是什么原因</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片</t>
+    <r>
+      <t>怎么手机转账？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/手机怎么转账/怎么手机转账啊/手机怎么进行转账啊/手机转账怎么操作/手机怎么转账汇款/手机怎么汇款/手机汇款怎么操作/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我不会手机转账怎么办？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/可以教我手机转账吗/教我怎么手机转账吧</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧柜员机不会用怎么办？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>智慧柜员机怎么用？/智慧柜员机不会使用/智慧柜员机不会用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/怎么用智慧柜员机/教我使用智慧柜员机/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>智慧柜员机能做什么？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/智慧柜员机是什么/智慧柜员机有哪些功能/智慧柜员机能干啥/智慧柜员机是什么东西/智慧柜员机能帮我做什么/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>给我介绍下智慧柜员机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/介绍一下智慧柜员机的好处/介绍一下智慧柜员机是干嘛的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你和智慧柜员机哪个厉害？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/智慧柜员机厉害吗/智慧柜员机比你厉害吗/智慧柜员机比你厉害吗</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>智慧柜员机是哪一个？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/智慧柜员机在哪/哪个是智慧柜员机</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>什么是自助银行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /自助银行是什么/介绍一下自助银行/自助银行是啥/啥是自助银行/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大堂经理在哪儿？/我怎么没见大堂经理/大堂经理哪儿去了/帮我找一下大堂经理/快看看大堂经理在哪儿/带我去找大堂经理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/大堂经理上哪了/我怎么没看见大堂经理/我去哪找大堂经理/我没找到大堂经理/我不知道大堂经理在哪/我不知道去哪找大堂经理/我找不到大堂经理/告诉我大堂经理在哪/告诉我怎么找大堂经理/告诉我去哪里找大堂经理/跟我说说大堂经理在哪里/跟我说说怎么才能找到大堂经理/我没看到大堂经理/大堂经理一般在哪/通常大堂经理在哪/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">什么是微信银行 </t>
+  </si>
+  <si>
+    <r>
+      <t>手机银行能做什么？/我能用手机银行做什么？/手机银行能提供哪些服务？/手机银行能做哪些事?/手机银行能帮我做什么？/我为什么要用手机银行？/手机银行有什么好处？/介绍一下手机银行/跟我说一下手机银行/推销一下手机银行/手机银行有什么功能？/手机银行能提供什么服务？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/为什么要开通手机银行/手机银行可以干什么/手机银行有什么用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/手机银行有什么用途/手机银行能干吗/手机银行是干嘛的/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机银行是什么？/什么是手机银行/手机银行是啥/啥是手机银行/手机银行是什么啊/手机银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1709,7 +1815,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1808,21 +1914,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <color theme="4"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="4"/>
+      <sz val="9"/>
+      <color theme="3" tint="0.39997558519241921"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1901,17 +2002,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1962,9 +2059,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1981,9 +2075,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2036,30 +2127,31 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="1"/>
-    <cellStyle name="常规 3 2" xfId="3"/>
-    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2075,9 +2167,9 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{DFF8E0BF-A0C3-44FA-9F15-118D80901382}" diskRevisions="1" revisionId="5" version="2">
-  <header guid="{8BCF51A8-7964-4ACE-9CF3-B21F43A7BEE9}" dateTime="2017-12-13T09:24:01" maxSheetId="21" userName="lulu.wang(王路路)" r:id="rId1">
-    <sheetIdMap count="20">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{875D4709-FF0B-4A77-A0E1-94E32F84F12B}" diskRevisions="1" revisionId="11" version="7">
+  <header guid="{A4B2C081-ADA0-4742-AEED-5DD238F709C0}" dateTime="2017-12-13T08:44:25" maxSheetId="19" userName="lulu.wang(王路路)" r:id="rId1">
+    <sheetIdMap count="18">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
@@ -2096,12 +2188,10 @@
       <sheetId val="16"/>
       <sheetId val="17"/>
       <sheetId val="18"/>
-      <sheetId val="19"/>
-      <sheetId val="20"/>
     </sheetIdMap>
   </header>
-  <header guid="{DFF8E0BF-A0C3-44FA-9F15-118D80901382}" dateTime="2017-12-13T12:21:55" maxSheetId="21" userName="xin.zheng(郑新)" r:id="rId2" minRId="1" maxRId="4">
-    <sheetIdMap count="20">
+  <header guid="{E57B0046-3CC9-43BE-B210-C0475BF9FD74}" dateTime="2017-12-13T08:46:37" maxSheetId="19" userName="lulu.wang(王路路)" r:id="rId2">
+    <sheetIdMap count="18">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
@@ -2120,8 +2210,116 @@
       <sheetId val="16"/>
       <sheetId val="17"/>
       <sheetId val="18"/>
-      <sheetId val="19"/>
-      <sheetId val="20"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B527DA02-3D67-43DF-A6A3-13C4632CA60B}" dateTime="2017-12-13T08:49:41" maxSheetId="19" userName="mengwei.chang(常孟玮)" r:id="rId3" minRId="2">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6ED9CA81-ACC9-4A40-ADB2-ECBA73C827A8}" dateTime="2017-12-13T08:50:10" maxSheetId="19" userName="ling.tian(田玲)" r:id="rId4" minRId="4">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{80337572-0505-477D-BEC0-0F01929431BD}" dateTime="2017-12-13T09:03:11" maxSheetId="19" userName="mengwei.chang(常孟玮)" r:id="rId5" minRId="6">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BEE49C7E-5307-4279-8D81-68AD8E6BD18B}" dateTime="2017-12-15T09:18:08" maxSheetId="19" userName="lulu.wang(王路路)" r:id="rId6" minRId="8" maxRId="9">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{875D4709-FF0B-4A77-A0E1-94E32F84F12B}" dateTime="2017-12-15T09:21:37" maxSheetId="19" userName="lulu.wang(王路路)" r:id="rId7" minRId="10" maxRId="11">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -2133,46 +2331,252 @@
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1" sId="19">
-    <nc r="E1" t="inlineStr">
+  <rfmt sheetId="5" sqref="C1:C1048576">
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcv guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_398C8F7F_907A_4A2C_99C0_39A987100726_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>手机银行!$B$2:$H$161</formula>
+    <oldFormula>手机银行!$B$2:$H$161</oldFormula>
+  </rdn>
+  <rcv guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="2" sId="18">
+    <oc r="D2" t="inlineStr">
       <is>
-        <t>表情</t>
+        <t>大堂经理在哪儿？/我怎么没见大堂经理/大堂经理哪儿去了/帮我找一下大堂经理/快看看大堂经理在哪儿/带我去找大堂经理/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <r>
+          <t>大堂经理在哪儿？/我怎么没见大堂经理/大堂经理哪儿去了/帮我找一下大堂经理/快看看大堂经理在哪儿/带我去找大堂经理</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="3" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/大堂经理上哪了/我怎么没看见大堂经理/我去哪找大堂经理/我没找到大堂经理/我不知道大堂经理在哪/我不知道去哪找大堂经理/我找不到大堂经理/告诉我大堂经理在哪/告诉我怎么找大堂经理/告诉我去哪里找大堂经理/跟我说说大堂经理在哪里/跟我说说怎么才能找到大堂经理/我没看到大堂经理/大堂经理一般在哪</t>
+        </r>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
-  <rcc rId="2" sId="19">
-    <nc r="F1" t="inlineStr">
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_F671582D_740D_40B7_95CA_8790D0A2ADE2_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>手机银行!$B$2:$H$161</formula>
+  </rdn>
+  <rcv guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="4" sId="17">
+    <oc r="D2" t="inlineStr">
       <is>
-        <t>图片</t>
+        <t xml:space="preserve">什么是微信银行 </t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t xml:space="preserve">什么是微信银行 </t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
-  <rcc rId="3" sId="20">
-    <nc r="E1" t="inlineStr">
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_B9849D1F_31DA_4684_AD2A_1F6836966C2A_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>手机银行!$B$2:$H$161</formula>
+  </rdn>
+  <rcv guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="6" sId="18">
+    <oc r="D2" t="inlineStr">
       <is>
-        <t>表情</t>
+        <r>
+          <t>大堂经理在哪儿？/我怎么没见大堂经理/大堂经理哪儿去了/帮我找一下大堂经理/快看看大堂经理在哪儿/带我去找大堂经理</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="3" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/大堂经理上哪了/我怎么没看见大堂经理/我去哪找大堂经理/我没找到大堂经理/我不知道大堂经理在哪/我不知道去哪找大堂经理/我找不到大堂经理/告诉我大堂经理在哪/告诉我怎么找大堂经理/告诉我去哪里找大堂经理/跟我说说大堂经理在哪里/跟我说说怎么才能找到大堂经理/我没看到大堂经理/大堂经理一般在哪</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <r>
+          <t>大堂经理在哪儿？/我怎么没见大堂经理/大堂经理哪儿去了/帮我找一下大堂经理/快看看大堂经理在哪儿/带我去找大堂经理</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="3" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/大堂经理上哪了/我怎么没看见大堂经理/我去哪找大堂经理/我没找到大堂经理/我不知道大堂经理在哪/我不知道去哪找大堂经理/我找不到大堂经理/告诉我大堂经理在哪/告诉我怎么找大堂经理/告诉我去哪里找大堂经理/跟我说说大堂经理在哪里/跟我说说怎么才能找到大堂经理/我没看到大堂经理/大堂经理一般在哪/通常大堂经理在哪/</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_F671582D_740D_40B7_95CA_8790D0A2ADE2_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>手机银行!$B$2:$H$161</formula>
+    <oldFormula>手机银行!$B$2:$H$161</oldFormula>
+  </rdn>
+  <rcv guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="8" sId="1">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>手机银行是什么？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>手机银行是什么？/什么是手机银行/手机银行是啥/</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
-  <rcc rId="4" sId="20">
-    <nc r="F1" t="inlineStr">
+  <rcc rId="9" sId="1">
+    <oc r="D3" t="inlineStr">
       <is>
-        <t>图片</t>
+        <r>
+          <t>手机银行能做什么？/我能用手机银行做什么？/手机银行能提供哪些服务？/手机银行能做哪些事?/手机银行能帮我做什么？/我为什么要用手机银行？/手机银行有什么好处？/介绍一下手机银行/跟我说一下手机银行/推销一下手机银行/手机银行有什么功能？/手机银行能提供什么服务？</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/为什么要开通手机银行/手机银行可以干什么</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D3" t="inlineStr">
+      <is>
+        <r>
+          <t>手机银行能做什么？/我能用手机银行做什么？/手机银行能提供哪些服务？/手机银行能做哪些事?/手机银行能帮我做什么？/我为什么要用手机银行？/手机银行有什么好处？/介绍一下手机银行/跟我说一下手机银行/推销一下手机银行/手机银行有什么功能？/手机银行能提供什么服务？</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/为什么要开通手机银行/手机银行可以干什么/手机银行有什么用/手机银行有什么用途/手机银行能干吗/手机银行是</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="10" sId="1">
+    <oc r="D3" t="inlineStr">
+      <is>
+        <r>
+          <t>手机银行能做什么？/我能用手机银行做什么？/手机银行能提供哪些服务？/手机银行能做哪些事?/手机银行能帮我做什么？/我为什么要用手机银行？/手机银行有什么好处？/介绍一下手机银行/跟我说一下手机银行/推销一下手机银行/手机银行有什么功能？/手机银行能提供什么服务？</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/为什么要开通手机银行/手机银行可以干什么/手机银行有什么用/手机银行有什么用途/手机银行能干吗/手机银行是</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D3" t="inlineStr">
+      <is>
+        <r>
+          <t>手机银行能做什么？/我能用手机银行做什么？/手机银行能提供哪些服务？/手机银行能做哪些事?/手机银行能帮我做什么？/我为什么要用手机银行？/手机银行有什么好处？/介绍一下手机银行/跟我说一下手机银行/推销一下手机银行/手机银行有什么功能？/手机银行能提供什么服务？</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/为什么要开通手机银行/手机银行可以干什么/手机银行有什么用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="3" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/手机银行有什么用途/手机银行能干吗/手机银行是干嘛的/</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="11" sId="1">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>手机银行是什么？/什么是手机银行/手机银行是啥/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>手机银行是什么？/什么是手机银行/手机银行是啥/啥是手机银行/手机银行是什么啊/手机银行</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_CEB7DEB3_A0CD_4694_A580_3EEC78FB579F_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>手机银行!$B$2:$H$161</formula>
-  </rdn>
-  <rcv guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}" action="add"/>
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -2465,23 +2869,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="71.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="72.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="71.125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>264</v>
+      <c r="A1" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -2490,18 +2894,18 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
-        <v>265</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
@@ -2510,29 +2914,29 @@
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>265</v>
+      <c r="A3" s="34" t="s">
+        <v>263</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36" t="s">
-        <v>265</v>
+      <c r="A4" s="34" t="s">
+        <v>263</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
@@ -2542,8 +2946,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
-        <v>265</v>
+      <c r="A5" s="34" t="s">
+        <v>263</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>22</v>
@@ -2556,8 +2960,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36" t="s">
-        <v>265</v>
+      <c r="A6" s="34" t="s">
+        <v>263</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>23</v>
@@ -2570,152 +2974,159 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="36" t="s">
-        <v>265</v>
+      <c r="A7" s="34" t="s">
+        <v>263</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C7" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="36" t="s">
-        <v>265</v>
+      <c r="A8" s="34" t="s">
+        <v>263</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
-        <v>265</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="34" t="s">
+        <v>263</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="36" t="s">
-        <v>265</v>
+      <c r="D9" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="34" t="s">
+        <v>263</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="36" t="s">
-        <v>265</v>
+        <v>127</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="34" t="s">
+        <v>263</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C12" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C13" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C14" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C15" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:H163"/>
   <customSheetViews>
-    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
       <autoFilter ref="B1:H163"/>
     </customSheetView>
-    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="B1:H163"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
       <autoFilter ref="B1:H163"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2735,8 +3146,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>264</v>
+      <c r="A1" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -2745,54 +3156,58 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
-        <v>274</v>
+      <c r="A2" s="34" t="s">
+        <v>272</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>274</v>
+      <c r="A3" s="34" t="s">
+        <v>272</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
       <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="C7" sqref="C7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -2818,8 +3233,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>264</v>
+      <c r="A1" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -2828,34 +3243,34 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
-        <v>275</v>
+      <c r="A2" s="34" t="s">
+        <v>273</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>204</v>
+        <v>339</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>202</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>275</v>
+      <c r="A3" s="34" t="s">
+        <v>273</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -2870,27 +3285,27 @@
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36" t="s">
-        <v>275</v>
+      <c r="A4" s="34" t="s">
+        <v>273</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
-        <v>275</v>
+      <c r="A5" s="34" t="s">
+        <v>273</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>105</v>
@@ -2902,108 +3317,112 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36" t="s">
-        <v>275</v>
+      <c r="A6" s="34" t="s">
+        <v>273</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="36" t="s">
-        <v>275</v>
+      <c r="A7" s="34" t="s">
+        <v>273</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="36" t="s">
-        <v>275</v>
+      <c r="A8" s="34" t="s">
+        <v>273</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>233</v>
+        <v>343</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>231</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
-        <v>275</v>
+      <c r="A9" s="34" t="s">
+        <v>273</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>361</v>
+        <v>212</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>358</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="36" t="s">
-        <v>275</v>
+      <c r="A10" s="34" t="s">
+        <v>273</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>261</v>
+        <v>213</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>259</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="36" t="s">
-        <v>275</v>
+      <c r="A11" s="34" t="s">
+        <v>273</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>262</v>
+        <v>214</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>260</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
       <selection activeCell="D9" sqref="D9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="D9" sqref="D9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="D9" sqref="D9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -3029,8 +3448,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>264</v>
+      <c r="A1" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -3039,18 +3458,18 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
-        <v>276</v>
+      <c r="A2" s="34" t="s">
+        <v>274</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -3065,8 +3484,8 @@
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>276</v>
+      <c r="A3" s="34" t="s">
+        <v>274</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
@@ -3081,8 +3500,8 @@
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36" t="s">
-        <v>276</v>
+      <c r="A4" s="34" t="s">
+        <v>274</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
@@ -3097,8 +3516,8 @@
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
-        <v>276</v>
+      <c r="A5" s="34" t="s">
+        <v>274</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>14</v>
@@ -3113,8 +3532,8 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36" t="s">
-        <v>276</v>
+      <c r="A6" s="34" t="s">
+        <v>274</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>15</v>
@@ -3129,8 +3548,8 @@
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="36" t="s">
-        <v>276</v>
+      <c r="A7" s="34" t="s">
+        <v>274</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>17</v>
@@ -3145,28 +3564,32 @@
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="36" t="s">
-        <v>276</v>
+      <c r="A8" s="34" t="s">
+        <v>274</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C8" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
       <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="C26" sqref="C26"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -3181,7 +3604,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3192,8 +3615,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>264</v>
+      <c r="A1" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -3202,18 +3625,18 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
-        <v>277</v>
+      <c r="A2" s="34" t="s">
+        <v>275</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>95</v>
@@ -3228,11 +3651,11 @@
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>277</v>
+      <c r="A3" s="34" t="s">
+        <v>275</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>97</v>
+        <v>369</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>96</v>
@@ -3244,8 +3667,8 @@
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36" t="s">
-        <v>277</v>
+      <c r="A4" s="34" t="s">
+        <v>275</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>98</v>
@@ -3260,8 +3683,8 @@
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
-        <v>277</v>
+      <c r="A5" s="34" t="s">
+        <v>275</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>99</v>
@@ -3276,8 +3699,8 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36" t="s">
-        <v>277</v>
+      <c r="A6" s="34" t="s">
+        <v>275</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>100</v>
@@ -3292,8 +3715,8 @@
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="36" t="s">
-        <v>277</v>
+      <c r="A7" s="34" t="s">
+        <v>275</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>101</v>
@@ -3308,8 +3731,8 @@
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="36" t="s">
-        <v>277</v>
+      <c r="A8" s="34" t="s">
+        <v>275</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>103</v>
@@ -3324,13 +3747,13 @@
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
-        <v>277</v>
+      <c r="A9" s="34" t="s">
+        <v>275</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="30" t="s">
         <v>96</v>
       </c>
       <c r="D9" s="12" t="s">
@@ -3341,12 +3764,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
-      <selection activeCell="B10" sqref="B10"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="B26" sqref="B26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
-      <selection activeCell="B10" sqref="B10"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="B26" sqref="B26"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="B26" sqref="B26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -3374,8 +3801,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>264</v>
+      <c r="A1" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -3384,54 +3811,58 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
-        <v>278</v>
+      <c r="A2" s="34" t="s">
+        <v>276</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>278</v>
+      <c r="A3" s="34" t="s">
+        <v>276</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
       <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="B2" sqref="B2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -3457,8 +3888,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>264</v>
+      <c r="A1" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -3467,102 +3898,106 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
-        <v>279</v>
+      <c r="A2" s="34" t="s">
+        <v>277</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>279</v>
+      <c r="A3" s="34" t="s">
+        <v>277</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36" t="s">
-        <v>279</v>
+      <c r="A4" s="34" t="s">
+        <v>277</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
-        <v>279</v>
+      <c r="A5" s="34" t="s">
+        <v>277</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>216</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36" t="s">
-        <v>279</v>
+      <c r="A6" s="34" t="s">
+        <v>277</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>216</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
       <selection activeCell="D15" sqref="D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="D15" sqref="D15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="D15" sqref="D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -3591,8 +4026,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>264</v>
+      <c r="A1" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -3601,38 +4036,42 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
-        <v>280</v>
+      <c r="A2" s="34" t="s">
+        <v>278</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>257</v>
+        <v>345</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>255</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
       <selection activeCell="B9" sqref="B9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="B9" sqref="B9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="B9" sqref="B9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -3658,8 +4097,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>264</v>
+      <c r="A1" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -3668,18 +4107,18 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
-        <v>282</v>
+      <c r="A2" s="34" t="s">
+        <v>280</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>41</v>
@@ -3688,19 +4127,23 @@
         <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>41</v>
+        <v>381</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
       <selection activeCell="B32" sqref="B32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="B32" sqref="B32"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="D14" sqref="D13:D14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -3714,19 +4157,19 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="29.25" customWidth="1"/>
-    <col min="3" max="3" width="83.625" customWidth="1"/>
+    <col min="3" max="3" width="65.75" customWidth="1"/>
     <col min="4" max="4" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>264</v>
+      <c r="A1" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -3735,165 +4178,112 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
-        <v>283</v>
+        <v>261</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="34" t="s">
+        <v>281</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C4" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="37" t="s">
+      <c r="D4" s="36"/>
+    </row>
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C5" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="38"/>
-    </row>
-    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="B5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="44" customFormat="1" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="43" t="s">
-        <v>283</v>
-      </c>
-      <c r="B6" s="44" t="s">
+    </row>
+    <row r="6" spans="1:6" s="42" customFormat="1" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>365</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>369</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D7" s="44"/>
+      <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D8" s="44"/>
+      <c r="D8" s="42"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
-      <selection activeCell="C12" sqref="C12"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
-      <selection activeCell="C12" sqref="C12"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="A9" sqref="A9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="120.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" t="s">
-        <v>383</v>
-      </c>
-      <c r="F1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="49" t="s">
-        <v>373</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>372</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>381</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>382</v>
-      </c>
-    </row>
-  </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
-      <selection activeCell="F1" sqref="F1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
-      <selection activeCell="D2" sqref="D2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-  </customSheetViews>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3902,19 +4292,19 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="48.75" customWidth="1"/>
-    <col min="3" max="3" width="30.875" customWidth="1"/>
+    <col min="2" max="2" width="34.125" customWidth="1"/>
+    <col min="3" max="3" width="39.375" customWidth="1"/>
     <col min="4" max="4" width="55.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>264</v>
+      <c r="A1" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -3923,245 +4313,245 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
-        <v>266</v>
+      <c r="A2" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>266</v>
+      <c r="A3" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36" t="s">
-        <v>266</v>
+      <c r="A4" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>156</v>
+        <v>289</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>154</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
-        <v>266</v>
+      <c r="A5" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>211</v>
+        <v>290</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>209</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36" t="s">
-        <v>266</v>
+      <c r="A6" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>106</v>
+        <v>374</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="36" t="s">
-        <v>266</v>
+      <c r="A7" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>108</v>
+        <v>373</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="36" t="s">
-        <v>266</v>
+      <c r="A8" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
-        <v>266</v>
+      <c r="A9" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>117</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>116</v>
+        <v>375</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="36" t="s">
-        <v>266</v>
+      <c r="A10" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="36" t="s">
-        <v>266</v>
+      <c r="A11" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="36" t="s">
-        <v>266</v>
+      <c r="A12" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="36" t="s">
-        <v>266</v>
+      <c r="A13" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>121</v>
+        <v>376</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="36" t="s">
-        <v>266</v>
+      <c r="A14" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>123</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>122</v>
+        <v>377</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="36" t="s">
-        <v>266</v>
+      <c r="A15" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>124</v>
+        <v>378</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="36" t="s">
-        <v>266</v>
+      <c r="A16" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>62</v>
@@ -4173,75 +4563,75 @@
       <c r="F16"/>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="36" t="s">
-        <v>266</v>
+      <c r="A17" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="36" t="s">
-        <v>266</v>
+      <c r="A18" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="36" t="s">
-        <v>266</v>
+      <c r="A19" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>209</v>
+        <v>295</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>207</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="36" t="s">
-        <v>266</v>
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>254</v>
+        <v>251</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>252</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>253</v>
+        <v>379</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="36" t="s">
-        <v>266</v>
+      <c r="A21" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>50</v>
@@ -4253,11 +4643,11 @@
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="36" t="s">
-        <v>266</v>
+      <c r="A22" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>65</v>
@@ -4270,85 +4660,25 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
-      <selection activeCell="B26" sqref="B26"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D26" sqref="D26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
-      <selection activeCell="B26" sqref="B26"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="D26" sqref="D26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="D26" sqref="D26"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="41.125" customWidth="1"/>
-    <col min="4" max="4" width="93.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="342" x14ac:dyDescent="0.15">
-      <c r="A2" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>380</v>
-      </c>
-    </row>
-  </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}" topLeftCell="B1">
-      <selection activeCell="F1" sqref="F1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}" topLeftCell="B1">
-      <selection activeCell="D16" sqref="D16"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
-    </customSheetView>
-  </customSheetViews>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4357,7 +4687,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4368,8 +4698,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>264</v>
+      <c r="A1" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -4378,319 +4708,324 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
-        <v>267</v>
+      <c r="A2" s="34" t="s">
+        <v>265</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>267</v>
+      <c r="A3" s="34" t="s">
+        <v>265</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36" t="s">
-        <v>267</v>
+      <c r="A4" s="34" t="s">
+        <v>265</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
-        <v>267</v>
+      <c r="A5" s="34" t="s">
+        <v>265</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36" t="s">
-        <v>267</v>
+      <c r="A6" s="34" t="s">
+        <v>265</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="36" t="s">
-        <v>267</v>
+      <c r="A7" s="34" t="s">
+        <v>265</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="36" t="s">
-        <v>267</v>
+      <c r="A8" s="34" t="s">
+        <v>265</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
-        <v>267</v>
+      <c r="A9" s="34" t="s">
+        <v>265</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="36" t="s">
-        <v>267</v>
+      <c r="A10" s="34" t="s">
+        <v>265</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>160</v>
+        <v>306</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="36" t="s">
-        <v>267</v>
+      <c r="A11" s="34" t="s">
+        <v>265</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="36" t="s">
-        <v>267</v>
+      <c r="A12" s="34" t="s">
+        <v>265</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>164</v>
+        <v>308</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="36" t="s">
-        <v>267</v>
+      <c r="A13" s="34" t="s">
+        <v>265</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>166</v>
+        <v>309</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="36" t="s">
-        <v>267</v>
+      <c r="A14" s="34" t="s">
+        <v>265</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>168</v>
+        <v>310</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>166</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="36" t="s">
-        <v>267</v>
+      <c r="A15" s="34" t="s">
+        <v>265</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>170</v>
+        <v>311</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="36" t="s">
-        <v>267</v>
+      <c r="A16" s="34" t="s">
+        <v>265</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>172</v>
+        <v>312</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>170</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="36" t="s">
-        <v>267</v>
+      <c r="A17" s="34" t="s">
+        <v>265</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>174</v>
+        <v>313</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="36" t="s">
-        <v>267</v>
+      <c r="A18" s="34" t="s">
+        <v>265</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>237</v>
+        <v>234</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>235</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="36" t="s">
-        <v>267</v>
+      <c r="A19" s="34" t="s">
+        <v>265</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>235</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
-      <selection activeCell="B17" sqref="B17"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="A14" sqref="A14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
-      <selection activeCell="B17" sqref="B17"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="B18" sqref="B18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="B18" sqref="B18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4711,8 +5046,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>264</v>
+      <c r="A1" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -4721,18 +5056,18 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
-        <v>268</v>
+      <c r="A2" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>36</v>
@@ -4747,8 +5082,8 @@
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>268</v>
+      <c r="A3" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>37</v>
@@ -4763,40 +5098,40 @@
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36" t="s">
-        <v>268</v>
+      <c r="A4" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>206</v>
+        <v>203</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>204</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
-        <v>268</v>
+      <c r="A5" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>204</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36" t="s">
-        <v>268</v>
+      <c r="A6" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>34</v>
@@ -4811,8 +5146,8 @@
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="36" t="s">
-        <v>268</v>
+      <c r="A7" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>35</v>
@@ -4827,8 +5162,8 @@
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="36" t="s">
-        <v>268</v>
+      <c r="A8" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>92</v>
@@ -4843,8 +5178,8 @@
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
-        <v>268</v>
+      <c r="A9" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>94</v>
@@ -4859,104 +5194,104 @@
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="36" t="s">
-        <v>268</v>
+      <c r="A10" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>225</v>
+        <v>222</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>223</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="36" t="s">
-        <v>268</v>
+      <c r="A11" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>223</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="36" t="s">
-        <v>268</v>
+      <c r="A12" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>238</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="36" t="s">
-        <v>268</v>
+      <c r="A13" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>238</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="36" t="s">
-        <v>268</v>
+      <c r="A14" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>243</v>
+        <v>240</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>241</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="36" t="s">
-        <v>268</v>
+      <c r="A15" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>241</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="36" t="s">
-        <v>268</v>
+      <c r="A16" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>38</v>
@@ -4971,8 +5306,8 @@
       <c r="F16"/>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="36" t="s">
-        <v>268</v>
+      <c r="A17" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>47</v>
@@ -4987,8 +5322,8 @@
       <c r="F17"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="36" t="s">
-        <v>268</v>
+      <c r="A18" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>27</v>
@@ -5003,8 +5338,8 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="36" t="s">
-        <v>268</v>
+      <c r="A19" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>29</v>
@@ -5019,8 +5354,8 @@
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="36" t="s">
-        <v>268</v>
+      <c r="A20" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>30</v>
@@ -5035,8 +5370,8 @@
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="36" t="s">
-        <v>268</v>
+      <c r="A21" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>32</v>
@@ -5051,28 +5386,32 @@
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="36" t="s">
-        <v>268</v>
+      <c r="A22" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C22" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
       <selection activeCell="B13" sqref="B13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="B13" sqref="B13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="B13" sqref="B13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -5087,60 +5426,60 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="63.25" customWidth="1"/>
+    <col min="3" max="3" width="63.25" style="50" customWidth="1"/>
     <col min="4" max="4" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>264</v>
+      <c r="A1" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="44" t="s">
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
-        <v>269</v>
+      <c r="A2" s="34" t="s">
+        <v>267</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>199</v>
+        <v>196</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>269</v>
+      <c r="A3" s="34" t="s">
+        <v>267</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -5150,69 +5489,74 @@
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36" t="s">
-        <v>269</v>
+      <c r="A4" s="34" t="s">
+        <v>267</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>127</v>
+        <v>315</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>126</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
-        <v>269</v>
+      <c r="A5" s="34" t="s">
+        <v>267</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>197</v>
+        <v>316</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>195</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>201</v>
+      <c r="A6" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>199</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
-      <selection activeCell="B9" sqref="B9"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="B9" sqref="B9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
     </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="B9" sqref="B9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
+    </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -5233,8 +5577,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>264</v>
+      <c r="A1" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -5243,18 +5587,18 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
-        <v>270</v>
+      <c r="A2" s="34" t="s">
+        <v>268</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>40</v>
@@ -5269,28 +5613,32 @@
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="42" t="s">
-        <v>270</v>
+      <c r="A3" s="40" t="s">
+        <v>268</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="39" t="s">
-        <v>358</v>
+      <c r="D3" s="37" t="s">
+        <v>355</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
       <selection activeCell="A4" sqref="A4:XFD4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="A4" sqref="A4:XFD4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -5305,7 +5653,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5316,8 +5664,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>264</v>
+      <c r="A1" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -5326,21 +5674,21 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
-        <v>271</v>
+      <c r="A2" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>68</v>
@@ -5352,11 +5700,11 @@
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>271</v>
+      <c r="A3" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -5368,11 +5716,11 @@
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36" t="s">
-        <v>271</v>
+      <c r="A4" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>66</v>
@@ -5384,8 +5732,8 @@
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
-        <v>271</v>
+      <c r="A5" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>55</v>
@@ -5400,11 +5748,11 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36" t="s">
-        <v>271</v>
+      <c r="A6" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>66</v>
@@ -5416,11 +5764,11 @@
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="36" t="s">
-        <v>271</v>
+      <c r="A7" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>66</v>
@@ -5432,11 +5780,11 @@
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="36" t="s">
-        <v>271</v>
+      <c r="A8" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>66</v>
@@ -5448,11 +5796,11 @@
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
-        <v>271</v>
+      <c r="A9" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>66</v>
@@ -5464,8 +5812,8 @@
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="36" t="s">
-        <v>271</v>
+      <c r="A10" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>70</v>
@@ -5480,8 +5828,8 @@
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="36" t="s">
-        <v>271</v>
+      <c r="A11" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>72</v>
@@ -5496,8 +5844,8 @@
       <c r="F11"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="36" t="s">
-        <v>271</v>
+      <c r="A12" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>73</v>
@@ -5512,11 +5860,11 @@
       <c r="F12"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="36" t="s">
-        <v>271</v>
+      <c r="A13" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>75</v>
+        <v>368</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>53</v>
@@ -5528,11 +5876,11 @@
       <c r="F13"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="36" t="s">
-        <v>271</v>
+      <c r="A14" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>77</v>
@@ -5544,8 +5892,8 @@
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="36" t="s">
-        <v>271</v>
+      <c r="A15" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>78</v>
@@ -5560,8 +5908,8 @@
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="36" t="s">
-        <v>271</v>
+      <c r="A16" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>79</v>
@@ -5576,11 +5924,11 @@
       <c r="F16"/>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="36" t="s">
-        <v>271</v>
+      <c r="A17" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>82</v>
@@ -5592,8 +5940,8 @@
       <c r="F17"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="36" t="s">
-        <v>271</v>
+      <c r="A18" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>83</v>
@@ -5608,8 +5956,8 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="36" t="s">
-        <v>271</v>
+      <c r="A19" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>85</v>
@@ -5624,208 +5972,208 @@
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="36" t="s">
-        <v>271</v>
+      <c r="A20" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="36" t="s">
-        <v>271</v>
+      <c r="A21" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="36" t="s">
-        <v>271</v>
+      <c r="A22" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>149</v>
+        <v>329</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="36" t="s">
-        <v>271</v>
+      <c r="A23" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="36" t="s">
-        <v>271</v>
+      <c r="A24" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="36" t="s">
-        <v>271</v>
+      <c r="A25" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="36" t="s">
-        <v>271</v>
+      <c r="A26" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="36" t="s">
-        <v>271</v>
+      <c r="A27" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="36" t="s">
-        <v>271</v>
+      <c r="A28" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
     </row>
     <row r="29" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="36" t="s">
-        <v>271</v>
+      <c r="A29" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>213</v>
+        <v>335</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>211</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="36" t="s">
-        <v>271</v>
+      <c r="A30" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>235</v>
+        <v>336</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>233</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:6" s="35" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="36" t="s">
-        <v>271</v>
+    <row r="31" spans="1:6" s="33" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="34" t="s">
+        <v>269</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>359</v>
-      </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
+        <v>243</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
     </row>
     <row r="32" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="B32" s="31" t="s">
+      <c r="A32" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="B32" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E32"/>
@@ -5833,12 +6181,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
-      <selection activeCell="C4" sqref="C4"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="B16" sqref="B16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
-      <selection activeCell="C4" sqref="C4"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="B16" sqref="B16"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="B16" sqref="B16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -5863,8 +6215,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>264</v>
+      <c r="A1" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -5873,18 +6225,18 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
-        <v>272</v>
+      <c r="A2" s="34" t="s">
+        <v>270</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>89</v>
@@ -5899,8 +6251,8 @@
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>272</v>
+      <c r="A3" s="34" t="s">
+        <v>270</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>91</v>
@@ -5915,28 +6267,32 @@
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36" t="s">
-        <v>272</v>
+      <c r="A4" s="34" t="s">
+        <v>270</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>231</v>
+        <v>228</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>229</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
       <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="E2" sqref="E2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -5963,8 +6319,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>264</v>
+      <c r="A1" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>58</v>
@@ -5973,50 +6329,50 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
-        <v>273</v>
+      <c r="A2" s="34" t="s">
+        <v>271</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>221</v>
+        <v>218</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>219</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>273</v>
+      <c r="A3" s="34" t="s">
+        <v>271</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>223</v>
+        <v>220</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>221</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36" t="s">
-        <v>273</v>
+      <c r="A4" s="34" t="s">
+        <v>271</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -6025,14 +6381,14 @@
         <v>69</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
-        <v>273</v>
+      <c r="A5" s="34" t="s">
+        <v>271</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -6047,8 +6403,8 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36" t="s">
-        <v>273</v>
+      <c r="A6" s="34" t="s">
+        <v>271</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
@@ -6063,8 +6419,8 @@
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="36" t="s">
-        <v>273</v>
+      <c r="A7" s="34" t="s">
+        <v>271</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>3</v>
@@ -6079,62 +6435,62 @@
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="36" t="s">
-        <v>273</v>
+      <c r="A8" s="34" t="s">
+        <v>271</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
-        <v>273</v>
+      <c r="A9" s="34" t="s">
+        <v>271</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="36" t="s">
-        <v>273</v>
+      <c r="A10" s="34" t="s">
+        <v>271</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="36" t="s">
-        <v>273</v>
+      <c r="A11" s="34" t="s">
+        <v>271</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>227</v>
+      <c r="C11" s="25" t="s">
+        <v>225</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -6144,11 +6500,15 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CEB7DEB3-A0CD-4694-A580-3EEC78FB579F}">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
       <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A8D1D74F-E720-4F56-99B0-27626D8CF6B3}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="D4" sqref="D4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>

--- a/update_data/data/bank_psbc/qa/业务问答.xlsx
+++ b/update_data/data/bank_psbc/qa/业务问答.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="4755" windowWidth="19440" windowHeight="7185" tabRatio="941" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="15" yWindow="4755" windowWidth="19440" windowHeight="7185" tabRatio="941" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="手机银行" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">手机银行!$B$2:$F$15</definedName>
     <definedName name="Z_126B47B2_BF7C_497F_A49A_29289E1776C5_.wvu.FilterData" localSheetId="0" hidden="1">手机银行!$B$2:$H$161</definedName>
     <definedName name="Z_29093DB0_4CD8_40B2_B6FC_A778E8AE695E_.wvu.FilterData" localSheetId="0" hidden="1">手机银行!$B$2:$F$15</definedName>
-    <definedName name="Z_398C8F7F_907A_4A2C_99C0_39A987100726_.wvu.FilterData" localSheetId="0" hidden="1">手机银行!$B$2:$H$161</definedName>
+    <definedName name="Z_398C8F7F_907A_4A2C_99C0_39A987100726_.wvu.FilterData" localSheetId="0" hidden="1">手机银行!$B$2:$F$15</definedName>
     <definedName name="Z_56E4666F_E41B_466F_8524_23EFEB280CCE_.wvu.FilterData" localSheetId="0" hidden="1">手机银行!$B$2:$F$15</definedName>
     <definedName name="Z_A92E510E_03FC_4377_BAFD_3953037B261D_.wvu.FilterData" localSheetId="0" hidden="1">手机银行!$B$2:$F$15</definedName>
     <definedName name="Z_B9849D1F_31DA_4684_AD2A_1F6836966C2A_.wvu.FilterData" localSheetId="0" hidden="1">手机银行!$B$2:$H$161</definedName>
@@ -38,10 +38,10 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
-    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" tabRatio="941" activeSheetId="2"/>
     <customWorkbookView name="ling.tian(田玲) - 个人视图" guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="603" tabRatio="941" activeSheetId="17"/>
     <customWorkbookView name="mengwei.chang(常孟玮) - 个人视图" guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="524" tabRatio="941" activeSheetId="9"/>
     <customWorkbookView name="hongru.chu(褚宏茹) - 个人视图" guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="781" tabRatio="941" activeSheetId="9"/>
+    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" tabRatio="941" activeSheetId="9"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -3689,14 +3689,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>存款有礼品吗</t>
-  </si>
-  <si>
     <t>存款有礼品哦，存款额度不同，礼品不同，具体可以咨询大堂经理。</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>存款有礼物吗/存款有哪些礼物/存款有哪些礼品/存款有什么礼品/存款的礼品有哪些/存款可以领礼品吗/听说存款有礼物</t>
+    <t>储储还没有学习这项业务，您可以咨询一下大堂经理。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老金保险是为了保障老年人的基本生活需求，为其提供稳定可靠的生活来源。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮储银行是中国领先的大型零售银行，定位于服务社区，服务中小型企业，服务三农，致力于为中国经济转型中最具活力的客户群体提供服务。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>您可以找银行主管或者大堂经理办理兑换礼品。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>很抱歉，邮储银行暂时没有邮票。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们银行的定期利率特别高，土豪赶快存定期。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>您可以询问大堂经理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里面有邮票吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里面有邮票吗/有邮票吗/银行有邮票吗/邮票这里有吗/我想要邮票/我需要邮票/我要邮票/</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前邮储银行活期利率百分之零点三，供您参考，具体利率请以银行公告为准。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>活期利率是多少</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>活期利率是多少/告诉我活期利率/告诉我活期利息是什么/最近活期利率是多少/你知道活期利率吗/活期利率你知道吗/活期利率</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期利率是多少</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期利率是多少/告诉他一年的定期利率是多少/告诉我定期利率/告诉我定期利率是多少/定期利率/三个月定期利率是多少/半年的定期利率是多少/两年定期利率是多少/三年定期利率是多少/五年定期利率是多少</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号是多少啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号是多少啊/你们有公众号吗/银行公众号/银行微信号/银行公众号是什么/银行微信号是什么/邮储银行公众号是什么</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么礼品兑换</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么礼品兑换/兑换礼品/怎么兑换礼品/礼品兑换/怎么礼品兑换/找谁兑换礼品/哪里兑换礼品</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍一下邮储银行</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍一下邮储银行/邮储银行是啥/给我介绍一下邮储银行/介绍一下你们银行/</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老金保险</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
@@ -3704,101 +3781,39 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>储储还没有学习这项业务，您可以咨询一下大堂经理。</t>
+    <t>存款有礼品吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我说办理养老金签协议要带点什么证件/办养老金需要带什么吗/怎么办养老金/我想办理养老金/怎么办理养老保险/养老保险需要签协议吗/养老保险怎么办理/哪里办养老保险/办养老保险需要什么/办养老保险需要哪些东西/办养老保险需要什么材料</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>办养老金需要带什么吗/怎么办养老金/我想办理养老金/怎么办理养老保险/养老保险需要签协议吗/养老保险怎么办理/哪里办养老保险</t>
+    <t>养老金保险/什么是养老保险/养老保险是什么/养老金是什么/什么是养老金保险/养老保险/养老保险是啥/啥是养老保险/你知道养老保险吗</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>养老金保险</t>
+    <r>
+      <t>存款有礼品吗/存款有礼物吗/存款有哪些礼物/存款有哪些礼品/存款有什么礼品/存款的礼品有哪些/存款可以领礼品吗/听说存款有礼物/存款送礼物吗/存钱有礼物吗/存钱送礼物吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/听说存钱有礼物/存钱有礼品吗/存钱有哪些礼物/存钱送东西吗/存钱有哪些礼品/存钱有东西送吗/存钱会送东西吗/存钱有什么礼品吗/存钱可以拿到礼物吗</t>
+    </r>
     <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>养老金保险是为了保障老年人的基本生活需求，为其提供稳定可靠的生活来源。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么是养老保险/养老保险是什么/养老金是什么/什么是养老金保险/养老保险/</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍一下邮储银行</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮储银行是中国领先的大型零售银行，定位于服务社区，服务中小型企业，服务三农，致力于为中国经济转型中最具活力的客户群体提供服务。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮储银行是啥/给我介绍一下邮储银行/介绍一下你们银行/</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么礼品兑换</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>您可以找银行主管或者大堂经理办理兑换礼品。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换礼品/怎么兑换礼品/礼品兑换/怎么礼品兑换/找谁兑换礼品/哪里兑换礼品</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号是多少啊</t>
-  </si>
-  <si>
-    <t>这里面有邮票吗</t>
-  </si>
-  <si>
-    <t>很抱歉，邮储银行暂时没有邮票。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>有邮票吗/银行有邮票吗/邮票这里有吗/我想要邮票/我需要邮票/我要邮票/</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>活期利率是多少</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前邮储银行活期利率0.30%，供您参考，具体利率请以银行公告为准。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>告诉我活期利率/告诉我活期利息是什么/最近活期利率是多少/你知道活期利率吗/活期利率你知道吗/活期利率</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>定期利率是多少</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们银行的定期利率特别高，土豪赶快存定期。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>告诉他一年的定期利率是多少/告诉我定期利率/告诉我定期利率是多少/定期利率/三个月定期利率是多少/半年的定期利率是多少/两年定期利率是多少/三年定期利率是多少/五年定期利率是多少</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>你们有公众号吗/银行公众号/银行微信号/银行公众号是什么/银行微信号是什么/邮储银行公众号是什么</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>您可以询问大堂经理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3971,6 +3986,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -4350,7 +4372,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FB3CB9BC-51E9-444F-877C-C419F19DD502}" diskRevisions="1" revisionId="423" version="150">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{774836FD-2F57-4018-AF24-E1EEC93C198C}" diskRevisions="1" revisionId="447" version="164">
   <header guid="{A4B2C081-ADA0-4742-AEED-5DD238F709C0}" dateTime="2017-12-13T08:44:25" maxSheetId="19" userName="lulu.wang(王路路)" r:id="rId1">
     <sheetIdMap count="18">
       <sheetId val="1"/>
@@ -7651,6 +7673,314 @@
       <sheetId val="18"/>
     </sheetIdMap>
   </header>
+  <header guid="{5044ED89-C1DD-40CD-8F26-68D28AB25FE1}" dateTime="2017-12-20T11:19:02" maxSheetId="19" userName="lulu.wang(王路路)" r:id="rId151" minRId="424" maxRId="425">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E2448371-3AA8-4B15-A51C-873BB4ECAF45}" dateTime="2017-12-20T11:19:37" maxSheetId="19" userName="lulu.wang(王路路)" r:id="rId152" minRId="426">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DA6570D9-6415-4D43-BAFC-36CC68EEC857}" dateTime="2017-12-20T11:36:44" maxSheetId="19" userName="lulu.wang(王路路)" r:id="rId153" minRId="427" maxRId="428">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{49968C08-A6D8-4E42-B09E-E22EE7E78F24}" dateTime="2017-12-20T11:36:55" maxSheetId="19" userName="lulu.wang(王路路)" r:id="rId154" minRId="429" maxRId="430">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2513586B-A325-4A12-BB72-71210DE376E7}" dateTime="2017-12-20T11:37:04" maxSheetId="19" userName="lulu.wang(王路路)" r:id="rId155" minRId="432" maxRId="433">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8E138B34-927E-43A7-9999-F9715D31AD29}" dateTime="2017-12-20T11:37:14" maxSheetId="19" userName="lulu.wang(王路路)" r:id="rId156" minRId="434" maxRId="435">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5CBCF552-81BF-4E55-BB2B-9760842DACE3}" dateTime="2017-12-20T11:37:21" maxSheetId="19" userName="lulu.wang(王路路)" r:id="rId157" minRId="436" maxRId="437">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{877F8163-1042-4BFB-9628-EF767851AD85}" dateTime="2017-12-20T11:37:29" maxSheetId="19" userName="lulu.wang(王路路)" r:id="rId158" minRId="438" maxRId="439">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DDEC476F-4029-4137-97BC-C4C5728E244A}" dateTime="2017-12-20T11:37:38" maxSheetId="19" userName="lulu.wang(王路路)" r:id="rId159" minRId="440" maxRId="441">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F0A432F2-3FBA-44D1-A436-2B32292511ED}" dateTime="2017-12-20T11:37:44" maxSheetId="19" userName="lulu.wang(王路路)" r:id="rId160" minRId="442" maxRId="443">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9C8A6667-D111-4AF3-9E93-8AE5C39CD55C}" dateTime="2017-12-20T11:38:12" maxSheetId="19" userName="lulu.wang(王路路)" r:id="rId161" minRId="444">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F41CCFB8-8576-4753-8EF3-76EC63B45D03}" dateTime="2017-12-20T11:38:55" maxSheetId="19" userName="lulu.wang(王路路)" r:id="rId162" minRId="445">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B4BD71BC-C6A9-47A9-8D8E-FA220235A645}" dateTime="2017-12-20T11:39:18" maxSheetId="19" userName="lulu.wang(王路路)" r:id="rId163" minRId="446">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{774836FD-2F57-4018-AF24-E1EEC93C198C}" dateTime="2017-12-20T17:26:23" maxSheetId="19" userName="hongru.chu(褚宏茹)" r:id="rId164" minRId="447">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -14920,6 +15250,293 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog151.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="424" sId="9">
+    <oc r="B18" t="inlineStr">
+      <is>
+        <t>这里面有邮票吗</t>
+      </is>
+    </oc>
+    <nc r="B18" t="inlineStr">
+      <is>
+        <t>这里面有邮票吗</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="425" sId="9">
+    <oc r="D18" t="inlineStr">
+      <is>
+        <t>有邮票吗/银行有邮票吗/邮票这里有吗/我想要邮票/我需要邮票/我要邮票/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D18" t="inlineStr">
+      <is>
+        <t>这里面有邮票吗/有邮票吗/银行有邮票吗/邮票这里有吗/我想要邮票/我需要邮票/我要邮票/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog152.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="426" sId="9">
+    <oc r="C19" t="inlineStr">
+      <is>
+        <t>目前邮储银行活期利率0.30%，供您参考，具体利率请以银行公告为准。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C19" t="inlineStr">
+      <is>
+        <t>目前邮储银行活期利率百分之零点三，供您参考，具体利率请以银行公告为准。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog153.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="427" sId="9">
+    <oc r="B19" t="inlineStr">
+      <is>
+        <t>活期利率是多少</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B19" t="inlineStr">
+      <is>
+        <t>活期利率是多少</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="428" sId="9">
+    <oc r="D19" t="inlineStr">
+      <is>
+        <t>告诉我活期利率/告诉我活期利息是什么/最近活期利率是多少/你知道活期利率吗/活期利率你知道吗/活期利率</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D19" t="inlineStr">
+      <is>
+        <t>活期利率是多少/告诉我活期利率/告诉我活期利息是什么/最近活期利率是多少/你知道活期利率吗/活期利率你知道吗/活期利率</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog154.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="429" sId="9">
+    <oc r="B20" t="inlineStr">
+      <is>
+        <t>定期利率是多少</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B20" t="inlineStr">
+      <is>
+        <t>定期利率是多少</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="430" sId="9">
+    <oc r="D20" t="inlineStr">
+      <is>
+        <t>告诉他一年的定期利率是多少/告诉我定期利率/告诉我定期利率是多少/定期利率/三个月定期利率是多少/半年的定期利率是多少/两年定期利率是多少/三年定期利率是多少/五年定期利率是多少</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D20" t="inlineStr">
+      <is>
+        <t>定期利率是多少/告诉他一年的定期利率是多少/告诉我定期利率/告诉我定期利率是多少/定期利率/三个月定期利率是多少/半年的定期利率是多少/两年定期利率是多少/三年定期利率是多少/五年定期利率是多少</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_398C8F7F_907A_4A2C_99C0_39A987100726_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>手机银行!$B$2:$F$15</formula>
+    <oldFormula>手机银行!$B$2:$H$161</oldFormula>
+  </rdn>
+  <rcv guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog155.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="432" sId="9">
+    <oc r="B17" t="inlineStr">
+      <is>
+        <t>公众号是多少啊</t>
+      </is>
+    </oc>
+    <nc r="B17" t="inlineStr">
+      <is>
+        <t>公众号是多少啊</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="433" sId="9">
+    <oc r="D17" t="inlineStr">
+      <is>
+        <t>你们有公众号吗/银行公众号/银行微信号/银行公众号是什么/银行微信号是什么/邮储银行公众号是什么</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D17" t="inlineStr">
+      <is>
+        <t>公众号是多少啊/你们有公众号吗/银行公众号/银行微信号/银行公众号是什么/银行微信号是什么/邮储银行公众号是什么</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog156.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="434" sId="9">
+    <oc r="B16" t="inlineStr">
+      <is>
+        <t>怎么礼品兑换</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B16" t="inlineStr">
+      <is>
+        <t>怎么礼品兑换</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="435" sId="9">
+    <oc r="D16" t="inlineStr">
+      <is>
+        <t>兑换礼品/怎么兑换礼品/礼品兑换/怎么礼品兑换/找谁兑换礼品/哪里兑换礼品</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D16" t="inlineStr">
+      <is>
+        <t>怎么礼品兑换/兑换礼品/怎么兑换礼品/礼品兑换/怎么礼品兑换/找谁兑换礼品/哪里兑换礼品</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog157.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="436" sId="9">
+    <oc r="B15" t="inlineStr">
+      <is>
+        <t>介绍一下邮储银行</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B15" t="inlineStr">
+      <is>
+        <t>介绍一下邮储银行</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="437" sId="9">
+    <oc r="D15" t="inlineStr">
+      <is>
+        <t>邮储银行是啥/给我介绍一下邮储银行/介绍一下你们银行/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D15" t="inlineStr">
+      <is>
+        <t>介绍一下邮储银行/邮储银行是啥/给我介绍一下邮储银行/介绍一下你们银行/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog158.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="438" sId="9">
+    <oc r="B14" t="inlineStr">
+      <is>
+        <t>养老金保险</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B14" t="inlineStr">
+      <is>
+        <t>养老金保险</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="439" sId="9">
+    <oc r="D14" t="inlineStr">
+      <is>
+        <t>什么是养老保险/养老保险是什么/养老金是什么/什么是养老金保险/养老保险/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D14" t="inlineStr">
+      <is>
+        <t>养老金保险/什么是养老保险/养老保险是什么/养老金是什么/什么是养老金保险/养老保险/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog159.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="440" sId="9">
+    <oc r="B13" t="inlineStr">
+      <is>
+        <t>我说办理养老金签协议要带点什么证件</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B13" t="inlineStr">
+      <is>
+        <t>我说办理养老金签协议要带点什么证件</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="441" sId="9">
+    <oc r="D13" t="inlineStr">
+      <is>
+        <t>办养老金需要带什么吗/怎么办养老金/我想办理养老金/怎么办理养老保险/养老保险需要签协议吗/养老保险怎么办理/哪里办养老保险</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D13" t="inlineStr">
+      <is>
+        <t>我说办理养老金签协议要带点什么证件/办养老金需要带什么吗/怎么办养老金/我想办理养老金/怎么办理养老保险/养老保险需要签协议吗/养老保险怎么办理/哪里办养老保险</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="22" sId="1">
@@ -14942,6 +15559,125 @@
     <oldFormula>手机银行!$B$2:$H$161</oldFormula>
   </rdn>
   <rcv guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog160.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="442" sId="9">
+    <oc r="B12" t="inlineStr">
+      <is>
+        <t>存款有礼品吗</t>
+      </is>
+    </oc>
+    <nc r="B12" t="inlineStr">
+      <is>
+        <t>存款有礼品吗</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="443" sId="9">
+    <oc r="D12" t="inlineStr">
+      <is>
+        <t>存款有礼物吗/存款有哪些礼物/存款有哪些礼品/存款有什么礼品/存款的礼品有哪些/存款可以领礼品吗/听说存款有礼物</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D12" t="inlineStr">
+      <is>
+        <t>存款有礼品吗/存款有礼物吗/存款有哪些礼物/存款有哪些礼品/存款有什么礼品/存款的礼品有哪些/存款可以领礼品吗/听说存款有礼物</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog161.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="444" sId="9">
+    <oc r="D12" t="inlineStr">
+      <is>
+        <t>存款有礼品吗/存款有礼物吗/存款有哪些礼物/存款有哪些礼品/存款有什么礼品/存款的礼品有哪些/存款可以领礼品吗/听说存款有礼物</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D12" t="inlineStr">
+      <is>
+        <t>存款有礼品吗/存款有礼物吗/存款有哪些礼物/存款有哪些礼品/存款有什么礼品/存款的礼品有哪些/存款可以领礼品吗/听说存款有礼物/存款送礼物吗/存钱有礼物吗/存钱送礼物吗</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog162.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="445" sId="9">
+    <oc r="D13" t="inlineStr">
+      <is>
+        <t>我说办理养老金签协议要带点什么证件/办养老金需要带什么吗/怎么办养老金/我想办理养老金/怎么办理养老保险/养老保险需要签协议吗/养老保险怎么办理/哪里办养老保险</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D13" t="inlineStr">
+      <is>
+        <t>我说办理养老金签协议要带点什么证件/办养老金需要带什么吗/怎么办养老金/我想办理养老金/怎么办理养老保险/养老保险需要签协议吗/养老保险怎么办理/哪里办养老保险/办养老保险需要什么/办养老保险需要哪些东西/办养老保险需要什么材料</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog163.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="446" sId="9">
+    <oc r="D14" t="inlineStr">
+      <is>
+        <t>养老金保险/什么是养老保险/养老保险是什么/养老金是什么/什么是养老金保险/养老保险/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D14" t="inlineStr">
+      <is>
+        <t>养老金保险/什么是养老保险/养老保险是什么/养老金是什么/什么是养老金保险/养老保险/养老保险是啥/啥是养老保险/你知道养老保险吗</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog164.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="447" sId="9">
+    <oc r="D12" t="inlineStr">
+      <is>
+        <t>存款有礼品吗/存款有礼物吗/存款有哪些礼物/存款有哪些礼品/存款有什么礼品/存款的礼品有哪些/存款可以领礼品吗/听说存款有礼物/存款送礼物吗/存钱有礼物吗/存钱送礼物吗</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D12" t="inlineStr">
+      <is>
+        <r>
+          <t>存款有礼品吗/存款有礼物吗/存款有哪些礼物/存款有哪些礼品/存款有什么礼品/存款的礼品有哪些/存款可以领礼品吗/听说存款有礼物/存款送礼物吗/存钱有礼物吗/存钱送礼物吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/听说存钱有礼物/存钱有礼品吗/存钱有哪些礼物/存钱送东西吗/存钱有哪些礼品/存钱有东西送吗/存钱会送东西吗/存钱有什么礼品吗/存钱可以拿到礼物吗</t>
+        </r>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -19832,7 +20568,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
   <userInfo guid="{EF605654-F361-4373-8330-7FC05EDE25FB}" name="lulu.wang(王路路)" id="-627575225" dateTime="2017-12-15T09:23:53"/>
 </users>
@@ -20132,7 +20868,7 @@
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="23.25" style="1" customWidth="1"/>
@@ -20141,7 +20877,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>205</v>
       </c>
@@ -20161,7 +20897,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="74.25" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>206</v>
       </c>
@@ -20178,7 +20914,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="83.25" customHeight="1">
       <c r="A3" s="26" t="s">
         <v>206</v>
       </c>
@@ -20195,7 +20931,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="71.25" customHeight="1">
       <c r="A4" s="26" t="s">
         <v>206</v>
       </c>
@@ -20212,7 +20948,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="59.25" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>206</v>
       </c>
@@ -20229,7 +20965,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="49.5" customHeight="1">
       <c r="A6" s="26" t="s">
         <v>206</v>
       </c>
@@ -20246,7 +20982,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="47.25" customHeight="1">
       <c r="A7" s="26" t="s">
         <v>206</v>
       </c>
@@ -20263,7 +20999,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="99.75" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>206</v>
       </c>
@@ -20280,7 +21016,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="118.5" customHeight="1">
       <c r="A9" s="26" t="s">
         <v>206</v>
       </c>
@@ -20297,7 +21033,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="50.25" customHeight="1">
       <c r="A10" s="26" t="s">
         <v>206</v>
       </c>
@@ -20314,7 +21050,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="35.25" customHeight="1">
       <c r="A11" s="26" t="s">
         <v>206</v>
       </c>
@@ -20331,7 +21067,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="45.75" customHeight="1">
       <c r="A12" s="26" t="s">
         <v>206</v>
       </c>
@@ -20348,7 +21084,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="53.25" customHeight="1">
       <c r="A13" s="26" t="s">
         <v>206</v>
       </c>
@@ -20365,7 +21101,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="65.25" customHeight="1">
       <c r="A14" s="26" t="s">
         <v>206</v>
       </c>
@@ -20382,7 +21118,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="112.5" customHeight="1">
       <c r="A15" s="26" t="s">
         <v>206</v>
       </c>
@@ -20402,30 +21138,30 @@
   </sheetData>
   <autoFilter ref="B2:F15"/>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="B1:H163"/>
-    </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
       <autoFilter ref="B1:H163"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
       <autoFilter ref="B2:F15"/>
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="B2:F15"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
       <autoFilter ref="B2:F15"/>
@@ -20445,14 +21181,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="36.375" customWidth="1"/>
     <col min="3" max="3" width="39.625" customWidth="1"/>
     <col min="4" max="4" width="59.75" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>205</v>
       </c>
@@ -20472,7 +21208,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>215</v>
       </c>
@@ -20488,7 +21224,7 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1">
       <c r="A3" s="26" t="s">
         <v>215</v>
       </c>
@@ -20506,10 +21242,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D4" sqref="D4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20520,6 +21252,10 @@
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="C3" sqref="C3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -20536,7 +21272,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="39"/>
     <col min="2" max="2" width="38.25" style="39" customWidth="1"/>
@@ -20544,7 +21280,7 @@
     <col min="4" max="4" width="59.875" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="56" t="s">
         <v>205</v>
       </c>
@@ -20564,7 +21300,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="72" customHeight="1">
       <c r="A2" s="56" t="s">
         <v>216</v>
       </c>
@@ -20580,7 +21316,7 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="45.75" customHeight="1">
       <c r="A3" s="56" t="s">
         <v>216</v>
       </c>
@@ -20596,7 +21332,7 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="34.5" customHeight="1">
       <c r="A4" s="56" t="s">
         <v>216</v>
       </c>
@@ -20612,7 +21348,7 @@
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="59.25" customHeight="1">
       <c r="A5" s="56" t="s">
         <v>216</v>
       </c>
@@ -20628,7 +21364,7 @@
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="71.25" customHeight="1">
       <c r="A6" s="56" t="s">
         <v>216</v>
       </c>
@@ -20644,7 +21380,7 @@
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="57" customHeight="1">
       <c r="A7" s="56" t="s">
         <v>216</v>
       </c>
@@ -20660,7 +21396,7 @@
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1">
       <c r="A8" s="56" t="s">
         <v>216</v>
       </c>
@@ -20676,7 +21412,7 @@
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="60.75" customHeight="1">
       <c r="A9" s="56" t="s">
         <v>216</v>
       </c>
@@ -20692,7 +21428,7 @@
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="60" customHeight="1">
       <c r="A10" s="56" t="s">
         <v>216</v>
       </c>
@@ -20708,7 +21444,7 @@
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="46.5" customHeight="1">
       <c r="A11" s="56" t="s">
         <v>216</v>
       </c>
@@ -20726,10 +21462,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D9" sqref="D9"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="D9" sqref="D9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20740,6 +21472,10 @@
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="D5" sqref="D5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D9" sqref="D9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -20756,14 +21492,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="26.625" customWidth="1"/>
     <col min="3" max="3" width="83.125" customWidth="1"/>
     <col min="4" max="4" width="40" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>205</v>
       </c>
@@ -20783,7 +21519,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>217</v>
       </c>
@@ -20799,7 +21535,7 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="64.5" customHeight="1">
       <c r="A3" s="26" t="s">
         <v>217</v>
       </c>
@@ -20815,7 +21551,7 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="60" customHeight="1">
       <c r="A4" s="26" t="s">
         <v>217</v>
       </c>
@@ -20831,7 +21567,7 @@
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="45.75" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>217</v>
       </c>
@@ -20847,7 +21583,7 @@
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="26" t="s">
         <v>217</v>
       </c>
@@ -20863,7 +21599,7 @@
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="26" t="s">
         <v>217</v>
       </c>
@@ -20879,7 +21615,7 @@
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="83.25" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>217</v>
       </c>
@@ -20897,10 +21633,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C26" sqref="C26"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20911,6 +21643,10 @@
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="C5" sqref="C5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -20927,14 +21663,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="46.625" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
     <col min="4" max="4" width="47.875" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>205</v>
       </c>
@@ -20954,7 +21690,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="72" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>218</v>
       </c>
@@ -20970,7 +21706,7 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="26" t="s">
         <v>218</v>
       </c>
@@ -20986,7 +21722,7 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A4" s="26" t="s">
         <v>218</v>
       </c>
@@ -21002,7 +21738,7 @@
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>218</v>
       </c>
@@ -21018,7 +21754,7 @@
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A6" s="26" t="s">
         <v>218</v>
       </c>
@@ -21034,7 +21770,7 @@
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="26" t="s">
         <v>218</v>
       </c>
@@ -21050,7 +21786,7 @@
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="43.5" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>218</v>
       </c>
@@ -21066,7 +21802,7 @@
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="47.25" customHeight="1">
       <c r="A9" s="26" t="s">
         <v>218</v>
       </c>
@@ -21084,10 +21820,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C5" sqref="C5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="B26" sqref="B26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21098,6 +21830,10 @@
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="D8" sqref="D8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21117,7 +21853,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="39"/>
     <col min="2" max="2" width="29" style="39" customWidth="1"/>
@@ -21125,7 +21861,7 @@
     <col min="4" max="4" width="44.25" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="56" t="s">
         <v>205</v>
       </c>
@@ -21145,7 +21881,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="180" customHeight="1">
       <c r="A2" s="56" t="s">
         <v>219</v>
       </c>
@@ -21161,7 +21897,7 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="101.25" customHeight="1">
       <c r="A3" s="56" t="s">
         <v>219</v>
       </c>
@@ -21179,10 +21915,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D2" sqref="D2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21193,6 +21925,10 @@
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="D5" sqref="D5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21209,7 +21945,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="39"/>
     <col min="2" max="2" width="30.375" style="39" customWidth="1"/>
@@ -21217,7 +21953,7 @@
     <col min="4" max="4" width="54" style="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="56" t="s">
         <v>205</v>
       </c>
@@ -21237,7 +21973,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="74.25" customHeight="1">
       <c r="A2" s="56" t="s">
         <v>220</v>
       </c>
@@ -21253,7 +21989,7 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="67.5" customHeight="1">
       <c r="A3" s="56" t="s">
         <v>220</v>
       </c>
@@ -21269,7 +22005,7 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="47.25" customHeight="1">
       <c r="A4" s="56" t="s">
         <v>220</v>
       </c>
@@ -21285,7 +22021,7 @@
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="83.25" customHeight="1">
       <c r="A5" s="56" t="s">
         <v>220</v>
       </c>
@@ -21301,7 +22037,7 @@
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="99.75" customHeight="1">
       <c r="A6" s="56" t="s">
         <v>220</v>
       </c>
@@ -21319,10 +22055,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D5" sqref="D5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="D15" sqref="D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21333,6 +22065,10 @@
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="E5" sqref="E5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21352,14 +22088,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="37.75" customWidth="1"/>
     <col min="3" max="3" width="41.5" customWidth="1"/>
     <col min="4" max="4" width="42.5" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>205</v>
       </c>
@@ -21379,7 +22115,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="84" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>221</v>
       </c>
@@ -21397,10 +22133,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="B9" sqref="B9"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="B9" sqref="B9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21411,6 +22143,10 @@
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="D2" sqref="D2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="B9" sqref="B9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21427,14 +22163,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="39.5" customWidth="1"/>
     <col min="3" max="3" width="56.25" style="39" customWidth="1"/>
     <col min="4" max="4" width="44.25" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>205</v>
       </c>
@@ -21454,7 +22190,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="92.25" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>223</v>
       </c>
@@ -21472,10 +22208,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="B1" sqref="B1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="D14" sqref="D13:D14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21489,6 +22221,10 @@
       <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -21505,14 +22241,14 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="29.25" customWidth="1"/>
     <col min="3" max="3" width="65.75" customWidth="1"/>
     <col min="4" max="4" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>205</v>
       </c>
@@ -21532,7 +22268,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="96.75" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>224</v>
       </c>
@@ -21548,7 +22284,7 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="121.5">
       <c r="A3" s="26" t="s">
         <v>224</v>
       </c>
@@ -21562,7 +22298,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="26" t="s">
         <v>224</v>
       </c>
@@ -21574,7 +22310,7 @@
       </c>
       <c r="D4" s="28"/>
     </row>
-    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="27">
       <c r="A5" s="26" t="s">
         <v>224</v>
       </c>
@@ -21588,7 +22324,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="34" customFormat="1" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="34" customFormat="1" ht="175.5">
       <c r="A6" s="33" t="s">
         <v>224</v>
       </c>
@@ -21602,31 +22338,31 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="D7" s="34"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="D8" s="34"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C3" sqref="C3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="A9" sqref="A9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A4">
       <selection activeCell="D3" sqref="D3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="D3" sqref="D3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C3" sqref="C3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -21645,14 +22381,14 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="34.125" customWidth="1"/>
     <col min="3" max="3" width="39.375" style="39" customWidth="1"/>
     <col min="4" max="4" width="55.375" style="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>205</v>
       </c>
@@ -21672,7 +22408,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="109.5" customHeight="1">
       <c r="A2" s="43" t="s">
         <v>207</v>
       </c>
@@ -21690,7 +22426,7 @@
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="152.25" customHeight="1">
       <c r="A3" s="43" t="s">
         <v>207</v>
       </c>
@@ -21708,7 +22444,7 @@
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="138" customHeight="1">
       <c r="A4" s="43" t="s">
         <v>207</v>
       </c>
@@ -21726,7 +22462,7 @@
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="79.5" customHeight="1">
       <c r="A5" s="53" t="s">
         <v>207</v>
       </c>
@@ -21744,7 +22480,7 @@
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="71.25" customHeight="1">
       <c r="A6" s="48" t="s">
         <v>207</v>
       </c>
@@ -21762,7 +22498,7 @@
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="69.75" customHeight="1">
       <c r="A7" s="48" t="s">
         <v>207</v>
       </c>
@@ -21780,7 +22516,7 @@
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="76.5" customHeight="1">
       <c r="A8" s="48" t="s">
         <v>207</v>
       </c>
@@ -21798,7 +22534,7 @@
       </c>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="66" customHeight="1">
       <c r="A9" s="48" t="s">
         <v>207</v>
       </c>
@@ -21816,7 +22552,7 @@
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="36.75" customHeight="1">
       <c r="A10" s="48" t="s">
         <v>207</v>
       </c>
@@ -21834,7 +22570,7 @@
       </c>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="59.25" customHeight="1">
       <c r="A11" s="48" t="s">
         <v>207</v>
       </c>
@@ -21852,7 +22588,7 @@
       </c>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="74.25" customHeight="1">
       <c r="A12" s="48" t="s">
         <v>207</v>
       </c>
@@ -21870,7 +22606,7 @@
       </c>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="44.25" customHeight="1">
       <c r="A13" s="48" t="s">
         <v>207</v>
       </c>
@@ -21888,7 +22624,7 @@
       </c>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="40.5" customHeight="1">
       <c r="A14" s="48" t="s">
         <v>207</v>
       </c>
@@ -21906,7 +22642,7 @@
       </c>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="52.5" customHeight="1">
       <c r="A15" s="48" t="s">
         <v>207</v>
       </c>
@@ -21924,7 +22660,7 @@
       </c>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="48" t="s">
         <v>207</v>
       </c>
@@ -21942,7 +22678,7 @@
       </c>
       <c r="F16"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="79.5" customHeight="1">
       <c r="A17" s="48" t="s">
         <v>207</v>
       </c>
@@ -21960,7 +22696,7 @@
       </c>
       <c r="F17"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="70.5" customHeight="1">
       <c r="A18" s="48" t="s">
         <v>207</v>
       </c>
@@ -21978,7 +22714,7 @@
       </c>
       <c r="F18"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="69" customHeight="1">
       <c r="A19" s="48" t="s">
         <v>207</v>
       </c>
@@ -21996,7 +22732,7 @@
       </c>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A20" s="48" t="s">
         <v>207</v>
       </c>
@@ -22014,7 +22750,7 @@
       </c>
       <c r="F20"/>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="108.75" customHeight="1">
       <c r="A21" s="48" t="s">
         <v>207</v>
       </c>
@@ -22032,7 +22768,7 @@
       </c>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="67.5" customHeight="1">
       <c r="A22" s="48" t="s">
         <v>207</v>
       </c>
@@ -22050,30 +22786,30 @@
       </c>
       <c r="F22"/>
     </row>
-    <row r="32" spans="1:6" ht="78.75" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="78.75">
       <c r="C32" s="74" t="s">
         <v>341</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" topLeftCell="A4">
-      <selection activeCell="D11" sqref="D11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-    </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="D26" sqref="D26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="D12" sqref="D12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A19">
       <selection activeCell="D12" sqref="D12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
     </customSheetView>
@@ -22092,14 +22828,14 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="27.75" customWidth="1"/>
     <col min="3" max="3" width="72.5" style="39" customWidth="1"/>
     <col min="4" max="4" width="38.75" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>205</v>
       </c>
@@ -22119,7 +22855,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="96" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>208</v>
       </c>
@@ -22135,7 +22871,7 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="87" customHeight="1">
       <c r="A3" s="26" t="s">
         <v>208</v>
       </c>
@@ -22151,7 +22887,7 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="125.25" customHeight="1">
       <c r="A4" s="26" t="s">
         <v>208</v>
       </c>
@@ -22167,7 +22903,7 @@
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="115.5" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>208</v>
       </c>
@@ -22183,7 +22919,7 @@
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="106.5" customHeight="1">
       <c r="A6" s="26" t="s">
         <v>208</v>
       </c>
@@ -22199,7 +22935,7 @@
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="67.5" customHeight="1">
       <c r="A7" s="26" t="s">
         <v>208</v>
       </c>
@@ -22215,7 +22951,7 @@
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="96.75" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>208</v>
       </c>
@@ -22231,7 +22967,7 @@
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="77.25" customHeight="1">
       <c r="A9" s="26" t="s">
         <v>208</v>
       </c>
@@ -22247,7 +22983,7 @@
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="79.5" customHeight="1">
       <c r="A10" s="26" t="s">
         <v>208</v>
       </c>
@@ -22263,7 +22999,7 @@
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="66.75" customHeight="1">
       <c r="A11" s="26" t="s">
         <v>208</v>
       </c>
@@ -22279,7 +23015,7 @@
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="78.75" customHeight="1">
       <c r="A12" s="26" t="s">
         <v>208</v>
       </c>
@@ -22295,7 +23031,7 @@
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="69.75" customHeight="1">
       <c r="A13" s="26" t="s">
         <v>208</v>
       </c>
@@ -22311,7 +23047,7 @@
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="95.25" customHeight="1">
       <c r="A14" s="26" t="s">
         <v>208</v>
       </c>
@@ -22327,7 +23063,7 @@
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="80.25" customHeight="1">
       <c r="A15" s="26" t="s">
         <v>208</v>
       </c>
@@ -22343,7 +23079,7 @@
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="77.25" customHeight="1">
       <c r="A16" s="26" t="s">
         <v>208</v>
       </c>
@@ -22359,7 +23095,7 @@
       <c r="E16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="82.5" customHeight="1">
       <c r="A17" s="26" t="s">
         <v>208</v>
       </c>
@@ -22375,7 +23111,7 @@
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="72" customHeight="1">
       <c r="A18" s="26" t="s">
         <v>208</v>
       </c>
@@ -22391,7 +23127,7 @@
       <c r="E18"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="88.5" customHeight="1">
       <c r="A19" s="26" t="s">
         <v>208</v>
       </c>
@@ -22409,23 +23145,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C13" sqref="C13"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="B18" sqref="B18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A13">
       <selection activeCell="B18" sqref="B18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A13">
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="B18" sqref="B18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="B18" sqref="B18"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C13" sqref="C13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
     </customSheetView>
@@ -22444,7 +23180,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="26.125" customWidth="1"/>
@@ -22452,7 +23188,7 @@
     <col min="4" max="4" width="45" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>205</v>
       </c>
@@ -22472,7 +23208,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>209</v>
       </c>
@@ -22488,7 +23224,7 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="26" t="s">
         <v>209</v>
       </c>
@@ -22504,7 +23240,7 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A4" s="26" t="s">
         <v>209</v>
       </c>
@@ -22520,7 +23256,7 @@
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>209</v>
       </c>
@@ -22536,7 +23272,7 @@
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="26" t="s">
         <v>209</v>
       </c>
@@ -22552,7 +23288,7 @@
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="26" t="s">
         <v>209</v>
       </c>
@@ -22568,7 +23304,7 @@
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>209</v>
       </c>
@@ -22584,7 +23320,7 @@
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="26" t="s">
         <v>209</v>
       </c>
@@ -22600,7 +23336,7 @@
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A10" s="26" t="s">
         <v>209</v>
       </c>
@@ -22616,7 +23352,7 @@
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A11" s="26" t="s">
         <v>209</v>
       </c>
@@ -22632,7 +23368,7 @@
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A12" s="26" t="s">
         <v>209</v>
       </c>
@@ -22648,7 +23384,7 @@
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A13" s="26" t="s">
         <v>209</v>
       </c>
@@ -22664,7 +23400,7 @@
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="26" t="s">
         <v>209</v>
       </c>
@@ -22680,7 +23416,7 @@
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="26" t="s">
         <v>209</v>
       </c>
@@ -22696,7 +23432,7 @@
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="48" customHeight="1">
       <c r="A16" s="26" t="s">
         <v>209</v>
       </c>
@@ -22712,7 +23448,7 @@
       <c r="E16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="127.5" customHeight="1">
       <c r="A17" s="26" t="s">
         <v>209</v>
       </c>
@@ -22728,7 +23464,7 @@
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="35.25" customHeight="1">
       <c r="A18" s="26" t="s">
         <v>209</v>
       </c>
@@ -22744,7 +23480,7 @@
       <c r="E18"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="38.25" customHeight="1">
       <c r="A19" s="26" t="s">
         <v>209</v>
       </c>
@@ -22760,7 +23496,7 @@
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="37.5" customHeight="1">
       <c r="A20" s="26" t="s">
         <v>209</v>
       </c>
@@ -22776,7 +23512,7 @@
       <c r="E20"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="38.25" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>209</v>
       </c>
@@ -22792,7 +23528,7 @@
       <c r="E21"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="45" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>209</v>
       </c>
@@ -22810,10 +23546,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D19" sqref="D19"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="B13" sqref="B13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22824,6 +23556,10 @@
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A22">
       <selection activeCell="F8" sqref="F8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D19" sqref="D19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -22840,14 +23576,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="44" customWidth="1"/>
     <col min="3" max="3" width="63.25" style="63" customWidth="1"/>
     <col min="4" max="4" width="39.375" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>205</v>
       </c>
@@ -22867,7 +23603,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="41.25" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>210</v>
       </c>
@@ -22883,7 +23619,7 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="117.75" customHeight="1">
       <c r="A3" s="26" t="s">
         <v>210</v>
       </c>
@@ -22899,7 +23635,7 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="56.25" customHeight="1">
       <c r="A4" s="26" t="s">
         <v>210</v>
       </c>
@@ -22915,7 +23651,7 @@
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="91.5" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>210</v>
       </c>
@@ -22931,7 +23667,7 @@
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="76.5" customHeight="1">
       <c r="A6" s="26" t="s">
         <v>210</v>
       </c>
@@ -22949,23 +23685,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C5" sqref="C5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-    </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="B9" sqref="B9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A7">
       <selection activeCell="B6" sqref="B6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
     </customSheetView>
@@ -22984,7 +23720,7 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="2" max="2" width="27.625" customWidth="1"/>
@@ -22992,7 +23728,7 @@
     <col min="4" max="4" width="63.875" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>205</v>
       </c>
@@ -23012,7 +23748,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="49.5" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>211</v>
       </c>
@@ -23028,7 +23764,7 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="74.25" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>211</v>
       </c>
@@ -23046,10 +23782,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C10" sqref="C10"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="A4" sqref="A4:XFD4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23063,6 +23795,10 @@
       <selection activeCell="C22" sqref="C22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C10" sqref="C10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -23079,14 +23815,14 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="28.375" customWidth="1"/>
     <col min="3" max="3" width="65.125" style="39" customWidth="1"/>
     <col min="4" max="4" width="52.5" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>205</v>
       </c>
@@ -23106,7 +23842,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="61.5" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>212</v>
       </c>
@@ -23122,7 +23858,7 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="92.25" customHeight="1">
       <c r="A3" s="26" t="s">
         <v>212</v>
       </c>
@@ -23138,7 +23874,7 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="57" customHeight="1">
       <c r="A4" s="26" t="s">
         <v>212</v>
       </c>
@@ -23154,7 +23890,7 @@
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="63.75" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>212</v>
       </c>
@@ -23170,7 +23906,7 @@
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="63.75" customHeight="1">
       <c r="A6" s="26" t="s">
         <v>212</v>
       </c>
@@ -23186,7 +23922,7 @@
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="63.75" customHeight="1">
       <c r="A7" s="26" t="s">
         <v>212</v>
       </c>
@@ -23202,7 +23938,7 @@
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="77.25" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>212</v>
       </c>
@@ -23218,7 +23954,7 @@
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="81" customHeight="1">
       <c r="A9" s="26" t="s">
         <v>212</v>
       </c>
@@ -23234,7 +23970,7 @@
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="56.25" customHeight="1">
       <c r="A10" s="26" t="s">
         <v>212</v>
       </c>
@@ -23250,7 +23986,7 @@
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="66" customHeight="1">
       <c r="A11" s="26" t="s">
         <v>212</v>
       </c>
@@ -23266,7 +24002,7 @@
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="66.75" customHeight="1">
       <c r="A12" s="26" t="s">
         <v>212</v>
       </c>
@@ -23282,7 +24018,7 @@
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="48.75" customHeight="1">
       <c r="A13" s="26" t="s">
         <v>212</v>
       </c>
@@ -23298,7 +24034,7 @@
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1">
       <c r="A14" s="26" t="s">
         <v>212</v>
       </c>
@@ -23314,7 +24050,7 @@
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="26" t="s">
         <v>212</v>
       </c>
@@ -23330,7 +24066,7 @@
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A16" s="26" t="s">
         <v>212</v>
       </c>
@@ -23346,7 +24082,7 @@
       <c r="E16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="66.75" customHeight="1">
       <c r="A17" s="26" t="s">
         <v>212</v>
       </c>
@@ -23362,7 +24098,7 @@
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A18" s="26" t="s">
         <v>212</v>
       </c>
@@ -23378,7 +24114,7 @@
       <c r="E18"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="47.25" customHeight="1">
       <c r="A19" s="26" t="s">
         <v>212</v>
       </c>
@@ -23394,7 +24130,7 @@
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="40.5" customHeight="1">
       <c r="A20" s="26" t="s">
         <v>212</v>
       </c>
@@ -23410,7 +24146,7 @@
       <c r="E20"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="51.75" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>212</v>
       </c>
@@ -23426,7 +24162,7 @@
       <c r="E21"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>212</v>
       </c>
@@ -23442,7 +24178,7 @@
       <c r="E22"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="58.5" customHeight="1">
       <c r="A23" s="26" t="s">
         <v>212</v>
       </c>
@@ -23458,7 +24194,7 @@
       <c r="E23"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="55.5" customHeight="1">
       <c r="A24" s="26" t="s">
         <v>212</v>
       </c>
@@ -23474,7 +24210,7 @@
       <c r="E24"/>
       <c r="F24"/>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="52.5" customHeight="1">
       <c r="A25" s="26" t="s">
         <v>212</v>
       </c>
@@ -23490,7 +24226,7 @@
       <c r="E25"/>
       <c r="F25"/>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" s="1" customFormat="1" ht="66.75" customHeight="1">
       <c r="A26" s="26" t="s">
         <v>212</v>
       </c>
@@ -23506,7 +24242,7 @@
       <c r="E26"/>
       <c r="F26"/>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="51" customHeight="1">
       <c r="A27" s="26" t="s">
         <v>212</v>
       </c>
@@ -23522,7 +24258,7 @@
       <c r="E27"/>
       <c r="F27"/>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" s="1" customFormat="1" ht="74.25" customHeight="1">
       <c r="A28" s="26" t="s">
         <v>212</v>
       </c>
@@ -23538,7 +24274,7 @@
       <c r="E28"/>
       <c r="F28"/>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="50.25" customHeight="1">
       <c r="A29" s="26" t="s">
         <v>212</v>
       </c>
@@ -23554,7 +24290,7 @@
       <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A30" s="26" t="s">
         <v>212</v>
       </c>
@@ -23570,7 +24306,7 @@
       <c r="E30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:6" s="25" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" s="25" customFormat="1" ht="72.75" customHeight="1">
       <c r="A31" s="26" t="s">
         <v>212</v>
       </c>
@@ -23586,7 +24322,7 @@
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
     </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" s="1" customFormat="1" ht="62.25" customHeight="1">
       <c r="A32" s="26" t="s">
         <v>212</v>
       </c>
@@ -23604,10 +24340,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D4" sqref="D4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="B16" sqref="B16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23621,6 +24353,10 @@
       <selection activeCell="D32" sqref="D32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D4" sqref="D4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -23637,14 +24373,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="36.75" customWidth="1"/>
     <col min="4" max="4" width="50.125" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>205</v>
       </c>
@@ -23664,7 +24400,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="74.25" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>213</v>
       </c>
@@ -23680,7 +24416,7 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="26" t="s">
         <v>213</v>
       </c>
@@ -23696,7 +24432,7 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="84" customHeight="1">
       <c r="A4" s="26" t="s">
         <v>213</v>
       </c>
@@ -23714,10 +24450,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="E2" sqref="E2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23728,6 +24460,10 @@
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="D2" sqref="D2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -23741,10 +24477,10 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
@@ -23752,7 +24488,7 @@
     <col min="4" max="4" width="48.5" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>205</v>
       </c>
@@ -23772,7 +24508,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="47.25" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>214</v>
       </c>
@@ -23788,7 +24524,7 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="88.5" customHeight="1">
       <c r="A3" s="26" t="s">
         <v>214</v>
       </c>
@@ -23804,7 +24540,7 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="81.75" customHeight="1">
       <c r="A4" s="26" t="s">
         <v>214</v>
       </c>
@@ -23820,7 +24556,7 @@
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>214</v>
       </c>
@@ -23836,7 +24572,7 @@
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="80.25" customHeight="1">
       <c r="A6" s="26" t="s">
         <v>214</v>
       </c>
@@ -23852,7 +24588,7 @@
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="60.75" customHeight="1">
       <c r="A7" s="26" t="s">
         <v>214</v>
       </c>
@@ -23868,7 +24604,7 @@
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="63.75" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>214</v>
       </c>
@@ -23884,7 +24620,7 @@
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="45" customHeight="1">
       <c r="A9" s="26" t="s">
         <v>214</v>
       </c>
@@ -23900,7 +24636,7 @@
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="52.5" customHeight="1">
       <c r="A10" s="26" t="s">
         <v>214</v>
       </c>
@@ -23916,7 +24652,7 @@
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="48" customHeight="1">
       <c r="A11" s="26" t="s">
         <v>214</v>
       </c>
@@ -23932,77 +24668,77 @@
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="81">
       <c r="A12" s="26" t="s">
         <v>214</v>
       </c>
       <c r="B12" s="79" t="s">
+        <v>476</v>
+      </c>
+      <c r="C12" s="80" t="s">
         <v>453</v>
       </c>
-      <c r="C12" s="80" t="s">
-        <v>454</v>
-      </c>
       <c r="D12" s="28" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="67.5">
       <c r="A13" s="26" t="s">
         <v>214</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="40.5">
       <c r="A14" s="26" t="s">
         <v>214</v>
       </c>
       <c r="B14" s="80" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="C14" s="82" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="27">
       <c r="A15" s="26" t="s">
         <v>214</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="28.5">
       <c r="A16" s="26" t="s">
         <v>214</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="40.5">
       <c r="A17" s="26" t="s">
         <v>214</v>
       </c>
@@ -24010,60 +24746,56 @@
         <v>468</v>
       </c>
       <c r="C17" s="87" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="27">
       <c r="A18" s="26" t="s">
         <v>214</v>
       </c>
       <c r="B18" s="84" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="48" customHeight="1">
       <c r="A19" s="26" t="s">
         <v>214</v>
       </c>
       <c r="B19" s="85" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="54">
       <c r="A20" s="26" t="s">
         <v>214</v>
       </c>
       <c r="B20" s="85" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C20" s="86" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D14" sqref="D14"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24076,8 +24808,13 @@
       <selection activeCell="B21" sqref="B21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" topLeftCell="A10">
+      <selection activeCell="D20" sqref="D20"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/update_data/data/bank_psbc/qa/业务问答.xlsx
+++ b/update_data/data/bank_psbc/qa/业务问答.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="4755" windowWidth="19440" windowHeight="7185" tabRatio="941" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="15" yWindow="4755" windowWidth="19440" windowHeight="7185" tabRatio="941" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="手机银行" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" tabRatio="941" activeSheetId="9"/>
+    <customWorkbookView name="hongru.chu(褚宏茹) - 个人视图" guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="781" tabRatio="941" activeSheetId="9"/>
+    <customWorkbookView name="mengwei.chang(常孟玮) - 个人视图" guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="524" tabRatio="941" activeSheetId="9"/>
     <customWorkbookView name="ling.tian(田玲) - 个人视图" guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="603" tabRatio="941" activeSheetId="17"/>
-    <customWorkbookView name="mengwei.chang(常孟玮) - 个人视图" guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="524" tabRatio="941" activeSheetId="9"/>
-    <customWorkbookView name="hongru.chu(褚宏茹) - 个人视图" guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="781" tabRatio="941" activeSheetId="9"/>
-    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" tabRatio="941" activeSheetId="9"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -20568,7 +20568,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
   <userInfo guid="{EF605654-F361-4373-8330-7FC05EDE25FB}" name="lulu.wang(王路路)" id="-627575225" dateTime="2017-12-15T09:23:53"/>
 </users>
@@ -21138,33 +21138,33 @@
   </sheetData>
   <autoFilter ref="B2:F15"/>
   <customSheetViews>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}" showAutoFilter="1">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="B1:H163"/>
-    </customSheetView>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
       <autoFilter ref="B2:F15"/>
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="B2:F15"/>
+    </customSheetView>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
       <autoFilter ref="B2:F15"/>
     </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" showAutoFilter="1">
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="B2:F15"/>
+      <autoFilter ref="B1:H163"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -21242,20 +21242,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="C7" sqref="C7"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D4" sqref="D4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="C3" sqref="C3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="C3" sqref="C3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="C3" sqref="C3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21462,19 +21462,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
       <selection activeCell="D9" sqref="D9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="D5" sqref="D5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="D9" sqref="D9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -21633,19 +21633,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
       <selection activeCell="C26" sqref="C26"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="C5" sqref="C5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -21820,20 +21820,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="B26" sqref="B26"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C5" sqref="C5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="D8" sqref="D8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="D8" sqref="D8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="D8" sqref="D8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C5" sqref="C5"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="B26" sqref="B26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21915,20 +21915,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="B2" sqref="B2"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D2" sqref="D2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="D5" sqref="D5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D2" sqref="D2"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -22055,20 +22055,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="D15" sqref="D15"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D5" sqref="D5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="E5" sqref="E5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="E5" sqref="E5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="E5" sqref="E5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D5" sqref="D5"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="D15" sqref="D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -22133,19 +22133,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
       <selection activeCell="B9" sqref="B9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="D2" sqref="D2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="B9" sqref="B9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -22208,22 +22208,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="D14" sqref="D13:D14"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="D2" sqref="D2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="D2" sqref="D2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="B1" sqref="B1"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="D14" sqref="D13:D14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -22346,23 +22346,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="A9" sqref="A9"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C3" sqref="C3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="D3" sqref="D3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A4">
       <selection activeCell="D3" sqref="D3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="D3" sqref="D3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C3" sqref="C3"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="A9" sqref="A9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -22793,23 +22793,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="D26" sqref="D26"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A19">
+      <selection activeCell="D12" sqref="D12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="D12" sqref="D12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A19">
-      <selection activeCell="D12" sqref="D12"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D11" sqref="D11"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="D26" sqref="D26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
     </customSheetView>
@@ -23145,23 +23145,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C13" sqref="C13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="B18" sqref="B18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A13">
       <selection activeCell="B18" sqref="B18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="B18" sqref="B18"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C13" sqref="C13"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="B18" sqref="B18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
     </customSheetView>
@@ -23546,20 +23546,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="B13" sqref="B13"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D19" sqref="D19"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A22">
+      <selection activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="C22" sqref="C22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A22">
-      <selection activeCell="F8" sqref="F8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D19" sqref="D19"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="B13" sqref="B13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -23685,23 +23685,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="B9" sqref="B9"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A7">
+      <selection activeCell="B6" sqref="B6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A7">
-      <selection activeCell="B6" sqref="B6"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C5" sqref="C5"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="B9" sqref="B9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
     </customSheetView>
@@ -23782,22 +23782,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C10" sqref="C10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="C22" sqref="C22"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="C22" sqref="C22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="C22" sqref="C22"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C10" sqref="C10"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -24340,22 +24340,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="B16" sqref="B16"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A28">
+      <selection activeCell="D32" sqref="D32"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A28">
       <selection activeCell="D32" sqref="D32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A28">
-      <selection activeCell="D32" sqref="D32"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="B16" sqref="B16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -24369,8 +24369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -24450,19 +24450,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
       <selection activeCell="E2" sqref="E2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="D2" sqref="D2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -24476,8 +24476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -24796,25 +24796,24 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" topLeftCell="A10">
+      <selection activeCell="D20" sqref="D20"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A10">
+      <selection activeCell="B21" sqref="B21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A7">
       <selection activeCell="D9" sqref="D9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A10">
-      <selection activeCell="B21" sqref="B21"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" topLeftCell="A10">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/update_data/data/bank_psbc/qa/业务问答.xlsx
+++ b/update_data/data/bank_psbc/qa/业务问答.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="4755" windowWidth="19440" windowHeight="7185" tabRatio="941" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="15" yWindow="4755" windowWidth="19440" windowHeight="7185" tabRatio="941" firstSheet="2" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="手机银行" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="积存金" sheetId="16" r:id="rId16"/>
     <sheet name="微信银行" sheetId="17" r:id="rId17"/>
     <sheet name="其他" sheetId="18" r:id="rId18"/>
+    <sheet name="存折取款机" sheetId="19" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">手机银行!$B$2:$F$15</definedName>
@@ -38,16 +39,16 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="hongru.chu(褚宏茹) - 个人视图" guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="781" tabRatio="941" activeSheetId="19"/>
+    <customWorkbookView name="ling.tian(田玲) - 个人视图" guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="603" tabRatio="941" activeSheetId="17"/>
+    <customWorkbookView name="mengwei.chang(常孟玮) - 个人视图" guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="524" tabRatio="941" activeSheetId="9"/>
     <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" tabRatio="941" activeSheetId="9"/>
-    <customWorkbookView name="hongru.chu(褚宏茹) - 个人视图" guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="781" tabRatio="941" activeSheetId="9"/>
-    <customWorkbookView name="mengwei.chang(常孟玮) - 个人视图" guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="524" tabRatio="941" activeSheetId="9"/>
-    <customWorkbookView name="ling.tian(田玲) - 个人视图" guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="603" tabRatio="941" activeSheetId="17"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="500">
   <si>
     <t>取号怎么网上预约？</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1194,10 +1195,6 @@
   </si>
   <si>
     <t>储储不能离开自己的工作岗位，我可以帮您呼叫大堂经理来帮您的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你可以带我去柜台吗/带我去休息区/带我去贵金属展示区/带我去超级柜台/带我去智慧柜台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2161,23 +2158,6 @@
   </si>
   <si>
     <r>
-      <t>信用卡活动/最近信用卡有哪些活动/信用卡有什么活动啊/给我介绍一下信用卡的的活动吧/介绍一下信用卡的优惠活动/办信用卡有什么活动/最近信用卡有什么活动？/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>跟我说说信用卡有什么活动/跟我说说最近信用卡有什么活动/最近信用卡的活动有哪些/最近信用卡的活动有什么/信用卡最近有什么活动/信用卡的活动有哪些/跟我说说信用卡最近的活动有哪些/跟我说说最近信用卡有哪些活动/告诉我信用卡活动有哪些/告诉我有什么信用卡活动/告诉我信用卡最近有哪些活动</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>办信用卡要手续费么？/办信用卡要钱么？/办信用卡收费么？/办信用卡多少钱/办信用卡要不要钱/办信用卡贵么？/办信用卡贵不贵？/办信用卡价格如何？/办信用卡便宜不便宜？/办信用卡便宜么？/</t>
     </r>
     <r>
@@ -3745,10 +3725,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>定期利率是多少/告诉他一年的定期利率是多少/告诉我定期利率/告诉我定期利率是多少/定期利率/三个月定期利率是多少/半年的定期利率是多少/两年定期利率是多少/三年定期利率是多少/五年定期利率是多少</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>公众号是多少啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3758,10 +3734,6 @@
   </si>
   <si>
     <t>怎么礼品兑换</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么礼品兑换/兑换礼品/怎么兑换礼品/礼品兑换/怎么礼品兑换/找谁兑换礼品/哪里兑换礼品</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
@@ -3808,12 +3780,143 @@
     </r>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>怎么礼品兑换/兑换礼品/怎么兑换礼品/礼品兑换/怎么礼品兑换/找谁兑换礼品/哪里兑换礼品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/请问什么礼品兑换</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>定期利率是多少/告诉他一年的定期利率是多少/告诉我定期利率/告诉我定期利率是多少/定期利率/三个月定期利率是多少/半年的定期利率是多少/两年定期利率是多少/三年定期利率是多少/五年定期利率是多少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/一年的定期利息是多少呀/定期存款的利率三个月的</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>信用卡活动/最近信用卡有哪些活动/信用卡有什么活动啊/给我介绍一下信用卡的的活动吧/介绍一下信用卡的优惠活动/办信用卡有什么活动/最近信用卡有什么活动？/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>跟我说说信用卡有什么活动/跟我说说最近信用卡有什么活动/最近信用卡的活动有哪些/最近信用卡的活动有什么/信用卡最近有什么活动/信用卡的活动有哪些/跟我说说信用卡最近的活动有哪些/跟我说说最近信用卡有哪些活动/告诉我信用卡活动有哪些/告诉我有什么信用卡活动/告诉我信用卡最近有哪些活动</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可以带我去柜台吗/带我去休息区/带我去贵金属展示区/带我去超级柜台/带我去智慧柜台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行有什么活动啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行有什么活动啊/最近有什么活动/银行活动/最近银行有哪些活动/银行有什么活动啊/给我介绍一下银行的的活动吧/介绍一下银行的优惠活动/银行有什么活动/最近银行有什么活动？/跟我说说银行有什么活动/跟我说说最近银行有什么活动/最近银行的活动有哪些/最近银行的活动有什么/银行最近有什么活动/银行的活动有哪些/跟我说说银行最近的活动有哪些/跟我说说最近银行有哪些活动/告诉我银行活动有哪些/告诉我有什么银行活动/告诉我银行最近有哪些活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中邮人寿保险股份有限公司简介</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>中邮人寿保险股份有限公司是由中国邮政集团公司与各省、区、市邮政公司共同出资设立的国有全资寿险公司。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>中邮人寿是什么/介绍一下中邮人寿/介绍一下中邮人寿保险公司/中邮人寿和邮政有什么关系/中邮人寿是啥/我没有听过中邮人寿/我好像没有听过中邮人寿/我不知道中邮人寿/中邮人寿是做什么的/中邮人寿是办理什么业务的/中邮人寿简介/跟我说说中邮人寿/告诉我中邮人寿/跟我介绍一下中邮人寿/说说中邮人寿/中邮人寿是邮政创立的吗/中邮人寿和中国邮政是一家的吗/中邮人寿和中国邮政的关系</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要办理基金业务</t>
+  </si>
+  <si>
+    <t>请找我们的理财经理，他会为您详细介绍哦，或者您可以通过柜台，手机银行，网上银行进行购买哦</t>
+  </si>
+  <si>
+    <t>我买基金/介绍一下基金吧/我要买基金/有还有什么别的基金吗/给我介绍一下基金/介绍一下基金/帮我介绍一下基金啦/买基金/我想买基金/有什么基金产品推荐吗/基金产品有没有/有基金吗/我想买基金推荐一下/我要办理基金业务/怎么办理基金业务/怎么买基金/哪里买基金/基金在哪里买/有没有推荐的基金/我想买基金，给我推荐一个/给我推荐一个基金/我是来买基金的/我来买基金/给我介绍一个基金/基金去哪里买/基金怎么买/我是来买基金的，要去哪里办理业务/我想买个基金，要怎么办理/我想了解一下基金/我想买基金，给我推荐一个/基金业务怎么办理/基金业务去哪里办理/基金业务找谁办理/找谁办理基金业务/我来买个基金，该怎么办/我想买基金，告诉我怎么办理/告诉我怎么办理基金业务/我是来买基金的，告诉我怎么办理/跟我说说基金业务怎么办理/我是来买基金的，跟我说说怎么办理/我是来买基金的，跟我说说要去哪里办理/我想买基金，跟我说说找谁办理</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金业务</t>
+  </si>
+  <si>
+    <t>基金的基本业务包括基金业务加办、认购、申购、赎回、撤单、资料变更、基金转换、基金转托管、基金TA账户销户、基金业务撤办。</t>
+  </si>
+  <si>
+    <t>什么是基金业务/基金业务有哪些/哪些是基金业务/基金业务包括哪些/基金业务是什么/什么是基金/基金是什么/啥是基金/啥是基金业务/基金是啥/基金业务是啥/基金业务都有什么/基金业务的范畴/基金指的是什么/基金业务指的是什么/基金业务都有啥/我不知道基金是什么/告诉我基金业务是什么/我想知道基金业务是什么/我想知道基金业务都有哪些/告诉我基金业务都有哪些/我想知道基金业务都有哪些/我不知道基金业务都有哪些/跟我说说基金业务都有哪些/跟我说说什么是基金业务/跟我说说哪些是基金业务/跟我说说基金业务指的是什么/跟我说说基金业务都有什么/基金业务</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍一下保险吧</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍一下保险吧/我要买保险/有还有什么别的保险吗/给我介绍一下保险/介绍一下保险/帮我介绍一下保险啦/买保险/我想买保险/有什么保险产品推荐吗/保险产品有没有/有保险吗/我想买保险推荐一下/哪里买保险/怎么买保险/保险在哪里买/我想买保险/我是来买保险的/我要买一份保险/我要给家人买保险/我想办理保险业务/我是来办理保险业务的/给我介绍一下保险/跟我说说你们都有什么保险/告诉我这里都有什么保险/告诉我这里都有哪些保险/告诉我这里保险有哪些/这里都能办理哪些保险业务/我能在这里买到哪些保险/保险都有哪些/我能在这里买到哪些保险/我想买保险，你们这里都有什么/我是来买保险的，介绍介绍你们都有哪些/我想买份保险，给我介绍一下/给我介绍介绍保险/我想买份保险，给我介绍介绍/</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>存折取款机如何使用</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>请您将存折打印的页面向上，插入最上面的长条口子；然后，根据提示完成取款操作，取出现金后，机器会自动打印存折，并自动退出存折，取款完成。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>我能用存折取款机吗</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>我能用存折取款机吗/我可以在存折取款机上取钱吗/我们有存折取款机/我要用存折取款机取钱/你知道存折取款机吗/我想在存折取款机上取钱/我想在存折取款机上取钱/存折取款机我可以用吗/我能不能用存折取款机/</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>存折取款机如何使用/如何使用存折取款机/存折取款机怎么使用/怎么使用存折取款机/存折取款机怎么用啊/怎么用存折取款机/我没有用过存折取款机，怎么用啊/我不知道存折取款机怎么用/告诉我存折取款机怎么使用/告诉我怎么使用存折取款机/跟我说说怎么用存折取款机/跟我说说存折取款机怎么用/教教我怎么用存折取款机/教教我存折取款机怎么用/我不知道存折取款机如何用/告诉我存折取款机如何使用/告诉我如何使用存折取款机/跟我说说如何使用存折取款机/跟我说说存折取款机如何使用/教教我如何用存折取款机/教教我存折取款机如何使用</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>存折取款机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮储银行的存折可以使用存折取款机进行取款，每天最多可以取两万元，每次只可以取五千元。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3998,6 +4101,46 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4117,7 +4260,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4352,6 +4495,24 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4372,7 +4533,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{774836FD-2F57-4018-AF24-E1EEC93C198C}" diskRevisions="1" revisionId="447" version="164">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1BB483C1-851A-4EE5-9F1F-5504CA301D0B}" diskRevisions="1" revisionId="516" version="181">
   <header guid="{A4B2C081-ADA0-4742-AEED-5DD238F709C0}" dateTime="2017-12-13T08:44:25" maxSheetId="19" userName="lulu.wang(王路路)" r:id="rId1">
     <sheetIdMap count="18">
       <sheetId val="1"/>
@@ -7981,6 +8142,384 @@
       <sheetId val="18"/>
     </sheetIdMap>
   </header>
+  <header guid="{DB957A83-93D7-470E-AE38-D12BF8DBE624}" dateTime="2017-12-25T17:07:04" maxSheetId="19" userName="hongru.chu(褚宏茹)" r:id="rId165" minRId="448">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E7F91599-7184-4EFD-A55A-DFC12EF210F1}" dateTime="2017-12-25T17:07:31" maxSheetId="19" userName="hongru.chu(褚宏茹)" r:id="rId166" minRId="449">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{664C8F29-70C5-451A-B968-64C30D45E534}" dateTime="2017-12-25T17:11:49" maxSheetId="19" userName="hongru.chu(褚宏茹)" r:id="rId167" minRId="451">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F5FF8476-80D8-4782-B316-4666B7170DAB}" dateTime="2017-12-25T17:14:26" maxSheetId="19" userName="hongru.chu(褚宏茹)" r:id="rId168" minRId="452" maxRId="455">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A579C44F-6141-4838-BA4E-D61A16F77FA7}" dateTime="2017-12-25T17:14:48" maxSheetId="19" userName="hongru.chu(褚宏茹)" r:id="rId169" minRId="456" maxRId="457">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EF2B5A74-8BED-48B5-8A99-A852F9FCE5CF}" dateTime="2017-12-25T17:16:06" maxSheetId="19" userName="hongru.chu(褚宏茹)" r:id="rId170" minRId="458">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6459AB1E-736E-49EB-9784-C6A207DA50B1}" dateTime="2017-12-25T17:18:25" maxSheetId="19" userName="hongru.chu(褚宏茹)" r:id="rId171" minRId="460">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7AEADB5D-66E6-45CC-9ED7-95EEA4D2F340}" dateTime="2017-12-25T17:25:23" maxSheetId="19" userName="hongru.chu(褚宏茹)" r:id="rId172" minRId="461">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2A9923C3-688B-497F-AB01-B90CC4ABC7BA}" dateTime="2017-12-26T08:25:01" maxSheetId="19" userName="hongru.chu(褚宏茹)" r:id="rId173" minRId="462" maxRId="464">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2392F221-E0E8-4C05-A564-57CB87C8F67B}" dateTime="2017-12-26T14:03:50" maxSheetId="19" userName="hongru.chu(褚宏茹)" r:id="rId174" minRId="465" maxRId="468">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B5A951BE-6023-46DB-8FD9-B9E3ADFD1AF3}" dateTime="2017-12-26T14:04:19" maxSheetId="19" userName="hongru.chu(褚宏茹)" r:id="rId175" minRId="470" maxRId="481">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{269BE057-FC26-4A85-82C5-DADEEBB5FF7C}" dateTime="2017-12-26T14:04:28" maxSheetId="19" userName="hongru.chu(褚宏茹)" r:id="rId176">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1D759FDF-14A9-4366-9E54-D65823A279D5}" dateTime="2017-12-26T14:05:09" maxSheetId="19" userName="hongru.chu(褚宏茹)" r:id="rId177" minRId="482" maxRId="489">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{82F2926C-8D9D-4BBE-B20A-04C6DC42F156}" dateTime="2017-12-26T14:18:31" maxSheetId="20" userName="hongru.chu(褚宏茹)" r:id="rId178" minRId="490" maxRId="512">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5953B42B-16C2-46AF-BC56-E7BC4E39F5F6}" dateTime="2017-12-26T14:18:53" maxSheetId="20" userName="hongru.chu(褚宏茹)" r:id="rId179">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FE4F034E-1E5F-401D-BDF0-0E0AB7C7A7C8}" dateTime="2017-12-26T14:21:38" maxSheetId="20" userName="hongru.chu(褚宏茹)" r:id="rId180" minRId="515">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1BB483C1-851A-4EE5-9F1F-5504CA301D0B}" dateTime="2017-12-26T14:22:18" maxSheetId="20" userName="hongru.chu(褚宏茹)" r:id="rId181" minRId="516">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -15681,6 +16220,285 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog165.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="448" sId="9">
+    <oc r="D16" t="inlineStr">
+      <is>
+        <t>怎么礼品兑换/兑换礼品/怎么兑换礼品/礼品兑换/怎么礼品兑换/找谁兑换礼品/哪里兑换礼品</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D16" t="inlineStr">
+      <is>
+        <r>
+          <t>怎么礼品兑换/兑换礼品/怎么兑换礼品/礼品兑换/怎么礼品兑换/找谁兑换礼品/哪里兑换礼品</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF00B050"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/请问什么礼品兑换</t>
+        </r>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog166.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="449" sId="9">
+    <oc r="D20" t="inlineStr">
+      <is>
+        <t>定期利率是多少/告诉他一年的定期利率是多少/告诉我定期利率/告诉我定期利率是多少/定期利率/三个月定期利率是多少/半年的定期利率是多少/两年定期利率是多少/三年定期利率是多少/五年定期利率是多少</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D20" t="inlineStr">
+      <is>
+        <r>
+          <t>定期利率是多少/告诉他一年的定期利率是多少/告诉我定期利率/告诉我定期利率是多少/定期利率/三个月定期利率是多少/半年的定期利率是多少/两年定期利率是多少/三年定期利率是多少/五年定期利率是多少</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF00B050"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/一年的定期利息是多少呀</t>
+        </r>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_A92E510E_03FC_4377_BAFD_3953037B261D_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>手机银行!$B$2:$F$15</formula>
+    <oldFormula>手机银行!$B$2:$F$15</oldFormula>
+  </rdn>
+  <rcv guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog167.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="451" sId="9">
+    <oc r="D20" t="inlineStr">
+      <is>
+        <r>
+          <t>定期利率是多少/告诉他一年的定期利率是多少/告诉我定期利率/告诉我定期利率是多少/定期利率/三个月定期利率是多少/半年的定期利率是多少/两年定期利率是多少/三年定期利率是多少/五年定期利率是多少</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF00B050"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/一年的定期利息是多少呀</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D20" t="inlineStr">
+      <is>
+        <r>
+          <t>定期利率是多少/告诉他一年的定期利率是多少/告诉我定期利率/告诉我定期利率是多少/定期利率/三个月定期利率是多少/半年的定期利率是多少/两年定期利率是多少/三年定期利率是多少/五年定期利率是多少</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF00B050"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/一年的定期利息是多少呀/定期存款的利率三个月的</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog168.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="452" sId="9" xfDxf="1" dxf="1">
+    <nc r="B21" t="inlineStr">
+      <is>
+        <t>有什么活动啊</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="9" sqref="B21" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="453" sId="9" odxf="1" dxf="1">
+    <nc r="C21" t="inlineStr">
+      <is>
+        <t>详情请咨询大堂经理</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+        <right/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="9" sqref="C21">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" sqref="C21" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" sqref="D21" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="454" sId="7">
+    <oc r="D22" t="inlineStr">
+      <is>
+        <r>
+          <t>信用卡活动/最近信用卡有哪些活动/信用卡有什么活动啊/给我介绍一下信用卡的的活动吧/介绍一下信用卡的优惠活动/办信用卡有什么活动/最近信用卡有什么活动？/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="4"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>跟我说说信用卡有什么活动/跟我说说最近信用卡有什么活动/最近信用卡的活动有哪些/最近信用卡的活动有什么/信用卡最近有什么活动/信用卡的活动有哪些/跟我说说信用卡最近的活动有哪些/跟我说说最近信用卡有哪些活动/告诉我信用卡活动有哪些/告诉我有什么信用卡活动/告诉我信用卡最近有哪些活动</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D22" t="inlineStr">
+      <is>
+        <r>
+          <t>信用卡活动/最近信用卡有哪些活动/信用卡有什么活动啊/给我介绍一下信用卡的的活动吧/介绍一下信用卡的优惠活动/办信用卡有什么活动/最近信用卡有什么活动？/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="4"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>跟我说说信用卡有什么活动/跟我说说最近信用卡有什么活动/最近信用卡的活动有哪些/最近信用卡的活动有什么/信用卡最近有什么活动/信用卡的活动有哪些/跟我说说信用卡最近的活动有哪些/跟我说说最近信用卡有哪些活动/告诉我信用卡活动有哪些/告诉我有什么信用卡活动/告诉我信用卡最近有哪些活动</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="455" sId="9">
+    <nc r="D21" t="inlineStr">
+      <is>
+        <t>最近有什么活动/银行活动/最近银行有哪些活动/银行有什么活动啊/给我介绍一下银行的的活动吧/介绍一下银行的优惠活动/银行有什么活动/最近银行有什么活动？/跟我说说银行有什么活动/跟我说说最近银行有什么活动/最近银行的活动有哪些/最近银行的活动有什么/银行最近有什么活动/银行的活动有哪些/跟我说说银行最近的活动有哪些/跟我说说最近银行有哪些活动/告诉我银行活动有哪些/告诉我有什么银行活动/告诉我银行最近有哪些活动</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog169.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="456" sId="9">
+    <oc r="B21" t="inlineStr">
+      <is>
+        <t>有什么活动啊</t>
+      </is>
+    </oc>
+    <nc r="B21" t="inlineStr">
+      <is>
+        <t>有什么活动啊</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="457" sId="9">
+    <oc r="D21" t="inlineStr">
+      <is>
+        <t>最近有什么活动/银行活动/最近银行有哪些活动/银行有什么活动啊/给我介绍一下银行的的活动吧/介绍一下银行的优惠活动/银行有什么活动/最近银行有什么活动？/跟我说说银行有什么活动/跟我说说最近银行有什么活动/最近银行的活动有哪些/最近银行的活动有什么/银行最近有什么活动/银行的活动有哪些/跟我说说银行最近的活动有哪些/跟我说说最近银行有哪些活动/告诉我银行活动有哪些/告诉我有什么银行活动/告诉我银行最近有哪些活动</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D21" t="inlineStr">
+      <is>
+        <t>有什么活动啊/最近有什么活动/银行活动/最近银行有哪些活动/银行有什么活动啊/给我介绍一下银行的的活动吧/介绍一下银行的优惠活动/银行有什么活动/最近银行有什么活动？/跟我说说银行有什么活动/跟我说说最近银行有什么活动/最近银行的活动有哪些/最近银行的活动有什么/银行最近有什么活动/银行的活动有哪些/跟我说说银行最近的活动有哪些/跟我说说最近银行有哪些活动/告诉我银行活动有哪些/告诉我有什么银行活动/告诉我银行最近有哪些活动</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="24" sId="1">
@@ -15709,6 +16527,1380 @@
       </is>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog170.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="458" sId="18">
+    <oc r="D5" t="inlineStr">
+      <is>
+        <t>你可以带我去柜台吗/带我去休息区/带我去贵金属展示区/带我去超级柜台/带我去智慧柜台</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D5" t="inlineStr">
+      <is>
+        <r>
+          <t>你可以带我去柜台吗/带我去休息区/带我去贵金属展示区/带我去超级柜台/带我去智慧柜台</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF00B050"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/带我去找理财经理/</t>
+        </r>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_A92E510E_03FC_4377_BAFD_3953037B261D_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>手机银行!$B$2:$F$15</formula>
+    <oldFormula>手机银行!$B$2:$F$15</oldFormula>
+  </rdn>
+  <rcv guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog171.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="460" sId="18">
+    <oc r="D5" t="inlineStr">
+      <is>
+        <r>
+          <t>你可以带我去柜台吗/带我去休息区/带我去贵金属展示区/带我去超级柜台/带我去智慧柜台</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF00B050"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/带我去找理财经理/</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D5" t="inlineStr">
+      <is>
+        <r>
+          <t>你可以带我去柜台吗/带我去休息区/带我去贵金属展示区/带我去超级柜台/带我去智慧柜台</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF00B050"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/带我去找理财经理/你帮我去理财经理那</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog172.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="461" sId="18">
+    <oc r="D5" t="inlineStr">
+      <is>
+        <r>
+          <t>你可以带我去柜台吗/带我去休息区/带我去贵金属展示区/带我去超级柜台/带我去智慧柜台</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF00B050"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/带我去找理财经理/你帮我去理财经理那</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D5" t="inlineStr">
+      <is>
+        <t>你可以带我去柜台吗/带我去休息区/带我去贵金属展示区/带我去超级柜台/带我去智慧柜台</t>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog173.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="462" sId="9">
+    <oc r="B21" t="inlineStr">
+      <is>
+        <t>有什么活动啊</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B21" t="inlineStr">
+      <is>
+        <t>银行有什么活动啊</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="463" sId="9" odxf="1" dxf="1">
+    <nc r="A21" t="inlineStr">
+      <is>
+        <t>常识</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="464" sId="9">
+    <oc r="D21" t="inlineStr">
+      <is>
+        <t>有什么活动啊/最近有什么活动/银行活动/最近银行有哪些活动/银行有什么活动啊/给我介绍一下银行的的活动吧/介绍一下银行的优惠活动/银行有什么活动/最近银行有什么活动？/跟我说说银行有什么活动/跟我说说最近银行有什么活动/最近银行的活动有哪些/最近银行的活动有什么/银行最近有什么活动/银行的活动有哪些/跟我说说银行最近的活动有哪些/跟我说说最近银行有哪些活动/告诉我银行活动有哪些/告诉我有什么银行活动/告诉我银行最近有哪些活动</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D21" t="inlineStr">
+      <is>
+        <t>银行有什么活动啊/最近有什么活动/银行活动/最近银行有哪些活动/银行有什么活动啊/给我介绍一下银行的的活动吧/介绍一下银行的优惠活动/银行有什么活动/最近银行有什么活动？/跟我说说银行有什么活动/跟我说说最近银行有什么活动/最近银行的活动有哪些/最近银行的活动有什么/银行最近有什么活动/银行的活动有哪些/跟我说说银行最近的活动有哪些/跟我说说最近银行有哪些活动/告诉我银行活动有哪些/告诉我有什么银行活动/告诉我银行最近有哪些活动</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog174.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="465" sId="9" odxf="1" dxf="1">
+    <nc r="B22" t="inlineStr">
+      <is>
+        <t>中邮人寿保险股份有限公司简介</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="466" sId="9" odxf="1" dxf="1">
+    <nc r="C22" t="inlineStr">
+      <is>
+        <t>中邮人寿保险股份有限公司是由中国邮政集团公司与各省、区、市邮政公司共同出资设立的国有全资寿险公司。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="center" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="467" sId="9" odxf="1" dxf="1">
+    <nc r="D22" t="inlineStr">
+      <is>
+        <t>中邮人寿是什么/介绍一下中邮人寿/介绍一下中邮人寿保险公司/中邮人寿和邮政有什么关系/中邮人寿是啥/我没有听过中邮人寿/我好像没有听过中邮人寿/我不知道中邮人寿/中邮人寿是做什么的/中邮人寿是办理什么业务的/中邮人寿简介/跟我说说中邮人寿/告诉我中邮人寿/跟我介绍一下中邮人寿/说说中邮人寿/中邮人寿是邮政创立的吗/中邮人寿和中国邮政是一家的吗/中邮人寿和中国邮政的关系</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="468" sId="9" odxf="1" dxf="1">
+    <nc r="A22" t="inlineStr">
+      <is>
+        <t>常识</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="9" sqref="A22:XFD22" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcv guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_A92E510E_03FC_4377_BAFD_3953037B261D_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>手机银行!$B$2:$F$15</formula>
+    <oldFormula>手机银行!$B$2:$F$15</oldFormula>
+  </rdn>
+  <rcv guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog175.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="470" sId="10" odxf="1" s="1" dxf="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>我要办理基金业务</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="471" sId="10" odxf="1" dxf="1">
+    <nc r="C4" t="inlineStr">
+      <is>
+        <t>请找我们的理财经理，他会为您详细介绍哦，或者您可以通过柜台，手机银行，网上银行进行购买哦</t>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="center" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="472" sId="10" odxf="1" dxf="1">
+    <nc r="D4" t="inlineStr">
+      <is>
+        <t>我买基金/介绍一下基金吧/我要买基金/有还有什么别的基金吗/给我介绍一下基金/介绍一下基金/帮我介绍一下基金啦/买基金/我想买基金/有什么基金产品推荐吗/基金产品有没有/有基金吗/我想买基金推荐一下/我要办理基金业务/怎么办理基金业务/怎么买基金/哪里买基金/基金在哪里买/有没有推荐的基金/我想买基金，给我推荐一个/给我推荐一个基金/我是来买基金的/我来买基金/给我介绍一个基金/基金去哪里买/基金怎么买/我是来买基金的，要去哪里办理业务/我想买个基金，要怎么办理/我想了解一下基金/我想买基金，给我推荐一个/基金业务怎么办理/基金业务去哪里办理/基金业务找谁办理/找谁办理基金业务/我来买个基金，该怎么办/我想买基金，告诉我怎么办理/告诉我怎么办理基金业务/我是来买基金的，告诉我怎么办理/跟我说说基金业务怎么办理/我是来买基金的，跟我说说怎么办理/我是来买基金的，跟我说说要去哪里办理/我想买基金，跟我说说找谁办理</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="473" sId="10" odxf="1" s="1" dxf="1">
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>基金业务</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="474" sId="10" odxf="1" dxf="1">
+    <nc r="C5" t="inlineStr">
+      <is>
+        <t>基金的基本业务包括基金业务加办、认购、申购、赎回、撤单、资料变更、基金转换、基金转托管、基金TA账户销户、基金业务撤办。</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="475" sId="10" odxf="1" dxf="1">
+    <nc r="D5" t="inlineStr">
+      <is>
+        <t>什么是基金业务/基金业务有哪些/哪些是基金业务/基金业务包括哪些/基金业务是什么/什么是基金/基金是什么/啥是基金/啥是基金业务/基金是啥/基金业务是啥/基金业务都有什么/基金业务的范畴/基金指的是什么/基金业务指的是什么/基金业务都有啥/我不知道基金是什么/告诉我基金业务是什么/我想知道基金业务是什么/我想知道基金业务都有哪些/告诉我基金业务都有哪些/我想知道基金业务都有哪些/我不知道基金业务都有哪些/跟我说说基金业务都有哪些/跟我说说什么是基金业务/跟我说说哪些是基金业务/跟我说说基金业务指的是什么/跟我说说基金业务都有什么/基金业务</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="476" sId="10" odxf="1" dxf="1">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>介绍一下保险吧</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="477" sId="10" odxf="1" dxf="1">
+    <nc r="C6" t="inlineStr">
+      <is>
+        <t>请找我们的理财经理，他会为您详细介绍哦，或者您可以通过柜台，手机银行，网上银行进行购买哦</t>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="center" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="478" sId="10" odxf="1" dxf="1">
+    <nc r="D6" t="inlineStr">
+      <is>
+        <t>介绍一下保险吧/我要买保险/有还有什么别的保险吗/给我介绍一下保险/介绍一下保险/帮我介绍一下保险啦/买保险/我想买保险/有什么保险产品推荐吗/保险产品有没有/有保险吗/我想买保险推荐一下/哪里买保险/怎么买保险/保险在哪里买/我想买保险/我是来买保险的/我要买一份保险/我要给家人买保险/我想办理保险业务/我是来办理保险业务的/给我介绍一下保险/跟我说说你们都有什么保险/告诉我这里都有什么保险/告诉我这里都有哪些保险/告诉我这里保险有哪些/这里都能办理哪些保险业务/我能在这里买到哪些保险/保险都有哪些/我能在这里买到哪些保险/我想买保险，你们这里都有什么/我是来买保险的，介绍介绍你们都有哪些/我想买份保险，给我介绍一下/给我介绍介绍保险/我想买份保险，给我介绍介绍/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="479" sId="10" odxf="1" dxf="1">
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>理财</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="480" sId="10" odxf="1" dxf="1">
+    <nc r="A5" t="inlineStr">
+      <is>
+        <t>理财</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="481" sId="10" odxf="1" dxf="1">
+    <nc r="A6" t="inlineStr">
+      <is>
+        <t>理财</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog176.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="10" sqref="B4:D6" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" sqref="A4:A6" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog177.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="482" sId="9" odxf="1" s="1" dxf="1">
+    <nc r="B23" t="inlineStr">
+      <is>
+        <t>存折取款机如何使用</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="483" sId="9" odxf="1" dxf="1">
+    <nc r="C23" t="inlineStr">
+      <is>
+        <t>请您将存折打印的页面向上，插入最上面的长条口子；然后，根据提示完成取款操作，取出现金后，机器会自动打印存折，并自动退出存折，取款完成。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="center" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="484" sId="9" odxf="1" dxf="1">
+    <nc r="D23" t="inlineStr">
+      <is>
+        <r>
+          <t>存折取款机如何使用/如何使用存折取款机/存折取款机怎么使用/怎么使用存折取款机/存折取款机怎么用啊/怎么用存折取款机/我没有用过存折取款机，怎么用啊</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/我不知道存折取款机怎么用/告诉我存折取款机怎么使用/告诉我怎么使用存折取款机/跟我说说怎么用存折取款机/跟我说说存折取款机怎么用/教教我怎么用存折取款机/教教我存折取款机怎么用/我不知道存折取款机如何用/告诉我存折取款机如何使用/告诉我如何使用存折取款机/跟我说说如何使用存折取款机/跟我说说存折取款机如何使用/教教我如何用存折取款机/教教我存折取款机如何使用</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="485" sId="9" odxf="1" s="1" dxf="1">
+    <nc r="B24" t="inlineStr">
+      <is>
+        <t>我能用存折取款机吗</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="486" sId="9" odxf="1" dxf="1">
+    <nc r="C24" t="inlineStr">
+      <is>
+        <t>存折可以使用存折取款机进行取款，每天最多可以取两万元，每次只可以取五千元。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="center" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="487" sId="9" odxf="1" dxf="1">
+    <nc r="D24" t="inlineStr">
+      <is>
+        <t>我能用存折取款机吗/我可以在存折取款机上取钱吗/我们有存折取款机/我要用存折取款机取钱/你知道存折取款机吗/我想在存折取款机上取钱/我想在存折取款机上取钱/存折取款机我可以用吗/我能不能用存折取款机/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="488" sId="9" odxf="1" dxf="1">
+    <nc r="A23" t="inlineStr">
+      <is>
+        <t>常识</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="489" sId="9" odxf="1" dxf="1">
+    <nc r="A24" t="inlineStr">
+      <is>
+        <t>常识</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="9" sqref="B23:D24" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog178.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="490" sheetId="19" name="[业务问答.xlsx]存折取款机" sheetPosition="18"/>
+  <rfmt sheetId="19" sqref="A2" start="0" length="0">
+    <dxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="491" sId="19" odxf="1" s="1" dxf="1">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>存折取款机如何使用</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="492" sId="19" odxf="1" dxf="1">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>请您将存折打印的页面向上，插入最上面的长条口子；然后，根据提示完成取款操作，取出现金后，机器会自动打印存折，并自动退出存折，取款完成。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="493" sId="19" odxf="1" dxf="1">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>存折取款机如何使用/如何使用存折取款机/存折取款机怎么使用/怎么使用存折取款机/存折取款机怎么用啊/怎么用存折取款机/我没有用过存折取款机，怎么用啊/我不知道存折取款机怎么用/告诉我存折取款机怎么使用/告诉我怎么使用存折取款机/跟我说说怎么用存折取款机/跟我说说存折取款机怎么用/教教我怎么用存折取款机/教教我存折取款机怎么用/我不知道存折取款机如何用/告诉我存折取款机如何使用/告诉我如何使用存折取款机/跟我说说如何使用存折取款机/跟我说说存折取款机如何使用/教教我如何用存折取款机/教教我存折取款机如何使用</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="19" sqref="A3" start="0" length="0">
+    <dxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="494" sId="19" odxf="1" s="1" dxf="1">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>我能用存折取款机吗</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="495" sId="19" odxf="1" dxf="1">
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>存折可以使用存折取款机进行取款，每天最多可以取两万元，每次只可以取五千元。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="496" sId="19" odxf="1" dxf="1">
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>我能用存折取款机吗/我可以在存折取款机上取钱吗/我们有存折取款机/我要用存折取款机取钱/你知道存折取款机吗/我想在存折取款机上取钱/我想在存折取款机上取钱/存折取款机我可以用吗/我能不能用存折取款机/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="497" sId="9">
+    <oc r="A23" t="inlineStr">
+      <is>
+        <t>常识</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="A23"/>
+  </rcc>
+  <rcc rId="498" sId="9">
+    <oc r="B23" t="inlineStr">
+      <is>
+        <t>存折取款机如何使用</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B23"/>
+  </rcc>
+  <rcc rId="499" sId="9">
+    <oc r="C23" t="inlineStr">
+      <is>
+        <t>请您将存折打印的页面向上，插入最上面的长条口子；然后，根据提示完成取款操作，取出现金后，机器会自动打印存折，并自动退出存折，取款完成。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C23"/>
+  </rcc>
+  <rcc rId="500" sId="9">
+    <oc r="D23" t="inlineStr">
+      <is>
+        <t>存折取款机如何使用/如何使用存折取款机/存折取款机怎么使用/怎么使用存折取款机/存折取款机怎么用啊/怎么用存折取款机/我没有用过存折取款机，怎么用啊/我不知道存折取款机怎么用/告诉我存折取款机怎么使用/告诉我怎么使用存折取款机/跟我说说怎么用存折取款机/跟我说说存折取款机怎么用/教教我怎么用存折取款机/教教我存折取款机怎么用/我不知道存折取款机如何用/告诉我存折取款机如何使用/告诉我如何使用存折取款机/跟我说说如何使用存折取款机/跟我说说存折取款机如何使用/教教我如何用存折取款机/教教我存折取款机如何使用</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D23"/>
+  </rcc>
+  <rcc rId="501" sId="9">
+    <oc r="A24" t="inlineStr">
+      <is>
+        <t>常识</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="A24"/>
+  </rcc>
+  <rcc rId="502" sId="9">
+    <oc r="B24" t="inlineStr">
+      <is>
+        <t>我能用存折取款机吗</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B24"/>
+  </rcc>
+  <rcc rId="503" sId="9">
+    <oc r="C24" t="inlineStr">
+      <is>
+        <t>存折可以使用存折取款机进行取款，每天最多可以取两万元，每次只可以取五千元。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C24"/>
+  </rcc>
+  <rcc rId="504" sId="9">
+    <oc r="D24" t="inlineStr">
+      <is>
+        <t>我能用存折取款机吗/我可以在存折取款机上取钱吗/我们有存折取款机/我要用存折取款机取钱/你知道存折取款机吗/我想在存折取款机上取钱/我想在存折取款机上取钱/存折取款机我可以用吗/我能不能用存折取款机/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D24"/>
+  </rcc>
+  <rcc rId="505" sId="19" odxf="1" dxf="1">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>分组</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="506" sId="19" odxf="1" dxf="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>问题</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="507" sId="19" odxf="1" dxf="1">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>回答</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="508" sId="19" odxf="1" dxf="1">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>等价描述</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" wrapText="0" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="509" sId="19" odxf="1" dxf="1">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>表情</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="510" sId="19" odxf="1" dxf="1">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>图片</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="19" sqref="A1:XFD1" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="511" sId="19">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>存折取款机</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="512" sId="19">
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>存折取款机</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_A92E510E_03FC_4377_BAFD_3953037B261D_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>手机银行!$B$2:$F$15</formula>
+    <oldFormula>手机银行!$B$2:$F$15</oldFormula>
+  </rdn>
+  <rcv guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog179.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_A92E510E_03FC_4377_BAFD_3953037B261D_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>手机银行!$B$2:$F$15</formula>
+    <oldFormula>手机银行!$B$2:$F$15</oldFormula>
+  </rdn>
+  <rcv guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" action="add"/>
 </revisions>
 </file>
 
@@ -15749,6 +17941,44 @@
           <t>你可以跟我说说手机银行是怎么转帐的吗/我想用手机银行转账/我用手机银行怎么转帐/用手机银行怎么转帐的/你知道手机银行怎么转账吗/你能告诉我手机银行怎么用来转账吗</t>
         </r>
         <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog180.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="515" sId="19">
+    <oc r="C3" t="inlineStr">
+      <is>
+        <t>存折可以使用存折取款机进行取款，每天最多可以取两万元，每次只可以取五千元。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>存折可以使用存折取款机进行取款，每天最多可以取两万元，每次只可以取五千元，仅限邮储存折本。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog181.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="516" sId="19">
+    <oc r="C3" t="inlineStr">
+      <is>
+        <t>存折可以使用存折取款机进行取款，每天最多可以取两万元，每次只可以取五千元，仅限邮储存折本。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>邮储银行的存折可以使用存折取款机进行取款，每天最多可以取两万元，每次只可以取五千元。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -20568,9 +22798,10 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{EF605654-F361-4373-8330-7FC05EDE25FB}" name="lulu.wang(王路路)" id="-627575225" dateTime="2017-12-15T09:23:53"/>
+  <userInfo guid="{774836FD-2F57-4018-AF24-E1EEC93C198C}" name="xin.zheng(郑新)" id="-383386899" dateTime="2017-12-22T10:45:14"/>
 </users>
 </file>
 
@@ -20908,10 +23139,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="83.25" customHeight="1">
@@ -20925,10 +23156,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="71.25" customHeight="1">
@@ -20936,16 +23167,16 @@
         <v>206</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="59.25" customHeight="1">
@@ -20953,16 +23184,16 @@
         <v>206</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="49.5" customHeight="1">
@@ -20976,10 +23207,10 @@
         <v>18</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="47.25" customHeight="1">
@@ -20993,10 +23224,10 @@
         <v>19</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="99.75" customHeight="1">
@@ -21010,10 +23241,10 @@
         <v>19</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="118.5" customHeight="1">
@@ -21027,10 +23258,10 @@
         <v>51</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="50.25" customHeight="1">
@@ -21044,10 +23275,10 @@
         <v>110</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="35.25" customHeight="1">
@@ -21061,10 +23292,10 @@
         <v>191</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45.75" customHeight="1">
@@ -21078,10 +23309,10 @@
         <v>191</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="53.25" customHeight="1">
@@ -21095,10 +23326,10 @@
         <v>191</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="65.25" customHeight="1">
@@ -21112,10 +23343,10 @@
         <v>195</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="112.5" customHeight="1">
@@ -21129,28 +23360,28 @@
         <v>191</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:F15"/>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
       <autoFilter ref="B2:F15"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="B2:F15"/>
+      <autoFilter ref="B1:H163"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21159,12 +23390,12 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
       <autoFilter ref="B2:F15"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}" showAutoFilter="1">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="B1:H163"/>
+      <autoFilter ref="B2:F15"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -21175,10 +23406,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21219,7 +23450,7 @@
         <v>121</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -21235,27 +23466,69 @@
         <v>121</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
+    <row r="4" spans="1:6" ht="175.5">
+      <c r="A4" s="91" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>485</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>486</v>
+      </c>
+      <c r="D4" s="93" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="121.5">
+      <c r="A5" s="91" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="95" t="s">
+        <v>488</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>489</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="148.5">
+      <c r="A6" s="91" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>491</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>486</v>
+      </c>
+      <c r="D6" s="93" t="s">
+        <v>492</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A4">
+      <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="C3" sqref="C3"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="C3" sqref="C3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="C7" sqref="C7"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21311,7 +23584,7 @@
         <v>154</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -21327,7 +23600,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -21343,7 +23616,7 @@
         <v>124</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -21359,7 +23632,7 @@
         <v>91</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -21375,7 +23648,7 @@
         <v>95</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -21391,7 +23664,7 @@
         <v>96</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -21407,7 +23680,7 @@
         <v>178</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -21423,7 +23696,7 @@
         <v>202</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -21439,7 +23712,7 @@
         <v>202</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -21455,26 +23728,26 @@
         <v>203</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D9" sqref="D9"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="D5" sqref="D5"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="D9" sqref="D9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
       <selection activeCell="D9" sqref="D9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -21530,7 +23803,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -21546,7 +23819,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -21562,7 +23835,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -21578,7 +23851,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -21610,7 +23883,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -21626,26 +23899,26 @@
         <v>15</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C26" sqref="C26"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="C5" sqref="C5"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
       <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -21701,7 +23974,7 @@
         <v>83</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -21711,7 +23984,7 @@
         <v>218</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>83</v>
@@ -21749,7 +24022,7 @@
         <v>83</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -21765,7 +24038,7 @@
         <v>83</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -21781,7 +24054,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -21797,7 +24070,7 @@
         <v>83</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -21813,27 +24086,27 @@
         <v>83</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C5" sqref="C5"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="D8" sqref="D8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="D8" sqref="D8"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="B26" sqref="B26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="D8" sqref="D8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="B26" sqref="B26"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21892,7 +24165,7 @@
         <v>138</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -21908,27 +24181,27 @@
         <v>140</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D2" sqref="D2"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="D5" sqref="D5"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="B2" sqref="B2"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21984,7 +24257,7 @@
         <v>144</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -22000,7 +24273,7 @@
         <v>144</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -22016,7 +24289,7 @@
         <v>144</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -22026,13 +24299,13 @@
         <v>220</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>164</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -22048,27 +24321,27 @@
         <v>164</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D5" sqref="D5"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="E5" sqref="E5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="E5" sqref="E5"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="D15" sqref="D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="E5" sqref="E5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="D15" sqref="D15"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -22126,26 +24399,26 @@
         <v>199</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="B9" sqref="B9"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="D2" sqref="D2"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="B9" sqref="B9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
       <selection activeCell="B9" sqref="B9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -22201,29 +24474,29 @@
         <v>39</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="B1" sqref="B1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="D14" sqref="D13:D14"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="D14" sqref="D13:D14"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -22238,7 +24511,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22276,10 +24549,10 @@
         <v>288</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -22295,10 +24568,10 @@
         <v>290</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="34.5" customHeight="1">
       <c r="A4" s="26" t="s">
         <v>224</v>
       </c>
@@ -22310,7 +24583,7 @@
       </c>
       <c r="D4" s="28"/>
     </row>
-    <row r="5" spans="1:6" ht="27">
+    <row r="5" spans="1:6" ht="69" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>224</v>
       </c>
@@ -22321,7 +24594,7 @@
         <v>294</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>295</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="34" customFormat="1" ht="175.5">
@@ -22329,13 +24602,13 @@
         <v>224</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>299</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -22346,13 +24619,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C3" sqref="C3"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="D3" sqref="D3"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="A9" sqref="A9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -22361,8 +24634,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="A9" sqref="A9"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C3" sqref="C3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -22370,6 +24643,83 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="66.375" customWidth="1"/>
+    <col min="4" max="4" width="49.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A1" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="135">
+      <c r="A2" s="91" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="54">
+      <c r="A3" s="91" t="s">
+        <v>498</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>499</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="D13" sqref="D13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -22419,10 +24769,10 @@
         <v>125</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F2"/>
     </row>
@@ -22437,10 +24787,10 @@
         <v>41</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F3"/>
     </row>
@@ -22455,10 +24805,10 @@
         <v>126</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F4"/>
     </row>
@@ -22473,10 +24823,10 @@
         <v>159</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F5"/>
     </row>
@@ -22491,10 +24841,10 @@
         <v>92</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F6"/>
     </row>
@@ -22509,10 +24859,10 @@
         <v>92</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F7"/>
     </row>
@@ -22527,10 +24877,10 @@
         <v>92</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F8"/>
     </row>
@@ -22545,10 +24895,10 @@
         <v>100</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F9"/>
     </row>
@@ -22563,10 +24913,10 @@
         <v>100</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F10"/>
     </row>
@@ -22581,10 +24931,10 @@
         <v>100</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F11"/>
     </row>
@@ -22599,10 +24949,10 @@
         <v>100</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F12"/>
     </row>
@@ -22617,10 +24967,10 @@
         <v>100</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F13"/>
     </row>
@@ -22635,10 +24985,10 @@
         <v>106</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F14"/>
     </row>
@@ -22653,10 +25003,10 @@
         <v>108</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F15"/>
     </row>
@@ -22671,10 +25021,10 @@
         <v>53</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F16"/>
     </row>
@@ -22689,10 +25039,10 @@
         <v>111</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F17"/>
     </row>
@@ -22707,10 +25057,10 @@
         <v>112</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F18"/>
     </row>
@@ -22725,10 +25075,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F19"/>
     </row>
@@ -22743,10 +25093,10 @@
         <v>198</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F20"/>
     </row>
@@ -22761,10 +25111,10 @@
         <v>44</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F21"/>
     </row>
@@ -22779,27 +25129,27 @@
         <v>56</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F22"/>
     </row>
     <row r="32" spans="1:6" ht="78.75">
       <c r="C32" s="74" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D11" sqref="D11"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A19">
+      <selection activeCell="D12" sqref="D12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A19">
-      <selection activeCell="D12" sqref="D12"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="D26" sqref="D26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
     </customSheetView>
@@ -22808,8 +25158,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="D26" sqref="D26"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
     </customSheetView>
@@ -22866,7 +25216,7 @@
         <v>113</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -22882,7 +25232,7 @@
         <v>114</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -22898,7 +25248,7 @@
         <v>115</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -22914,7 +25264,7 @@
         <v>116</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -22930,7 +25280,7 @@
         <v>117</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -22946,7 +25296,7 @@
         <v>118</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -22962,7 +25312,7 @@
         <v>119</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -22978,7 +25328,7 @@
         <v>127</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -22994,7 +25344,7 @@
         <v>128</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -23010,7 +25360,7 @@
         <v>129</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -23026,7 +25376,7 @@
         <v>130</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -23042,7 +25392,7 @@
         <v>131</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -23058,7 +25408,7 @@
         <v>132</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -23074,7 +25424,7 @@
         <v>133</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
@@ -23090,7 +25440,7 @@
         <v>134</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -23106,7 +25456,7 @@
         <v>135</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -23138,19 +25488,19 @@
         <v>181</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C13" sqref="C13"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="B18" sqref="B18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="B18" sqref="B18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -23160,8 +25510,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="B18" sqref="B18"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C13" sqref="C13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
     </customSheetView>
@@ -23443,7 +25793,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -23459,7 +25809,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -23475,7 +25825,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
@@ -23491,7 +25841,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -23507,7 +25857,7 @@
         <v>28</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -23523,7 +25873,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -23539,27 +25889,27 @@
         <v>23</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D19" sqref="D19"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A22">
+      <selection activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A22">
-      <selection activeCell="F8" sqref="F8"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="B13" sqref="B13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="C22" sqref="C22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="B13" sqref="B13"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D19" sqref="D19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -23614,7 +25964,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -23630,7 +25980,7 @@
         <v>75</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -23646,7 +25996,7 @@
         <v>109</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -23662,7 +26012,7 @@
         <v>149</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -23685,13 +26035,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C5" sqref="C5"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A7">
+      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A7">
-      <selection activeCell="B6" sqref="B6"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="B9" sqref="B9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
     </customSheetView>
@@ -23700,8 +26050,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="B9" sqref="B9"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
     </customSheetView>
@@ -23759,7 +26109,7 @@
         <v>58</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -23775,29 +26125,29 @@
         <v>45</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C10" sqref="C10"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="C22" sqref="C22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="C22" sqref="C22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C10" sqref="C10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -23811,8 +26161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23853,7 +26203,7 @@
         <v>59</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -23869,7 +26219,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -23885,7 +26235,7 @@
         <v>57</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -23901,7 +26251,7 @@
         <v>57</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -23917,7 +26267,7 @@
         <v>57</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -23981,7 +26331,7 @@
         <v>62</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -23997,7 +26347,7 @@
         <v>62</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -24013,7 +26363,7 @@
         <v>65</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -24023,13 +26373,13 @@
         <v>212</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -24045,7 +26395,7 @@
         <v>66</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -24061,7 +26411,7 @@
         <v>66</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
@@ -24077,7 +26427,7 @@
         <v>69</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -24093,7 +26443,7 @@
         <v>70</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -24109,7 +26459,7 @@
         <v>72</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
@@ -24125,7 +26475,7 @@
         <v>74</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -24141,7 +26491,7 @@
         <v>97</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -24157,7 +26507,7 @@
         <v>97</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -24173,7 +26523,7 @@
         <v>121</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>362</v>
+        <v>478</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -24189,7 +26539,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
@@ -24205,7 +26555,7 @@
         <v>136</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
@@ -24221,7 +26571,7 @@
         <v>136</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
@@ -24237,7 +26587,7 @@
         <v>136</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
@@ -24253,7 +26603,7 @@
         <v>142</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
@@ -24269,7 +26619,7 @@
         <v>142</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
@@ -24285,7 +26635,7 @@
         <v>160</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -24301,7 +26651,7 @@
         <v>179</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -24314,10 +26664,10 @@
         <v>189</v>
       </c>
       <c r="C31" s="69" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -24333,29 +26683,29 @@
         <v>52</v>
       </c>
       <c r="D32" s="73" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D4" sqref="D4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A28">
-      <selection activeCell="D32" sqref="D32"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="B19">
+      <selection activeCell="D22" sqref="D22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="B16" sqref="B16"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A28">
       <selection activeCell="D32" sqref="D32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="B16" sqref="B16"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -24369,8 +26719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -24411,7 +26761,7 @@
         <v>77</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -24427,7 +26777,7 @@
         <v>77</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -24443,26 +26793,26 @@
         <v>177</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="E2" sqref="E2"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="D2" sqref="D2"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
       <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -24474,10 +26824,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -24519,7 +26869,7 @@
         <v>167</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -24535,7 +26885,7 @@
         <v>169</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -24551,7 +26901,7 @@
         <v>60</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -24567,7 +26917,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -24583,7 +26933,7 @@
         <v>60</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -24599,7 +26949,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -24615,7 +26965,7 @@
         <v>137</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -24628,10 +26978,10 @@
         <v>280</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -24647,7 +26997,7 @@
         <v>148</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -24663,7 +27013,7 @@
         <v>173</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -24673,13 +27023,13 @@
         <v>214</v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="67.5">
@@ -24687,13 +27037,13 @@
         <v>214</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="40.5">
@@ -24701,13 +27051,13 @@
         <v>214</v>
       </c>
       <c r="B14" s="80" t="s">
+        <v>470</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>453</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>474</v>
-      </c>
-      <c r="C14" s="82" t="s">
-        <v>455</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27">
@@ -24715,27 +27065,27 @@
         <v>214</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.5">
+    <row r="16" spans="1:6" ht="42.75">
       <c r="A16" s="26" t="s">
         <v>214</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="40.5">
@@ -24743,13 +27093,13 @@
         <v>214</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C17" s="87" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27">
@@ -24757,13 +27107,13 @@
         <v>214</v>
       </c>
       <c r="B18" s="84" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="48" customHeight="1">
@@ -24771,49 +27121,91 @@
         <v>214</v>
       </c>
       <c r="B19" s="85" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C19" s="82" t="s">
+        <v>461</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>463</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>465</v>
-      </c>
     </row>
-    <row r="20" spans="1:4" ht="54">
+    <row r="20" spans="1:4" ht="74.25" customHeight="1">
       <c r="A20" s="26" t="s">
         <v>214</v>
       </c>
       <c r="B20" s="85" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C20" s="86" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>467</v>
-      </c>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="121.5">
+      <c r="A21" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="88" t="s">
+        <v>480</v>
+      </c>
+      <c r="C21" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="90" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="94" customFormat="1" ht="108">
+      <c r="A22" s="91" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" s="92" t="s">
+        <v>482</v>
+      </c>
+      <c r="C22" s="93" t="s">
+        <v>483</v>
+      </c>
+      <c r="D22" s="93" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.25">
+      <c r="A23" s="91"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.25">
+      <c r="A24" s="91"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" topLeftCell="A10">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection sqref="A1:XFD1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A10">
-      <selection activeCell="B21" sqref="B21"/>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A7">
       <selection activeCell="D9" sqref="D9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" topLeftCell="A10">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/update_data/data/bank_psbc/qa/业务问答.xlsx
+++ b/update_data/data/bank_psbc/qa/业务问答.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="4755" windowWidth="19440" windowHeight="7185" tabRatio="941" firstSheet="2" activeTab="18"/>
+    <workbookView xWindow="15" yWindow="4845" windowWidth="19440" windowHeight="7095" tabRatio="941" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="手机银行" sheetId="1" r:id="rId1"/>
@@ -39,16 +39,16 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="mengwei.chang(常孟玮) - 个人视图" guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="525" tabRatio="941" activeSheetId="1"/>
+    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" tabRatio="941" activeSheetId="9"/>
+    <customWorkbookView name="ling.tian(田玲) - 个人视图" guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="603" tabRatio="941" activeSheetId="17"/>
     <customWorkbookView name="hongru.chu(褚宏茹) - 个人视图" guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="781" tabRatio="941" activeSheetId="19"/>
-    <customWorkbookView name="ling.tian(田玲) - 个人视图" guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="603" tabRatio="941" activeSheetId="17"/>
-    <customWorkbookView name="mengwei.chang(常孟玮) - 个人视图" guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="524" tabRatio="941" activeSheetId="9"/>
-    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" tabRatio="941" activeSheetId="9"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="537">
   <si>
     <t>取号怎么网上预约？</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>为避免产生罚息及不良信用记录，请按照借款合同中约定的还款日足额归还贷款。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>信用卡交易日是指使用信用卡实际消费、存取款、转账的日期。</t>
   </si>
   <si>
@@ -246,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请您登录手机银行，选择“转账汇款”功能，根据页面提示就可以办理转账汇款业务啦~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请您登录网银，选择“信用卡—额度调整”，按提示调整永久额度。您也可通过拨打客服热线进行办理。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,10 +263,6 @@
   </si>
   <si>
     <t>申请信用卡需年龄18和18周岁以上，具有完全民事行为能力、有合法稳定收入的中国公民。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行中国人民银行公布的同档次贷款基准利率，可在人民银行规定的范围内浮动。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -329,9 +317,6 @@
     <t>养成良好的用卡习惯，刷卡消费按时还款，诚信为本，就可以申请提高信用额度奥。</t>
   </si>
   <si>
-    <t>一手个人住房贷款的基本条件： 1.具有身份证明，2.具有户籍证明或居留证明，3.具有良好的信用记录， 4.具有稳定的收入来源，5.具有所购住房成交合同等条件</t>
-  </si>
-  <si>
     <t xml:space="preserve">个人网上银行介绍 </t>
   </si>
   <si>
@@ -435,9 +420,6 @@
     <t>住房类贷款种类较多，需要你提供更详细的信息，如：一手个人住房贷款、二手个人住房贷款、个人住房公积金贷款，个人住房组合贷款等</t>
   </si>
   <si>
-    <t>转账不成功有多种情况，如信息填写错误，账户状态异常，附言含非法字符被人行拒绝等，建议核实后重新办理。</t>
-  </si>
-  <si>
     <t>自助设备种类不少，功能也很强大，能为你提供极大的方便~你要了解哪一种自助设备？</t>
   </si>
   <si>
@@ -597,11 +579,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">房贷利率需要综合考虑您的资信状况、购置住房、首付款比例等多种因素而最终确定。您可与客户经理或贷款行进一步咨询~
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>个人住房类贷款申请条件/住房贷款的申请条件/什么条件能申请住房贷款/怎样才能申请住房贷款/满足哪些条件才能申请住房贷款？/住房贷款需要满足哪些条件？/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -699,11 +676,6 @@
   </si>
   <si>
     <t>开通网上银行要钱么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">目前开通网上银行暂不收费，请您放心使用~
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1226,10 +1198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>信贷经理在哪儿？/我怎么没见信贷经理/信贷经理哪儿去了/帮我找一下信贷经理/快看看信贷经理在哪儿/带我去找信贷经理/你帮我联系一下信贷经理吗？/你能帮我联系一下信贷经理吗？/房贷经理在哪儿？/我怎么没见房贷经理/房贷经理哪儿去了/帮我找一下房贷经理/快看看房贷经理在哪儿/带我去找房贷经理/你帮我联系一下房贷经理吗？/你能帮我联系一下房贷经理吗？/装修贷经理在哪儿？/我怎么没见装修贷经理/装修贷经理哪儿去了/帮我找一下装修贷经理/快看看装修贷经理在哪儿/带我去找装修贷经理/你帮我联系一下装修贷经理吗？/你能帮我联系一下装修贷经理吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>普卡公务卡免收年费；金卡主卡125元每年，附属卡60元每年；联名卡主卡100元每年，附属卡50元每年。金卡首年免年费，刷满6次免收次年年费。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1306,23 +1274,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>/智慧柜员机在哪/哪个是智慧柜员机</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>大堂经理在哪儿？/我怎么没见大堂经理/大堂经理哪儿去了/帮我找一下大堂经理/快看看大堂经理在哪儿/带我去找大堂经理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/大堂经理上哪了/我怎么没看见大堂经理/我去哪找大堂经理/我没找到大堂经理/我不知道大堂经理在哪/我不知道去哪找大堂经理/我找不到大堂经理/告诉我大堂经理在哪/告诉我怎么找大堂经理/告诉我去哪里找大堂经理/跟我说说大堂经理在哪里/跟我说说怎么才能找到大堂经理/我没看到大堂经理/大堂经理一般在哪/通常大堂经理在哪/</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1876,23 +1827,6 @@
   </si>
   <si>
     <r>
-      <t>什么是密码/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>密码是什么/啥是密码/密码是啥/给我介绍一下密码/跟我说说密码/跟我说说什么是密码/跟我说说密码/介绍一下密码/密码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>开通电话银行要钱么？</t>
     </r>
     <r>
@@ -3534,6 +3468,488 @@
   </si>
   <si>
     <r>
+      <t>什么是零存整取 /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>零存整取是什么/啥是零存整取/零存整取是啥/零存整取/我不知道什么是零存整取/我想知道零存整取是什么/我没有听说过零存整取/零存整取是什么意思/零存整取的意思是什么/我不知道零存整取是什么意思/介绍一下零存整取/跟我说说零存整取/跟我说一下什么是零存整取/介绍零存整取/零存整取的定义/零存整取的概念/零存整取的含义</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>什么是定活两便</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/定活两便是什么/啥是定活两便/定活两便是啥/给我介绍一下定活两便/跟我说说定活两便/跟我说说什么是定活两便/跟我说说定活两便/介绍一下定活两便/定活两便/定活两便是什么意思/我不知道什么是定活两便/我没有听说过定活两便/介绍定活两便</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>如何查询储蓄账户户名/怎么查户名？/我想知道我这张卡的户名/我忘了我这张卡是谁开的了/我忘了这张卡的户名/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>咋查储蓄账户户名/怎么查询储蓄账户的户名/储蓄账户的户名怎么查询/我想查一下储蓄账户的户名/查储蓄账户的户名，应该怎么做/告诉我怎么查户名/跟我说说怎么查户名/户名怎么查/我不知道这张卡的户名，想查一下/我不知道这张卡的户名，怎么查/怎么查我的储蓄账户户名/查户名/我想查户名，怎么查/我想查户名/我要查户名，怎么办/怎么才能查询储蓄账户户名/我想知道储蓄账户户名怎么查</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>如何查询银行卡开户行/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>怎么查银行卡开户行/我想知道我这张卡的开户行/我忘了我这张卡的开户行了/我忘了我这张卡是在哪个银行开的了/怎么查询银行卡开户行/咋查银行卡开户行/银行卡开户行怎么查询/我想查一下银行卡开户行/查银行卡开户行，应该怎么做/告诉我怎么查银行卡开户行/跟我说说怎么查银行卡开户行/银行卡开户行怎么查/我不知道银行卡开户行，想查一下/我不知道银行卡开户行，怎么查/查银行卡开户行/我想查银行卡开户行，怎么查/我想查银行卡开户行/我要查银行卡开户行，怎么办/怎么才能查询银行卡开户行/我想知道银行卡开户行怎么查询/我想查询银行卡开户行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>什么是电话银行？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/电话银行是什么/啥是电话银行/电话银行是啥/电话银行是个啥/跟我说说电话银行是什么/电话银行是做什么的/电话银行能做什么/告诉我什么是电话银行/我不知道什么是电话银行/我没听过电话银行/电话银行的定义/电话银行的概念/电话银行的含义</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电话银行有什么用？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/电话银行有什么功能/我能用电话银行做什么/电话银行有什么用/电话银行是干嘛的/电话银行/我能用电话银行办理哪些业务/电话银行能办理什么业务/电话银行能办啥业务/电话银行能做什么/电话银行的功能/电话银行能办理的业务范畴/我能用电话银行办理哪些业务/我可以用电话银行办理哪些业务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电话银行是做什么的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/电话银行有什么功能/我能用电话银行做什么/电话银行有什么用/电话银行是干嘛的/电话银行/我能用电话银行办理哪些业务/电话银行能办理什么业务/电话银行能办啥业务/电话银行能做什么/电话银行的功能/电话银行能办理的业务范畴/我能用电话银行办理哪些业务/我可以用电话银行办理哪些业务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您可以找银行主管或者大堂经理办理兑换礼品。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>很抱歉，邮储银行暂时没有邮票。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们银行的定期利率特别高，土豪赶快存定期。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>您可以询问大堂经理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里面有邮票吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里面有邮票吗/有邮票吗/银行有邮票吗/邮票这里有吗/我想要邮票/我需要邮票/我要邮票/</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前邮储银行活期利率百分之零点三，供您参考，具体利率请以银行公告为准。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>活期利率是多少</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>活期利率是多少/告诉我活期利率/告诉我活期利息是什么/最近活期利率是多少/你知道活期利率吗/活期利率你知道吗/活期利率</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期利率是多少</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号是多少啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号是多少啊/你们有公众号吗/银行公众号/银行微信号/银行公众号是什么/银行微信号是什么/邮储银行公众号是什么</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么礼品兑换</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍一下邮储银行</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老金保险</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>我说办理养老金签协议要带点什么证件</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>存款有礼品吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老金保险/什么是养老保险/养老保险是什么/养老金是什么/什么是养老金保险/养老保险/养老保险是啥/啥是养老保险/你知道养老保险吗</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>存款有礼品吗/存款有礼物吗/存款有哪些礼物/存款有哪些礼品/存款有什么礼品/存款的礼品有哪些/存款可以领礼品吗/听说存款有礼物/存款送礼物吗/存钱有礼物吗/存钱送礼物吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/听说存钱有礼物/存钱有礼品吗/存钱有哪些礼物/存钱送东西吗/存钱有哪些礼品/存钱有东西送吗/存钱会送东西吗/存钱有什么礼品吗/存钱可以拿到礼物吗</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>怎么礼品兑换/兑换礼品/怎么兑换礼品/礼品兑换/怎么礼品兑换/找谁兑换礼品/哪里兑换礼品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/请问什么礼品兑换</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>信用卡活动/最近信用卡有哪些活动/信用卡有什么活动啊/给我介绍一下信用卡的的活动吧/介绍一下信用卡的优惠活动/办信用卡有什么活动/最近信用卡有什么活动？/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>跟我说说信用卡有什么活动/跟我说说最近信用卡有什么活动/最近信用卡的活动有哪些/最近信用卡的活动有什么/信用卡最近有什么活动/信用卡的活动有哪些/跟我说说信用卡最近的活动有哪些/跟我说说最近信用卡有哪些活动/告诉我信用卡活动有哪些/告诉我有什么信用卡活动/告诉我信用卡最近有哪些活动</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行有什么活动啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行有什么活动啊/最近有什么活动/银行活动/最近银行有哪些活动/银行有什么活动啊/给我介绍一下银行的的活动吧/介绍一下银行的优惠活动/银行有什么活动/最近银行有什么活动？/跟我说说银行有什么活动/跟我说说最近银行有什么活动/最近银行的活动有哪些/最近银行的活动有什么/银行最近有什么活动/银行的活动有哪些/跟我说说银行最近的活动有哪些/跟我说说最近银行有哪些活动/告诉我银行活动有哪些/告诉我有什么银行活动/告诉我银行最近有哪些活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中邮人寿保险股份有限公司简介</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>中邮人寿保险股份有限公司是由中国邮政集团公司与各省、区、市邮政公司共同出资设立的国有全资寿险公司。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>中邮人寿是什么/介绍一下中邮人寿/介绍一下中邮人寿保险公司/中邮人寿和邮政有什么关系/中邮人寿是啥/我没有听过中邮人寿/我好像没有听过中邮人寿/我不知道中邮人寿/中邮人寿是做什么的/中邮人寿是办理什么业务的/中邮人寿简介/跟我说说中邮人寿/告诉我中邮人寿/跟我介绍一下中邮人寿/说说中邮人寿/中邮人寿是邮政创立的吗/中邮人寿和中国邮政是一家的吗/中邮人寿和中国邮政的关系</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要办理基金业务</t>
+  </si>
+  <si>
+    <t>请找我们的理财经理，他会为您详细介绍哦，或者您可以通过柜台，手机银行，网上银行进行购买哦</t>
+  </si>
+  <si>
+    <t>基金业务</t>
+  </si>
+  <si>
+    <t>基金的基本业务包括基金业务加办、认购、申购、赎回、撤单、资料变更、基金转换、基金转托管、基金TA账户销户、基金业务撤办。</t>
+  </si>
+  <si>
+    <t>什么是基金业务/基金业务有哪些/哪些是基金业务/基金业务包括哪些/基金业务是什么/什么是基金/基金是什么/啥是基金/啥是基金业务/基金是啥/基金业务是啥/基金业务都有什么/基金业务的范畴/基金指的是什么/基金业务指的是什么/基金业务都有啥/我不知道基金是什么/告诉我基金业务是什么/我想知道基金业务是什么/我想知道基金业务都有哪些/告诉我基金业务都有哪些/我想知道基金业务都有哪些/我不知道基金业务都有哪些/跟我说说基金业务都有哪些/跟我说说什么是基金业务/跟我说说哪些是基金业务/跟我说说基金业务指的是什么/跟我说说基金业务都有什么/基金业务</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍一下保险吧</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍一下保险吧/我要买保险/有还有什么别的保险吗/给我介绍一下保险/介绍一下保险/帮我介绍一下保险啦/买保险/我想买保险/有什么保险产品推荐吗/保险产品有没有/有保险吗/我想买保险推荐一下/哪里买保险/怎么买保险/保险在哪里买/我想买保险/我是来买保险的/我要买一份保险/我要给家人买保险/我想办理保险业务/我是来办理保险业务的/给我介绍一下保险/跟我说说你们都有什么保险/告诉我这里都有什么保险/告诉我这里都有哪些保险/告诉我这里保险有哪些/这里都能办理哪些保险业务/我能在这里买到哪些保险/保险都有哪些/我能在这里买到哪些保险/我想买保险，你们这里都有什么/我是来买保险的，介绍介绍你们都有哪些/我想买份保险，给我介绍一下/给我介绍介绍保险/我想买份保险，给我介绍介绍/</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>存折取款机如何使用</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>请您将存折打印的页面向上，插入最上面的长条口子；然后，根据提示完成取款操作，取出现金后，机器会自动打印存折，并自动退出存折，取款完成。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>我能用存折取款机吗</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>我能用存折取款机吗/我可以在存折取款机上取钱吗/我们有存折取款机/我要用存折取款机取钱/你知道存折取款机吗/我想在存折取款机上取钱/我想在存折取款机上取钱/存折取款机我可以用吗/我能不能用存折取款机/</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>存折取款机如何使用/如何使用存折取款机/存折取款机怎么使用/怎么使用存折取款机/存折取款机怎么用啊/怎么用存折取款机/我没有用过存折取款机，怎么用啊/我不知道存折取款机怎么用/告诉我存折取款机怎么使用/告诉我怎么使用存折取款机/跟我说说怎么用存折取款机/跟我说说存折取款机怎么用/教教我怎么用存折取款机/教教我存折取款机怎么用/我不知道存折取款机如何用/告诉我存折取款机如何使用/告诉我如何使用存折取款机/跟我说说如何使用存折取款机/跟我说说存折取款机如何使用/教教我如何用存折取款机/教教我存折取款机如何使用</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>存折取款机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮储银行的存折可以使用存折取款机进行取款，每天最多可以取两万元，每次只可以取五千元。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮储银行是中国领先的大型零售银行，定位于服务社区，服务中小型企业，服务三农，致力于为中国经济转型中最具活力的客户群体提供服务。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我买基金/介绍一下基金吧/我要买基金/有还有什么别的基金吗/给我介绍一下基金/介绍一下基金/帮我介绍一下基金啦/买基金/我想买基金/有什么基金产品推荐吗/基金产品有没有/有基金吗/我想买基金推荐一下/我要办理基金业务/怎么办理基金业务/怎么买基金/哪里买基金/基金在哪里买/有没有推荐的基金/我想买基金，给我推荐一个/给我推荐一个基金/我是来买基金的/我来买基金/给我介绍一个基金/基金去哪里买/基金怎么买/我是来买基金的，要去哪里办理业务/我想买个基金，要怎么办理/我想了解一下基金/我想买基金，给我推荐一个/基金业务怎么办理/基金业务去哪里办理/基金业务找谁办理/找谁办理基金业务/我来买个基金，该怎么办/我想买基金，告诉我怎么办理/告诉我怎么办理基金业务/我是来买基金的，告诉我怎么办理/跟我说说基金业务怎么办理/我是来买基金的，跟我说说怎么办理/我是来买基金的，跟我说说要去哪里办理/我想买基金，跟我说说找谁办理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/有客户想买基金/</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金压岁钱</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>故宫旺旺黄金压岁钱，有幸运、健康的寓意，您可以找理财经理购买。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金压岁钱/我要买黄金压岁钱/我想买黄金压岁钱/有黄金压岁钱吗/黄金压岁钱有没有/黄金压岁钱有没有/哪里买黄金压岁钱/黄金压岁钱在哪里买/我想购买黄金压岁钱/故宫旺旺黄金压岁钱/我要买故宫旺旺黄金压岁钱/我想买故宫旺旺黄金压岁钱/有故宫旺旺黄金压岁钱吗/故宫旺旺黄金压岁钱有没有/故宫旺旺黄金压岁钱有没有/哪里买故宫旺旺黄金压岁钱/故宫旺旺黄金压岁钱在哪里买/我想购买故宫旺旺黄金压岁钱</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>常识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你帮我叫个号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您可以到取号机哥哥那里取号</t>
+  </si>
+  <si>
+    <t>手机银行是一个以用户为中心的金融服务平台，可以在手机银行上转账汇款、缴费、理财投资、信息查询等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请您登录手机银行，选择“转账汇款”功能，根据页面提示就可以办理转账汇款业务啦~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账不成功有多种情况，如信息填写错误，账户状态异常，附言含非法字符被人行拒绝等，建议核实后重新办理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前开通手机银行暂不收费，请您放心使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请您登录手机银行，根据页面提示就可以办理转账汇款业务啦~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">房贷利率需要综合考虑您的资信状况、购置住房、首付款比例等多种因素而最终确定。您可与客户经理或贷款行进一步咨询~
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一手个人住房贷款的基本条件： 1.具有身份证明，2.具有户籍证明或居留证明，3.具有良好的信用记录， 4.具有稳定的收入来源，5.具有所购住房成交合同等条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为避免产生罚息及不良信用记录，请按照借款合同中约定的还款日足额归还贷款。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请信用卡需年龄18和18周岁以上，具有完全民事行为能力、有合法稳定收入的中国公民。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请信用卡需年龄18和18周岁以上，具有完全民事行为能力、有合法稳定收入的中国公民。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行用户可以通过与网上银行享受账户查询、转账汇款、缴费支付、信用卡、个人贷款等综合性个人银行服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">目前开通网上银行暂不收费，请您放心使用~
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描二维码下载手机银行，选择“网点预约”，就可办理网点预约取号。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描二维码下载手机银行，选择“网点预约”，就可办理网点预约取号。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存款有礼品哦，存款额度不同，礼品不同，具体可以咨询大堂经理。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>我说办理养老金签协议要带点什么证件/办养老金需要带什么吗/怎么办养老金/我想办理养老金/怎么办理养老保险/养老保险需要签协议吗/养老保险怎么办理/哪里办养老保险/办养老保险需要什么/办养老保险需要哪些东西/办养老保险需要什么材料</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>储储还没有学习这项业务，您可以咨询一下大堂经理。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老金保险是为了保障老年人的基本生活需求，为其提供稳定可靠的生活来源。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>您要带上身份证和社保卡去当地的社保部门进行查询。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么查询养老保险金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储储的小脑袋里目前没有十年期的存款业务，您可以咨询一下大堂经理哦！</t>
+  </si>
+  <si>
+    <t>怎么交罚单</t>
+  </si>
+  <si>
+    <t>您可以通过手机银行、自助设备缴纳罚单，或者带上身份证填单取号到柜台办理。</t>
+  </si>
+  <si>
+    <t>怎么取定期</t>
+  </si>
+  <si>
+    <t>您需要协带本人身份证和存单，取号到柜台办理；如果代理人办理，还要携带双方身份证和存单。</t>
+  </si>
+  <si>
+    <t>怎么查询养老保险金额/养老保险金额怎么查询/查询养老保险金额/养老保险金额查询/我想查询养老保险金额/我要查询养老保险金金额/告诉我养老保险金金额怎样查询/跟我说说要怎么查询养老保险金金额/我想知道养老保险金金额怎样查询/快跟我说说养老保险金金额是怎么查询的/我不知道养老保险金金额的查询方法/我想让你跟我说说养老保险金金额的查询方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有十年期的存款吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有十年期的存款吗/十年期的存款有吗/你们这有十年期的存款吗/十年期的存款你们这有吗/你们银行有十年期的存款吗/十年期的存款你们这有吗/我想存十年期的存款，你们这有吗/我想存十年期的存款，你们银行有吗/十年期的存款/我要存十年期的存款/我想存十年期的存款/我的钱想存十年，你们这有十年期的存款吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么交罚单/罚单怎么交/交罚单要怎么办理/我是来交罚单的，怎么办理/交罚单的业务怎么办理/怎么办理交罚单业务/罚单要怎么交/跟我说说罚单怎么交/告诉我怎么交罚单/跟我说说怎么交罚单/告诉我罚单怎么交/我来交罚单，怎么交/我要交罚单，怎么交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么取定期/定期怎么取/取定期要怎么办理/我是来取定期的，怎么办理/取定期的业务怎么办理/怎么办理取定期业务/定期要怎么取/跟我说说定期怎么取/告诉我怎么取定期/跟我说说怎么取定期/告诉我定期怎么取/我来取定期，怎么取/我要取定期，怎么取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行中国人民银行公布的同档次贷款基准利率，可在人民银行规定的范围内浮动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>个人信用贷款利率/</t>
     </r>
     <r>
@@ -3545,13 +3961,172 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>个人信用贷款利率是多少/个人信用贷款利率怎么算/个人信用贷款利率是怎么算的/信用贷款利率是多少/信用贷款利率/</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>什么是零存整取 /</t>
+      <t>个人信用贷款利率是多少/个人信用贷款利率怎么算/个人信用贷款利率是怎么算的/信用贷款利率是多少/信用贷款利率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/那个信用贷款利率是多少/信用贷款利率是多少/了解一下我想贷款的贷款利率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您登录手机银行后，点击右上角“我的”，或者向左侧滑进入“个人设置—登录或交易密码修改”界面；输入原密码、新密码，点击确定进入修改成功提示页面</t>
+  </si>
+  <si>
+    <t>怎么手机银行密码重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么手机银行密码重置/手机银行密码重置/重置手机银行密码/怎么重置手机银行密码/手机银行密码怎么重置/我想重置手机银行密码/我想办理手机银行密码重置业务/我想办理重置手机银行密码业务/我是来办理重置手机银行密码业务的/今天我来是要办理重置手机银行密码业务的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>定期利率是多少/告诉他一年的定期利率是多少/告诉我定期利率/告诉我定期利率是多少/定期利率/三个月定期利率是多少/半年的定期利率是多少/两年定期利率是多少/三年定期利率是多少/五年定期利率是多少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/一年的定期利息是多少呀/定期存款的利率三个月的/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现在存三年的利率是多少的呀</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>介绍一下邮储银行/邮储银行是啥/给我介绍一下邮储银行/介绍一下你们银行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/中国邮政储蓄银行/介绍一下中国邮政储蓄银行/给我介绍一下中国邮政储蓄银行/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮政银行</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你帮我叫个号/你能帮我叫个号吗/帮我叫个号好吗/你能不能帮我叫个号/快去帮我叫个号/给我叫个号/帮我叫个号好不好/可以帮我叫个号吗/叫号/叫个号/帮我叫个号吧/去给我叫个号/帮我叫个号行不行/你会叫号吗/你能叫号吗/你可以叫号吗/我想让你帮我叫个号/我想让你叫号/你帮我叫号可以吗/你帮我叫号行吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/如何取号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存款利率是多少啊</t>
+  </si>
+  <si>
+    <t>我们有活期存款利率和定期存款利率，您想知道哪一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存款利率是多少啊/告诉我存款利率/告诉我存款利息是什么/最近存款利率是多少/你知道存款利率吗/存款利率你知道吗/存款利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大堂经理在哪儿？/我怎么没见大堂经理/大堂经理哪儿去了/帮我找一下大堂经理/快看看大堂经理在哪儿/带我去找大堂经理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/大堂经理上哪了/我怎么没看见大堂经理/我去哪找大堂经理/我没找到大堂经理/我不知道大堂经理在哪/我不知道去哪找大堂经理/我找不到大堂经理/告诉我大堂经理在哪/告诉我怎么找大堂经理/告诉我去哪里找大堂经理/跟我说说大堂经理在哪里/跟我说说怎么才能找到大堂经理/我没看到大堂经理/大堂经理一般在哪/通常大堂经理在哪/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我找一下大堂经理/大堂经理呢/大堂经理在哪里</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你可以带我去柜台吗/带我去休息区/带我去贵金属展示区/带我去超级柜台/带我去智慧柜台/你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>带我去柜台好不好/带我去自动取款机/你可以带我去一下吗/那你带我去看看</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房产抵押贷款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人房产抵押贷款旨在为广大客户提供专业、方便、快捷的综合金融服务，贷款资金可广泛应用于生产经营、居家消费等多种用途。利率超低，手续简便，期限从1个月到10年不等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>什么是密码/</t>
     </r>
     <r>
       <rPr>
@@ -3562,361 +4137,37 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>零存整取是什么/啥是零存整取/零存整取是啥/零存整取/我不知道什么是零存整取/我想知道零存整取是什么/我没有听说过零存整取/零存整取是什么意思/零存整取的意思是什么/我不知道零存整取是什么意思/介绍一下零存整取/跟我说说零存整取/跟我说一下什么是零存整取/介绍零存整取/零存整取的定义/零存整取的概念/零存整取的含义</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>什么是定活两便</t>
+      <t>密码是什么/啥是密码/密码是啥/给我介绍一下密码/跟我说说密码/跟我说说什么是密码/跟我说说密码/介绍一下密码/密码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房产抵押贷款/房产抵押贷款是什么意思/什么是房产抵押贷款/房产抵押贷款是什么/啥是房产抵押贷款/房产抵押贷款是啥/给我介绍一下房产抵押贷款/跟我说说房产抵押贷款/跟我说说什么是房产抵押贷款/跟我说说房产抵押贷款/介绍一下房产抵押贷款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>信贷经理在哪儿？/我怎么没见信贷经理/信贷经理哪儿去了/帮我找一下信贷经理/快看看信贷经理在哪儿/带我去找信贷经理/你帮我联系一下信贷经理吗？/你能帮我联系一下信贷经理吗？/房贷经理在哪儿？/我怎么没见房贷经理/房贷经理哪儿去了/帮我找一下房贷经理/快看看房贷经理在哪儿/带我去找房贷经理/你帮我联系一下房贷经理吗？/你能帮我联系一下房贷经理吗？/装修贷经理在哪儿？/我怎么没见装修贷经理/装修贷经理哪儿去了/帮我找一下装修贷经理/快看看装修贷经理在哪儿/带我去找装修贷经理/你帮我联系一下装修贷经理吗？/你能帮我联系一下装修贷经理吗？</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color theme="4"/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/定活两便是什么/啥是定活两便/定活两便是啥/给我介绍一下定活两便/跟我说说定活两便/跟我说说什么是定活两便/跟我说说定活两便/介绍一下定活两便/定活两便/定活两便是什么意思/我不知道什么是定活两便/我没有听说过定活两便/介绍定活两便</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>如何查询储蓄账户户名/怎么查户名？/我想知道我这张卡的户名/我忘了我这张卡是谁开的了/我忘了这张卡的户名/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>咋查储蓄账户户名/怎么查询储蓄账户的户名/储蓄账户的户名怎么查询/我想查一下储蓄账户的户名/查储蓄账户的户名，应该怎么做/告诉我怎么查户名/跟我说说怎么查户名/户名怎么查/我不知道这张卡的户名，想查一下/我不知道这张卡的户名，怎么查/怎么查我的储蓄账户户名/查户名/我想查户名，怎么查/我想查户名/我要查户名，怎么办/怎么才能查询储蓄账户户名/我想知道储蓄账户户名怎么查</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>如何查询银行卡开户行/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>怎么查银行卡开户行/我想知道我这张卡的开户行/我忘了我这张卡的开户行了/我忘了我这张卡是在哪个银行开的了/怎么查询银行卡开户行/咋查银行卡开户行/银行卡开户行怎么查询/我想查一下银行卡开户行/查银行卡开户行，应该怎么做/告诉我怎么查银行卡开户行/跟我说说怎么查银行卡开户行/银行卡开户行怎么查/我不知道银行卡开户行，想查一下/我不知道银行卡开户行，怎么查/查银行卡开户行/我想查银行卡开户行，怎么查/我想查银行卡开户行/我要查银行卡开户行，怎么办/怎么才能查询银行卡开户行/我想知道银行卡开户行怎么查询/我想查询银行卡开户行</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>什么是电话银行？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/电话银行是什么/啥是电话银行/电话银行是啥/电话银行是个啥/跟我说说电话银行是什么/电话银行是做什么的/电话银行能做什么/告诉我什么是电话银行/我不知道什么是电话银行/我没听过电话银行/电话银行的定义/电话银行的概念/电话银行的含义</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>电话银行有什么用？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/电话银行有什么功能/我能用电话银行做什么/电话银行有什么用/电话银行是干嘛的/电话银行/我能用电话银行办理哪些业务/电话银行能办理什么业务/电话银行能办啥业务/电话银行能做什么/电话银行的功能/电话银行能办理的业务范畴/我能用电话银行办理哪些业务/我可以用电话银行办理哪些业务</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>电话银行是做什么的？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/电话银行有什么功能/我能用电话银行做什么/电话银行有什么用/电话银行是干嘛的/电话银行/我能用电话银行办理哪些业务/电话银行能办理什么业务/电话银行能办啥业务/电话银行能做什么/电话银行的功能/电话银行能办理的业务范畴/我能用电话银行办理哪些业务/我可以用电话银行办理哪些业务</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存款有礼品哦，存款额度不同，礼品不同，具体可以咨询大堂经理。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>储储还没有学习这项业务，您可以咨询一下大堂经理。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>养老金保险是为了保障老年人的基本生活需求，为其提供稳定可靠的生活来源。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮储银行是中国领先的大型零售银行，定位于服务社区，服务中小型企业，服务三农，致力于为中国经济转型中最具活力的客户群体提供服务。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>您可以找银行主管或者大堂经理办理兑换礼品。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>很抱歉，邮储银行暂时没有邮票。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们银行的定期利率特别高，土豪赶快存定期。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>您可以询问大堂经理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里面有邮票吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里面有邮票吗/有邮票吗/银行有邮票吗/邮票这里有吗/我想要邮票/我需要邮票/我要邮票/</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前邮储银行活期利率百分之零点三，供您参考，具体利率请以银行公告为准。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>活期利率是多少</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>活期利率是多少/告诉我活期利率/告诉我活期利息是什么/最近活期利率是多少/你知道活期利率吗/活期利率你知道吗/活期利率</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>定期利率是多少</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号是多少啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号是多少啊/你们有公众号吗/银行公众号/银行微信号/银行公众号是什么/银行微信号是什么/邮储银行公众号是什么</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么礼品兑换</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍一下邮储银行</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍一下邮储银行/邮储银行是啥/给我介绍一下邮储银行/介绍一下你们银行/</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>养老金保险</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>我说办理养老金签协议要带点什么证件</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>存款有礼品吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我说办理养老金签协议要带点什么证件/办养老金需要带什么吗/怎么办养老金/我想办理养老金/怎么办理养老保险/养老保险需要签协议吗/养老保险怎么办理/哪里办养老保险/办养老保险需要什么/办养老保险需要哪些东西/办养老保险需要什么材料</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>养老金保险/什么是养老保险/养老保险是什么/养老金是什么/什么是养老金保险/养老保险/养老保险是啥/啥是养老保险/你知道养老保险吗</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>存款有礼品吗/存款有礼物吗/存款有哪些礼物/存款有哪些礼品/存款有什么礼品/存款的礼品有哪些/存款可以领礼品吗/听说存款有礼物/存款送礼物吗/存钱有礼物吗/存钱送礼物吗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/听说存钱有礼物/存钱有礼品吗/存钱有哪些礼物/存钱送东西吗/存钱有哪些礼品/存钱有东西送吗/存钱会送东西吗/存钱有什么礼品吗/存钱可以拿到礼物吗</t>
-    </r>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>怎么礼品兑换/兑换礼品/怎么兑换礼品/礼品兑换/怎么礼品兑换/找谁兑换礼品/哪里兑换礼品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/请问什么礼品兑换</t>
-    </r>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>定期利率是多少/告诉他一年的定期利率是多少/告诉我定期利率/告诉我定期利率是多少/定期利率/三个月定期利率是多少/半年的定期利率是多少/两年定期利率是多少/三年定期利率是多少/五年定期利率是多少</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/一年的定期利息是多少呀/定期存款的利率三个月的</t>
-    </r>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>信用卡活动/最近信用卡有哪些活动/信用卡有什么活动啊/给我介绍一下信用卡的的活动吧/介绍一下信用卡的优惠活动/办信用卡有什么活动/最近信用卡有什么活动？/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>跟我说说信用卡有什么活动/跟我说说最近信用卡有什么活动/最近信用卡的活动有哪些/最近信用卡的活动有什么/信用卡最近有什么活动/信用卡的活动有哪些/跟我说说信用卡最近的活动有哪些/跟我说说最近信用卡有哪些活动/告诉我信用卡活动有哪些/告诉我有什么信用卡活动/告诉我信用卡最近有哪些活动</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你可以带我去柜台吗/带我去休息区/带我去贵金属展示区/带我去超级柜台/带我去智慧柜台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行有什么活动啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行有什么活动啊/最近有什么活动/银行活动/最近银行有哪些活动/银行有什么活动啊/给我介绍一下银行的的活动吧/介绍一下银行的优惠活动/银行有什么活动/最近银行有什么活动？/跟我说说银行有什么活动/跟我说说最近银行有什么活动/最近银行的活动有哪些/最近银行的活动有什么/银行最近有什么活动/银行的活动有哪些/跟我说说银行最近的活动有哪些/跟我说说最近银行有哪些活动/告诉我银行活动有哪些/告诉我有什么银行活动/告诉我银行最近有哪些活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中邮人寿保险股份有限公司简介</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>中邮人寿保险股份有限公司是由中国邮政集团公司与各省、区、市邮政公司共同出资设立的国有全资寿险公司。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>中邮人寿是什么/介绍一下中邮人寿/介绍一下中邮人寿保险公司/中邮人寿和邮政有什么关系/中邮人寿是啥/我没有听过中邮人寿/我好像没有听过中邮人寿/我不知道中邮人寿/中邮人寿是做什么的/中邮人寿是办理什么业务的/中邮人寿简介/跟我说说中邮人寿/告诉我中邮人寿/跟我介绍一下中邮人寿/说说中邮人寿/中邮人寿是邮政创立的吗/中邮人寿和中国邮政是一家的吗/中邮人寿和中国邮政的关系</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要办理基金业务</t>
-  </si>
-  <si>
-    <t>请找我们的理财经理，他会为您详细介绍哦，或者您可以通过柜台，手机银行，网上银行进行购买哦</t>
-  </si>
-  <si>
-    <t>我买基金/介绍一下基金吧/我要买基金/有还有什么别的基金吗/给我介绍一下基金/介绍一下基金/帮我介绍一下基金啦/买基金/我想买基金/有什么基金产品推荐吗/基金产品有没有/有基金吗/我想买基金推荐一下/我要办理基金业务/怎么办理基金业务/怎么买基金/哪里买基金/基金在哪里买/有没有推荐的基金/我想买基金，给我推荐一个/给我推荐一个基金/我是来买基金的/我来买基金/给我介绍一个基金/基金去哪里买/基金怎么买/我是来买基金的，要去哪里办理业务/我想买个基金，要怎么办理/我想了解一下基金/我想买基金，给我推荐一个/基金业务怎么办理/基金业务去哪里办理/基金业务找谁办理/找谁办理基金业务/我来买个基金，该怎么办/我想买基金，告诉我怎么办理/告诉我怎么办理基金业务/我是来买基金的，告诉我怎么办理/跟我说说基金业务怎么办理/我是来买基金的，跟我说说怎么办理/我是来买基金的，跟我说说要去哪里办理/我想买基金，跟我说说找谁办理</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金业务</t>
-  </si>
-  <si>
-    <t>基金的基本业务包括基金业务加办、认购、申购、赎回、撤单、资料变更、基金转换、基金转托管、基金TA账户销户、基金业务撤办。</t>
-  </si>
-  <si>
-    <t>什么是基金业务/基金业务有哪些/哪些是基金业务/基金业务包括哪些/基金业务是什么/什么是基金/基金是什么/啥是基金/啥是基金业务/基金是啥/基金业务是啥/基金业务都有什么/基金业务的范畴/基金指的是什么/基金业务指的是什么/基金业务都有啥/我不知道基金是什么/告诉我基金业务是什么/我想知道基金业务是什么/我想知道基金业务都有哪些/告诉我基金业务都有哪些/我想知道基金业务都有哪些/我不知道基金业务都有哪些/跟我说说基金业务都有哪些/跟我说说什么是基金业务/跟我说说哪些是基金业务/跟我说说基金业务指的是什么/跟我说说基金业务都有什么/基金业务</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍一下保险吧</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍一下保险吧/我要买保险/有还有什么别的保险吗/给我介绍一下保险/介绍一下保险/帮我介绍一下保险啦/买保险/我想买保险/有什么保险产品推荐吗/保险产品有没有/有保险吗/我想买保险推荐一下/哪里买保险/怎么买保险/保险在哪里买/我想买保险/我是来买保险的/我要买一份保险/我要给家人买保险/我想办理保险业务/我是来办理保险业务的/给我介绍一下保险/跟我说说你们都有什么保险/告诉我这里都有什么保险/告诉我这里都有哪些保险/告诉我这里保险有哪些/这里都能办理哪些保险业务/我能在这里买到哪些保险/保险都有哪些/我能在这里买到哪些保险/我想买保险，你们这里都有什么/我是来买保险的，介绍介绍你们都有哪些/我想买份保险，给我介绍一下/给我介绍介绍保险/我想买份保险，给我介绍介绍/</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>存折取款机如何使用</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>请您将存折打印的页面向上，插入最上面的长条口子；然后，根据提示完成取款操作，取出现金后，机器会自动打印存折，并自动退出存折，取款完成。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>我能用存折取款机吗</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>我能用存折取款机吗/我可以在存折取款机上取钱吗/我们有存折取款机/我要用存折取款机取钱/你知道存折取款机吗/我想在存折取款机上取钱/我想在存折取款机上取钱/存折取款机我可以用吗/我能不能用存折取款机/</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>存折取款机如何使用/如何使用存折取款机/存折取款机怎么使用/怎么使用存折取款机/存折取款机怎么用啊/怎么用存折取款机/我没有用过存折取款机，怎么用啊/我不知道存折取款机怎么用/告诉我存折取款机怎么使用/告诉我怎么使用存折取款机/跟我说说怎么用存折取款机/跟我说说存折取款机怎么用/教教我怎么用存折取款机/教教我存折取款机怎么用/我不知道存折取款机如何用/告诉我存折取款机如何使用/告诉我如何使用存折取款机/跟我说说如何使用存折取款机/跟我说说存折取款机如何使用/教教我如何用存折取款机/教教我存折取款机如何使用</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>存折取款机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮储银行的存折可以使用存折取款机进行取款，每天最多可以取两万元，每次只可以取五千元。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+      <t>/装修贷款经理在哪儿？/我怎么没见装修贷款经理/装修贷款经理哪儿去了/帮我找一下装修贷款经理/快看看装修贷款经理在哪儿/带我去找装修贷款经理/你帮我联系一下装修贷款经理吗？/你能帮我联系一下装修贷款经理吗？/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4141,6 +4392,86 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4260,7 +4591,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4513,6 +4844,37 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4533,7 +4895,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1BB483C1-851A-4EE5-9F1F-5504CA301D0B}" diskRevisions="1" revisionId="516" version="181">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0F40369F-371E-429A-9234-0DB014546441}" diskRevisions="1" revisionId="603" version="196">
   <header guid="{A4B2C081-ADA0-4742-AEED-5DD238F709C0}" dateTime="2017-12-13T08:44:25" maxSheetId="19" userName="lulu.wang(王路路)" r:id="rId1">
     <sheetIdMap count="18">
       <sheetId val="1"/>
@@ -8520,6 +8882,351 @@
       <sheetId val="19"/>
     </sheetIdMap>
   </header>
+  <header guid="{EA773F4F-AA7E-4570-BCF5-C637D2FFF430}" dateTime="2018-01-02T15:04:03" maxSheetId="20" userName="hongru.chu(褚宏茹)" r:id="rId182" minRId="517">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3BA7926A-8905-48A3-87CA-FE65E855F1F0}" dateTime="2018-01-02T15:09:59" maxSheetId="20" userName="hongru.chu(褚宏茹)" r:id="rId183" minRId="518" maxRId="520">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{13EE2FA9-4994-4DBD-8C5E-8BC79562E267}" dateTime="2018-01-02T15:33:51" maxSheetId="20" userName="hongru.chu(褚宏茹)" r:id="rId184" minRId="521" maxRId="525">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E16C9952-EEB0-45EF-9786-A4C7062E6A16}" dateTime="2018-01-03T13:56:49" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId185" minRId="526" maxRId="529">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{231F4B26-875B-415C-8F80-B04F63FB2E77}" dateTime="2018-01-03T13:57:06" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId186" minRId="530">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C1E6E097-D2F7-45AC-B76F-3E337F2AD7BF}" dateTime="2018-01-03T14:02:31" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId187">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{849AE825-8A88-4220-AAF0-8E67EF5745C4}" dateTime="2018-01-03T16:30:26" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId188" minRId="531" maxRId="549">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D8C3536B-7CD5-4369-B0AC-2C8B8DAFCAC7}" dateTime="2018-01-05T13:56:53" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId189" minRId="550" maxRId="580">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{552D6257-828D-48A9-8BF5-E1EC3414554D}" dateTime="2018-01-05T14:00:34" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId190">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2A2F9D78-9393-4E36-AE04-32EA938895A3}" dateTime="2018-01-05T14:40:03" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId191" minRId="583" maxRId="585">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0F4E3DE0-C7E8-43FA-98A2-A20C7468DC50}" dateTime="2018-01-05T14:46:11" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId192" minRId="586" maxRId="591">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A43347A4-9426-4B71-818B-F1B25655C276}" dateTime="2018-01-05T15:00:00" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId193" minRId="592" maxRId="593">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6A5C9D92-608D-4097-A430-F643568078BF}" dateTime="2018-01-05T15:25:19" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId194" minRId="594" maxRId="598">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{01565261-0FFF-478E-804B-2D661820AE3B}" dateTime="2018-01-05T15:38:51" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId195" minRId="599" maxRId="602">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0F40369F-371E-429A-9234-0DB014546441}" dateTime="2018-01-08T09:04:29" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId196" minRId="603">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -17985,6 +18692,1343 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog182.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="517" sId="9">
+    <oc r="D20" t="inlineStr">
+      <is>
+        <r>
+          <t>定期利率是多少/告诉他一年的定期利率是多少/告诉我定期利率/告诉我定期利率是多少/定期利率/三个月定期利率是多少/半年的定期利率是多少/两年定期利率是多少/三年定期利率是多少/五年定期利率是多少</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF00B050"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/一年的定期利息是多少呀/定期存款的利率三个月的</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D20" t="inlineStr">
+      <is>
+        <r>
+          <t>定期利率是多少/告诉他一年的定期利率是多少/告诉我定期利率/告诉我定期利率是多少/定期利率/三个月定期利率是多少/半年的定期利率是多少/两年定期利率是多少/三年定期利率是多少/五年定期利率是多少</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF00B050"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/一年的定期利息是多少呀/定期存款的利率三个月的</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog183.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="518" sId="9">
+    <oc r="C15" t="inlineStr">
+      <is>
+        <t>邮储银行是中国领先的大型零售银行，定位于服务社区，服务中小型企业，服务三农，致力于为中国经济转型中最具活力的客户群体提供服务。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C15" t="inlineStr">
+      <is>
+        <t>邮储银行是中国领先的大型零售银行，定位于服务社区，服务中小型企业，服务三农，致力于为中国经济转型中最具活力的客户群体提供服务。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="519" sId="9">
+    <oc r="D15" t="inlineStr">
+      <is>
+        <t>介绍一下邮储银行/邮储银行是啥/给我介绍一下邮储银行/介绍一下你们银行/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D15" t="inlineStr">
+      <is>
+        <r>
+          <t>介绍一下邮储银行/邮储银行是啥/给我介绍一下邮储银行/介绍一下你们银行</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/中国邮政储蓄银行/介绍一下中国邮政储蓄银行/给我介绍一下中国邮政储蓄银行</t>
+        </r>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="520" sId="10">
+    <oc r="D4" t="inlineStr">
+      <is>
+        <t>我买基金/介绍一下基金吧/我要买基金/有还有什么别的基金吗/给我介绍一下基金/介绍一下基金/帮我介绍一下基金啦/买基金/我想买基金/有什么基金产品推荐吗/基金产品有没有/有基金吗/我想买基金推荐一下/我要办理基金业务/怎么办理基金业务/怎么买基金/哪里买基金/基金在哪里买/有没有推荐的基金/我想买基金，给我推荐一个/给我推荐一个基金/我是来买基金的/我来买基金/给我介绍一个基金/基金去哪里买/基金怎么买/我是来买基金的，要去哪里办理业务/我想买个基金，要怎么办理/我想了解一下基金/我想买基金，给我推荐一个/基金业务怎么办理/基金业务去哪里办理/基金业务找谁办理/找谁办理基金业务/我来买个基金，该怎么办/我想买基金，告诉我怎么办理/告诉我怎么办理基金业务/我是来买基金的，告诉我怎么办理/跟我说说基金业务怎么办理/我是来买基金的，跟我说说怎么办理/我是来买基金的，跟我说说要去哪里办理/我想买基金，跟我说说找谁办理</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D4" t="inlineStr">
+      <is>
+        <r>
+          <t>我买基金/介绍一下基金吧/我要买基金/有还有什么别的基金吗/给我介绍一下基金/介绍一下基金/帮我介绍一下基金啦/买基金/我想买基金/有什么基金产品推荐吗/基金产品有没有/有基金吗/我想买基金推荐一下/我要办理基金业务/怎么办理基金业务/怎么买基金/哪里买基金/基金在哪里买/有没有推荐的基金/我想买基金，给我推荐一个/给我推荐一个基金/我是来买基金的/我来买基金/给我介绍一个基金/基金去哪里买/基金怎么买/我是来买基金的，要去哪里办理业务/我想买个基金，要怎么办理/我想了解一下基金/我想买基金，给我推荐一个/基金业务怎么办理/基金业务去哪里办理/基金业务找谁办理/找谁办理基金业务/我来买个基金，该怎么办/我想买基金，告诉我怎么办理/告诉我怎么办理基金业务/我是来买基金的，告诉我怎么办理/跟我说说基金业务怎么办理/我是来买基金的，跟我说说怎么办理/我是来买基金的，跟我说说要去哪里办理/我想买基金，跟我说说找谁办理</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/有客户想买基金/</t>
+        </r>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog184.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="11" s="1" sqref="B12" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="11" sqref="C12" start="0" length="0">
+    <dxf>
+      <alignment vertical="center" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="11" sqref="B12:C12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="11" sqref="B12:C12">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="11" sqref="B12:C12" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rm rId="521" sheetId="11" source="A11" destination="A12" sourceSheetId="11">
+    <rfmt sheetId="11" sqref="A12" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rcc rId="522" sId="11" odxf="1" dxf="1">
+    <nc r="A11" t="inlineStr">
+      <is>
+        <t>贵金属</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="523" sId="11">
+    <nc r="B12" t="inlineStr">
+      <is>
+        <t>黄金压岁钱</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="11" s="1" sqref="D12" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="11" sqref="D13" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="11" sqref="D14" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="11" sqref="D15" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="11" sqref="D16" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="11" sqref="D17" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="11" sqref="D18" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="11" sqref="D19" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="11" sqref="D12:D19">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="11" sqref="D12:D19" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="11" sqref="D12">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="11" s="1" sqref="D13" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="524" sId="11">
+    <nc r="C12" t="inlineStr">
+      <is>
+        <t>故宫旺旺黄金压岁钱，有幸运、健康的寓意，您可以找理财经理购买。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="11" sqref="C12">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="525" sId="11">
+    <nc r="D12" t="inlineStr">
+      <is>
+        <t>黄金压岁钱/我要买黄金压岁钱/我想买黄金压岁钱/有黄金压岁钱吗/黄金压岁钱有没有/黄金压岁钱有没有/哪里买黄金压岁钱/黄金压岁钱在哪里买/我想购买黄金压岁钱/故宫旺旺黄金压岁钱/我要买故宫旺旺黄金压岁钱/我想买故宫旺旺黄金压岁钱/有故宫旺旺黄金压岁钱吗/故宫旺旺黄金压岁钱有没有/故宫旺旺黄金压岁钱有没有/哪里买故宫旺旺黄金压岁钱/故宫旺旺黄金压岁钱在哪里买/我想购买故宫旺旺黄金压岁钱</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog185.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="526" sId="9">
+    <nc r="A23" t="inlineStr">
+      <is>
+        <t>常识</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="527" sId="9">
+    <nc r="B23" t="inlineStr">
+      <is>
+        <t>你帮我叫个号</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="528" sId="9" xfDxf="1" dxf="1">
+    <nc r="C23" t="inlineStr">
+      <is>
+        <t>您可以到取号机哥哥那里取号</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <alignment vertical="center" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="529" sId="9">
+    <nc r="D23" t="inlineStr">
+      <is>
+        <t>你帮我叫个号/你能帮我叫个号吗/帮我叫个号好吗/你能不能帮我叫个号/快去帮我叫个号/给我叫个号/帮我叫个号好不好/可以帮我叫个号吗/叫号/叫个号/帮我叫个号吧/去给我叫个号/帮我叫个号行不行/你会叫号吗/你能叫号吗/你可以叫号吗/我想让你帮我叫个号/我想让你叫号/你帮我叫号可以吗/你帮我叫号行吗/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog186.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="530" sId="9">
+    <oc r="D23" t="inlineStr">
+      <is>
+        <t>你帮我叫个号/你能帮我叫个号吗/帮我叫个号好吗/你能不能帮我叫个号/快去帮我叫个号/给我叫个号/帮我叫个号好不好/可以帮我叫个号吗/叫号/叫个号/帮我叫个号吧/去给我叫个号/帮我叫个号行不行/你会叫号吗/你能叫号吗/你可以叫号吗/我想让你帮我叫个号/我想让你叫号/你帮我叫号可以吗/你帮我叫号行吗/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D23" t="inlineStr">
+      <is>
+        <t>你帮我叫个号/你能帮我叫个号吗/帮我叫个号好吗/你能不能帮我叫个号/快去帮我叫个号/给我叫个号/帮我叫个号好不好/可以帮我叫个号吗/叫号/叫个号/帮我叫个号吧/去给我叫个号/帮我叫个号行不行/你会叫号吗/你能叫号吗/你可以叫号吗/我想让你帮我叫个号/我想让你叫号/你帮我叫号可以吗/你帮我叫号行吗</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog187.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="9" sqref="A23:D23" start="0" length="2147483647">
+    <dxf>
+      <font/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" sqref="A23:D23" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" sqref="A23:D23" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog188.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="531" sId="1">
+    <oc r="C2" t="inlineStr">
+      <is>
+        <t>手机银行是一个以用户为中心的金融服务平台，可以在手机银行上转账汇款、缴费、理财投资、信息查询等。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>手机银行是一个以用户为中心的金融服务平台，可以在手机银行上转账汇款、缴费、理财投资、信息查询等。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="532" sId="1">
+    <oc r="C9" t="inlineStr">
+      <is>
+        <t>请您登录手机银行，选择“转账汇款”功能，根据页面提示就可以办理转账汇款业务啦~</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C9" t="inlineStr">
+      <is>
+        <t>请您登录手机银行，选择“转账汇款”功能，根据页面提示就可以办理转账汇款业务啦~</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="533" sId="1">
+    <oc r="C10" t="inlineStr">
+      <is>
+        <t>转账不成功有多种情况，如信息填写错误，账户状态异常，附言含非法字符被人行拒绝等，建议核实后重新办理。</t>
+      </is>
+    </oc>
+    <nc r="C10" t="inlineStr">
+      <is>
+        <t>转账不成功有多种情况，如信息填写错误，账户状态异常，附言含非法字符被人行拒绝等，建议核实后重新办理。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="534" sId="1">
+    <oc r="C8" t="inlineStr">
+      <is>
+        <t>目前开通手机银行暂不收费，请您放心使用</t>
+      </is>
+    </oc>
+    <nc r="C8" t="inlineStr">
+      <is>
+        <t>目前开通手机银行暂不收费，请您放心使用</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="535" sId="1">
+    <oc r="C15" t="inlineStr">
+      <is>
+        <t>请您登录手机银行，根据页面提示就可以办理转账汇款业务啦~</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C15" t="inlineStr">
+      <is>
+        <t>请您登录手机银行，根据页面提示就可以办理转账汇款业务啦~</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="536" sId="5">
+    <oc r="C2" t="inlineStr">
+      <is>
+        <t xml:space="preserve">房贷利率需要综合考虑您的资信状况、购置住房、首付款比例等多种因素而最终确定。您可与客户经理或贷款行进一步咨询~
+</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t xml:space="preserve">房贷利率需要综合考虑您的资信状况、购置住房、首付款比例等多种因素而最终确定。您可与客户经理或贷款行进一步咨询~
+</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="537" sId="5">
+    <oc r="C3" t="inlineStr">
+      <is>
+        <t>一手个人住房贷款的基本条件： 1.具有身份证明，2.具有户籍证明或居留证明，3.具有良好的信用记录， 4.具有稳定的收入来源，5.具有所购住房成交合同等条件</t>
+      </is>
+    </oc>
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>一手个人住房贷款的基本条件： 1.具有身份证明，2.具有户籍证明或居留证明，3.具有良好的信用记录， 4.具有稳定的收入来源，5.具有所购住房成交合同等条件</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="538" sId="6">
+    <oc r="C2" t="inlineStr">
+      <is>
+        <t>执行中国人民银行公布的同档次贷款基准利率，可在人民银行规定的范围内浮动。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>执行中国人民银行公布的同档次贷款基准利率，可在人民银行规定的范围内浮动。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="539" sId="6">
+    <oc r="C3" t="inlineStr">
+      <is>
+        <t>为避免产生罚息及不良信用记录，请按照借款合同中约定的还款日足额归还贷款。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>为避免产生罚息及不良信用记录，请按照借款合同中约定的还款日足额归还贷款。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="540" sId="7">
+    <oc r="C5" t="inlineStr">
+      <is>
+        <t>申请信用卡需年龄18和18周岁以上，具有完全民事行为能力、有合法稳定收入的中国公民。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C5" t="inlineStr">
+      <is>
+        <t>申请信用卡需年龄18和18周岁以上，具有完全民事行为能力、有合法稳定收入的中国公民。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="541" sId="7">
+    <oc r="C7" t="inlineStr">
+      <is>
+        <t>申请信用卡需年龄18和18周岁以上，具有完全民事行为能力、有合法稳定收入的中国公民。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C7" t="inlineStr">
+      <is>
+        <t>申请信用卡需年龄18和18周岁以上，具有完全民事行为能力、有合法稳定收入的中国公民。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="542" sId="8">
+    <oc r="C2" t="inlineStr">
+      <is>
+        <t>银行用户可以通过与网上银行享受账户查询、转账汇款、缴费支付、信用卡、个人贷款等综合性个人银行服务。</t>
+      </is>
+    </oc>
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>银行用户可以通过与网上银行享受账户查询、转账汇款、缴费支付、信用卡、个人贷款等综合性个人银行服务。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="543" sId="8">
+    <oc r="C4" t="inlineStr">
+      <is>
+        <t xml:space="preserve">目前开通网上银行暂不收费，请您放心使用~
+</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C4" t="inlineStr">
+      <is>
+        <t xml:space="preserve">目前开通网上银行暂不收费，请您放心使用~
+</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="544" sId="9">
+    <oc r="C4" t="inlineStr">
+      <is>
+        <t>扫描二维码下载手机银行，选择“网点预约”，就可办理网点预约取号。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C4" t="inlineStr">
+      <is>
+        <t>扫描二维码下载手机银行，选择“网点预约”，就可办理网点预约取号。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="545" sId="9">
+    <oc r="C6" t="inlineStr">
+      <is>
+        <t>扫描二维码下载手机银行，选择“网点预约”，就可办理网点预约取号。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C6" t="inlineStr">
+      <is>
+        <t>扫描二维码下载手机银行，选择“网点预约”，就可办理网点预约取号。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="546" sId="9">
+    <oc r="C12" t="inlineStr">
+      <is>
+        <t>存款有礼品哦，存款额度不同，礼品不同，具体可以咨询大堂经理。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C12" t="inlineStr">
+      <is>
+        <t>存款有礼品哦，存款额度不同，礼品不同，具体可以咨询大堂经理。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="547" sId="9">
+    <oc r="D13" t="inlineStr">
+      <is>
+        <t>我说办理养老金签协议要带点什么证件/办养老金需要带什么吗/怎么办养老金/我想办理养老金/怎么办理养老保险/养老保险需要签协议吗/养老保险怎么办理/哪里办养老保险/办养老保险需要什么/办养老保险需要哪些东西/办养老保险需要什么材料</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D13" t="inlineStr">
+      <is>
+        <t>我说办理养老金签协议要带点什么证件/办养老金需要带什么吗/怎么办养老金/我想办理养老金/怎么办理养老保险/养老保险需要签协议吗/养老保险怎么办理/哪里办养老保险/办养老保险需要什么/办养老保险需要哪些东西/办养老保险需要什么材料</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="548" sId="9">
+    <oc r="C13" t="inlineStr">
+      <is>
+        <t>储储还没有学习这项业务，您可以咨询一下大堂经理。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C13" t="inlineStr">
+      <is>
+        <t>储储还没有学习这项业务，您可以咨询一下大堂经理。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="549" sId="9">
+    <oc r="C14" t="inlineStr">
+      <is>
+        <t>养老金保险是为了保障老年人的基本生活需求，为其提供稳定可靠的生活来源。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C14" t="inlineStr">
+      <is>
+        <t>养老金保险是为了保障老年人的基本生活需求，为其提供稳定可靠的生活来源。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog189.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="9" xfDxf="1" s="1" sqref="B24" start="0" length="0">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" sqref="B24" start="0" length="0">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="550" sId="9">
+    <nc r="C24" t="inlineStr">
+      <is>
+        <t>您要带上身份证和社保卡去当地的社保部门进行查询。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="9" sqref="C24" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="551" sId="9">
+    <nc r="A24" t="inlineStr">
+      <is>
+        <t>常识</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="9" sqref="A24" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="552" sId="9">
+    <nc r="B24" t="inlineStr">
+      <is>
+        <t>怎么查询养老保险金额</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="9" xfDxf="1" sqref="B25" start="0" length="0"/>
+  <rcc rId="553" sId="9" xfDxf="1" dxf="1">
+    <nc r="C25" t="inlineStr">
+      <is>
+        <t>储储的小脑袋里目前没有十年期的存款业务，您可以咨询一下大堂经理哦！</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="554" sId="9" xfDxf="1" dxf="1">
+    <nc r="B26" t="inlineStr">
+      <is>
+        <t>怎么交罚单</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="555" sId="9" xfDxf="1" dxf="1">
+    <nc r="C26" t="inlineStr">
+      <is>
+        <t>您可以通过手机银行、自助设备缴纳罚单，或者带上身份证填单取号到柜台办理。</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="556" sId="9" xfDxf="1" dxf="1">
+    <nc r="B27" t="inlineStr">
+      <is>
+        <t>怎么取定期</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="557" sId="9" xfDxf="1" dxf="1">
+    <nc r="C27" t="inlineStr">
+      <is>
+        <t>您需要协带本人身份证和存单，取号到柜台办理；如果代理人办理，还要携带双方身份证和存单。</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="9" sqref="A24:D27" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="558" sId="9">
+    <nc r="D24" t="inlineStr">
+      <is>
+        <t>怎么查询养老保险金额/养老保险金额怎么查询/查询养老保险金额/养老保险金额查询/我想查询养老保险金额/我要查询养老保险金金额/告诉我养老保险金金额怎样查询/跟我说说要怎么查询养老保险金金额/我想知道养老保险金金额怎样查询/快跟我说说养老保险金金额是怎么查询的/我不知道养老保险金金额的查询方法/我想让你跟我说说养老保险金金额的查询方法</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="559" sId="9" odxf="1" dxf="1">
+    <nc r="A25" t="inlineStr">
+      <is>
+        <t>常识</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="560" sId="9" odxf="1" dxf="1">
+    <nc r="A26" t="inlineStr">
+      <is>
+        <t>常识</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="561" sId="9" odxf="1" dxf="1">
+    <nc r="A27" t="inlineStr">
+      <is>
+        <t>常识</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="562" sId="9">
+    <nc r="B25" t="inlineStr">
+      <is>
+        <t>有十年期的存款吗</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="9" xfDxf="1" sqref="D25" start="0" length="0">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="563" sId="9">
+    <nc r="D25" t="inlineStr">
+      <is>
+        <t>有十年期的存款吗/十年期的存款有吗/你们这有十年期的存款吗/十年期的存款你们这有吗/你们银行有十年期的存款吗/十年期的存款你们这有吗/我想存十年期的存款，你们这有吗/我想存十年期的存款，你们银行有吗/十年期的存款/我要存十年期的存款/我想存十年期的存款/我的钱想存十年，你们这有十年期的存款吗</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="564" sId="9">
+    <nc r="D26" t="inlineStr">
+      <is>
+        <t>怎么交罚单/罚单怎么交/交罚单要怎么办理/我是来交罚单的，怎么办理/交罚单的业务怎么办理/怎么办理交罚单业务/罚单要怎么交/跟我说说罚单怎么交/告诉我怎么交罚单/跟我说说怎么交罚单/告诉我罚单怎么交/我来交罚单，怎么交/我要交罚单，怎么交</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="565" sId="9">
+    <nc r="D27" t="inlineStr">
+      <is>
+        <t>怎么取定期/定期怎么取/取定期要怎么办理/我是来取定期的，怎么办理/取定期的业务怎么办理/怎么办理取定期业务/定期要怎么取/跟我说说定期怎么取/告诉我怎么取定期/跟我说说怎么取定期/告诉我定期怎么取/我来取定期，怎么取/我要取定期，怎么取</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="566" sId="6" xfDxf="1" dxf="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>那个信用贷款利率是多少</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="6" sqref="B4" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="6" xfDxf="1" sqref="B5" start="0" length="0"/>
+  <rfmt sheetId="6" sqref="B5" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="567" sId="6" odxf="1" dxf="1">
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>信用贷款</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="568" sId="6" odxf="1" dxf="1">
+    <nc r="A5" t="inlineStr">
+      <is>
+        <t>信用贷款</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="6" sqref="A4:A5" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="6" xfDxf="1" sqref="C4" start="0" length="0"/>
+  <rfmt sheetId="6" sqref="C4:D4" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="569" sId="6">
+    <nc r="C4" t="inlineStr">
+      <is>
+        <t>您好，贷款具体利率要以贷款合同规定的为准，因为不同的贷款产品，利率会有所不同，您可以咨询信贷经理。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="570" sId="6" xfDxf="1" dxf="1">
+    <nc r="C5" t="inlineStr">
+      <is>
+        <t>您好，贷款具体利率要以贷款合同规定的为准，因为不同的贷款产品，利率会有所不同，您可以咨询信贷经理。</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="6" sqref="C5:D5" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="6" sqref="C1:D1048576">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="571" sId="6">
+    <nc r="D4" t="inlineStr">
+      <is>
+        <t>那个信用贷款利率是多少、信用贷款利率是多少、信用贷款利率、信用贷款利率怎么算/信用贷款利率是怎么算的/信用贷款利率是多少/信用贷款利率/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="572" sId="6">
+    <oc r="C2" t="inlineStr">
+      <is>
+        <t>执行中国人民银行公布的同档次贷款基准利率，可在人民银行规定的范围内浮动。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>执行中国人民银行公布的同档次贷款基准利率，可在人民银行规定的范围内浮动。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="573" sId="6" ref="A4:XFD4" action="deleteRow">
+    <rfmt sheetId="6" xfDxf="1" sqref="A4:XFD4" start="0" length="0"/>
+    <rcc rId="0" sId="6" dxf="1">
+      <nc r="A4" t="inlineStr">
+        <is>
+          <t>信用贷款</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="9"/>
+          <color theme="9" tint="-0.249977111117893"/>
+          <name val="宋体"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="6" dxf="1">
+      <nc r="B4" t="inlineStr">
+        <is>
+          <t>那个信用贷款利率是多少</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color theme="9" tint="-0.249977111117893"/>
+          <name val="宋体"/>
+          <scheme val="minor"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="6" dxf="1">
+      <nc r="C4" t="inlineStr">
+        <is>
+          <t>您好，贷款具体利率要以贷款合同规定的为准，因为不同的贷款产品，利率会有所不同，您可以咨询信贷经理。</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color theme="9" tint="-0.249977111117893"/>
+          <name val="宋体"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="6" dxf="1">
+      <nc r="D4" t="inlineStr">
+        <is>
+          <t>那个信用贷款利率是多少、信用贷款利率是多少、信用贷款利率、信用贷款利率怎么算/信用贷款利率是怎么算的/信用贷款利率是多少/信用贷款利率/</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color theme="9" tint="-0.249977111117893"/>
+          <name val="宋体"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rcc rId="574" sId="6">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>了解一下我想贷款的贷款利率</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="575" sId="6">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <r>
+          <t>个人信用贷款利率/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="3" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>个人信用贷款利率是多少/个人信用贷款利率怎么算/个人信用贷款利率是怎么算的/信用贷款利率是多少/信用贷款利率/</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <r>
+          <t>个人信用贷款利率/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="3" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>个人信用贷款利率是多少/个人信用贷款利率怎么算/个人信用贷款利率是怎么算的/信用贷款利率是多少/信用贷款利率</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/那个信用贷款利率是多少/信用贷款利率是多少/了解一下我想贷款的贷款利率</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="576" sId="6" ref="A4:XFD4" action="deleteRow">
+    <rfmt sheetId="6" xfDxf="1" sqref="A4:XFD4" start="0" length="0"/>
+    <rcc rId="0" sId="6" dxf="1">
+      <nc r="A4" t="inlineStr">
+        <is>
+          <t>信用贷款</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="9"/>
+          <color theme="9" tint="-0.249977111117893"/>
+          <name val="宋体"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="6" dxf="1">
+      <nc r="B4" t="inlineStr">
+        <is>
+          <t>了解一下我想贷款的贷款利率</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color theme="9" tint="-0.249977111117893"/>
+          <name val="宋体"/>
+          <scheme val="minor"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="6" dxf="1">
+      <nc r="C4" t="inlineStr">
+        <is>
+          <t>您好，贷款具体利率要以贷款合同规定的为准，因为不同的贷款产品，利率会有所不同，您可以咨询信贷经理。</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color theme="9" tint="-0.249977111117893"/>
+          <name val="宋体"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="6" sqref="D4" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color theme="9" tint="-0.249977111117893"/>
+          <name val="宋体"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rfmt sheetId="1" xfDxf="1" sqref="B16" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="577" sId="1" odxf="1" dxf="1">
+    <nc r="A16" t="inlineStr">
+      <is>
+        <t>手机银行</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="9"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="A16:XFD16" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="578" sId="1" xfDxf="1" dxf="1">
+    <nc r="C16" t="inlineStr">
+      <is>
+        <t>您登录手机银行后，点击右上角“我的”，或者向左侧滑进入“个人设置—登录或交易密码修改”界面；输入原密码、新密码，点击确定进入修改成功提示页面</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="9"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="579" sId="1">
+    <nc r="B16" t="inlineStr">
+      <is>
+        <t>怎么手机银行密码重置</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="580" sId="1">
+    <nc r="D16" t="inlineStr">
+      <is>
+        <t>怎么手机银行密码重置/手机银行密码重置/重置手机银行密码/怎么重置手机银行密码/手机银行密码怎么重置/我想重置手机银行密码/我想办理手机银行密码重置业务/我想办理重置手机银行密码业务/我是来办理重置手机银行密码业务的/今天我来是要办理重置手机银行密码业务的</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_F671582D_740D_40B7_95CA_8790D0A2ADE2_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>手机银行!$B$2:$F$15</formula>
+    <oldFormula>手机银行!$B$2:$F$15</oldFormula>
+  </rdn>
+  <rcv guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="26" sId="1">
@@ -18022,6 +20066,570 @@
           <t>你可以跟我说说手机银行是怎么转帐的吗/我想用手机银行转账/我用手机银行怎么转帐/用手机银行怎么转帐的/你知道手机银行怎么转账吗/你能告诉我手机银行怎么用来转账吗/怎么用手机银行转账呀/你知道咋用手机银行转账吗</t>
         </r>
         <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog190.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_F671582D_740D_40B7_95CA_8790D0A2ADE2_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>手机银行!$B$2:$F$15</formula>
+    <oldFormula>手机银行!$B$2:$F$15</oldFormula>
+  </rdn>
+  <rcv guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog191.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="583" sId="9">
+    <oc r="D20" t="inlineStr">
+      <is>
+        <r>
+          <t>定期利率是多少/告诉他一年的定期利率是多少/告诉我定期利率/告诉我定期利率是多少/定期利率/三个月定期利率是多少/半年的定期利率是多少/两年定期利率是多少/三年定期利率是多少/五年定期利率是多少</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF00B050"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/一年的定期利息是多少呀/定期存款的利率三个月的</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D20" t="inlineStr">
+      <is>
+        <r>
+          <t>定期利率是多少/告诉他一年的定期利率是多少/告诉我定期利率/告诉我定期利率是多少/定期利率/三个月定期利率是多少/半年的定期利率是多少/两年定期利率是多少/三年定期利率是多少/五年定期利率是多少</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF00B050"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/一年的定期利息是多少呀/定期存款的利率三个月的/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>现在存三年的利率是多少的呀</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="584" sId="18">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <r>
+          <t>大堂经理在哪儿？/我怎么没见大堂经理/大堂经理哪儿去了/帮我找一下大堂经理/快看看大堂经理在哪儿/带我去找大堂经理</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="3" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/大堂经理上哪了/我怎么没看见大堂经理/我去哪找大堂经理/我没找到大堂经理/我不知道大堂经理在哪/我不知道去哪找大堂经理/我找不到大堂经理/告诉我大堂经理在哪/告诉我怎么找大堂经理/告诉我去哪里找大堂经理/跟我说说大堂经理在哪里/跟我说说怎么才能找到大堂经理/我没看到大堂经理/大堂经理一般在哪/通常大堂经理在哪/</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <r>
+          <t>大堂经理在哪儿？/我怎么没见大堂经理/大堂经理哪儿去了/帮我找一下大堂经理/快看看大堂经理在哪儿/带我去找大堂经理</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="3" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/大堂经理上哪了/我怎么没看见大堂经理/我去哪找大堂经理/我没找到大堂经理/我不知道大堂经理在哪/我不知道去哪找大堂经理/我找不到大堂经理/告诉我大堂经理在哪/告诉我怎么找大堂经理/告诉我去哪里找大堂经理/跟我说说大堂经理在哪里/跟我说说怎么才能找到大堂经理/我没看到大堂经理/大堂经理一般在哪/通常大堂经理在哪/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我找一下大堂经理/大堂经理呢</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="585" sId="18">
+    <oc r="D5" t="inlineStr">
+      <is>
+        <t>你可以带我去柜台吗/带我去休息区/带我去贵金属展示区/带我去超级柜台/带我去智慧柜台</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D5" t="inlineStr">
+      <is>
+        <r>
+          <t>你可以带我去柜台吗/带我去休息区/带我去贵金属展示区/带我去超级柜台/带我去智慧柜台/你</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>带我去柜台好不好/带我去自动取款机/你可以带我去一下吗</t>
+        </r>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog192.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="586" sId="9">
+    <oc r="D15" t="inlineStr">
+      <is>
+        <r>
+          <t>介绍一下邮储银行/邮储银行是啥/给我介绍一下邮储银行/介绍一下你们银行</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/中国邮政储蓄银行/介绍一下中国邮政储蓄银行/给我介绍一下中国邮政储蓄银行</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D15" t="inlineStr">
+      <is>
+        <r>
+          <t>介绍一下邮储银行/邮储银行是啥/给我介绍一下邮储银行/介绍一下你们银行</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/中国邮政储蓄银行/介绍一下中国邮政储蓄银行/给我介绍一下中国邮政储蓄银行/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>邮政银行</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="587" sId="9">
+    <oc r="D23" t="inlineStr">
+      <is>
+        <t>你帮我叫个号/你能帮我叫个号吗/帮我叫个号好吗/你能不能帮我叫个号/快去帮我叫个号/给我叫个号/帮我叫个号好不好/可以帮我叫个号吗/叫号/叫个号/帮我叫个号吧/去给我叫个号/帮我叫个号行不行/你会叫号吗/你能叫号吗/你可以叫号吗/我想让你帮我叫个号/我想让你叫号/你帮我叫号可以吗/你帮我叫号行吗</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D23" t="inlineStr">
+      <is>
+        <r>
+          <t>你帮我叫个号/你能帮我叫个号吗/帮我叫个号好吗/你能不能帮我叫个号/快去帮我叫个号/给我叫个号/帮我叫个号好不好/可以帮我叫个号吗/叫号/叫个号/帮我叫个号吧/去给我叫个号/帮我叫个号行不行/你会叫号吗/你能叫号吗/你可以叫号吗/我想让你帮我叫个号/我想让你叫号/你帮我叫号可以吗/你帮我叫号行吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/如何取号</t>
+        </r>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="588" sId="9" xfDxf="1" dxf="1">
+    <nc r="B28" t="inlineStr">
+      <is>
+        <t>存款利率是多少啊</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="9" sqref="A28:XFD28" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="589" sId="9" odxf="1" dxf="1">
+    <nc r="A28" t="inlineStr">
+      <is>
+        <t>常识</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="590" sId="9">
+    <nc r="C28" t="inlineStr">
+      <is>
+        <t>我们有活期存款利率和定期存款利率，您想知道哪一个</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="591" sId="9">
+    <nc r="D28" t="inlineStr">
+      <is>
+        <t>存款利率是多少啊/告诉我存款利率/告诉我存款利息是什么/最近存款利率是多少/你知道存款利率吗/存款利率你知道吗/存款利率</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog193.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="592" sId="18">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <r>
+          <t>大堂经理在哪儿？/我怎么没见大堂经理/大堂经理哪儿去了/帮我找一下大堂经理/快看看大堂经理在哪儿/带我去找大堂经理</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="3" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/大堂经理上哪了/我怎么没看见大堂经理/我去哪找大堂经理/我没找到大堂经理/我不知道大堂经理在哪/我不知道去哪找大堂经理/我找不到大堂经理/告诉我大堂经理在哪/告诉我怎么找大堂经理/告诉我去哪里找大堂经理/跟我说说大堂经理在哪里/跟我说说怎么才能找到大堂经理/我没看到大堂经理/大堂经理一般在哪/通常大堂经理在哪/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我找一下大堂经理/大堂经理呢</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <r>
+          <t>大堂经理在哪儿？/我怎么没见大堂经理/大堂经理哪儿去了/帮我找一下大堂经理/快看看大堂经理在哪儿/带我去找大堂经理</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="3" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/大堂经理上哪了/我怎么没看见大堂经理/我去哪找大堂经理/我没找到大堂经理/我不知道大堂经理在哪/我不知道去哪找大堂经理/我找不到大堂经理/告诉我大堂经理在哪/告诉我怎么找大堂经理/告诉我去哪里找大堂经理/跟我说说大堂经理在哪里/跟我说说怎么才能找到大堂经理/我没看到大堂经理/大堂经理一般在哪/通常大堂经理在哪/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我找一下大堂经理/大堂经理呢/大堂经理在哪里</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="593" sId="18">
+    <oc r="D5" t="inlineStr">
+      <is>
+        <r>
+          <t>你可以带我去柜台吗/带我去休息区/带我去贵金属展示区/带我去超级柜台/带我去智慧柜台/你</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>带我去柜台好不好/带我去自动取款机/你可以带我去一下吗</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D5" t="inlineStr">
+      <is>
+        <r>
+          <t>你可以带我去柜台吗/带我去休息区/带我去贵金属展示区/带我去超级柜台/带我去智慧柜台/你</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>带我去柜台好不好/带我去自动取款机/你可以带我去一下吗/那你带我去看看</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog194.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="594" sId="9" eol="1" ref="A29:XFD29" action="insertRow"/>
+  <rfmt sheetId="9" sqref="A29">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="595" sId="9">
+    <nc r="A29" t="inlineStr">
+      <is>
+        <t>常识</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="596" sId="9" xfDxf="1" dxf="1">
+    <nc r="B29" t="inlineStr">
+      <is>
+        <t>房产抵押贷款</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="9" sqref="B29" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" sqref="A29:XFD29" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="597" sId="9" xfDxf="1" dxf="1">
+    <nc r="C29" t="inlineStr">
+      <is>
+        <t>请与我行信贷部经理联系办理</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="598" sId="9">
+    <nc r="D29" t="inlineStr">
+      <is>
+        <t>房产抵押贷款/房产抵押贷款怎么办理/怎么办理房产抵押贷款/我想办理房产抵押贷款/我想知道房产抵押贷款怎么办理/我不知道房产抵押贷款怎么办理/告诉我房产抵押贷款怎么办理/办理房产抵押贷款/办理房产抵押贷款业务/我是来办理房产抵押贷款的</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog195.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="599" sId="9">
+    <oc r="B29" t="inlineStr">
+      <is>
+        <t>房产抵押贷款</t>
+      </is>
+    </oc>
+    <nc r="B29" t="inlineStr">
+      <is>
+        <t>房产抵押贷款</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="9" xfDxf="1" sqref="C29" start="0" length="0">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="600" sId="9">
+    <oc r="C29" t="inlineStr">
+      <is>
+        <t>请与我行信贷部经理联系办理</t>
+      </is>
+    </oc>
+    <nc r="C29" t="inlineStr">
+      <is>
+        <t>个人房产抵押贷款旨在为广大客户提供专业、方便、快捷的综合金融服务，贷款资金可广泛应用于生产经营、居家消费等多种用途。利率超低，手续简便，期限从1个月到10年不等。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="601" sId="9">
+    <oc r="D11" t="inlineStr">
+      <is>
+        <r>
+          <t>什么是密码/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="4"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>密码是什么/啥是密码/密码是啥/给我介绍一下密码/跟我说说密码/跟我说说什么是密码/跟我说说密码/介绍一下密码/密码</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D11" t="inlineStr">
+      <is>
+        <r>
+          <t>什么是密码/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="4"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>密码是什么/啥是密码/密码是啥/给我介绍一下密码/跟我说说密码/跟我说说什么是密码/跟我说说密码/介绍一下密码/密码</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="602" sId="9">
+    <oc r="D29" t="inlineStr">
+      <is>
+        <t>房产抵押贷款/房产抵押贷款怎么办理/怎么办理房产抵押贷款/我想办理房产抵押贷款/我想知道房产抵押贷款怎么办理/我不知道房产抵押贷款怎么办理/告诉我房产抵押贷款怎么办理/办理房产抵押贷款/办理房产抵押贷款业务/我是来办理房产抵押贷款的</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D29" t="inlineStr">
+      <is>
+        <t>房产抵押贷款/房产抵押贷款是什么意思/什么是房产抵押贷款/房产抵押贷款是什么/啥是房产抵押贷款/房产抵押贷款是啥/给我介绍一下房产抵押贷款/跟我说说房产抵押贷款/跟我说说什么是房产抵押贷款/跟我说说房产抵押贷款/介绍一下房产抵押贷款</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog196.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="603" sId="18">
+    <oc r="D6" t="inlineStr">
+      <is>
+        <t>信贷经理在哪儿？/我怎么没见信贷经理/信贷经理哪儿去了/帮我找一下信贷经理/快看看信贷经理在哪儿/带我去找信贷经理/你帮我联系一下信贷经理吗？/你能帮我联系一下信贷经理吗？/房贷经理在哪儿？/我怎么没见房贷经理/房贷经理哪儿去了/帮我找一下房贷经理/快看看房贷经理在哪儿/带我去找房贷经理/你帮我联系一下房贷经理吗？/你能帮我联系一下房贷经理吗？/装修贷经理在哪儿？/我怎么没见装修贷经理/装修贷经理哪儿去了/帮我找一下装修贷经理/快看看装修贷经理在哪儿/带我去找装修贷经理/你帮我联系一下装修贷经理吗？/你能帮我联系一下装修贷经理吗？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D6" t="inlineStr">
+      <is>
+        <r>
+          <t>信贷经理在哪儿？/我怎么没见信贷经理/信贷经理哪儿去了/帮我找一下信贷经理/快看看信贷经理在哪儿/带我去找信贷经理/你帮我联系一下信贷经理吗？/你能帮我联系一下信贷经理吗？/房贷经理在哪儿？/我怎么没见房贷经理/房贷经理哪儿去了/帮我找一下房贷经理/快看看房贷经理在哪儿/带我去找房贷经理/你帮我联系一下房贷经理吗？/你能帮我联系一下房贷经理吗？/装修贷经理在哪儿？/我怎么没见装修贷经理/装修贷经理哪儿去了/帮我找一下装修贷经理/快看看装修贷经理在哪儿/带我去找装修贷经理/你帮我联系一下装修贷经理吗？/你能帮我联系一下装修贷经理吗？</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFC00000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/装修贷款经理在哪儿？/我怎么没见装修贷款经理/装修贷款经理哪儿去了/帮我找一下装修贷款经理/快看看装修贷款经理在哪儿/带我去找装修贷款经理/你帮我联系一下装修贷款经理吗？/你能帮我联系一下装修贷款经理吗？/</t>
+        </r>
+        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -22798,7 +25406,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{EF605654-F361-4373-8330-7FC05EDE25FB}" name="lulu.wang(王路路)" id="-627575225" dateTime="2017-12-15T09:23:53"/>
   <userInfo guid="{774836FD-2F57-4018-AF24-E1EEC93C198C}" name="xin.zheng(郑新)" id="-383386899" dateTime="2017-12-22T10:45:14"/>
@@ -23092,11 +25700,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -23110,95 +25718,95 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="74.25" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>18</v>
+        <v>488</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="E2" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="83.25" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="E3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="71.25" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E4" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="59.25" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="49.5" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>20</v>
@@ -23207,192 +25815,208 @@
         <v>18</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E6" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="47.25" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="99.75" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>19</v>
+        <v>491</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E8" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="118.5" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>51</v>
+        <v>489</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="50.25" customHeight="1">
       <c r="A10" s="26" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>110</v>
+        <v>490</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="35.25" customHeight="1">
       <c r="A11" s="26" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45.75" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="53.25" customHeight="1">
       <c r="A13" s="26" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="65.25" customHeight="1">
       <c r="A14" s="26" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="112.5" customHeight="1">
       <c r="A15" s="26" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>191</v>
+        <v>492</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>324</v>
-      </c>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="108" customFormat="1" ht="60.75" customHeight="1">
+      <c r="A16" s="105" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="108" t="s">
+        <v>522</v>
+      </c>
+      <c r="C16" s="109" t="s">
+        <v>521</v>
+      </c>
+      <c r="D16" s="109" t="s">
+        <v>523</v>
+      </c>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:F15"/>
+  <autoFilter ref="B2:F16"/>
   <customSheetViews>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="B2:F15"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
       <autoFilter ref="B2:F15"/>
     </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
       <autoFilter ref="B1:H163"/>
     </customSheetView>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="B2:F15"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
       <autoFilter ref="B2:F15"/>
@@ -23408,8 +26032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23421,114 +26045,114 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" ht="175.5">
       <c r="A4" s="91" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="C4" s="93" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="D4" s="93" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="121.5">
       <c r="A5" s="91" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="C5" s="93" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="D5" s="93" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="148.5">
       <c r="A6" s="91" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="C6" s="93" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="D6" s="93" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A4">
-      <selection activeCell="C5" sqref="C5"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="C3" sqref="C3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
-      <selection activeCell="C3" sqref="C3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A4">
+      <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -23539,7 +26163,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -23555,43 +26179,43 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="56" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B1" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="72" customHeight="1">
       <c r="A2" s="56" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="45.75" customHeight="1">
       <c r="A3" s="56" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>21</v>
@@ -23600,155 +26224,190 @@
         <v>22</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="34.5" customHeight="1">
       <c r="A4" s="56" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="59.25" customHeight="1">
       <c r="A5" s="56" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="71.25" customHeight="1">
       <c r="A6" s="56" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="57" customHeight="1">
       <c r="A7" s="56" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1">
       <c r="A8" s="56" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="60.75" customHeight="1">
       <c r="A9" s="56" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="60" customHeight="1">
       <c r="A10" s="56" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="46.5" customHeight="1">
       <c r="A11" s="56" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
+    <row r="12" spans="1:6" ht="99.75">
+      <c r="A12" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="96" t="s">
+        <v>482</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>483</v>
+      </c>
+      <c r="D12" s="98" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25">
+      <c r="D13" s="98"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="D14" s="97"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="D15" s="97"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="D16" s="97"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="97"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="97"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="97"/>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="D5" sqref="D5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D9" sqref="D9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="D9" sqref="D9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="D5" sqref="D5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D9" sqref="D9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -23774,27 +26433,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
@@ -23803,14 +26462,14 @@
         <v>10</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="64.5" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
@@ -23819,14 +26478,14 @@
         <v>10</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="60" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -23835,14 +26494,14 @@
         <v>10</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="45.75" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -23851,14 +26510,14 @@
         <v>10</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>14</v>
@@ -23874,7 +26533,7 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>16</v>
@@ -23883,43 +26542,43 @@
         <v>10</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="83.25" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="C5" sqref="C5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="C5" sqref="C5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -23945,168 +26604,168 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="72" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="43.5" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="47.25" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="D8" sqref="D8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="B26" sqref="B26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="D8" sqref="D8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -24136,72 +26795,72 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="56" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B1" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="180" customHeight="1">
       <c r="A2" s="56" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="101.25" customHeight="1">
       <c r="A3" s="56" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="D5" sqref="D5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="D5" sqref="D5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -24228,120 +26887,120 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="56" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B1" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="57" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="74.25" customHeight="1">
       <c r="A2" s="56" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="67.5" customHeight="1">
       <c r="A3" s="56" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="47.25" customHeight="1">
       <c r="A4" s="56" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="83.25" customHeight="1">
       <c r="A5" s="56" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="99.75" customHeight="1">
       <c r="A6" s="56" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="E5" sqref="E5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="D15" sqref="D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="E5" sqref="E5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -24370,56 +27029,56 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="84" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="D2" sqref="D2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="B9" sqref="B9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="B9" sqref="B9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="D2" sqref="D2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="B9" sqref="B9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -24445,27 +27104,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="92.25" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>38</v>
@@ -24474,30 +27133,30 @@
         <v>39</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="D14" sqref="D13:D14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="B1" sqref="B1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -24510,8 +27169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -24523,92 +27182,92 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="96.75" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>307</v>
+        <v>530</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" ht="121.5">
       <c r="A3" s="26" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34.5" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:6" ht="69" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="34" customFormat="1" ht="175.5">
+    <row r="6" spans="1:6" s="34" customFormat="1" ht="229.5">
       <c r="A6" s="33" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>299</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -24619,23 +27278,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="D5" sqref="D5"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A4">
+      <selection activeCell="D3" sqref="D3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C3" sqref="C3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="A9" sqref="A9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A4">
-      <selection activeCell="D3" sqref="D3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C3" sqref="C3"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -24650,8 +27309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -24663,63 +27322,68 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="135">
       <c r="A2" s="91" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="C2" s="93" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="D2" s="93" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="54">
       <c r="A3" s="91" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="C3" s="93" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="D3" s="93" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="C23" sqref="C23"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="D13" sqref="D13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -24727,7 +27391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -24740,426 +27404,426 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="57" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="109.5" customHeight="1">
       <c r="A2" s="43" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="152.25" customHeight="1">
       <c r="A3" s="43" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="138" customHeight="1">
       <c r="A4" s="43" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="79.5" customHeight="1">
       <c r="A5" s="53" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="71.25" customHeight="1">
       <c r="A6" s="48" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="69.75" customHeight="1">
       <c r="A7" s="48" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="76.5" customHeight="1">
       <c r="A8" s="48" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="66" customHeight="1">
       <c r="A9" s="48" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C9" s="76" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="36.75" customHeight="1">
       <c r="A10" s="48" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="59.25" customHeight="1">
       <c r="A11" s="48" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C11" s="76" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="74.25" customHeight="1">
       <c r="A12" s="48" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="44.25" customHeight="1">
       <c r="A13" s="48" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="40.5" customHeight="1">
       <c r="A14" s="48" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="52.5" customHeight="1">
       <c r="A15" s="48" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="48" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C16" s="77" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="79.5" customHeight="1">
       <c r="A17" s="48" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F17"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="70.5" customHeight="1">
       <c r="A18" s="48" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="69" customHeight="1">
       <c r="A19" s="48" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A20" s="48" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" ht="108.75" customHeight="1">
       <c r="A21" s="48" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C21" s="78" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1" ht="67.5" customHeight="1">
       <c r="A22" s="48" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C22" s="77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="E22" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F22"/>
     </row>
     <row r="32" spans="1:6" ht="78.75">
       <c r="C32" s="74" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A19">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A10">
       <selection activeCell="D12" sqref="D12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
     </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D11" sqref="D11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+    </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="D26" sqref="D26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
-      <selection activeCell="D12" sqref="D12"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D11" sqref="D11"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A19">
+      <selection activeCell="D12" sqref="D12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
     </customSheetView>
@@ -25174,7 +27838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -25187,331 +27851,331 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="96" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="87" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="125.25" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="115.5" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="106.5" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="67.5" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="96.75" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="77.25" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="79.5" customHeight="1">
       <c r="A10" s="26" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="66.75" customHeight="1">
       <c r="A11" s="26" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="78.75" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="69.75" customHeight="1">
       <c r="A13" s="26" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="95.25" customHeight="1">
       <c r="A14" s="26" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="80.25" customHeight="1">
       <c r="A15" s="26" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="77.25" customHeight="1">
       <c r="A16" s="26" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="82.5" customHeight="1">
       <c r="A17" s="26" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="72" customHeight="1">
       <c r="A18" s="26" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="88.5" customHeight="1">
       <c r="A19" s="26" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A13">
       <selection activeCell="B18" sqref="B18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="B18" sqref="B18"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C13" sqref="C13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A13">
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="B18" sqref="B18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C13" sqref="C13"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="B18" sqref="B18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
     </customSheetView>
@@ -25526,8 +28190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -25540,33 +28204,33 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>33</v>
@@ -25576,13 +28240,13 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>34</v>
@@ -25592,45 +28256,45 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>31</v>
@@ -25640,13 +28304,13 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>32</v>
@@ -25656,135 +28320,135 @@
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A10" s="26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A11" s="26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A13" s="26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="48" customHeight="1">
       <c r="A16" s="26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>35</v>
@@ -25793,14 +28457,14 @@
         <v>36</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="127.5" customHeight="1">
       <c r="A17" s="26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>42</v>
@@ -25809,14 +28473,14 @@
         <v>43</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="35.25" customHeight="1">
       <c r="A18" s="26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>24</v>
@@ -25825,14 +28489,14 @@
         <v>25</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="38.25" customHeight="1">
       <c r="A19" s="26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>26</v>
@@ -25841,14 +28505,14 @@
         <v>25</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="37.5" customHeight="1">
       <c r="A20" s="26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>27</v>
@@ -25857,14 +28521,14 @@
         <v>28</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" ht="38.25" customHeight="1">
       <c r="A21" s="26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>29</v>
@@ -25873,43 +28537,43 @@
         <v>30</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1" ht="45" customHeight="1">
       <c r="A22" s="26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C22" s="70" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A22">
-      <selection activeCell="F8" sqref="F8"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="C22" sqref="C22"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D19" sqref="D19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="B13" sqref="B13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
-      <selection activeCell="C22" sqref="C22"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D19" sqref="D19"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A22">
+      <selection activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -25922,7 +28586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -25935,123 +28599,123 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="57" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="41.25" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>151</v>
+        <v>493</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="117.75" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>75</v>
+        <v>494</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="56.25" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="91.5" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="76.5" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A7">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
     </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C5" sqref="C5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+    </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="B9" sqref="B9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
-      <selection activeCell="B6" sqref="B6"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C5" sqref="C5"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A7">
+      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
     </customSheetView>
@@ -26067,88 +28731,88 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="3" width="57.125" customWidth="1"/>
+    <col min="3" max="3" width="57.125" style="39" customWidth="1"/>
     <col min="4" max="4" width="63.875" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="49.5" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>58</v>
+        <v>519</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>443</v>
+        <v>520</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="74.25" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>45</v>
+        <v>253</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>495</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="C22" sqref="C22"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="B8" sqref="B8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C10" sqref="C10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="A4" sqref="A4:XFD4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="C22" sqref="C22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C10" sqref="C10"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -26161,8 +28825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -26174,129 +28838,129 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="61.5" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="92.25" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="63.75" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>57</v>
+        <v>496</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="63.75" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="63.75" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>57</v>
+        <v>497</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="77.25" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>5</v>
@@ -26306,13 +28970,13 @@
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="81" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>7</v>
@@ -26322,391 +28986,391 @@
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="56.25" customHeight="1">
       <c r="A10" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="66" customHeight="1">
       <c r="A11" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="66.75" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="48.75" customHeight="1">
       <c r="A13" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1">
       <c r="A14" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A16" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="66.75" customHeight="1">
       <c r="A17" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A18" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="47.25" customHeight="1">
       <c r="A19" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="40.5" customHeight="1">
       <c r="A20" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" ht="51.75" customHeight="1">
       <c r="A21" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A22" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C22" s="66" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" ht="58.5" customHeight="1">
       <c r="A23" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1" ht="55.5" customHeight="1">
       <c r="A24" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" ht="52.5" customHeight="1">
       <c r="A25" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1" ht="66.75" customHeight="1">
       <c r="A26" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1" ht="51" customHeight="1">
       <c r="A27" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1" ht="74.25" customHeight="1">
       <c r="A28" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
     </row>
     <row r="29" spans="1:6" s="1" customFormat="1" ht="50.25" customHeight="1">
       <c r="A29" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C29" s="75" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A30" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
     </row>
     <row r="31" spans="1:6" s="25" customFormat="1" ht="72.75" customHeight="1">
       <c r="A31" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C31" s="69" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="1:6" s="1" customFormat="1" ht="62.25" customHeight="1">
       <c r="A32" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D32" s="73" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="B19">
-      <selection activeCell="D22" sqref="D22"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A28">
+      <selection activeCell="D32" sqref="D32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D4" sqref="D4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="B16" sqref="B16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A28">
-      <selection activeCell="D32" sqref="D32"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="B19">
+      <selection activeCell="D22" sqref="D22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D4" sqref="D4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -26732,88 +29396,88 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="74.25" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>77</v>
+        <v>498</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="84" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>177</v>
+        <v>499</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
       <selection activeCell="D2" sqref="D2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="D2" sqref="D2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -26824,10 +29488,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -26840,372 +29504,457 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="47.25" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="88.5" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="81.75" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="80.25" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>60</v>
+        <v>501</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="60.75" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="63.75" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="45" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="52.5" customHeight="1">
       <c r="A10" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="48" customHeight="1">
       <c r="A11" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>345</v>
+        <v>534</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:6" ht="81">
       <c r="A12" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="67.5">
       <c r="A13" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="40.5">
       <c r="A14" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B14" s="80" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="C14" s="82" t="s">
+        <v>505</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="40.5">
+      <c r="A15" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="80" t="s">
         <v>453</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="27">
-      <c r="A15" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" s="80" t="s">
-        <v>468</v>
-      </c>
       <c r="C15" s="28" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="42.75">
       <c r="A16" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="40.5">
       <c r="A17" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="C17" s="87" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27">
       <c r="A18" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B18" s="84" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="48" customHeight="1">
       <c r="A19" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B19" s="85" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="74.25" customHeight="1">
       <c r="A20" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B20" s="85" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="C20" s="86" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>477</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="121.5">
       <c r="A21" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="C21" s="89" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D21" s="90" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="94" customFormat="1" ht="108">
       <c r="A22" s="91" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B22" s="92" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="C22" s="93" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="D22" s="93" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.25">
-      <c r="A23" s="91"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
+    <row r="23" spans="1:4" ht="81">
+      <c r="A23" s="100" t="s">
+        <v>485</v>
+      </c>
+      <c r="B23" s="101" t="s">
+        <v>486</v>
+      </c>
+      <c r="C23" s="102" t="s">
+        <v>487</v>
+      </c>
+      <c r="D23" s="102" t="s">
+        <v>526</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" ht="14.25">
-      <c r="A24" s="91"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
+    <row r="24" spans="1:4" ht="94.5">
+      <c r="A24" s="105" t="s">
+        <v>507</v>
+      </c>
+      <c r="B24" s="103" t="s">
+        <v>508</v>
+      </c>
+      <c r="C24" s="104" t="s">
+        <v>506</v>
+      </c>
+      <c r="D24" s="104" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="81">
+      <c r="A25" s="105" t="s">
+        <v>507</v>
+      </c>
+      <c r="B25" s="106" t="s">
+        <v>515</v>
+      </c>
+      <c r="C25" s="106" t="s">
+        <v>509</v>
+      </c>
+      <c r="D25" s="107" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="67.5">
+      <c r="A26" s="105" t="s">
+        <v>507</v>
+      </c>
+      <c r="B26" s="106" t="s">
+        <v>510</v>
+      </c>
+      <c r="C26" s="106" t="s">
+        <v>511</v>
+      </c>
+      <c r="D26" s="107" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="67.5">
+      <c r="A27" s="105" t="s">
+        <v>507</v>
+      </c>
+      <c r="B27" s="106" t="s">
+        <v>512</v>
+      </c>
+      <c r="C27" s="106" t="s">
+        <v>513</v>
+      </c>
+      <c r="D27" s="107" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="110" customFormat="1" ht="40.5">
+      <c r="A28" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" s="110" t="s">
+        <v>527</v>
+      </c>
+      <c r="C28" s="110" t="s">
+        <v>528</v>
+      </c>
+      <c r="D28" s="107" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="106" customFormat="1" ht="67.5">
+      <c r="A29" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" s="106" t="s">
+        <v>532</v>
+      </c>
+      <c r="C29" s="106" t="s">
+        <v>533</v>
+      </c>
+      <c r="D29" s="107" t="s">
+        <v>535</v>
+      </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection sqref="A1:XFD1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="D4" sqref="D4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A7">
-      <selection activeCell="D9" sqref="D9"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A25">
+      <selection activeCell="C21" sqref="C21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" topLeftCell="A10">
       <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="D4" sqref="D4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection sqref="A1:XFD1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+    </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/update_data/data/bank_psbc/qa/业务问答.xlsx
+++ b/update_data/data/bank_psbc/qa/业务问答.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="5025" windowWidth="19440" windowHeight="6915" tabRatio="941" activeTab="18"/>
+    <workbookView xWindow="15" yWindow="5025" windowWidth="19440" windowHeight="6915" tabRatio="941" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="手机银行" sheetId="1" r:id="rId1"/>
@@ -39,16 +39,16 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" tabRatio="941" activeSheetId="9"/>
+    <customWorkbookView name="ling.tian(田玲) - 个人视图" guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="603" tabRatio="941" activeSheetId="17"/>
+    <customWorkbookView name="hongru.chu(褚宏茹) - 个人视图" guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="781" tabRatio="941" activeSheetId="19"/>
     <customWorkbookView name="mengwei.chang(常孟玮) - 个人视图" guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="525" tabRatio="941" activeSheetId="18"/>
-    <customWorkbookView name="hongru.chu(褚宏茹) - 个人视图" guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="781" tabRatio="941" activeSheetId="19"/>
-    <customWorkbookView name="ling.tian(田玲) - 个人视图" guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="603" tabRatio="941" activeSheetId="17"/>
-    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" tabRatio="941" activeSheetId="9"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="565">
   <si>
     <t>取号怎么网上预约？</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1674,23 +1674,6 @@
   </si>
   <si>
     <r>
-      <t>什么是储蓄卡/什么是借记卡？/什么是银行卡/给我介绍一下银行卡/给我介绍一下储蓄卡/给我介绍一下借记卡/借记卡是什么？/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>跟我说一下什么是银行卡/银行卡是什么/银行卡是啥/啥是银行卡/跟我说说什么是银行卡/跟我说说银行卡是什么/介绍一下银行卡/</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>开通电话银行要钱么？</t>
     </r>
     <r>
@@ -3732,7 +3715,95 @@
   </si>
   <si>
     <r>
-      <t>什么是密码/</t>
+      <t>信贷经理在哪儿？/我怎么没见信贷经理/信贷经理哪儿去了/帮我找一下信贷经理/快看看信贷经理在哪儿/带我去找信贷经理/你帮我联系一下信贷经理吗？/你能帮我联系一下信贷经理吗？/房贷经理在哪儿？/我怎么没见房贷经理/房贷经理哪儿去了/帮我找一下房贷经理/快看看房贷经理在哪儿/带我去找房贷经理/你帮我联系一下房贷经理吗？/你能帮我联系一下房贷经理吗？/装修贷经理在哪儿？/我怎么没见装修贷经理/装修贷经理哪儿去了/帮我找一下装修贷经理/快看看装修贷经理在哪儿/带我去找装修贷经理/你帮我联系一下装修贷经理吗？/你能帮我联系一下装修贷经理吗？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/装修贷款经理在哪儿？/我怎么没见装修贷款经理/装修贷款经理哪儿去了/帮我找一下装修贷款经理/快看看装修贷款经理在哪儿/带我去找装修贷款经理/你帮我联系一下装修贷款经理吗？/你能帮我联系一下装修贷款经理吗？/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么办理定期存款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么办理定期存款/我要办理定期存款/我想办理定期存款/我是来办理定期存款的/定期存款/我要办定期存款/我想办定期存款/办定期存款/今天我是来办定期存款的/告诉我怎么办理定期存款/告诉我定期存款怎么办/跟我说说定期存款怎么办/跟我说说怎么办定期存款/定期存款要怎么办理/教教我定期存款怎么办理/跟我说一下定期存款是怎么办理的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>定期利率是多少/告诉他一年的定期利率是多少/告诉我定期利率/告诉我定期利率是多少/定期利率/三个月定期利率是多少/半年的定期利率是多少/两年定期利率是多少/三年定期利率是多少/五年定期利率是多少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/一年的定期利息是多少呀/定期存款的利率三个月的/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现在存三年的利率是多少的呀/一年期的利率是多少啊</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费贷款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费贷款/什么是消费贷款/消费贷款是什么/啥是消费贷款/消费贷款是啥/告诉我什么是消费贷款/给我介绍一下消费贷款/跟我说说消费贷款/跟我说说什么是消费贷款/跟我说说消费贷款/介绍一下消费贷款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>存款有礼品吗/存款有礼物吗/存款有哪些礼物/存款有哪些礼品/存款有什么礼品/存款的礼品有哪些/存款可以领礼品吗/听说存款有礼物/存款送礼物吗/存钱有礼物吗/存钱送礼物吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/听说存钱有礼物/存钱有礼品吗/存钱有哪些礼物/存钱送东西吗/存钱有哪些礼品/存钱有东西送吗/存钱会送东西吗/存钱有什么礼品吗/存钱可以拿到礼物吗/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你们存钱有什么活动吗/还有一些礼品</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>贵金属/贵金属怎么算？/贵金属是什么？/贵金属是怎么一回事？/贵金属推荐/贵金属理财/贵金属有什么呀/介绍一下贵金属/给我推荐一下贵金属/我想买点贵金属理财</t>
     </r>
     <r>
       <rPr>
@@ -3743,13 +3814,69 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>密码是什么/啥是密码/密码是啥/给我介绍一下密码/跟我说说密码/跟我说说什么是密码/跟我说说密码/介绍一下密码/密码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>信贷经理在哪儿？/我怎么没见信贷经理/信贷经理哪儿去了/帮我找一下信贷经理/快看看信贷经理在哪儿/带我去找信贷经理/你帮我联系一下信贷经理吗？/你能帮我联系一下信贷经理吗？/房贷经理在哪儿？/我怎么没见房贷经理/房贷经理哪儿去了/帮我找一下房贷经理/快看看房贷经理在哪儿/带我去找房贷经理/你帮我联系一下房贷经理吗？/你能帮我联系一下房贷经理吗？/装修贷经理在哪儿？/我怎么没见装修贷经理/装修贷经理哪儿去了/帮我找一下装修贷经理/快看看装修贷经理在哪儿/带我去找装修贷经理/你帮我联系一下装修贷经理吗？/你能帮我联系一下装修贷经理吗？</t>
+      <t>/什么是贵金属/贵金属都有哪些/哪些是贵金属/贵金属/介绍一下贵金属/我不知道什么是贵金属/告诉我什么是贵金属/跟我说说贵金属/跟我说说什么是贵金属/跟我介绍一下贵金属/说说贵金属/说一下什么是贵金属/我要买贵金属啊</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房产抵押贷款/房产抵押贷款是什么意思/什么是房产抵押贷款/房产抵押贷款是什么/啥是房产抵押贷款/房产抵押贷款是啥/给我介绍一下房产抵押贷款/跟我说说房产抵押贷款/跟我说说什么是房产抵押贷款/跟我说说房产抵押贷款/介绍一下房产抵押贷款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号是多少啊/你们有公众号吗/银行公众号/银行微信号/银行公众号是什么/银行微信号是什么/邮储银行公众号是什么/公众号/官方微信/那我想获取邮政储蓄银行的公众号码</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以缴水电费吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以缴水电费吗/这里可以缴水电费吗/能缴水电费吗/能不能缴水电费/我能在这里缴水电费吗/能不能交水电费啊/收不收水电费呀/告诉我这能缴水电费吗/我在这能缴水电费吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手机银行能做什么？/我能用手机银行做什么？/手机银行能提供哪些服务？/手机银行能做哪些事?/手机银行能帮我做什么？/我为什么要用手机银行？/手机银行有什么好处？/介绍一下手机银行/跟我说一下手机银行/推销一下手机银行/手机银行有什么功能？/手机银行能提供什么服务？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/为什么要开通手机银行/手机银行可以干什么/手机银行有什么用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/手机银行有什么用途/手机银行能干吗/手机银行是干嘛的/手机银行有啥用/手机银行的用途/手机银行的作用/手机银行有什么作用/手机银行还可以买理财/手机银行还可以查余额呀</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要找理财经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要找理财经理/找理财经理/我想找理财经理/理财经理/我找理财经理/我们这边有没有理财经理啊/有没有理财经理/你们银行有没有理财经理/这儿有理财经理吗/理财经理有没有/我想知道这里有没有理财经理/告诉我这里有没有理财经理/跟我说说有没有理财经理/理财经理有吗/理财经理这里有吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以交话费吗/这里可以交话费吗/能交话费吗/能不能交话费/我能在这里交话费吗/能不能交话费啊/能不能充话费呀/告诉我这能交话费吗/我在这能交话费吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>银行有什么活动啊/最近有什么活动/银行活动/最近银行有哪些活动/银行有什么活动啊/给我介绍一下银行的的活动吧/介绍一下银行的优惠活动/银行有什么活动/最近银行有什么活动？/跟我说说银行有什么活动/跟我说说最近银行有什么活动/最近银行的活动有哪些/最近银行的活动有什么/银行最近有什么活动/银行的活动有哪些/跟我说说银行最近的活动有哪些/跟我说说最近银行有哪些活动/告诉我银行活动有哪些/告诉我有什么银行活动/告诉我银行最近有哪些活动/</t>
     </r>
     <r>
       <rPr>
@@ -3760,32 +3887,281 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/装修贷款经理在哪儿？/我怎么没见装修贷款经理/装修贷款经理哪儿去了/帮我找一下装修贷款经理/快看看装修贷款经理在哪儿/带我去找装修贷款经理/你帮我联系一下装修贷款经理吗？/你能帮我联系一下装修贷款经理吗？/</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么办理定期存款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么办理定期存款/我要办理定期存款/我想办理定期存款/我是来办理定期存款的/定期存款/我要办定期存款/我想办定期存款/办定期存款/今天我是来办定期存款的/告诉我怎么办理定期存款/告诉我定期存款怎么办/跟我说说定期存款怎么办/跟我说说怎么办定期存款/定期存款要怎么办理/教教我定期存款怎么办理/跟我说一下定期存款是怎么办理的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>定期利率是多少/告诉他一年的定期利率是多少/告诉我定期利率/告诉我定期利率是多少/定期利率/三个月定期利率是多少/半年的定期利率是多少/两年定期利率是多少/三年定期利率是多少/五年定期利率是多少</t>
+      <t>有什么活动</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以交话费吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行用户可以通过与网上银行享受账户查询、转账汇款、缴费支付、信用卡、个人贷款等综合性个人银行服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">目前开通网上银行暂不收费，请您放心使用~
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零存整取的存期有一年、三年和五年。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零存整取是一种事先约定金额，逐月按约定金额存入，到期一次支取本息的一种定期储蓄存款。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描二维码下载手机银行，选择“网点预约”，就可办理网点预约取号。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储蓄卡是银行为储户提供的一种金融交易卡，属于借记卡。它可以在ATM机和银行柜台存款、取款及在联网的POS上进行消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定活两便是指您在存款时不约定存期，银行根据您存款的实际存期按规定计息，可随时一次性支取的一种个人存款。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存款有礼品哦，存款额度不同，礼品不同，具体可以咨询大堂经理。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>储储还没有学习这项业务，您可以咨询一下大堂经理。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老金保险是为了保障老年人的基本生活需求，为其提供稳定可靠的生活来源。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮储银行是中国领先的大型零售银行，定位于服务社区，服务中小型企业，服务三农，致力于为中国经济转型中最具活力的客户群体提供服务。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>您可以找银行主管或者大堂经理办理兑换礼品。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>您可以询问大堂经理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很抱歉，邮储银行暂时没有邮票。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前邮储银行活期利率百分之零点三，供您参考，具体利率请以银行公告为准。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们银行的定期利率特别高，土豪赶快存定期。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情请咨询大堂经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中邮人寿保险股份有限公司是由中国邮政集团公司与各省、区、市邮政公司共同出资设立的国有全资寿险公司。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>您可以到取号机哥哥那里取号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您要带上身份证和社保卡去当地的社保部门进行查询。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储储的小脑袋里目前没有十年期的存款业务，您可以咨询一下大堂经理哦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您可以通过手机银行、自助设备缴纳罚单，或者带上身份证填单取号到柜台办理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您需要协带本人身份证和存单，取号到柜台办理；如果代理人办理，还要携带双方身份证和存单。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们有活期存款利率和定期存款利率，您想知道哪一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人房产抵押贷款旨在为广大客户提供专业、方便、快捷的综合金融服务，贷款资金可广泛应用于生产经营、居家消费等多种用途。利率超低，手续简便，期限从1个月到10年不等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人办理需带身份证填单取号到柜台办理，代理人办理需带上双方身份证填单取号到柜台办理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们的消费贷款有好多类型，您可以联系信贷经理详细了解。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只可以代扣，不可以缴纳，代扣需要办理银行卡（不收现金，银行卡可代缴）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您可以通过邮储银行的手机银行进行话费充值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请找我们的理财经理，他会为您详细介绍哦，或者您可以通过柜台，手机银行，网上银行进行购买哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金的基本业务包括基金业务加办、认购、申购、赎回、撤单、资料变更、基金转换、基金转托管、基金TA账户销户、基金业务撤办。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍一下保险吧</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们银行有多种理财，收益高，风险小，理财经理和大堂经理会为您详细介绍哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵金属种类比较多，需要您详细地描述您想了解的内容，如账户贵金属、如意金积存、积存金、代理实物贵金属等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微黄金交易价格实行一日一价或一日多价。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们银行有黄金贵金属展示区，我可以带您去看看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在网上银行就可办理，如果您看涨，就选择“全部-贵金属.外汇-贵金属-账户贵金属-先买入后卖出”，看跌就先卖出后买入。您也可以通过手机银行等渠道办理哦~ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户贵金属业务是指您使用人民币或美元来买卖贵金属份额的投资交易产品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">账户黄金可在营业网点按照报价转换为品牌黄金并提取实物，但其余账户贵金属产品不可提取实物贵金属奥。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您按照我行交易报价进行账户贵金属买卖交易，我行不收取手续费哒~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金价走势不定。您可以登录网上银行，查询黄金价格啦~您也可以通过手机银行、微信等渠道查询。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故宫旺旺黄金压岁钱，有幸运、健康的寓意，您可以找理财经理购买。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上银行是通过互联网提供金融服务的一种渠道。您可使用网银办理账户查询、转账汇款、投资理财、在线支付等业务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前开通网上银行暂不收费，请您放心使用~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效身份证件包括：身份证、临时身份证、户口簿、军官证、士兵证、警官证、护照、边民出入境通行证等原件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储蓄账户暂不支持户名查询。如有需要，请持有效身份证件以及卡片到网点咨询。如是信用卡，请拨打信用卡专线详询。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨打银行官方的客服电话，根据语音提示操作可以查询到。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话银行可以提供自助和人工等多功能金融服务。您可以通过电话银行办理账户信息查询、转账汇款、业务咨询等业务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>您开立</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
+        <sz val="9"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/一年的定期利息是多少呀/定期存款的利率三个月的/</t>
+      <t>积存金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>账户后，以定期积存或主动积存的方式，固定克数或固定金额地购入黄金产品。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信银行为您提供7x24小时的金融服务；为您提供绑定储蓄账户和信用卡，账户查询、信用卡账单查询等精彩服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我帮您呼叫大堂经理。大堂经理，大堂经理，大堂经理，您的上帝在我这儿等您来服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常抱歉，没有身份证无法办理激活银行卡业务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补办挂失存折到柜台办理吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补办挂失存折到柜台办理吗？/补办挂失存折是去柜台办理吗/挂失补办存折到柜台办理可以吗/我能不能去柜台办理挂失补办存折业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储储不能离开自己的工作岗位，我可以帮您呼叫大堂经理来帮您的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我帮您呼叫信贷经理。信贷经理，信贷经理，您的上帝在我这儿等您来服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请您将存折打印的页面向上，插入最上面的长条口子；然后，根据提示完成取款操作，取出现金后，机器会自动打印存折，并自动退出存折，取款完成。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>介绍一下邮储银行/邮储银行是啥/给我介绍一下邮储银行/介绍一下你们银行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/中国邮政储蓄银行/介绍一下中国邮政储蓄银行/给我介绍一下中国邮政储蓄银行/</t>
     </r>
     <r>
       <rPr>
@@ -3796,31 +4172,41 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>现在存三年的利率是多少的呀/一年期的利率是多少啊</t>
+      <t>邮政银行/中国邮政储蓄银行/邮政储蓄银行</t>
     </r>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>消费贷款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费贷款/什么是消费贷款/消费贷款是什么/啥是消费贷款/消费贷款是啥/告诉我什么是消费贷款/给我介绍一下消费贷款/跟我说说消费贷款/跟我说说什么是消费贷款/跟我说说消费贷款/介绍一下消费贷款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>存款有礼品吗/存款有礼物吗/存款有哪些礼物/存款有哪些礼品/存款有什么礼品/存款的礼品有哪些/存款可以领礼品吗/听说存款有礼物/存款送礼物吗/存钱有礼物吗/存钱送礼物吗</t>
+    <r>
+      <t>大堂经理在哪儿？/我怎么没见大堂经理/大堂经理哪儿去了/帮我找一下大堂经理/快看看大堂经理在哪儿/带我去找大堂经理</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
+        <color theme="3" tint="0.39997558519241921"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/听说存钱有礼物/存钱有礼品吗/存钱有哪些礼物/存钱送东西吗/存钱有哪些礼品/存钱有东西送吗/存钱会送东西吗/存钱有什么礼品吗/存钱可以拿到礼物吗/</t>
+      <t>/大堂经理上哪了/我怎么没看见大堂经理/我去哪找大堂经理/我没找到大堂经理/我不知道大堂经理在哪/我不知道去哪找大堂经理/我找不到大堂经理/告诉我大堂经理在哪/告诉我怎么找大堂经理/告诉我去哪里找大堂经理/跟我说说大堂经理在哪里/跟我说说怎么才能找到大堂经理/我没看到大堂经理/大堂经理一般在哪/通常大堂经理在哪/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我找一下大堂经理/大堂经理呢/大堂经理在哪里/找大堂经理姐姐/大堂经理/你不就是大堂经理吗/你告诉我谁是大堂经理/让我去找大堂经理/大堂经理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你可以带我去柜台吗/带我去休息区/带我去贵金属展示区/带我去超级柜台/带我去智慧柜台/你</t>
     </r>
     <r>
       <rPr>
@@ -3831,13 +4217,46 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>你们存钱有什么活动吗/还有一些礼品</t>
-    </r>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>贵金属/贵金属怎么算？/贵金属是什么？/贵金属是怎么一回事？/贵金属推荐/贵金属理财/贵金属有什么呀/介绍一下贵金属/给我推荐一下贵金属/我想买点贵金属理财</t>
+      <t>带我去柜台好不好/带我去自动取款机/你可以带我去一下吗/那你带我去看看/我需要你带我去找理财经理/你能带我去吗/请到柜台/我要去现金柜台/你可以带我去吗/那你带我去办理好吗/我要去理财经理室/去养老保险窗口/休息区在哪/你能不能带我去啊/叫号机在哪里/我想去休息区/理财中心/活动中心</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你帮我叫个号/你能帮我叫个号吗/帮我叫个号好吗/你能不能帮我叫个号/快去帮我叫个号/给我叫个号/帮我叫个号好不好/可以帮我叫个号吗/叫号/叫个号/帮我叫个号吧/去给我叫个号/帮我叫个号行不行/你会叫号吗/你能叫号吗/你可以叫号吗/我想让你帮我叫个号/我想让你叫号/你帮我叫号可以吗/你帮我叫号行吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/如何取号/我要取号/帮我叫个号可以吗/我取号/取个号/我想取一个号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小额贷款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向农户或微小企业主发放的用于满足其生产经营资金需求的小额贷款。产品最高授信额度20万元，授信期限最长24个月，还款方式灵活多样。同时，推出“按时还款激励”政策。若您每月按时还款，一年最多可享受两次免息优惠。</t>
+  </si>
+  <si>
+    <t>如您通过ATM机办理跨行转账一律24小时后到账，建议您25小时后查询入账情况.</t>
+  </si>
+  <si>
+    <t>营业执照正、副本。经办人身份证、单位公章、财务章、法人章，开户许可证及经办人证件</t>
+  </si>
+  <si>
+    <t>什么是小额贷款/小额贷款是什么/啥是小额贷款/小额贷款是啥/给我介绍一下小额贷款/跟我说说小额贷款/跟我说说什么是小额贷款/跟我说说小额贷款/介绍一下小额贷款/小额贷款</t>
+  </si>
+  <si>
+    <r>
+      <t>什么是储蓄卡/什么是借记卡？/什么是银行卡/给我介绍一下银行卡/给我介绍一下储蓄卡/给我介绍一下借记卡/借记卡是什么？/</t>
     </r>
     <r>
       <rPr>
@@ -3848,429 +4267,42 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/什么是贵金属/贵金属都有哪些/哪些是贵金属/贵金属/介绍一下贵金属/我不知道什么是贵金属/告诉我什么是贵金属/跟我说说贵金属/跟我说说什么是贵金属/跟我介绍一下贵金属/说说贵金属/说一下什么是贵金属/我要买贵金属啊</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房产抵押贷款/房产抵押贷款是什么意思/什么是房产抵押贷款/房产抵押贷款是什么/啥是房产抵押贷款/房产抵押贷款是啥/给我介绍一下房产抵押贷款/跟我说说房产抵押贷款/跟我说说什么是房产抵押贷款/跟我说说房产抵押贷款/介绍一下房产抵押贷款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>大堂经理在哪儿？/我怎么没见大堂经理/大堂经理哪儿去了/帮我找一下大堂经理/快看看大堂经理在哪儿/带我去找大堂经理</t>
+      <t>跟我说一下什么是银行卡/银行卡是什么/银行卡是啥/啥是银行卡/跟我说说什么是银行卡/跟我说说银行卡是什么/介绍一下银行卡/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>什么是密码/</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="4"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/大堂经理上哪了/我怎么没看见大堂经理/我去哪找大堂经理/我没找到大堂经理/我不知道大堂经理在哪/我不知道去哪找大堂经理/我找不到大堂经理/告诉我大堂经理在哪/告诉我怎么找大堂经理/告诉我去哪里找大堂经理/跟我说说大堂经理在哪里/跟我说说怎么才能找到大堂经理/我没看到大堂经理/大堂经理一般在哪/通常大堂经理在哪/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>我找一下大堂经理/大堂经理呢/大堂经理在哪里/找大堂经理姐姐/大堂经理/你不就是大堂经理吗/</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号是多少啊/你们有公众号吗/银行公众号/银行微信号/银行公众号是什么/银行微信号是什么/邮储银行公众号是什么/公众号/官方微信/那我想获取邮政储蓄银行的公众号码</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>介绍一下邮储银行/邮储银行是啥/给我介绍一下邮储银行/介绍一下你们银行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/中国邮政储蓄银行/介绍一下中国邮政储蓄银行/给我介绍一下中国邮政储蓄银行/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>邮政银行/中国邮政储蓄银行</t>
-    </r>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以缴水电费吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以缴水电费吗/这里可以缴水电费吗/能缴水电费吗/能不能缴水电费/我能在这里缴水电费吗/能不能交水电费啊/收不收水电费呀/告诉我这能缴水电费吗/我在这能缴水电费吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>手机银行能做什么？/我能用手机银行做什么？/手机银行能提供哪些服务？/手机银行能做哪些事?/手机银行能帮我做什么？/我为什么要用手机银行？/手机银行有什么好处？/介绍一下手机银行/跟我说一下手机银行/推销一下手机银行/手机银行有什么功能？/手机银行能提供什么服务？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/为什么要开通手机银行/手机银行可以干什么/手机银行有什么用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/手机银行有什么用途/手机银行能干吗/手机银行是干嘛的/手机银行有啥用/手机银行的用途/手机银行的作用/手机银行有什么作用/手机银行还可以买理财/手机银行还可以查余额呀</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要找理财经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要找理财经理/找理财经理/我想找理财经理/理财经理/我找理财经理/我们这边有没有理财经理啊/有没有理财经理/你们银行有没有理财经理/这儿有理财经理吗/理财经理有没有/我想知道这里有没有理财经理/告诉我这里有没有理财经理/跟我说说有没有理财经理/理财经理有吗/理财经理这里有吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你可以带我去柜台吗/带我去休息区/带我去贵金属展示区/带我去超级柜台/带我去智慧柜台/你</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>带我去柜台好不好/带我去自动取款机/你可以带我去一下吗/那你带我去看看/我需要你带我去找理财经理/你能带我去吗/请到柜台/我要去现金柜台/你可以带我去吗/那你带我去办理好吗/我要去理财经理室/去养老保险窗口/休息区在哪/你能不能带我去啊/叫号机在哪里</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以交话费吗/这里可以交话费吗/能交话费吗/能不能交话费/我能在这里交话费吗/能不能交话费啊/能不能充话费呀/告诉我这能交话费吗/我在这能交话费吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>银行有什么活动啊/最近有什么活动/银行活动/最近银行有哪些活动/银行有什么活动啊/给我介绍一下银行的的活动吧/介绍一下银行的优惠活动/银行有什么活动/最近银行有什么活动？/跟我说说银行有什么活动/跟我说说最近银行有什么活动/最近银行的活动有哪些/最近银行的活动有什么/银行最近有什么活动/银行的活动有哪些/跟我说说银行最近的活动有哪些/跟我说说最近银行有哪些活动/告诉我银行活动有哪些/告诉我有什么银行活动/告诉我银行最近有哪些活动/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>有什么活动</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以交话费吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你帮我叫个号/你能帮我叫个号吗/帮我叫个号好吗/你能不能帮我叫个号/快去帮我叫个号/给我叫个号/帮我叫个号好不好/可以帮我叫个号吗/叫号/叫个号/帮我叫个号吧/去给我叫个号/帮我叫个号行不行/你会叫号吗/你能叫号吗/你可以叫号吗/我想让你帮我叫个号/我想让你叫号/你帮我叫号可以吗/你帮我叫号行吗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/如何取号/我要取号/帮我叫个号可以吗/我取号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行用户可以通过与网上银行享受账户查询、转账汇款、缴费支付、信用卡、个人贷款等综合性个人银行服务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">目前开通网上银行暂不收费，请您放心使用~
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零存整取的存期有一年、三年和五年。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零存整取是一种事先约定金额，逐月按约定金额存入，到期一次支取本息的一种定期储蓄存款。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫描二维码下载手机银行，选择“网点预约”，就可办理网点预约取号。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储蓄卡是银行为储户提供的一种金融交易卡，属于借记卡。它可以在ATM机和银行柜台存款、取款及在联网的POS上进行消费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定活两便是指您在存款时不约定存期，银行根据您存款的实际存期按规定计息，可随时一次性支取的一种个人存款。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存款有礼品哦，存款额度不同，礼品不同，具体可以咨询大堂经理。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>储储还没有学习这项业务，您可以咨询一下大堂经理。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>养老金保险是为了保障老年人的基本生活需求，为其提供稳定可靠的生活来源。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮储银行是中国领先的大型零售银行，定位于服务社区，服务中小型企业，服务三农，致力于为中国经济转型中最具活力的客户群体提供服务。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>您可以找银行主管或者大堂经理办理兑换礼品。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>您可以询问大堂经理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很抱歉，邮储银行暂时没有邮票。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前邮储银行活期利率百分之零点三，供您参考，具体利率请以银行公告为准。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们银行的定期利率特别高，土豪赶快存定期。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>详情请咨询大堂经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中邮人寿保险股份有限公司是由中国邮政集团公司与各省、区、市邮政公司共同出资设立的国有全资寿险公司。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>您可以到取号机哥哥那里取号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您要带上身份证和社保卡去当地的社保部门进行查询。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储储的小脑袋里目前没有十年期的存款业务，您可以咨询一下大堂经理哦！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您可以通过手机银行、自助设备缴纳罚单，或者带上身份证填单取号到柜台办理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您需要协带本人身份证和存单，取号到柜台办理；如果代理人办理，还要携带双方身份证和存单。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们有活期存款利率和定期存款利率，您想知道哪一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人房产抵押贷款旨在为广大客户提供专业、方便、快捷的综合金融服务，贷款资金可广泛应用于生产经营、居家消费等多种用途。利率超低，手续简便，期限从1个月到10年不等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本人办理需带身份证填单取号到柜台办理，代理人办理需带上双方身份证填单取号到柜台办理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们的消费贷款有好多类型，您可以联系信贷经理详细了解。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只可以代扣，不可以缴纳，代扣需要办理银行卡（不收现金，银行卡可代缴）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您可以通过邮储银行的手机银行进行话费充值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请找我们的理财经理，他会为您详细介绍哦，或者您可以通过柜台，手机银行，网上银行进行购买哦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金的基本业务包括基金业务加办、认购、申购、赎回、撤单、资料变更、基金转换、基金转托管、基金TA账户销户、基金业务撤办。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍一下保险吧</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们银行有多种理财，收益高，风险小，理财经理和大堂经理会为您详细介绍哦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵金属种类比较多，需要您详细地描述您想了解的内容，如账户贵金属、如意金积存、积存金、代理实物贵金属等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微黄金交易价格实行一日一价或一日多价。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们银行有黄金贵金属展示区，我可以带您去看看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">在网上银行就可办理，如果您看涨，就选择“全部-贵金属.外汇-贵金属-账户贵金属-先买入后卖出”，看跌就先卖出后买入。您也可以通过手机银行等渠道办理哦~ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户贵金属业务是指您使用人民币或美元来买卖贵金属份额的投资交易产品。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">账户黄金可在营业网点按照报价转换为品牌黄金并提取实物，但其余账户贵金属产品不可提取实物贵金属奥。
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您按照我行交易报价进行账户贵金属买卖交易，我行不收取手续费哒~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金价走势不定。您可以登录网上银行，查询黄金价格啦~您也可以通过手机银行、微信等渠道查询。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故宫旺旺黄金压岁钱，有幸运、健康的寓意，您可以找理财经理购买。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>网上银行是通过互联网提供金融服务的一种渠道。您可使用网银办理账户查询、转账汇款、投资理财、在线支付等业务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前开通网上银行暂不收费，请您放心使用~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效身份证件包括：身份证、临时身份证、户口簿、军官证、士兵证、警官证、护照、边民出入境通行证等原件。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储蓄账户暂不支持户名查询。如有需要，请持有效身份证件以及卡片到网点咨询。如是信用卡，请拨打信用卡专线详询。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拨打银行官方的客服电话，根据语音提示操作可以查询到。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话银行可以提供自助和人工等多功能金融服务。您可以通过电话银行办理账户信息查询、转账汇款、业务咨询等业务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>您开立</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>积存金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>账户后，以定期积存或主动积存的方式，固定克数或固定金额地购入黄金产品。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信银行为您提供7x24小时的金融服务；为您提供绑定储蓄账户和信用卡，账户查询、信用卡账单查询等精彩服务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我帮您呼叫大堂经理。大堂经理，大堂经理，大堂经理，您的上帝在我这儿等您来服务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非常抱歉，没有身份证无法办理激活银行卡业务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补办挂失存折到柜台办理吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补办挂失存折到柜台办理吗？/补办挂失存折是去柜台办理吗/挂失补办存折到柜台办理可以吗/我能不能去柜台办理挂失补办存折业务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储储不能离开自己的工作岗位，我可以帮您呼叫大堂经理来帮您的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我帮您呼叫信贷经理。信贷经理，信贷经理，您的上帝在我这儿等您来服务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请您将存折打印的页面向上，插入最上面的长条口子；然后，根据提示完成取款操作，取出现金后，机器会自动打印存折，并自动退出存折，取款完成。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+      <t>密码是什么/啥是密码/密码是啥/给我介绍一下密码/跟我说说密码/跟我说说什么是密码/跟我说说密码/介绍一下密码/密码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨行转账要多久可以到账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对公的一般账户开户资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨行转账要多久可以到账/跨行转账多长时间可以到账/我想知道跨行转账多久可以到账/我想知道跨行转账多长时间可以转账/跟我说说跨行转账多长时间可以到账/我想了解一下跨行转账多长时间可以到账/跟我说一下跨行转账多长时间可以到账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对公的一般账户开户资料/对公的一般账户需要什么开户资料/开一个对公的一般账户需要什么资料/开一个对公的一般账户需要哪些材料/我要开对公的一般账户，需要带什么材料呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4701,7 +4733,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4994,6 +5026,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5014,7 +5049,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{8CFF8B8D-D7DD-450E-A23E-0CDFA45CDB82}" diskRevisions="1" revisionId="732" version="230">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7267C309-5452-44FC-AEA1-DE581E4A66EB}" diskRevisions="1" revisionId="759" version="242">
   <header guid="{EF605654-F361-4373-8330-7FC05EDE25FB}" dateTime="2017-12-15T13:32:49" maxSheetId="19" userName="mengwei.chang(常孟玮)" r:id="rId119" minRId="210" maxRId="214">
     <sheetIdMap count="18">
       <sheetId val="1"/>
@@ -7532,6 +7567,282 @@
       <sheetId val="19"/>
     </sheetIdMap>
   </header>
+  <header guid="{B2B94154-63D2-48CC-ABBE-BCA568C38AAA}" dateTime="2018-01-28T08:59:19" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId231" minRId="733">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{618CBBE9-EF2A-407A-85B2-0DB98091FCF0}" dateTime="2018-01-28T15:29:48" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId232" minRId="734">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CDFAF886-9A58-43FE-8200-9593667A1A6E}" dateTime="2018-01-28T15:34:43" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId233" minRId="735">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DD844ACE-AD17-42E8-A88A-874A7B636925}" dateTime="2018-01-28T15:36:53" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId234" minRId="736">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FDE4A686-C598-44EE-BFA6-B2DA92ECEBD8}" dateTime="2018-01-28T15:37:20" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId235" minRId="737">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2D0B5CD1-0410-4B7D-B387-BD91E6C67752}" dateTime="2018-01-28T15:38:32" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId236" minRId="738">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CF259795-0C99-460B-AED3-EE132374122D}" dateTime="2018-01-28T15:39:00" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId237" minRId="739">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0148896A-C826-46F0-BDC7-C6541AF6DFCB}" dateTime="2018-01-28T15:39:55" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId238" minRId="740">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{04C28A39-5363-4DE3-90D4-7084B5E21F6B}" dateTime="2018-01-28T15:40:30" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId239" minRId="741">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5A37BD3A-4B93-4EC1-9C5C-F57F7B344B82}" dateTime="2018-01-29T10:06:02" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId240" minRId="742" maxRId="751">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7D15C856-5CEF-4723-A56D-A4DB03CB4D3D}" dateTime="2018-01-29T10:14:29" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId241" minRId="752" maxRId="758">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7267C309-5452-44FC-AEA1-DE581E4A66EB}" dateTime="2018-01-29T10:15:38" maxSheetId="20" userName="mengwei.chang(常孟玮)" r:id="rId242" minRId="759">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -20424,6 +20735,132 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="733" sId="9">
+    <oc r="D15" t="inlineStr">
+      <is>
+        <r>
+          <t>介绍一下邮储银行/邮储银行是啥/给我介绍一下邮储银行/介绍一下你们银行</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/中国邮政储蓄银行/介绍一下中国邮政储蓄银行/给我介绍一下中国邮政储蓄银行/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>邮政银行/中国邮政储蓄银行</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D15" t="inlineStr">
+      <is>
+        <r>
+          <t>介绍一下邮储银行/邮储银行是啥/给我介绍一下邮储银行/介绍一下你们银行</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF7030A0"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/中国邮政储蓄银行/介绍一下中国邮政储蓄银行/给我介绍一下中国邮政储蓄银行/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>邮政银行/中国邮政储蓄银行/邮政储蓄银行</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="734" sId="18">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <r>
+          <t>大堂经理在哪儿？/我怎么没见大堂经理/大堂经理哪儿去了/帮我找一下大堂经理/快看看大堂经理在哪儿/带我去找大堂经理</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="3" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/大堂经理上哪了/我怎么没看见大堂经理/我去哪找大堂经理/我没找到大堂经理/我不知道大堂经理在哪/我不知道去哪找大堂经理/我找不到大堂经理/告诉我大堂经理在哪/告诉我怎么找大堂经理/告诉我去哪里找大堂经理/跟我说说大堂经理在哪里/跟我说说怎么才能找到大堂经理/我没看到大堂经理/大堂经理一般在哪/通常大堂经理在哪/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我找一下大堂经理/大堂经理呢/大堂经理在哪里/找大堂经理姐姐/大堂经理/你不就是大堂经理吗/</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <r>
+          <t>大堂经理在哪儿？/我怎么没见大堂经理/大堂经理哪儿去了/帮我找一下大堂经理/快看看大堂经理在哪儿/带我去找大堂经理</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="3" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/大堂经理上哪了/我怎么没看见大堂经理/我去哪找大堂经理/我没找到大堂经理/我不知道大堂经理在哪/我不知道去哪找大堂经理/我找不到大堂经理/告诉我大堂经理在哪/告诉我怎么找大堂经理/告诉我去哪里找大堂经理/跟我说说大堂经理在哪里/跟我说说怎么才能找到大堂经理/我没看到大堂经理/大堂经理一般在哪/通常大堂经理在哪/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我找一下大堂经理/大堂经理呢/大堂经理在哪里/找大堂经理姐姐/大堂经理/你不就是大堂经理吗/你告诉我谁是大堂经理</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="627" sId="9" odxf="1" dxf="1">
@@ -20467,6 +20904,742 @@
       </font>
     </dxf>
   </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="735" sId="18">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <r>
+          <t>大堂经理在哪儿？/我怎么没见大堂经理/大堂经理哪儿去了/帮我找一下大堂经理/快看看大堂经理在哪儿/带我去找大堂经理</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="3" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/大堂经理上哪了/我怎么没看见大堂经理/我去哪找大堂经理/我没找到大堂经理/我不知道大堂经理在哪/我不知道去哪找大堂经理/我找不到大堂经理/告诉我大堂经理在哪/告诉我怎么找大堂经理/告诉我去哪里找大堂经理/跟我说说大堂经理在哪里/跟我说说怎么才能找到大堂经理/我没看到大堂经理/大堂经理一般在哪/通常大堂经理在哪/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我找一下大堂经理/大堂经理呢/大堂经理在哪里/找大堂经理姐姐/大堂经理/你不就是大堂经理吗/你告诉我谁是大堂经理</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <r>
+          <t>大堂经理在哪儿？/我怎么没见大堂经理/大堂经理哪儿去了/帮我找一下大堂经理/快看看大堂经理在哪儿/带我去找大堂经理</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="3" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/大堂经理上哪了/我怎么没看见大堂经理/我去哪找大堂经理/我没找到大堂经理/我不知道大堂经理在哪/我不知道去哪找大堂经理/我找不到大堂经理/告诉我大堂经理在哪/告诉我怎么找大堂经理/告诉我去哪里找大堂经理/跟我说说大堂经理在哪里/跟我说说怎么才能找到大堂经理/我没看到大堂经理/大堂经理一般在哪/通常大堂经理在哪/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我找一下大堂经理/大堂经理呢/大堂经理在哪里/找大堂经理姐姐/大堂经理/你不就是大堂经理吗/你告诉我谁是大堂经理/让我去找大堂经理</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog31.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="736" sId="18">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <r>
+          <t>大堂经理在哪儿？/我怎么没见大堂经理/大堂经理哪儿去了/帮我找一下大堂经理/快看看大堂经理在哪儿/带我去找大堂经理</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="3" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/大堂经理上哪了/我怎么没看见大堂经理/我去哪找大堂经理/我没找到大堂经理/我不知道大堂经理在哪/我不知道去哪找大堂经理/我找不到大堂经理/告诉我大堂经理在哪/告诉我怎么找大堂经理/告诉我去哪里找大堂经理/跟我说说大堂经理在哪里/跟我说说怎么才能找到大堂经理/我没看到大堂经理/大堂经理一般在哪/通常大堂经理在哪/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我找一下大堂经理/大堂经理呢/大堂经理在哪里/找大堂经理姐姐/大堂经理/你不就是大堂经理吗/你告诉我谁是大堂经理/让我去找大堂经理</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <r>
+          <t>大堂经理在哪儿？/我怎么没见大堂经理/大堂经理哪儿去了/帮我找一下大堂经理/快看看大堂经理在哪儿/带我去找大堂经理</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="3" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/大堂经理上哪了/我怎么没看见大堂经理/我去哪找大堂经理/我没找到大堂经理/我不知道大堂经理在哪/我不知道去哪找大堂经理/我找不到大堂经理/告诉我大堂经理在哪/告诉我怎么找大堂经理/告诉我去哪里找大堂经理/跟我说说大堂经理在哪里/跟我说说怎么才能找到大堂经理/我没看到大堂经理/大堂经理一般在哪/通常大堂经理在哪/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我找一下大堂经理/大堂经理呢/大堂经理在哪里/找大堂经理姐姐/大堂经理/你不就是大堂经理吗/你告诉我谁是大堂经理/让我去找大堂经理/大堂经理</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="737" sId="18">
+    <oc r="D5" t="inlineStr">
+      <is>
+        <r>
+          <t>你可以带我去柜台吗/带我去休息区/带我去贵金属展示区/带我去超级柜台/带我去智慧柜台/你</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>带我去柜台好不好/带我去自动取款机/你可以带我去一下吗/那你带我去看看/我需要你带我去找理财经理/你能带我去吗/请到柜台/我要去现金柜台/你可以带我去吗/那你带我去办理好吗/我要去理财经理室/去养老保险窗口/休息区在哪/你能不能带我去啊/叫号机在哪里</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D5" t="inlineStr">
+      <is>
+        <r>
+          <t>你可以带我去柜台吗/带我去休息区/带我去贵金属展示区/带我去超级柜台/带我去智慧柜台/你</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>带我去柜台好不好/带我去自动取款机/你可以带我去一下吗/那你带我去看看/我需要你带我去找理财经理/你能带我去吗/请到柜台/我要去现金柜台/你可以带我去吗/那你带我去办理好吗/我要去理财经理室/去养老保险窗口/休息区在哪/你能不能带我去啊/叫号机在哪里/我想去休息区</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog33.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="738" sId="9">
+    <oc r="D23" t="inlineStr">
+      <is>
+        <r>
+          <t>你帮我叫个号/你能帮我叫个号吗/帮我叫个号好吗/你能不能帮我叫个号/快去帮我叫个号/给我叫个号/帮我叫个号好不好/可以帮我叫个号吗/叫号/叫个号/帮我叫个号吧/去给我叫个号/帮我叫个号行不行/你会叫号吗/你能叫号吗/你可以叫号吗/我想让你帮我叫个号/我想让你叫号/你帮我叫号可以吗/你帮我叫号行吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/如何取号/我要取号/帮我叫个号可以吗/我取号</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D23" t="inlineStr">
+      <is>
+        <r>
+          <t>你帮我叫个号/你能帮我叫个号吗/帮我叫个号好吗/你能不能帮我叫个号/快去帮我叫个号/给我叫个号/帮我叫个号好不好/可以帮我叫个号吗/叫号/叫个号/帮我叫个号吧/去给我叫个号/帮我叫个号行不行/你会叫号吗/你能叫号吗/你可以叫号吗/我想让你帮我叫个号/我想让你叫号/你帮我叫号可以吗/你帮我叫号行吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/如何取号/我要取号/帮我叫个号可以吗/我取号/取个号</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog34.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="739" sId="18">
+    <oc r="D5" t="inlineStr">
+      <is>
+        <r>
+          <t>你可以带我去柜台吗/带我去休息区/带我去贵金属展示区/带我去超级柜台/带我去智慧柜台/你</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>带我去柜台好不好/带我去自动取款机/你可以带我去一下吗/那你带我去看看/我需要你带我去找理财经理/你能带我去吗/请到柜台/我要去现金柜台/你可以带我去吗/那你带我去办理好吗/我要去理财经理室/去养老保险窗口/休息区在哪/你能不能带我去啊/叫号机在哪里/我想去休息区</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D5" t="inlineStr">
+      <is>
+        <r>
+          <t>你可以带我去柜台吗/带我去休息区/带我去贵金属展示区/带我去超级柜台/带我去智慧柜台/你</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>带我去柜台好不好/带我去自动取款机/你可以带我去一下吗/那你带我去看看/我需要你带我去找理财经理/你能带我去吗/请到柜台/我要去现金柜台/你可以带我去吗/那你带我去办理好吗/我要去理财经理室/去养老保险窗口/休息区在哪/你能不能带我去啊/叫号机在哪里/我想去休息区/理财中心</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog35.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="740" sId="18">
+    <oc r="D5" t="inlineStr">
+      <is>
+        <r>
+          <t>你可以带我去柜台吗/带我去休息区/带我去贵金属展示区/带我去超级柜台/带我去智慧柜台/你</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>带我去柜台好不好/带我去自动取款机/你可以带我去一下吗/那你带我去看看/我需要你带我去找理财经理/你能带我去吗/请到柜台/我要去现金柜台/你可以带我去吗/那你带我去办理好吗/我要去理财经理室/去养老保险窗口/休息区在哪/你能不能带我去啊/叫号机在哪里/我想去休息区/理财中心</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D5" t="inlineStr">
+      <is>
+        <r>
+          <t>你可以带我去柜台吗/带我去休息区/带我去贵金属展示区/带我去超级柜台/带我去智慧柜台/你</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>带我去柜台好不好/带我去自动取款机/你可以带我去一下吗/那你带我去看看/我需要你带我去找理财经理/你能带我去吗/请到柜台/我要去现金柜台/你可以带我去吗/那你带我去办理好吗/我要去理财经理室/去养老保险窗口/休息区在哪/你能不能带我去啊/叫号机在哪里/我想去休息区/理财中心/活动中心</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog36.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="741" sId="9">
+    <oc r="D23" t="inlineStr">
+      <is>
+        <r>
+          <t>你帮我叫个号/你能帮我叫个号吗/帮我叫个号好吗/你能不能帮我叫个号/快去帮我叫个号/给我叫个号/帮我叫个号好不好/可以帮我叫个号吗/叫号/叫个号/帮我叫个号吧/去给我叫个号/帮我叫个号行不行/你会叫号吗/你能叫号吗/你可以叫号吗/我想让你帮我叫个号/我想让你叫号/你帮我叫号可以吗/你帮我叫号行吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/如何取号/我要取号/帮我叫个号可以吗/我取号/取个号</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D23" t="inlineStr">
+      <is>
+        <r>
+          <t>你帮我叫个号/你能帮我叫个号吗/帮我叫个号好吗/你能不能帮我叫个号/快去帮我叫个号/给我叫个号/帮我叫个号好不好/可以帮我叫个号吗/叫号/叫个号/帮我叫个号吧/去给我叫个号/帮我叫个号行不行/你会叫号吗/你能叫号吗/你可以叫号吗/我想让你帮我叫个号/我想让你叫号/你帮我叫号可以吗/你帮我叫号行吗</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/如何取号/我要取号/帮我叫个号可以吗/我取号/取个号/我想取一个号</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog37.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="742" sId="9" eol="1" ref="A34:XFD34" action="insertRow"/>
+  <rcc rId="743" sId="9">
+    <nc r="B34" t="inlineStr">
+      <is>
+        <t>小额贷款</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="9" sqref="B34">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="744" sId="9" xfDxf="1" dxf="1">
+    <nc r="C34" t="inlineStr">
+      <is>
+        <t>向农户或微小企业主发放的用于满足其生产经营资金需求的小额贷款。产品最高授信额度20万元，授信期限最长24个月，还款方式灵活多样。同时，推出“按时还款激励”政策。若您每月按时还款，一年最多可享受两次免息优惠。</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="9" sqref="C34">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" sqref="C34" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" sqref="C34" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="745" sId="9" odxf="1" dxf="1">
+    <nc r="A34" t="inlineStr">
+      <is>
+        <t>常识</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="746" sId="9" xfDxf="1" dxf="1">
+    <nc r="B35" t="inlineStr">
+      <is>
+        <t>跨行转账要多久可以到账</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="9" sqref="B35" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="747" sId="9" xfDxf="1" dxf="1">
+    <nc r="C35" t="inlineStr">
+      <is>
+        <t>如您通过ATM机办理跨行转账一律24小时后到账，建议您25小时后查询入账情况.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="9" sqref="C35" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="748" sId="9" xfDxf="1" dxf="1">
+    <nc r="B36" t="inlineStr">
+      <is>
+        <t>对公的一般账户开户资料</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="9" sqref="B36" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="749" sId="9" xfDxf="1" dxf="1">
+    <nc r="C36" t="inlineStr">
+      <is>
+        <t>营业执照正、副本。经办人身份证、单位公章、财务章、法人章，开户许可证及经办人证件</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="9" sqref="C36">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" sqref="C36" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="750" sId="9" odxf="1" dxf="1">
+    <nc r="A35" t="inlineStr">
+      <is>
+        <t>常识</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="751" sId="9" odxf="1" dxf="1">
+    <nc r="A36" t="inlineStr">
+      <is>
+        <t>常识</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog38.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="752" sId="9">
+    <oc r="D8" t="inlineStr">
+      <is>
+        <r>
+          <t>什么是储蓄卡/什么是借记卡？/什么是银行卡/给我介绍一下银行卡/给我介绍一下储蓄卡/给我介绍一下借记卡/借记卡是什么？/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="4"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>跟我说一下什么是银行卡/银行卡是什么/银行卡是啥/啥是银行卡/跟我说说什么是银行卡/跟我说说银行卡是什么/介绍一下银行卡/</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D8" t="inlineStr">
+      <is>
+        <r>
+          <t>什么是储蓄卡/什么是借记卡？/什么是银行卡/给我介绍一下银行卡/给我介绍一下储蓄卡/给我介绍一下借记卡/借记卡是什么？/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="4"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>跟我说一下什么是银行卡/银行卡是什么/银行卡是啥/啥是银行卡/跟我说说什么是银行卡/跟我说说银行卡是什么/介绍一下银行卡/</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="753" sId="9">
+    <oc r="D11" t="inlineStr">
+      <is>
+        <r>
+          <t>什么是密码/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="4"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>密码是什么/啥是密码/密码是啥/给我介绍一下密码/跟我说说密码/跟我说说什么是密码/跟我说说密码/介绍一下密码/密码</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D11" t="inlineStr">
+      <is>
+        <r>
+          <t>什么是密码/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color theme="4"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>密码是什么/啥是密码/密码是啥/给我介绍一下密码/跟我说说密码/跟我说说什么是密码/跟我说说密码/介绍一下密码/密码</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="754" sId="9" odxf="1" dxf="1">
+    <nc r="D34" t="inlineStr">
+      <is>
+        <t>什么是小额贷款/小额贷款是什么/啥是小额贷款/小额贷款是啥/给我介绍一下小额贷款/跟我说说小额贷款/跟我说说什么是小额贷款/跟我说说小额贷款/介绍一下小额贷款/小额贷款</t>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="center" wrapText="0" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="9" sqref="D34">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" sqref="D34" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="755" sId="9">
+    <oc r="B35" t="inlineStr">
+      <is>
+        <t>跨行转账要多久可以到账</t>
+      </is>
+    </oc>
+    <nc r="B35" t="inlineStr">
+      <is>
+        <t>跨行转账要多久可以到账</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="9" sqref="D35">
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" sqref="D35">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" sqref="D35" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="756" sId="9">
+    <oc r="B36" t="inlineStr">
+      <is>
+        <t>对公的一般账户开户资料</t>
+      </is>
+    </oc>
+    <nc r="B36" t="inlineStr">
+      <is>
+        <t>对公的一般账户开户资料</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="757" sId="9">
+    <nc r="D35" t="inlineStr">
+      <is>
+        <t>跨行转账要多久可以到账/跨行转账多长时间可以到账/我想知道跨行转账多久可以到账/我想知道跨行转账多长时间可以转账/跟我说说跨行转账多长时间可以到账/我想了解一下跨行转账多长时间可以到账/跟我说一下跨行转账多长时间可以到账</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="758" sId="9">
+    <nc r="D36" t="inlineStr">
+      <is>
+        <t>对公的一般账户开户资料/对公的一般账户需要什么开户资料、开一个对公的一般账户需要什么资料、开一个对公的一般账户需要哪些材料、我要开对公的一般账户，需要带什么材料呢</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="9" sqref="D36" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog39.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="759" sId="9">
+    <oc r="D36" t="inlineStr">
+      <is>
+        <t>对公的一般账户开户资料/对公的一般账户需要什么开户资料、开一个对公的一般账户需要什么资料、开一个对公的一般账户需要哪些材料、我要开对公的一般账户，需要带什么材料呢</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D36" t="inlineStr">
+      <is>
+        <t>对公的一般账户开户资料/对公的一般账户需要什么开户资料/开一个对公的一般账户需要什么资料/开一个对公的一般账户需要哪些材料/我要开对公的一般账户，需要带什么材料呢</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -21121,10 +22294,10 @@
         <v>16</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E2" t="s">
         <v>289</v>
@@ -21141,7 +22314,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E3" t="s">
         <v>290</v>
@@ -21223,7 +22396,7 @@
         <v>153</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>305</v>
@@ -21240,7 +22413,7 @@
         <v>203</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>281</v>
@@ -21257,7 +22430,7 @@
         <v>204</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>280</v>
@@ -21342,10 +22515,10 @@
         <v>173</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E15" s="55" t="s">
         <v>292</v>
@@ -21356,13 +22529,13 @@
         <v>182</v>
       </c>
       <c r="B16" s="108" t="s">
+        <v>470</v>
+      </c>
+      <c r="C16" s="109" t="s">
+        <v>469</v>
+      </c>
+      <c r="D16" s="109" t="s">
         <v>471</v>
-      </c>
-      <c r="C16" s="109" t="s">
-        <v>470</v>
-      </c>
-      <c r="D16" s="109" t="s">
-        <v>472</v>
       </c>
       <c r="E16" s="106"/>
       <c r="F16" s="106"/>
@@ -21370,33 +22543,33 @@
   </sheetData>
   <autoFilter ref="B2:F16"/>
   <customSheetViews>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="B2:F16"/>
-    </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
       <autoFilter ref="B2:F15"/>
     </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
       <autoFilter ref="B1:H163"/>
     </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="B2:F15"/>
+    </customSheetView>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="B2:F15"/>
+      <autoFilter ref="B2:F16"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -21451,7 +22624,7 @@
         <v>109</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -21464,10 +22637,10 @@
         <v>110</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -21477,13 +22650,13 @@
         <v>191</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C4" s="93" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D4" s="93" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="121.5">
@@ -21491,13 +22664,13 @@
         <v>191</v>
       </c>
       <c r="B5" s="95" t="s">
+        <v>433</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>523</v>
+      </c>
+      <c r="D5" s="93" t="s">
         <v>434</v>
-      </c>
-      <c r="C5" s="93" t="s">
-        <v>529</v>
-      </c>
-      <c r="D5" s="93" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="148.5">
@@ -21505,13 +22678,13 @@
         <v>191</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C6" s="93" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D6" s="93" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="94" customFormat="1" ht="67.5">
@@ -21519,18 +22692,22 @@
         <v>191</v>
       </c>
       <c r="B7" s="94" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C7" s="113" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D7" s="113" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A5">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D4" sqref="D4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -21538,12 +22715,8 @@
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A5">
       <selection activeCell="C7" sqref="C7"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21596,10 +22769,10 @@
         <v>257</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -21612,10 +22785,10 @@
         <v>20</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -21628,10 +22801,10 @@
         <v>111</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -21644,10 +22817,10 @@
         <v>258</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -21660,10 +22833,10 @@
         <v>259</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -21676,7 +22849,7 @@
         <v>260</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>303</v>
@@ -21692,10 +22865,10 @@
         <v>261</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -21708,7 +22881,7 @@
         <v>142</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>304</v>
@@ -21727,7 +22900,7 @@
         <v>178</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -21743,7 +22916,7 @@
         <v>179</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -21753,13 +22926,13 @@
         <v>192</v>
       </c>
       <c r="B12" s="96" t="s">
+        <v>443</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>534</v>
+      </c>
+      <c r="D12" s="98" t="s">
         <v>444</v>
-      </c>
-      <c r="C12" s="99" t="s">
-        <v>540</v>
-      </c>
-      <c r="D12" s="98" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25">
@@ -21785,20 +22958,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A8">
-      <selection activeCell="C12" sqref="C12"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D9" sqref="D9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="D9" sqref="D9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="D9" sqref="D9"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D9" sqref="D9"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A8">
+      <selection activeCell="C12" sqref="C12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21850,10 +23023,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -21866,10 +23039,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -21901,7 +23074,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -21946,7 +23119,7 @@
         <v>154</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>302</v>
@@ -21956,20 +23129,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A3">
-      <selection activeCell="C8" sqref="C8"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C26" sqref="C26"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="C26" sqref="C26"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C26" sqref="C26"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A3">
+      <selection activeCell="C8" sqref="C8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -22024,7 +23197,7 @@
         <v>75</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -22037,7 +23210,7 @@
         <v>273</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>76</v>
@@ -22072,7 +23245,7 @@
         <v>75</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -22088,7 +23261,7 @@
         <v>75</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -22104,7 +23277,7 @@
         <v>75</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -22133,30 +23306,30 @@
         <v>81</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
-      <selection activeCell="C9" sqref="C9"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C5" sqref="C5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="B26" sqref="B26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="D8" sqref="D8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="B26" sqref="B26"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C5" sqref="C5"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="C9" sqref="C9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -22212,10 +23385,10 @@
         <v>262</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -22228,30 +23401,30 @@
         <v>124</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
-      <selection activeCell="C3" sqref="C3"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D2" sqref="D2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="B2" sqref="B2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D2" sqref="D2"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="C3" sqref="C3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -22304,10 +23477,10 @@
         <v>127</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -22323,7 +23496,7 @@
         <v>128</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -22339,7 +23512,7 @@
         <v>128</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -22355,7 +23528,7 @@
         <v>145</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -22378,20 +23551,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A4">
-      <selection activeCell="C6" sqref="C6"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D5" sqref="D5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="D15" sqref="D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="E5" sqref="E5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="D15" sqref="D15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D5" sqref="D5"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A4">
+      <selection activeCell="C6" sqref="C6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -22446,7 +23619,7 @@
         <v>263</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>285</v>
@@ -22456,20 +23629,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
-      <selection activeCell="C2" sqref="C2"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="B9" sqref="B9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="B9" sqref="B9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="B9" sqref="B9"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="B9" sqref="B9"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="C2" sqref="C2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -22521,7 +23694,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>282</v>
@@ -22531,23 +23704,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
-      <selection activeCell="C2" sqref="C2"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="D2" sqref="D2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="D14" sqref="D13:D14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="B1" sqref="B1"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="C2" sqref="C2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -22560,8 +23733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22599,10 +23772,10 @@
         <v>264</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>486</v>
+        <v>551</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -22615,7 +23788,7 @@
         <v>265</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>271</v>
@@ -22626,13 +23799,13 @@
         <v>200</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>266</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="98.25" customHeight="1">
@@ -22643,10 +23816,10 @@
         <v>267</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="34" customFormat="1" ht="229.5">
@@ -22657,10 +23830,10 @@
         <v>269</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -22671,23 +23844,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
-      <selection activeCell="E5" sqref="E5"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C3" sqref="C3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="A9" sqref="A9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="A9" sqref="A9"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C3" sqref="C3"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="E5" sqref="E5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -22702,8 +23875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22735,41 +23908,41 @@
     </row>
     <row r="2" spans="1:6" ht="135">
       <c r="A2" s="91" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C2" s="93" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D2" s="93" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="54">
       <c r="A3" s="91" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" s="93" t="s">
         <v>441</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="D3" s="93" t="s">
         <v>438</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>442</v>
-      </c>
-      <c r="D3" s="93" t="s">
-        <v>439</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
-      <selection activeCell="C23" sqref="C23"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="D13" sqref="D13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="D13" sqref="D13"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
     </customSheetView>
@@ -22880,7 +24053,7 @@
         <v>140</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E5" s="55" t="s">
         <v>292</v>
@@ -22934,7 +24107,7 @@
         <v>83</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>291</v>
@@ -22970,7 +24143,7 @@
         <v>89</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>289</v>
@@ -23024,7 +24197,7 @@
         <v>89</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E13" s="55" t="s">
         <v>292</v>
@@ -23042,7 +24215,7 @@
         <v>95</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>289</v>
@@ -23078,7 +24251,7 @@
         <v>48</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>291</v>
@@ -23096,7 +24269,7 @@
         <v>99</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E17" s="55" t="s">
         <v>292</v>
@@ -23114,7 +24287,7 @@
         <v>100</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>289</v>
@@ -23132,7 +24305,7 @@
         <v>139</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>290</v>
@@ -23168,7 +24341,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E21" s="55" t="s">
         <v>292</v>
@@ -23186,7 +24359,7 @@
         <v>51</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E22" t="s">
         <v>291</v>
@@ -23200,23 +24373,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A10">
-      <selection activeCell="D12" sqref="D12"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="D26" sqref="D26"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A19">
       <selection activeCell="D12" sqref="D12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="D26" sqref="D26"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D11" sqref="D11"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A10">
+      <selection activeCell="D12" sqref="D12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
     </customSheetView>
@@ -23273,7 +24446,7 @@
         <v>101</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -23289,7 +24462,7 @@
         <v>102</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -23305,7 +24478,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -23321,7 +24494,7 @@
         <v>104</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -23337,7 +24510,7 @@
         <v>105</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -23353,7 +24526,7 @@
         <v>106</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -23369,7 +24542,7 @@
         <v>107</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -23385,7 +24558,7 @@
         <v>114</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -23401,7 +24574,7 @@
         <v>115</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -23417,7 +24590,7 @@
         <v>116</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -23433,7 +24606,7 @@
         <v>117</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -23449,7 +24622,7 @@
         <v>118</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -23465,7 +24638,7 @@
         <v>119</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -23481,7 +24654,7 @@
         <v>120</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
@@ -23497,7 +24670,7 @@
         <v>121</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -23513,7 +24686,7 @@
         <v>122</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -23545,30 +24718,30 @@
         <v>158</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A13">
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C13" sqref="C13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="B18" sqref="B18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="B18" sqref="B18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="B18" sqref="B18"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C13" sqref="C13"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A13">
+      <selection activeCell="B18" sqref="B18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
     </customSheetView>
@@ -23850,7 +25023,7 @@
         <v>34</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -23866,7 +25039,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -23882,7 +25055,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
@@ -23898,7 +25071,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -23914,7 +25087,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -23930,7 +25103,7 @@
         <v>28</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -23946,27 +25119,27 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
-      <selection activeCell="C22" sqref="C22"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D19" sqref="D19"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="B13" sqref="B13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A22">
       <selection activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="B13" sqref="B13"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D19" sqref="D19"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="C22" sqref="C22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -24018,10 +25191,10 @@
         <v>133</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -24034,10 +25207,10 @@
         <v>232</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -24053,7 +25226,7 @@
         <v>98</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -24069,7 +25242,7 @@
         <v>132</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -24092,23 +25265,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
-      <selection activeCell="B6" sqref="B6"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="B9" sqref="B9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="A7">
       <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="B9" sqref="B9"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C5" sqref="C5"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
     </customSheetView>
@@ -24163,10 +25336,10 @@
         <v>35</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>468</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>469</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -24179,33 +25352,33 @@
         <v>236</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
-      <selection activeCell="B8" sqref="B8"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="C10" sqref="C10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection activeCell="C22" sqref="C22"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="A4" sqref="A4:XFD4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="C10" sqref="C10"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection activeCell="C22" sqref="C22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="B8" sqref="B8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -24260,7 +25433,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -24276,7 +25449,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -24292,7 +25465,7 @@
         <v>52</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -24305,10 +25478,10 @@
         <v>43</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -24324,7 +25497,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -24337,7 +25510,7 @@
         <v>241</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>44</v>
@@ -24388,7 +25561,7 @@
         <v>55</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -24404,7 +25577,7 @@
         <v>55</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -24420,7 +25593,7 @@
         <v>58</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -24436,7 +25609,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -24452,7 +25625,7 @@
         <v>59</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -24468,7 +25641,7 @@
         <v>59</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
@@ -24484,7 +25657,7 @@
         <v>62</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -24500,7 +25673,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -24516,7 +25689,7 @@
         <v>65</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
@@ -24532,7 +25705,7 @@
         <v>67</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -24548,7 +25721,7 @@
         <v>86</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -24564,7 +25737,7 @@
         <v>86</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -24580,7 +25753,7 @@
         <v>109</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -24596,7 +25769,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
@@ -24612,7 +25785,7 @@
         <v>123</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
@@ -24628,7 +25801,7 @@
         <v>123</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
@@ -24644,7 +25817,7 @@
         <v>123</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
@@ -24660,7 +25833,7 @@
         <v>126</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
@@ -24676,7 +25849,7 @@
         <v>126</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
@@ -24692,7 +25865,7 @@
         <v>141</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -24708,7 +25881,7 @@
         <v>156</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -24724,7 +25897,7 @@
         <v>270</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -24740,30 +25913,30 @@
         <v>47</v>
       </c>
       <c r="D32" s="73" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A28">
-      <selection activeCell="D32" sqref="D32"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="B19">
-      <selection activeCell="D22" sqref="D22"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="B16" sqref="B16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}" topLeftCell="B19">
+      <selection activeCell="D22" sqref="D22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A28">
+      <selection activeCell="D32" sqref="D32"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -24815,10 +25988,10 @@
         <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -24834,7 +26007,7 @@
         <v>69</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -24847,30 +26020,30 @@
         <v>155</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
-      <selection activeCell="C4" sqref="C4"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
+      <selection activeCell="E2" sqref="E2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
+      <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
       <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
-      <selection activeCell="E2" sqref="E2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}">
-      <selection activeCell="E2" sqref="E2"/>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}">
+      <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -24881,10 +26054,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -24923,10 +26096,10 @@
         <v>147</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -24939,10 +26112,10 @@
         <v>148</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -24955,7 +26128,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>311</v>
@@ -24971,10 +26144,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -24987,10 +26160,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -25003,10 +26176,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -25019,10 +26192,10 @@
         <v>255</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>312</v>
+        <v>559</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -25035,10 +26208,10 @@
         <v>256</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -25051,10 +26224,10 @@
         <v>131</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -25070,7 +26243,7 @@
         <v>152</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>476</v>
+        <v>560</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -25080,13 +26253,13 @@
         <v>190</v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="67.5">
@@ -25094,13 +26267,13 @@
         <v>190</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="40.5">
@@ -25108,13 +26281,13 @@
         <v>190</v>
       </c>
       <c r="B14" s="80" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C14" s="82" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="54">
@@ -25122,13 +26295,13 @@
         <v>190</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="42.75">
@@ -25136,13 +26309,13 @@
         <v>190</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="54">
@@ -25150,13 +26323,13 @@
         <v>190</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C17" s="87" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27">
@@ -25164,13 +26337,13 @@
         <v>190</v>
       </c>
       <c r="B18" s="84" t="s">
+        <v>415</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>506</v>
+      </c>
+      <c r="D18" s="28" t="s">
         <v>416</v>
-      </c>
-      <c r="C18" s="80" t="s">
-        <v>512</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="48" customHeight="1">
@@ -25178,13 +26351,13 @@
         <v>190</v>
       </c>
       <c r="B19" s="85" t="s">
+        <v>417</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>507</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>418</v>
-      </c>
-      <c r="C19" s="82" t="s">
-        <v>513</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="74.25" customHeight="1">
@@ -25192,13 +26365,13 @@
         <v>190</v>
       </c>
       <c r="B20" s="85" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C20" s="86" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="121.5">
@@ -25206,13 +26379,13 @@
         <v>190</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C21" s="89" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D21" s="90" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="94" customFormat="1" ht="108">
@@ -25220,83 +26393,83 @@
         <v>190</v>
       </c>
       <c r="B22" s="92" t="s">
+        <v>430</v>
+      </c>
+      <c r="C22" s="93" t="s">
+        <v>510</v>
+      </c>
+      <c r="D22" s="93" t="s">
         <v>431</v>
-      </c>
-      <c r="C22" s="93" t="s">
-        <v>516</v>
-      </c>
-      <c r="D22" s="93" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="94.5">
       <c r="A23" s="100" t="s">
+        <v>445</v>
+      </c>
+      <c r="B23" s="101" t="s">
         <v>446</v>
       </c>
-      <c r="B23" s="101" t="s">
-        <v>447</v>
-      </c>
       <c r="C23" s="102" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="94.5">
       <c r="A24" s="105" t="s">
+        <v>458</v>
+      </c>
+      <c r="B24" s="103" t="s">
         <v>459</v>
       </c>
-      <c r="B24" s="103" t="s">
-        <v>460</v>
-      </c>
       <c r="C24" s="104" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D24" s="104" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="81">
       <c r="A25" s="105" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B25" s="106" t="s">
+        <v>463</v>
+      </c>
+      <c r="C25" s="106" t="s">
+        <v>513</v>
+      </c>
+      <c r="D25" s="107" t="s">
         <v>464</v>
-      </c>
-      <c r="C25" s="106" t="s">
-        <v>519</v>
-      </c>
-      <c r="D25" s="107" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="67.5">
       <c r="A26" s="105" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B26" s="106" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C26" s="106" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D26" s="107" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="67.5">
       <c r="A27" s="105" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B27" s="106" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C27" s="106" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D27" s="107" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="110" customFormat="1" ht="40.5">
@@ -25304,13 +26477,13 @@
         <v>190</v>
       </c>
       <c r="B28" s="110" t="s">
+        <v>472</v>
+      </c>
+      <c r="C28" s="110" t="s">
+        <v>516</v>
+      </c>
+      <c r="D28" s="107" t="s">
         <v>473</v>
-      </c>
-      <c r="C28" s="110" t="s">
-        <v>522</v>
-      </c>
-      <c r="D28" s="107" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="106" customFormat="1" ht="67.5">
@@ -25318,13 +26491,13 @@
         <v>190</v>
       </c>
       <c r="B29" s="106" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C29" s="106" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D29" s="107" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="94.5">
@@ -25332,13 +26505,13 @@
         <v>190</v>
       </c>
       <c r="B30" s="112" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C30" s="112" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D30" s="107" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="54">
@@ -25346,13 +26519,13 @@
         <v>190</v>
       </c>
       <c r="B31" s="112" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C31" s="112" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D31" s="112" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="54">
@@ -25360,13 +26533,13 @@
         <v>190</v>
       </c>
       <c r="B32" s="106" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C32" s="106" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D32" s="112" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="40.5">
@@ -25374,34 +26547,76 @@
         <v>190</v>
       </c>
       <c r="B33" s="106" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C33" s="106" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D33" s="112" t="s">
-        <v>495</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="54">
+      <c r="A34" s="111" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" s="106" t="s">
+        <v>554</v>
+      </c>
+      <c r="C34" s="112" t="s">
+        <v>555</v>
+      </c>
+      <c r="D34" s="114" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="67.5">
+      <c r="A35" s="111" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" s="110" t="s">
+        <v>561</v>
+      </c>
+      <c r="C35" s="110" t="s">
+        <v>556</v>
+      </c>
+      <c r="D35" s="112" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="54">
+      <c r="A36" s="111" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="110" t="s">
+        <v>562</v>
+      </c>
+      <c r="C36" s="112" t="s">
+        <v>557</v>
+      </c>
+      <c r="D36" s="112" t="s">
+        <v>564</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A29">
-      <selection activeCell="C33" sqref="C33"/>
+    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" topLeftCell="A10">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
-      <selection sqref="A1:XFD1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{B9849D1F-31DA-4684-AD2A-1F6836966C2A}">
       <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{398C8F7F-907A-4A2C-99C0-39A987100726}" topLeftCell="A10">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{A92E510E-03FC-4377-BAFD-3953037B261D}">
+      <selection sqref="A1:XFD1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{F671582D-740D-40B7-95CA-8790D0A2ADE2}" topLeftCell="A29">
+      <selection activeCell="C33" sqref="C33"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
